--- a/TabuladosGasolina.xlsx
+++ b/TabuladosGasolina.xlsx
@@ -159,13 +159,13 @@
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">diciembre 2020</t>
+    <t xml:space="preserve">enero 2021</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">enero 2021</t>
+    <t xml:space="preserve">febrero 2021</t>
   </si>
   <si>
     <t xml:space="preserve">FUENTE: CRE; Comisión Reguladora de Energía</t>
@@ -201,82 +201,82 @@
     <t xml:space="preserve">Baja California</t>
   </si>
   <si>
+    <t xml:space="preserve">Coahuila</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tabasco</t>
   </si>
   <si>
+    <t xml:space="preserve">Puebla</t>
+  </si>
+  <si>
     <t xml:space="preserve">Querétaro</t>
   </si>
   <si>
     <t xml:space="preserve">Hidalgo</t>
   </si>
   <si>
-    <t xml:space="preserve">Puebla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coahuila</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tlaxcala</t>
   </si>
   <si>
+    <t xml:space="preserve">Veracruz</t>
+  </si>
+  <si>
     <t xml:space="preserve">Colima</t>
   </si>
   <si>
+    <t xml:space="preserve">Sonora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nacional</t>
+  </si>
+  <si>
     <t xml:space="preserve">Morelos</t>
   </si>
   <si>
     <t xml:space="preserve">México</t>
   </si>
   <si>
-    <t xml:space="preserve">Veracruz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nacional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sonora</t>
+    <t xml:space="preserve">Chiapas</t>
   </si>
   <si>
     <t xml:space="preserve">San Luis Potosí</t>
   </si>
   <si>
+    <t xml:space="preserve">Sinaloa</t>
+  </si>
+  <si>
     <t xml:space="preserve">Guanajuato</t>
   </si>
   <si>
     <t xml:space="preserve">Aguascalientes</t>
   </si>
   <si>
-    <t xml:space="preserve">Sinaloa</t>
+    <t xml:space="preserve">Zacatecas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durango</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jalisco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuevo León</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nayarit</t>
   </si>
   <si>
     <t xml:space="preserve">Ciudad de México</t>
   </si>
   <si>
-    <t xml:space="preserve">Durango</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chiapas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jalisco</t>
+    <t xml:space="preserve">Yucatán</t>
   </si>
   <si>
     <t xml:space="preserve">Michoacán</t>
   </si>
   <si>
-    <t xml:space="preserve">Zacatecas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nayarit</t>
-  </si>
-  <si>
     <t xml:space="preserve">Baja California Sur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nuevo León</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yucatán</t>
   </si>
   <si>
     <t xml:space="preserve">Campeche</t>
@@ -917,13 +917,13 @@
         <v>58</v>
       </c>
       <c r="B9" s="6" t="n">
-        <v>16.0301961412133</v>
+        <v>16.7270122110226</v>
       </c>
       <c r="C9" s="6" t="n">
-        <v>16.7798637802022</v>
+        <v>17.5685711668508</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>18.8586559475047</v>
+        <v>19.5173738896682</v>
       </c>
       <c r="E9" s="7" t="n">
         <v>33</v>
@@ -932,7 +932,7 @@
         <v>33</v>
       </c>
       <c r="G9" s="7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10">
@@ -940,13 +940,13 @@
         <v>59</v>
       </c>
       <c r="B10" s="6" t="n">
-        <v>16.1375556409567</v>
+        <v>17.3547844330818</v>
       </c>
       <c r="C10" s="6" t="n">
-        <v>16.8638970074559</v>
+        <v>17.9971331132142</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>18.8707546898869</v>
+        <v>19.6942915784301</v>
       </c>
       <c r="E10" s="7" t="n">
         <v>32</v>
@@ -955,7 +955,7 @@
         <v>32</v>
       </c>
       <c r="G10" s="7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11">
@@ -963,13 +963,13 @@
         <v>60</v>
       </c>
       <c r="B11" s="6" t="n">
-        <v>16.5794745653253</v>
+        <v>17.8335028863863</v>
       </c>
       <c r="C11" s="6" t="n">
-        <v>17.295210875487</v>
+        <v>18.3130309430728</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>18.0538067300585</v>
+        <v>18.746044827616</v>
       </c>
       <c r="E11" s="7" t="n">
         <v>31</v>
@@ -986,22 +986,22 @@
         <v>61</v>
       </c>
       <c r="B12" s="6" t="n">
-        <v>17.4922675596175</v>
+        <v>18.3029709279634</v>
       </c>
       <c r="C12" s="6" t="n">
-        <v>17.7582188207529</v>
+        <v>18.9118434519338</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>18.6903439526655</v>
+        <v>19.8138406845468</v>
       </c>
       <c r="E12" s="7" t="n">
         <v>30</v>
       </c>
       <c r="F12" s="7" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G12" s="7" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
@@ -1009,19 +1009,19 @@
         <v>62</v>
       </c>
       <c r="B13" s="6" t="n">
-        <v>17.5701875642349</v>
+        <v>18.6142567988894</v>
       </c>
       <c r="C13" s="6" t="n">
-        <v>18.1648269733871</v>
+        <v>18.9010462784251</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>18.6888861814123</v>
+        <v>19.4426149494419</v>
       </c>
       <c r="E13" s="7" t="n">
         <v>29</v>
       </c>
       <c r="F13" s="7" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G13" s="7" t="n">
         <v>30</v>
@@ -1032,22 +1032,22 @@
         <v>63</v>
       </c>
       <c r="B14" s="6" t="n">
-        <v>17.5711505946945</v>
+        <v>18.6858497193964</v>
       </c>
       <c r="C14" s="6" t="n">
-        <v>18.0289375373231</v>
+        <v>18.996458577745</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>18.6548114736329</v>
+        <v>19.394300500498</v>
       </c>
       <c r="E14" s="7" t="n">
         <v>28</v>
       </c>
       <c r="F14" s="7" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G14" s="7" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15">
@@ -1055,22 +1055,22 @@
         <v>64</v>
       </c>
       <c r="B15" s="6" t="n">
-        <v>17.5772237239796</v>
+        <v>18.7296337133147</v>
       </c>
       <c r="C15" s="6" t="n">
-        <v>17.9222925581309</v>
+        <v>19.2032607972548</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>18.6420072351472</v>
+        <v>19.3981303851774</v>
       </c>
       <c r="E15" s="7" t="n">
         <v>27</v>
       </c>
       <c r="F15" s="7" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G15" s="7" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
@@ -1078,13 +1078,13 @@
         <v>65</v>
       </c>
       <c r="B16" s="6" t="n">
-        <v>17.582054052411</v>
+        <v>18.75436157941</v>
       </c>
       <c r="C16" s="6" t="n">
-        <v>18.1583001229177</v>
+        <v>19.1402035645978</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>19.32694093261</v>
+        <v>19.4440875592811</v>
       </c>
       <c r="E16" s="7" t="n">
         <v>26</v>
@@ -1093,7 +1093,7 @@
         <v>25</v>
       </c>
       <c r="G16" s="7" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
@@ -1101,19 +1101,19 @@
         <v>66</v>
       </c>
       <c r="B17" s="6" t="n">
-        <v>17.7297683551699</v>
+        <v>18.8073122974249</v>
       </c>
       <c r="C17" s="6" t="n">
-        <v>18.0200328814799</v>
+        <v>19.0958293933409</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>18.6940476846637</v>
+        <v>19.4598065425459</v>
       </c>
       <c r="E17" s="7" t="n">
         <v>25</v>
       </c>
       <c r="F17" s="7" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G17" s="7" t="n">
         <v>28</v>
@@ -1124,22 +1124,22 @@
         <v>67</v>
       </c>
       <c r="B18" s="6" t="n">
-        <v>17.7636484966147</v>
+        <v>18.837616413155</v>
       </c>
       <c r="C18" s="6" t="n">
-        <v>18.2723238757056</v>
+        <v>19.0960437227739</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>18.8997494730543</v>
+        <v>19.6876043255112</v>
       </c>
       <c r="E18" s="7" t="n">
         <v>24</v>
       </c>
       <c r="F18" s="7" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G18" s="7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19">
@@ -1147,22 +1147,22 @@
         <v>68</v>
       </c>
       <c r="B19" s="6" t="n">
-        <v>17.8218180988784</v>
+        <v>18.8813873119782</v>
       </c>
       <c r="C19" s="6" t="n">
-        <v>18.2170384681329</v>
+        <v>19.3913562039924</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>18.9717688392139</v>
+        <v>19.7645775408235</v>
       </c>
       <c r="E19" s="7" t="n">
         <v>23</v>
       </c>
       <c r="F19" s="7" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G19" s="7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20">
@@ -1170,22 +1170,22 @@
         <v>69</v>
       </c>
       <c r="B20" s="6" t="n">
-        <v>17.8279843714053</v>
+        <v>18.8854799079161</v>
       </c>
       <c r="C20" s="6" t="n">
-        <v>18.2671158323378</v>
+        <v>19.5212629957871</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>18.7205848462413</v>
+        <v>20.3929927722573</v>
       </c>
       <c r="E20" s="7" t="n">
         <v>22</v>
       </c>
       <c r="F20" s="7" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G20" s="7" t="n">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -1193,22 +1193,22 @@
         <v>70</v>
       </c>
       <c r="B21" s="6" t="n">
-        <v>17.8618946119635</v>
+        <v>18.9243960707144</v>
       </c>
       <c r="C21" s="6" t="n">
-        <v>18.1374684345614</v>
+        <v>19.4376219828258</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>18.9248989722936</v>
+        <v>19.8707428496037</v>
       </c>
       <c r="E21" s="7" t="n">
         <v>21</v>
       </c>
       <c r="F21" s="7" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
@@ -1216,22 +1216,22 @@
         <v>71</v>
       </c>
       <c r="B22" s="6" t="n">
-        <v>17.9135361707707</v>
+        <v>18.956795774081</v>
       </c>
       <c r="C22" s="6" t="n">
-        <v>18.4804350674915</v>
+        <v>19.2732603787597</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>19.1520738434517</v>
+        <v>19.7093944326789</v>
       </c>
       <c r="E22" s="7" t="n">
         <v>20</v>
       </c>
       <c r="F22" s="7" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G22" s="7" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23">
@@ -1239,22 +1239,22 @@
         <v>72</v>
       </c>
       <c r="B23" s="6" t="n">
-        <v>17.9630468310476</v>
+        <v>18.9709843383094</v>
       </c>
       <c r="C23" s="6" t="n">
-        <v>18.804218261135</v>
+        <v>19.3649814123137</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>19.7359615983334</v>
+        <v>19.5442300597075</v>
       </c>
       <c r="E23" s="7" t="n">
         <v>19</v>
       </c>
       <c r="F23" s="7" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G23" s="7" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24">
@@ -1262,22 +1262,22 @@
         <v>73</v>
       </c>
       <c r="B24" s="6" t="n">
-        <v>18.056042525338</v>
+        <v>19.0527033207824</v>
       </c>
       <c r="C24" s="6" t="n">
-        <v>18.6214452224277</v>
+        <v>19.2907020102076</v>
       </c>
       <c r="D24" s="6" t="n">
-        <v>19.1697061356867</v>
+        <v>20.2503884436975</v>
       </c>
       <c r="E24" s="7" t="n">
         <v>18</v>
       </c>
       <c r="F24" s="7" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G24" s="7" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -1285,22 +1285,22 @@
         <v>74</v>
       </c>
       <c r="B25" s="6" t="n">
-        <v>18.1145233894379</v>
+        <v>19.1416740968785</v>
       </c>
       <c r="C25" s="6" t="n">
-        <v>18.9491351877081</v>
+        <v>19.6226789425858</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>19.0700314594428</v>
+        <v>19.9475138637654</v>
       </c>
       <c r="E25" s="7" t="n">
         <v>17</v>
       </c>
       <c r="F25" s="7" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G25" s="7" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26">
@@ -1308,22 +1308,22 @@
         <v>75</v>
       </c>
       <c r="B26" s="6" t="n">
-        <v>18.1753091781818</v>
+        <v>19.1681786307297</v>
       </c>
       <c r="C26" s="6" t="n">
-        <v>18.909456984937</v>
+        <v>20.4258998310889</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>19.1643562093301</v>
+        <v>19.7518659796885</v>
       </c>
       <c r="E26" s="7" t="n">
         <v>16</v>
       </c>
       <c r="F26" s="7" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G26" s="7" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27">
@@ -1331,22 +1331,22 @@
         <v>76</v>
       </c>
       <c r="B27" s="6" t="n">
-        <v>18.2441492313187</v>
+        <v>19.1731615091259</v>
       </c>
       <c r="C27" s="6" t="n">
-        <v>19.6011306394912</v>
+        <v>19.8822266134221</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>19.3703592535464</v>
+        <v>19.8901187698253</v>
       </c>
       <c r="E27" s="7" t="n">
         <v>15</v>
       </c>
       <c r="F27" s="7" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G27" s="7" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28">
@@ -1354,22 +1354,22 @@
         <v>77</v>
       </c>
       <c r="B28" s="6" t="n">
-        <v>18.354257062224</v>
+        <v>19.2646781894911</v>
       </c>
       <c r="C28" s="6" t="n">
-        <v>18.9180201386094</v>
+        <v>19.8524952658646</v>
       </c>
       <c r="D28" s="6" t="n">
-        <v>19.0837087257407</v>
+        <v>19.9045643093506</v>
       </c>
       <c r="E28" s="7" t="n">
         <v>14</v>
       </c>
       <c r="F28" s="7" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G28" s="7" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29">
@@ -1377,22 +1377,22 @@
         <v>78</v>
       </c>
       <c r="B29" s="6" t="n">
-        <v>18.3705800010375</v>
+        <v>19.2695799661566</v>
       </c>
       <c r="C29" s="6" t="n">
-        <v>18.8496794641828</v>
+        <v>19.7049004781526</v>
       </c>
       <c r="D29" s="6" t="n">
-        <v>19.6785733086471</v>
+        <v>19.8567193070185</v>
       </c>
       <c r="E29" s="7" t="n">
         <v>13</v>
       </c>
       <c r="F29" s="7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G29" s="7" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30">
@@ -1400,22 +1400,22 @@
         <v>79</v>
       </c>
       <c r="B30" s="6" t="n">
-        <v>18.4150163672593</v>
+        <v>19.4059181893862</v>
       </c>
       <c r="C30" s="6" t="n">
-        <v>18.6793564776956</v>
+        <v>19.8124892043249</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>19.8657555359062</v>
+        <v>20.3850811244556</v>
       </c>
       <c r="E30" s="7" t="n">
         <v>12</v>
       </c>
       <c r="F30" s="7" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G30" s="7" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31">
@@ -1423,22 +1423,22 @@
         <v>80</v>
       </c>
       <c r="B31" s="6" t="n">
-        <v>18.4415312879217</v>
+        <v>19.4079337113836</v>
       </c>
       <c r="C31" s="6" t="n">
-        <v>18.971048182647</v>
+        <v>19.8682691861778</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>19.2426564636089</v>
+        <v>19.9139582142334</v>
       </c>
       <c r="E31" s="7" t="n">
         <v>11</v>
       </c>
       <c r="F31" s="7" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G31" s="7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32">
@@ -1446,22 +1446,22 @@
         <v>81</v>
       </c>
       <c r="B32" s="6" t="n">
-        <v>18.4603993212356</v>
+        <v>19.4934808502145</v>
       </c>
       <c r="C32" s="6" t="n">
-        <v>18.8260964739978</v>
+        <v>20.3615417012321</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>19.6469003041442</v>
+        <v>20.1208084157466</v>
       </c>
       <c r="E32" s="7" t="n">
         <v>10</v>
       </c>
       <c r="F32" s="7" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="G32" s="7" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33">
@@ -1469,13 +1469,13 @@
         <v>82</v>
       </c>
       <c r="B33" s="6" t="n">
-        <v>18.4812163012715</v>
+        <v>19.5100413441726</v>
       </c>
       <c r="C33" s="6" t="n">
-        <v>18.9182706252291</v>
+        <v>19.9420472514523</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>19.2507257850371</v>
+        <v>20.2125125284797</v>
       </c>
       <c r="E33" s="7" t="n">
         <v>9</v>
@@ -1484,7 +1484,7 @@
         <v>10</v>
       </c>
       <c r="G33" s="7" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34">
@@ -1492,22 +1492,22 @@
         <v>83</v>
       </c>
       <c r="B34" s="6" t="n">
-        <v>18.4962079991028</v>
+        <v>19.5297456592501</v>
       </c>
       <c r="C34" s="6" t="n">
-        <v>18.948060436027</v>
+        <v>20.0286499881914</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>19.4222319816975</v>
+        <v>19.9308822061369</v>
       </c>
       <c r="E34" s="7" t="n">
         <v>8</v>
       </c>
       <c r="F34" s="7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G34" s="7" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35">
@@ -1515,22 +1515,22 @@
         <v>84</v>
       </c>
       <c r="B35" s="6" t="n">
-        <v>18.6554464598472</v>
+        <v>19.5798702537201</v>
       </c>
       <c r="C35" s="6" t="n">
-        <v>18.8873590574987</v>
+        <v>19.6673782898136</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>20.0147878770809</v>
+        <v>20.4099076731653</v>
       </c>
       <c r="E35" s="7" t="n">
         <v>7</v>
       </c>
       <c r="F35" s="7" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G35" s="7" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
@@ -1538,22 +1538,22 @@
         <v>85</v>
       </c>
       <c r="B36" s="6" t="n">
-        <v>18.708489650874</v>
+        <v>19.6143754842527</v>
       </c>
       <c r="C36" s="6" t="n">
-        <v>19.6648582168808</v>
+        <v>19.9740945685132</v>
       </c>
       <c r="D36" s="6" t="n">
-        <v>19.5179453540274</v>
+        <v>20.4531476236781</v>
       </c>
       <c r="E36" s="7" t="n">
         <v>6</v>
       </c>
       <c r="F36" s="7" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G36" s="7" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37">
@@ -1561,22 +1561,22 @@
         <v>86</v>
       </c>
       <c r="B37" s="6" t="n">
-        <v>18.7465378149946</v>
+        <v>19.7445644606606</v>
       </c>
       <c r="C37" s="6" t="n">
-        <v>18.8275432867741</v>
+        <v>20.0409440920829</v>
       </c>
       <c r="D37" s="6" t="n">
-        <v>19.7512926173374</v>
+        <v>20.4655261354603</v>
       </c>
       <c r="E37" s="7" t="n">
         <v>5</v>
       </c>
       <c r="F37" s="7" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G37" s="7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38">
@@ -1584,13 +1584,13 @@
         <v>87</v>
       </c>
       <c r="B38" s="6" t="n">
-        <v>18.8873299519161</v>
+        <v>19.8109149232782</v>
       </c>
       <c r="C38" s="6" t="n">
-        <v>19.264580988067</v>
+        <v>20.1664998609848</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>19.9735487621131</v>
+        <v>20.7969528757739</v>
       </c>
       <c r="E38" s="7" t="n">
         <v>4</v>
@@ -1599,7 +1599,7 @@
         <v>5</v>
       </c>
       <c r="G38" s="7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
@@ -1607,13 +1607,13 @@
         <v>88</v>
       </c>
       <c r="B39" s="6" t="n">
-        <v>19.0935220832459</v>
+        <v>20.0375374479537</v>
       </c>
       <c r="C39" s="6" t="n">
-        <v>19.230021147489</v>
+        <v>20.1636578407192</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>19.9514286046627</v>
+        <v>20.7064465767167</v>
       </c>
       <c r="E39" s="7" t="n">
         <v>3</v>
@@ -1622,7 +1622,7 @@
         <v>6</v>
       </c>
       <c r="G39" s="7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
@@ -1630,13 +1630,13 @@
         <v>89</v>
       </c>
       <c r="B40" s="6" t="n">
-        <v>19.1362538314953</v>
+        <v>20.0619322430835</v>
       </c>
       <c r="C40" s="6" t="n">
-        <v>19.3752931700117</v>
+        <v>20.3067224958436</v>
       </c>
       <c r="D40" s="6" t="n">
-        <v>20.1468054436156</v>
+        <v>20.861560123194</v>
       </c>
       <c r="E40" s="7" t="n">
         <v>2</v>
@@ -1653,13 +1653,13 @@
         <v>90</v>
       </c>
       <c r="B41" s="6" t="n">
-        <v>19.2123452986774</v>
+        <v>20.0708292686329</v>
       </c>
       <c r="C41" s="6" t="n">
-        <v>19.3668019171071</v>
+        <v>20.22290124633</v>
       </c>
       <c r="D41" s="6" t="n">
-        <v>20.2577625292433</v>
+        <v>20.9524368865054</v>
       </c>
       <c r="E41" s="7" t="n">
         <v>1</v>

--- a/TabuladosGasolina.xlsx
+++ b/TabuladosGasolina.xlsx
@@ -159,13 +159,13 @@
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">enero 2021</t>
+    <t xml:space="preserve">febrero 2021</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">febrero 2021</t>
+    <t xml:space="preserve">marzo 2021</t>
   </si>
   <si>
     <t xml:space="preserve">FUENTE: CRE; Comisión Reguladora de Energía</t>
@@ -210,40 +210,43 @@
     <t xml:space="preserve">Puebla</t>
   </si>
   <si>
+    <t xml:space="preserve">Tlaxcala</t>
+  </si>
+  <si>
     <t xml:space="preserve">Querétaro</t>
   </si>
   <si>
+    <t xml:space="preserve">Veracruz</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hidalgo</t>
   </si>
   <si>
-    <t xml:space="preserve">Tlaxcala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Veracruz</t>
-  </si>
-  <si>
     <t xml:space="preserve">Colima</t>
   </si>
   <si>
     <t xml:space="preserve">Sonora</t>
   </si>
   <si>
+    <t xml:space="preserve">Sinaloa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiapas</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nacional</t>
   </si>
   <si>
     <t xml:space="preserve">Morelos</t>
   </si>
   <si>
+    <t xml:space="preserve">San Luis Potosí</t>
+  </si>
+  <si>
     <t xml:space="preserve">México</t>
   </si>
   <si>
-    <t xml:space="preserve">Chiapas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Luis Potosí</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sinaloa</t>
+    <t xml:space="preserve">Zacatecas</t>
   </si>
   <si>
     <t xml:space="preserve">Guanajuato</t>
@@ -252,28 +255,25 @@
     <t xml:space="preserve">Aguascalientes</t>
   </si>
   <si>
-    <t xml:space="preserve">Zacatecas</t>
+    <t xml:space="preserve">Jalisco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuevo León</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nayarit</t>
   </si>
   <si>
     <t xml:space="preserve">Durango</t>
   </si>
   <si>
-    <t xml:space="preserve">Jalisco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nuevo León</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nayarit</t>
+    <t xml:space="preserve">Michoacán</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yucatán</t>
   </si>
   <si>
     <t xml:space="preserve">Ciudad de México</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yucatán</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michoacán</t>
   </si>
   <si>
     <t xml:space="preserve">Baja California Sur</t>
@@ -917,13 +917,13 @@
         <v>58</v>
       </c>
       <c r="B9" s="6" t="n">
-        <v>16.7270122110226</v>
+        <v>17.4347347512858</v>
       </c>
       <c r="C9" s="6" t="n">
-        <v>17.5685711668508</v>
+        <v>18.3813801603849</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>19.5173738896682</v>
+        <v>20.1518485000402</v>
       </c>
       <c r="E9" s="7" t="n">
         <v>33</v>
@@ -932,7 +932,7 @@
         <v>33</v>
       </c>
       <c r="G9" s="7" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
@@ -940,13 +940,13 @@
         <v>59</v>
       </c>
       <c r="B10" s="6" t="n">
-        <v>17.3547844330818</v>
+        <v>18.1720311536698</v>
       </c>
       <c r="C10" s="6" t="n">
-        <v>17.9971331132142</v>
+        <v>19.0095624311424</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>19.6942915784301</v>
+        <v>20.5504818208526</v>
       </c>
       <c r="E10" s="7" t="n">
         <v>32</v>
@@ -955,7 +955,7 @@
         <v>32</v>
       </c>
       <c r="G10" s="7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11">
@@ -963,13 +963,13 @@
         <v>60</v>
       </c>
       <c r="B11" s="6" t="n">
-        <v>17.8335028863863</v>
+        <v>18.7749894724095</v>
       </c>
       <c r="C11" s="6" t="n">
-        <v>18.3130309430728</v>
+        <v>19.3254744482714</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>18.746044827616</v>
+        <v>19.5933910424308</v>
       </c>
       <c r="E11" s="7" t="n">
         <v>31</v>
@@ -986,22 +986,22 @@
         <v>61</v>
       </c>
       <c r="B12" s="6" t="n">
-        <v>18.3029709279634</v>
+        <v>19.1437812582829</v>
       </c>
       <c r="C12" s="6" t="n">
-        <v>18.9118434519338</v>
+        <v>19.859994374094</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>19.8138406845468</v>
+        <v>20.4320390347203</v>
       </c>
       <c r="E12" s="7" t="n">
         <v>30</v>
       </c>
       <c r="F12" s="7" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13">
@@ -1009,22 +1009,22 @@
         <v>62</v>
       </c>
       <c r="B13" s="6" t="n">
-        <v>18.6142567988894</v>
+        <v>19.4618232434234</v>
       </c>
       <c r="C13" s="6" t="n">
-        <v>18.9010462784251</v>
+        <v>19.890667848952</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>19.4426149494419</v>
+        <v>20.4234211858125</v>
       </c>
       <c r="E13" s="7" t="n">
         <v>29</v>
       </c>
       <c r="F13" s="7" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G13" s="7" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14">
@@ -1032,13 +1032,13 @@
         <v>63</v>
       </c>
       <c r="B14" s="6" t="n">
-        <v>18.6858497193964</v>
+        <v>19.5701667901378</v>
       </c>
       <c r="C14" s="6" t="n">
-        <v>18.996458577745</v>
+        <v>20.0373235395783</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>19.394300500498</v>
+        <v>20.3160587995387</v>
       </c>
       <c r="E14" s="7" t="n">
         <v>28</v>
@@ -1047,7 +1047,7 @@
         <v>28</v>
       </c>
       <c r="G14" s="7" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15">
@@ -1055,22 +1055,22 @@
         <v>64</v>
       </c>
       <c r="B15" s="6" t="n">
-        <v>18.7296337133147</v>
+        <v>19.6080455034352</v>
       </c>
       <c r="C15" s="6" t="n">
-        <v>19.2032607972548</v>
+        <v>20.0799781806703</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>19.3981303851774</v>
+        <v>20.425836770103</v>
       </c>
       <c r="E15" s="7" t="n">
         <v>27</v>
       </c>
       <c r="F15" s="7" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
@@ -1078,19 +1078,19 @@
         <v>65</v>
       </c>
       <c r="B16" s="6" t="n">
-        <v>18.75436157941</v>
+        <v>19.6277127629786</v>
       </c>
       <c r="C16" s="6" t="n">
-        <v>19.1402035645978</v>
+        <v>20.2979779509256</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>19.4440875592811</v>
+        <v>20.3268544242907</v>
       </c>
       <c r="E16" s="7" t="n">
         <v>26</v>
       </c>
       <c r="F16" s="7" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G16" s="7" t="n">
         <v>29</v>
@@ -1101,13 +1101,13 @@
         <v>66</v>
       </c>
       <c r="B17" s="6" t="n">
-        <v>18.8073122974249</v>
+        <v>19.6499927940902</v>
       </c>
       <c r="C17" s="6" t="n">
-        <v>19.0958293933409</v>
+        <v>20.05957486595</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>19.4598065425459</v>
+        <v>20.5866815777275</v>
       </c>
       <c r="E17" s="7" t="n">
         <v>25</v>
@@ -1116,7 +1116,7 @@
         <v>27</v>
       </c>
       <c r="G17" s="7" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18">
@@ -1124,19 +1124,19 @@
         <v>67</v>
       </c>
       <c r="B18" s="6" t="n">
-        <v>18.837616413155</v>
+        <v>19.6596158315801</v>
       </c>
       <c r="C18" s="6" t="n">
-        <v>19.0960437227739</v>
+        <v>20.1906216511225</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>19.6876043255112</v>
+        <v>20.4944844135142</v>
       </c>
       <c r="E18" s="7" t="n">
         <v>24</v>
       </c>
       <c r="F18" s="7" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G18" s="7" t="n">
         <v>25</v>
@@ -1147,22 +1147,22 @@
         <v>68</v>
       </c>
       <c r="B19" s="6" t="n">
-        <v>18.8813873119782</v>
+        <v>19.7155547290962</v>
       </c>
       <c r="C19" s="6" t="n">
-        <v>19.3913562039924</v>
+        <v>20.3760077553766</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>19.7645775408235</v>
+        <v>20.6949565797429</v>
       </c>
       <c r="E19" s="7" t="n">
         <v>23</v>
       </c>
       <c r="F19" s="7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G19" s="7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
@@ -1170,19 +1170,19 @@
         <v>69</v>
       </c>
       <c r="B20" s="6" t="n">
-        <v>18.8854799079161</v>
+        <v>19.7186227060434</v>
       </c>
       <c r="C20" s="6" t="n">
-        <v>19.5212629957871</v>
+        <v>20.4432961237558</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>20.3929927722573</v>
+        <v>21.2616987689893</v>
       </c>
       <c r="E20" s="7" t="n">
         <v>22</v>
       </c>
       <c r="F20" s="7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G20" s="7" t="n">
         <v>8</v>
@@ -1193,22 +1193,22 @@
         <v>70</v>
       </c>
       <c r="B21" s="6" t="n">
-        <v>18.9243960707144</v>
+        <v>19.7276252440937</v>
       </c>
       <c r="C21" s="6" t="n">
-        <v>19.4376219828258</v>
+        <v>21.2284957534896</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>19.8707428496037</v>
+        <v>20.2257773864855</v>
       </c>
       <c r="E21" s="7" t="n">
         <v>21</v>
       </c>
       <c r="F21" s="7" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="G21" s="7" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22">
@@ -1216,22 +1216,22 @@
         <v>71</v>
       </c>
       <c r="B22" s="6" t="n">
-        <v>18.956795774081</v>
+        <v>19.742185777734</v>
       </c>
       <c r="C22" s="6" t="n">
-        <v>19.2732603787597</v>
+        <v>20.126165564174</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>19.7093944326789</v>
+        <v>20.9956063831523</v>
       </c>
       <c r="E22" s="7" t="n">
         <v>20</v>
       </c>
       <c r="F22" s="7" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G22" s="7" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23">
@@ -1239,22 +1239,22 @@
         <v>72</v>
       </c>
       <c r="B23" s="6" t="n">
-        <v>18.9709843383094</v>
+        <v>19.7505008653741</v>
       </c>
       <c r="C23" s="6" t="n">
-        <v>19.3649814123137</v>
+        <v>20.4193068714953</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>19.5442300597075</v>
+        <v>20.7451513945409</v>
       </c>
       <c r="E23" s="7" t="n">
         <v>19</v>
       </c>
       <c r="F23" s="7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G23" s="7" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24">
@@ -1262,22 +1262,22 @@
         <v>73</v>
       </c>
       <c r="B24" s="6" t="n">
-        <v>19.0527033207824</v>
+        <v>19.8092715592334</v>
       </c>
       <c r="C24" s="6" t="n">
-        <v>19.2907020102076</v>
+        <v>20.2548644179894</v>
       </c>
       <c r="D24" s="6" t="n">
-        <v>20.2503884436975</v>
+        <v>20.686347389045</v>
       </c>
       <c r="E24" s="7" t="n">
         <v>18</v>
       </c>
       <c r="F24" s="7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G24" s="7" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25">
@@ -1285,22 +1285,22 @@
         <v>74</v>
       </c>
       <c r="B25" s="6" t="n">
-        <v>19.1416740968785</v>
+        <v>19.9231074453666</v>
       </c>
       <c r="C25" s="6" t="n">
-        <v>19.6226789425858</v>
+        <v>20.5941434748772</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>19.9475138637654</v>
+        <v>20.8665645535588</v>
       </c>
       <c r="E25" s="7" t="n">
         <v>17</v>
       </c>
       <c r="F25" s="7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G25" s="7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26">
@@ -1308,22 +1308,22 @@
         <v>75</v>
       </c>
       <c r="B26" s="6" t="n">
-        <v>19.1681786307297</v>
+        <v>19.9232150540651</v>
       </c>
       <c r="C26" s="6" t="n">
-        <v>20.4258998310889</v>
+        <v>20.5100258473312</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>19.7518659796885</v>
+        <v>20.5413600886908</v>
       </c>
       <c r="E26" s="7" t="n">
         <v>16</v>
       </c>
       <c r="F26" s="7" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="G26" s="7" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27">
@@ -1331,22 +1331,22 @@
         <v>76</v>
       </c>
       <c r="B27" s="6" t="n">
-        <v>19.1731615091259</v>
+        <v>19.9755141616714</v>
       </c>
       <c r="C27" s="6" t="n">
-        <v>19.8822266134221</v>
+        <v>20.5381939083489</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>19.8901187698253</v>
+        <v>20.6395235829896</v>
       </c>
       <c r="E27" s="7" t="n">
         <v>15</v>
       </c>
       <c r="F27" s="7" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G27" s="7" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28">
@@ -1354,19 +1354,19 @@
         <v>77</v>
       </c>
       <c r="B28" s="6" t="n">
-        <v>19.2646781894911</v>
+        <v>20.0679569217629</v>
       </c>
       <c r="C28" s="6" t="n">
-        <v>19.8524952658646</v>
+        <v>20.9028297350758</v>
       </c>
       <c r="D28" s="6" t="n">
-        <v>19.9045643093506</v>
+        <v>20.8226112517234</v>
       </c>
       <c r="E28" s="7" t="n">
         <v>14</v>
       </c>
       <c r="F28" s="7" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G28" s="7" t="n">
         <v>16</v>
@@ -1377,22 +1377,22 @@
         <v>78</v>
       </c>
       <c r="B29" s="6" t="n">
-        <v>19.2695799661566</v>
+        <v>20.1620288342649</v>
       </c>
       <c r="C29" s="6" t="n">
-        <v>19.7049004781526</v>
+        <v>20.8647042646172</v>
       </c>
       <c r="D29" s="6" t="n">
-        <v>19.8567193070185</v>
+        <v>20.8283193932368</v>
       </c>
       <c r="E29" s="7" t="n">
         <v>13</v>
       </c>
       <c r="F29" s="7" t="n">
+        <v>12</v>
+      </c>
+      <c r="G29" s="7" t="n">
         <v>15</v>
-      </c>
-      <c r="G29" s="7" t="n">
-        <v>19</v>
       </c>
     </row>
     <row r="30">
@@ -1400,22 +1400,22 @@
         <v>79</v>
       </c>
       <c r="B30" s="6" t="n">
-        <v>19.4059181893862</v>
+        <v>20.2074004150879</v>
       </c>
       <c r="C30" s="6" t="n">
-        <v>19.8124892043249</v>
+        <v>20.8357311904004</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>20.3850811244556</v>
+        <v>20.7159493284952</v>
       </c>
       <c r="E30" s="7" t="n">
         <v>12</v>
       </c>
       <c r="F30" s="7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G30" s="7" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31">
@@ -1423,22 +1423,22 @@
         <v>80</v>
       </c>
       <c r="B31" s="6" t="n">
-        <v>19.4079337113836</v>
+        <v>20.2077150458027</v>
       </c>
       <c r="C31" s="6" t="n">
-        <v>19.8682691861778</v>
+        <v>21.1458161159644</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>19.9139582142334</v>
+        <v>20.9113317085962</v>
       </c>
       <c r="E31" s="7" t="n">
         <v>11</v>
       </c>
       <c r="F31" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G31" s="7" t="n">
         <v>12</v>
-      </c>
-      <c r="G31" s="7" t="n">
-        <v>15</v>
       </c>
     </row>
     <row r="32">
@@ -1446,22 +1446,22 @@
         <v>81</v>
       </c>
       <c r="B32" s="6" t="n">
-        <v>19.4934808502145</v>
+        <v>20.2439713491566</v>
       </c>
       <c r="C32" s="6" t="n">
-        <v>20.3615417012321</v>
+        <v>20.8674891402726</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>20.1208084157466</v>
+        <v>21.0993920642864</v>
       </c>
       <c r="E32" s="7" t="n">
         <v>10</v>
       </c>
       <c r="F32" s="7" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G32" s="7" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33">
@@ -1469,22 +1469,22 @@
         <v>82</v>
       </c>
       <c r="B33" s="6" t="n">
-        <v>19.5100413441726</v>
+        <v>20.2558954713564</v>
       </c>
       <c r="C33" s="6" t="n">
-        <v>19.9420472514523</v>
+        <v>20.776378139266</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>20.2125125284797</v>
+        <v>21.3300171287472</v>
       </c>
       <c r="E33" s="7" t="n">
         <v>9</v>
       </c>
       <c r="F33" s="7" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G33" s="7" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34">
@@ -1492,22 +1492,22 @@
         <v>83</v>
       </c>
       <c r="B34" s="6" t="n">
-        <v>19.5297456592501</v>
+        <v>20.4024976677959</v>
       </c>
       <c r="C34" s="6" t="n">
-        <v>20.0286499881914</v>
+        <v>20.9612790451053</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>19.9308822061369</v>
+        <v>21.3830629823254</v>
       </c>
       <c r="E34" s="7" t="n">
         <v>8</v>
       </c>
       <c r="F34" s="7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G34" s="7" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35">
@@ -1515,22 +1515,22 @@
         <v>84</v>
       </c>
       <c r="B35" s="6" t="n">
-        <v>19.5798702537201</v>
+        <v>20.4836185776006</v>
       </c>
       <c r="C35" s="6" t="n">
-        <v>19.6673782898136</v>
+        <v>20.6954379712958</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>20.4099076731653</v>
+        <v>21.3865654864239</v>
       </c>
       <c r="E35" s="7" t="n">
         <v>7</v>
       </c>
       <c r="F35" s="7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G35" s="7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36">
@@ -1538,22 +1538,22 @@
         <v>85</v>
       </c>
       <c r="B36" s="6" t="n">
-        <v>19.6143754842527</v>
+        <v>20.5048545579683</v>
       </c>
       <c r="C36" s="6" t="n">
-        <v>19.9740945685132</v>
+        <v>21.1729653996214</v>
       </c>
       <c r="D36" s="6" t="n">
-        <v>20.4531476236781</v>
+        <v>20.8706609461967</v>
       </c>
       <c r="E36" s="7" t="n">
         <v>6</v>
       </c>
       <c r="F36" s="7" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G36" s="7" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37">
@@ -1561,13 +1561,13 @@
         <v>86</v>
       </c>
       <c r="B37" s="6" t="n">
-        <v>19.7445644606606</v>
+        <v>20.6028333339253</v>
       </c>
       <c r="C37" s="6" t="n">
-        <v>20.0409440920829</v>
+        <v>21.1146578234706</v>
       </c>
       <c r="D37" s="6" t="n">
-        <v>20.4655261354603</v>
+        <v>21.2233649955502</v>
       </c>
       <c r="E37" s="7" t="n">
         <v>5</v>
@@ -1576,7 +1576,7 @@
         <v>7</v>
       </c>
       <c r="G37" s="7" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38">
@@ -1584,22 +1584,22 @@
         <v>87</v>
       </c>
       <c r="B38" s="6" t="n">
-        <v>19.8109149232782</v>
+        <v>20.6942801339286</v>
       </c>
       <c r="C38" s="6" t="n">
-        <v>20.1664998609848</v>
+        <v>21.2123294955512</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>20.7969528757739</v>
+        <v>21.7835770919398</v>
       </c>
       <c r="E38" s="7" t="n">
         <v>4</v>
       </c>
       <c r="F38" s="7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G38" s="7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
@@ -1607,19 +1607,19 @@
         <v>88</v>
       </c>
       <c r="B39" s="6" t="n">
-        <v>20.0375374479537</v>
+        <v>20.7625213116267</v>
       </c>
       <c r="C39" s="6" t="n">
-        <v>20.1636578407192</v>
+        <v>21.0804391020084</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>20.7064465767167</v>
+        <v>21.665700479187</v>
       </c>
       <c r="E39" s="7" t="n">
         <v>3</v>
       </c>
       <c r="F39" s="7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G39" s="7" t="n">
         <v>4</v>
@@ -1630,22 +1630,22 @@
         <v>89</v>
       </c>
       <c r="B40" s="6" t="n">
-        <v>20.0619322430835</v>
+        <v>20.8017897104799</v>
       </c>
       <c r="C40" s="6" t="n">
-        <v>20.3067224958436</v>
+        <v>21.226402726208</v>
       </c>
       <c r="D40" s="6" t="n">
-        <v>20.861560123194</v>
+        <v>21.7621125517349</v>
       </c>
       <c r="E40" s="7" t="n">
         <v>2</v>
       </c>
       <c r="F40" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G40" s="7" t="n">
         <v>3</v>
-      </c>
-      <c r="G40" s="7" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -1653,19 +1653,19 @@
         <v>90</v>
       </c>
       <c r="B41" s="6" t="n">
-        <v>20.0708292686329</v>
+        <v>20.8110869955306</v>
       </c>
       <c r="C41" s="6" t="n">
-        <v>20.22290124633</v>
+        <v>21.1399648447777</v>
       </c>
       <c r="D41" s="6" t="n">
-        <v>20.9524368865054</v>
+        <v>21.8007004350241</v>
       </c>
       <c r="E41" s="7" t="n">
         <v>1</v>
       </c>
       <c r="F41" s="7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G41" s="7" t="n">
         <v>1</v>

--- a/TabuladosGasolina.xlsx
+++ b/TabuladosGasolina.xlsx
@@ -159,13 +159,13 @@
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">febrero 2021</t>
+    <t xml:space="preserve">marzo 2021</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">marzo 2021</t>
+    <t xml:space="preserve">abril 2021</t>
   </si>
   <si>
     <t xml:space="preserve">FUENTE: CRE; Comisión Reguladora de Energía</t>
@@ -201,94 +201,94 @@
     <t xml:space="preserve">Baja California</t>
   </si>
   <si>
+    <t xml:space="preserve">Tabasco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tlaxcala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Querétaro</t>
+  </si>
+  <si>
     <t xml:space="preserve">Coahuila</t>
   </si>
   <si>
-    <t xml:space="preserve">Tabasco</t>
-  </si>
-  <si>
     <t xml:space="preserve">Puebla</t>
   </si>
   <si>
-    <t xml:space="preserve">Tlaxcala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Querétaro</t>
+    <t xml:space="preserve">Hidalgo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colima</t>
   </si>
   <si>
     <t xml:space="preserve">Veracruz</t>
   </si>
   <si>
-    <t xml:space="preserve">Hidalgo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colima</t>
+    <t xml:space="preserve">Morelos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiapas</t>
   </si>
   <si>
     <t xml:space="preserve">Sonora</t>
   </si>
   <si>
+    <t xml:space="preserve">Nacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Luis Potosí</t>
+  </si>
+  <si>
+    <t xml:space="preserve">México</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guanajuato</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sinaloa</t>
   </si>
   <si>
-    <t xml:space="preserve">Chiapas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nacional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morelos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Luis Potosí</t>
-  </si>
-  <si>
-    <t xml:space="preserve">México</t>
-  </si>
-  <si>
     <t xml:space="preserve">Zacatecas</t>
   </si>
   <si>
-    <t xml:space="preserve">Guanajuato</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aguascalientes</t>
   </si>
   <si>
+    <t xml:space="preserve">Nayarit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michoacán</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yucatán</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durango</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jalisco</t>
   </si>
   <si>
+    <t xml:space="preserve">Baja California Sur</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nuevo León</t>
   </si>
   <si>
-    <t xml:space="preserve">Nayarit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Durango</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michoacán</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yucatán</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ciudad de México</t>
   </si>
   <si>
-    <t xml:space="preserve">Baja California Sur</t>
+    <t xml:space="preserve">Guerrero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oaxaca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quintana Roo</t>
   </si>
   <si>
     <t xml:space="preserve">Campeche</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guerrero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oaxaca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quintana Roo</t>
   </si>
 </sst>
 </file>
@@ -917,13 +917,13 @@
         <v>58</v>
       </c>
       <c r="B9" s="6" t="n">
-        <v>17.4347347512858</v>
+        <v>17.8601473423509</v>
       </c>
       <c r="C9" s="6" t="n">
-        <v>18.3813801603849</v>
+        <v>19.4079755363791</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>20.1518485000402</v>
+        <v>20.9055683245446</v>
       </c>
       <c r="E9" s="7" t="n">
         <v>33</v>
@@ -940,13 +940,13 @@
         <v>59</v>
       </c>
       <c r="B10" s="6" t="n">
-        <v>18.1720311536698</v>
+        <v>18.3686750924837</v>
       </c>
       <c r="C10" s="6" t="n">
-        <v>19.0095624311424</v>
+        <v>20.2392199624241</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>20.5504818208526</v>
+        <v>21.2656971053821</v>
       </c>
       <c r="E10" s="7" t="n">
         <v>32</v>
@@ -955,7 +955,7 @@
         <v>32</v>
       </c>
       <c r="G10" s="7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11">
@@ -963,13 +963,13 @@
         <v>60</v>
       </c>
       <c r="B11" s="6" t="n">
-        <v>18.7749894724095</v>
+        <v>19.0842266213086</v>
       </c>
       <c r="C11" s="6" t="n">
-        <v>19.3254744482714</v>
+        <v>20.4345458876396</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>19.5933910424308</v>
+        <v>20.2886596937074</v>
       </c>
       <c r="E11" s="7" t="n">
         <v>31</v>
@@ -986,13 +986,13 @@
         <v>61</v>
       </c>
       <c r="B12" s="6" t="n">
-        <v>19.1437812582829</v>
+        <v>19.7772428510951</v>
       </c>
       <c r="C12" s="6" t="n">
-        <v>19.859994374094</v>
+        <v>20.9843794860387</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>20.4320390347203</v>
+        <v>21.074897988697</v>
       </c>
       <c r="E12" s="7" t="n">
         <v>30</v>
@@ -1001,7 +1001,7 @@
         <v>30</v>
       </c>
       <c r="G12" s="7" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13">
@@ -1009,22 +1009,22 @@
         <v>62</v>
       </c>
       <c r="B13" s="6" t="n">
-        <v>19.4618232434234</v>
+        <v>19.802620804366</v>
       </c>
       <c r="C13" s="6" t="n">
-        <v>19.890667848952</v>
+        <v>21.2316642162702</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>20.4234211858125</v>
+        <v>21.0094838039735</v>
       </c>
       <c r="E13" s="7" t="n">
         <v>29</v>
       </c>
       <c r="F13" s="7" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G13" s="7" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14">
@@ -1032,22 +1032,22 @@
         <v>63</v>
       </c>
       <c r="B14" s="6" t="n">
-        <v>19.5701667901378</v>
+        <v>19.8230000241602</v>
       </c>
       <c r="C14" s="6" t="n">
-        <v>20.0373235395783</v>
+        <v>21.3899548294243</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>20.3160587995387</v>
+        <v>20.9833783763448</v>
       </c>
       <c r="E14" s="7" t="n">
         <v>28</v>
       </c>
       <c r="F14" s="7" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G14" s="7" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15">
@@ -1055,22 +1055,22 @@
         <v>64</v>
       </c>
       <c r="B15" s="6" t="n">
-        <v>19.6080455034352</v>
+        <v>19.8446315959127</v>
       </c>
       <c r="C15" s="6" t="n">
-        <v>20.0799781806703</v>
+        <v>21.3436476671982</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>20.425836770103</v>
+        <v>21.3893921428051</v>
       </c>
       <c r="E15" s="7" t="n">
         <v>27</v>
       </c>
       <c r="F15" s="7" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G15" s="7" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16">
@@ -1078,19 +1078,19 @@
         <v>65</v>
       </c>
       <c r="B16" s="6" t="n">
-        <v>19.6277127629786</v>
+        <v>19.8574757518145</v>
       </c>
       <c r="C16" s="6" t="n">
-        <v>20.2979779509256</v>
+        <v>21.2085716789226</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>20.3268544242907</v>
+        <v>21.0256770759222</v>
       </c>
       <c r="E16" s="7" t="n">
         <v>26</v>
       </c>
       <c r="F16" s="7" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G16" s="7" t="n">
         <v>29</v>
@@ -1101,22 +1101,22 @@
         <v>66</v>
       </c>
       <c r="B17" s="6" t="n">
-        <v>19.6499927940902</v>
+        <v>19.9061176278128</v>
       </c>
       <c r="C17" s="6" t="n">
-        <v>20.05957486595</v>
+        <v>21.3178904257954</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>20.5866815777275</v>
+        <v>21.1352768847315</v>
       </c>
       <c r="E17" s="7" t="n">
         <v>25</v>
       </c>
       <c r="F17" s="7" t="n">
+        <v>25</v>
+      </c>
+      <c r="G17" s="7" t="n">
         <v>27</v>
-      </c>
-      <c r="G17" s="7" t="n">
-        <v>22</v>
       </c>
     </row>
     <row r="18">
@@ -1124,19 +1124,19 @@
         <v>67</v>
       </c>
       <c r="B18" s="6" t="n">
-        <v>19.6596158315801</v>
+        <v>19.9125102176982</v>
       </c>
       <c r="C18" s="6" t="n">
-        <v>20.1906216511225</v>
+        <v>21.3845376291321</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>20.4944844135142</v>
+        <v>21.264708137411</v>
       </c>
       <c r="E18" s="7" t="n">
         <v>24</v>
       </c>
       <c r="F18" s="7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G18" s="7" t="n">
         <v>25</v>
@@ -1147,22 +1147,22 @@
         <v>68</v>
       </c>
       <c r="B19" s="6" t="n">
-        <v>19.7155547290962</v>
+        <v>20.0037192620776</v>
       </c>
       <c r="C19" s="6" t="n">
-        <v>20.3760077553766</v>
+        <v>21.1922909647355</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>20.6949565797429</v>
+        <v>21.2747942107957</v>
       </c>
       <c r="E19" s="7" t="n">
         <v>23</v>
       </c>
       <c r="F19" s="7" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="G19" s="7" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20">
@@ -1170,22 +1170,22 @@
         <v>69</v>
       </c>
       <c r="B20" s="6" t="n">
-        <v>19.7186227060434</v>
+        <v>20.0142102961635</v>
       </c>
       <c r="C20" s="6" t="n">
-        <v>20.4432961237558</v>
+        <v>21.4252245465158</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>21.2616987689893</v>
+        <v>21.3669539158497</v>
       </c>
       <c r="E20" s="7" t="n">
         <v>22</v>
       </c>
       <c r="F20" s="7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G20" s="7" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21">
@@ -1193,22 +1193,22 @@
         <v>70</v>
       </c>
       <c r="B21" s="6" t="n">
-        <v>19.7276252440937</v>
+        <v>20.0367136523002</v>
       </c>
       <c r="C21" s="6" t="n">
-        <v>21.2284957534896</v>
+        <v>21.2601764538718</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>20.2257773864855</v>
+        <v>21.6055106192795</v>
       </c>
       <c r="E21" s="7" t="n">
         <v>21</v>
       </c>
       <c r="F21" s="7" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="G21" s="7" t="n">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22">
@@ -1216,22 +1216,22 @@
         <v>71</v>
       </c>
       <c r="B22" s="6" t="n">
-        <v>19.742185777734</v>
+        <v>20.0769187861105</v>
       </c>
       <c r="C22" s="6" t="n">
-        <v>20.126165564174</v>
+        <v>21.5638656242099</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>20.9956063831523</v>
+        <v>21.9350921189996</v>
       </c>
       <c r="E22" s="7" t="n">
         <v>20</v>
       </c>
       <c r="F22" s="7" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G22" s="7" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -1239,22 +1239,22 @@
         <v>72</v>
       </c>
       <c r="B23" s="6" t="n">
-        <v>19.7505008653741</v>
+        <v>20.1058595572337</v>
       </c>
       <c r="C23" s="6" t="n">
-        <v>20.4193068714953</v>
+        <v>21.5910042147887</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>20.7451513945409</v>
+        <v>21.4276209117979</v>
       </c>
       <c r="E23" s="7" t="n">
         <v>19</v>
       </c>
       <c r="F23" s="7" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G23" s="7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
@@ -1262,22 +1262,22 @@
         <v>73</v>
       </c>
       <c r="B24" s="6" t="n">
-        <v>19.8092715592334</v>
+        <v>20.135411033049</v>
       </c>
       <c r="C24" s="6" t="n">
-        <v>20.2548644179894</v>
+        <v>21.8093598143099</v>
       </c>
       <c r="D24" s="6" t="n">
-        <v>20.686347389045</v>
+        <v>21.4168949460185</v>
       </c>
       <c r="E24" s="7" t="n">
         <v>18</v>
       </c>
       <c r="F24" s="7" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G24" s="7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25">
@@ -1285,13 +1285,13 @@
         <v>74</v>
       </c>
       <c r="B25" s="6" t="n">
-        <v>19.9231074453666</v>
+        <v>20.2604967750997</v>
       </c>
       <c r="C25" s="6" t="n">
-        <v>20.5941434748772</v>
+        <v>21.7616139918495</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>20.8665645535588</v>
+        <v>21.2108258470818</v>
       </c>
       <c r="E25" s="7" t="n">
         <v>17</v>
@@ -1300,7 +1300,7 @@
         <v>16</v>
       </c>
       <c r="G25" s="7" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26">
@@ -1308,22 +1308,22 @@
         <v>75</v>
       </c>
       <c r="B26" s="6" t="n">
-        <v>19.9232150540651</v>
+        <v>20.375956479611</v>
       </c>
       <c r="C26" s="6" t="n">
-        <v>20.5100258473312</v>
+        <v>21.8927381075612</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>20.5413600886908</v>
+        <v>21.4545591566096</v>
       </c>
       <c r="E26" s="7" t="n">
         <v>16</v>
       </c>
       <c r="F26" s="7" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G26" s="7" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27">
@@ -1331,22 +1331,22 @@
         <v>76</v>
       </c>
       <c r="B27" s="6" t="n">
-        <v>19.9755141616714</v>
+        <v>20.3810422985352</v>
       </c>
       <c r="C27" s="6" t="n">
-        <v>20.5381939083489</v>
+        <v>22.8644491972051</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>20.6395235829896</v>
+        <v>21.5873240634659</v>
       </c>
       <c r="E27" s="7" t="n">
         <v>15</v>
       </c>
       <c r="F27" s="7" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="G27" s="7" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28">
@@ -1354,22 +1354,22 @@
         <v>77</v>
       </c>
       <c r="B28" s="6" t="n">
-        <v>20.0679569217629</v>
+        <v>20.384047804269</v>
       </c>
       <c r="C28" s="6" t="n">
-        <v>20.9028297350758</v>
+        <v>21.6727120807677</v>
       </c>
       <c r="D28" s="6" t="n">
-        <v>20.8226112517234</v>
+        <v>21.2749109934624</v>
       </c>
       <c r="E28" s="7" t="n">
         <v>14</v>
       </c>
       <c r="F28" s="7" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G28" s="7" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29">
@@ -1377,22 +1377,22 @@
         <v>78</v>
       </c>
       <c r="B29" s="6" t="n">
-        <v>20.1620288342649</v>
+        <v>20.4552391650187</v>
       </c>
       <c r="C29" s="6" t="n">
-        <v>20.8647042646172</v>
+        <v>21.8335358737892</v>
       </c>
       <c r="D29" s="6" t="n">
-        <v>20.8283193932368</v>
+        <v>21.5046224421822</v>
       </c>
       <c r="E29" s="7" t="n">
         <v>13</v>
       </c>
       <c r="F29" s="7" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G29" s="7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30">
@@ -1400,22 +1400,22 @@
         <v>79</v>
       </c>
       <c r="B30" s="6" t="n">
-        <v>20.2074004150879</v>
+        <v>20.5309555180359</v>
       </c>
       <c r="C30" s="6" t="n">
-        <v>20.8357311904004</v>
+        <v>22.0047054104213</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>20.7159493284952</v>
+        <v>21.7766413189866</v>
       </c>
       <c r="E30" s="7" t="n">
         <v>12</v>
       </c>
       <c r="F30" s="7" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G30" s="7" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31">
@@ -1423,22 +1423,22 @@
         <v>80</v>
       </c>
       <c r="B31" s="6" t="n">
-        <v>20.2077150458027</v>
+        <v>20.5856811144654</v>
       </c>
       <c r="C31" s="6" t="n">
-        <v>21.1458161159644</v>
+        <v>22.0892875232108</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>20.9113317085962</v>
+        <v>21.9460621498152</v>
       </c>
       <c r="E31" s="7" t="n">
         <v>11</v>
       </c>
       <c r="F31" s="7" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G31" s="7" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32">
@@ -1446,22 +1446,22 @@
         <v>81</v>
       </c>
       <c r="B32" s="6" t="n">
-        <v>20.2439713491566</v>
+        <v>20.6305569289684</v>
       </c>
       <c r="C32" s="6" t="n">
-        <v>20.8674891402726</v>
+        <v>21.5852338141457</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>21.0993920642864</v>
+        <v>21.9133415312278</v>
       </c>
       <c r="E32" s="7" t="n">
         <v>10</v>
       </c>
       <c r="F32" s="7" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G32" s="7" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33">
@@ -1469,22 +1469,22 @@
         <v>82</v>
       </c>
       <c r="B33" s="6" t="n">
-        <v>20.2558954713564</v>
+        <v>20.6587043735987</v>
       </c>
       <c r="C33" s="6" t="n">
-        <v>20.776378139266</v>
+        <v>21.9869290296209</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>21.3300171287472</v>
+        <v>21.9955361772595</v>
       </c>
       <c r="E33" s="7" t="n">
         <v>9</v>
       </c>
       <c r="F33" s="7" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G33" s="7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34">
@@ -1492,22 +1492,22 @@
         <v>83</v>
       </c>
       <c r="B34" s="6" t="n">
-        <v>20.4024976677959</v>
+        <v>20.6964194817611</v>
       </c>
       <c r="C34" s="6" t="n">
-        <v>20.9612790451053</v>
+        <v>22.1807213214588</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>21.3830629823254</v>
+        <v>21.4830039922846</v>
       </c>
       <c r="E34" s="7" t="n">
         <v>8</v>
       </c>
       <c r="F34" s="7" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G34" s="7" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35">
@@ -1515,22 +1515,22 @@
         <v>84</v>
       </c>
       <c r="B35" s="6" t="n">
-        <v>20.4836185776006</v>
+        <v>20.7299881493105</v>
       </c>
       <c r="C35" s="6" t="n">
-        <v>20.6954379712958</v>
+        <v>22.1607848322046</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>21.3865654864239</v>
+        <v>21.7743314810484</v>
       </c>
       <c r="E35" s="7" t="n">
         <v>7</v>
       </c>
       <c r="F35" s="7" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G35" s="7" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36">
@@ -1538,19 +1538,19 @@
         <v>85</v>
       </c>
       <c r="B36" s="6" t="n">
-        <v>20.5048545579683</v>
+        <v>20.8228864725994</v>
       </c>
       <c r="C36" s="6" t="n">
-        <v>21.1729653996214</v>
+        <v>22.2522532206513</v>
       </c>
       <c r="D36" s="6" t="n">
-        <v>20.8706609461967</v>
+        <v>21.5442096181859</v>
       </c>
       <c r="E36" s="7" t="n">
         <v>6</v>
       </c>
       <c r="F36" s="7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G36" s="7" t="n">
         <v>13</v>
@@ -1561,22 +1561,22 @@
         <v>86</v>
       </c>
       <c r="B37" s="6" t="n">
-        <v>20.6028333339253</v>
+        <v>20.92588267107</v>
       </c>
       <c r="C37" s="6" t="n">
-        <v>21.1146578234706</v>
+        <v>22.3526686614134</v>
       </c>
       <c r="D37" s="6" t="n">
-        <v>21.2233649955502</v>
+        <v>21.4798863308905</v>
       </c>
       <c r="E37" s="7" t="n">
         <v>5</v>
       </c>
       <c r="F37" s="7" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G37" s="7" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38">
@@ -1584,22 +1584,22 @@
         <v>87</v>
       </c>
       <c r="B38" s="6" t="n">
-        <v>20.6942801339286</v>
+        <v>20.9789161674321</v>
       </c>
       <c r="C38" s="6" t="n">
-        <v>21.2123294955512</v>
+        <v>22.0637814474679</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>21.7835770919398</v>
+        <v>22.139514231909</v>
       </c>
       <c r="E38" s="7" t="n">
         <v>4</v>
       </c>
       <c r="F38" s="7" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G38" s="7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39">
@@ -1607,22 +1607,22 @@
         <v>88</v>
       </c>
       <c r="B39" s="6" t="n">
-        <v>20.7625213116267</v>
+        <v>21.0106296322557</v>
       </c>
       <c r="C39" s="6" t="n">
-        <v>21.0804391020084</v>
+        <v>22.2381956739863</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>21.665700479187</v>
+        <v>22.2975561212156</v>
       </c>
       <c r="E39" s="7" t="n">
         <v>3</v>
       </c>
       <c r="F39" s="7" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G39" s="7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -1630,22 +1630,22 @@
         <v>89</v>
       </c>
       <c r="B40" s="6" t="n">
-        <v>20.8017897104799</v>
+        <v>21.0117854155308</v>
       </c>
       <c r="C40" s="6" t="n">
-        <v>21.226402726208</v>
+        <v>22.1835123760403</v>
       </c>
       <c r="D40" s="6" t="n">
-        <v>21.7621125517349</v>
+        <v>22.3046521057364</v>
       </c>
       <c r="E40" s="7" t="n">
         <v>2</v>
       </c>
       <c r="F40" s="7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G40" s="7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1653,22 +1653,22 @@
         <v>90</v>
       </c>
       <c r="B41" s="6" t="n">
-        <v>20.8110869955306</v>
+        <v>21.0548628021199</v>
       </c>
       <c r="C41" s="6" t="n">
-        <v>21.1399648447777</v>
+        <v>22.2152592284113</v>
       </c>
       <c r="D41" s="6" t="n">
-        <v>21.8007004350241</v>
+        <v>22.241371497262</v>
       </c>
       <c r="E41" s="7" t="n">
         <v>1</v>
       </c>
       <c r="F41" s="7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G41" s="7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" ht="15" customHeight="1">

--- a/TabuladosGasolina.xlsx
+++ b/TabuladosGasolina.xlsx
@@ -201,94 +201,94 @@
     <t xml:space="preserve">Baja California</t>
   </si>
   <si>
+    <t xml:space="preserve">Tlaxcala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hidalgo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Querétaro</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tabasco</t>
   </si>
   <si>
-    <t xml:space="preserve">Tlaxcala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Querétaro</t>
+    <t xml:space="preserve">Puebla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morelos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sonora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colima</t>
   </si>
   <si>
     <t xml:space="preserve">Coahuila</t>
   </si>
   <si>
-    <t xml:space="preserve">Puebla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hidalgo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colima</t>
-  </si>
-  <si>
     <t xml:space="preserve">Veracruz</t>
   </si>
   <si>
-    <t xml:space="preserve">Morelos</t>
+    <t xml:space="preserve">Nacional</t>
   </si>
   <si>
     <t xml:space="preserve">Chiapas</t>
   </si>
   <si>
-    <t xml:space="preserve">Sonora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nacional</t>
+    <t xml:space="preserve">México</t>
   </si>
   <si>
     <t xml:space="preserve">San Luis Potosí</t>
   </si>
   <si>
-    <t xml:space="preserve">México</t>
-  </si>
-  <si>
     <t xml:space="preserve">Guanajuato</t>
   </si>
   <si>
+    <t xml:space="preserve">Aguascalientes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zacatecas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baja California Sur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michoacán</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sinaloa</t>
   </si>
   <si>
-    <t xml:space="preserve">Zacatecas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aguascalientes</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nayarit</t>
   </si>
   <si>
-    <t xml:space="preserve">Michoacán</t>
+    <t xml:space="preserve">Jalisco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durango</t>
   </si>
   <si>
     <t xml:space="preserve">Yucatán</t>
   </si>
   <si>
-    <t xml:space="preserve">Durango</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jalisco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baja California Sur</t>
+    <t xml:space="preserve">Ciudad de México</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oaxaca</t>
   </si>
   <si>
     <t xml:space="preserve">Nuevo León</t>
   </si>
   <si>
-    <t xml:space="preserve">Ciudad de México</t>
+    <t xml:space="preserve">Campeche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quintana Roo</t>
   </si>
   <si>
     <t xml:space="preserve">Guerrero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oaxaca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quintana Roo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Campeche</t>
   </si>
 </sst>
 </file>
@@ -917,13 +917,13 @@
         <v>58</v>
       </c>
       <c r="B9" s="6" t="n">
-        <v>17.8601473423509</v>
+        <v>18.0400016038186</v>
       </c>
       <c r="C9" s="6" t="n">
-        <v>19.4079755363791</v>
+        <v>19.7562192852643</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>20.9055683245446</v>
+        <v>20.9322405690992</v>
       </c>
       <c r="E9" s="7" t="n">
         <v>33</v>
@@ -940,13 +940,13 @@
         <v>59</v>
       </c>
       <c r="B10" s="6" t="n">
-        <v>18.3686750924837</v>
+        <v>18.263541051369</v>
       </c>
       <c r="C10" s="6" t="n">
-        <v>20.2392199624241</v>
+        <v>20.400322943724</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>21.2656971053821</v>
+        <v>21.4170705636587</v>
       </c>
       <c r="E10" s="7" t="n">
         <v>32</v>
@@ -955,7 +955,7 @@
         <v>32</v>
       </c>
       <c r="G10" s="7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11">
@@ -963,13 +963,13 @@
         <v>60</v>
       </c>
       <c r="B11" s="6" t="n">
-        <v>19.0842266213086</v>
+        <v>19.2418246112333</v>
       </c>
       <c r="C11" s="6" t="n">
-        <v>20.4345458876396</v>
+        <v>20.8734497603493</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>20.2886596937074</v>
+        <v>20.4656187480033</v>
       </c>
       <c r="E11" s="7" t="n">
         <v>31</v>
@@ -986,22 +986,22 @@
         <v>61</v>
       </c>
       <c r="B12" s="6" t="n">
-        <v>19.7772428510951</v>
+        <v>19.7832935491337</v>
       </c>
       <c r="C12" s="6" t="n">
-        <v>20.9843794860387</v>
+        <v>21.4832350440846</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>21.074897988697</v>
+        <v>21.0715899707384</v>
       </c>
       <c r="E12" s="7" t="n">
         <v>30</v>
       </c>
       <c r="F12" s="7" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G12" s="7" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13">
@@ -1009,22 +1009,22 @@
         <v>62</v>
       </c>
       <c r="B13" s="6" t="n">
-        <v>19.802620804366</v>
+        <v>19.8194685464458</v>
       </c>
       <c r="C13" s="6" t="n">
-        <v>21.2316642162702</v>
+        <v>21.4894009421679</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>21.0094838039735</v>
+        <v>21.145614736132</v>
       </c>
       <c r="E13" s="7" t="n">
         <v>29</v>
       </c>
       <c r="F13" s="7" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G13" s="7" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14">
@@ -1032,13 +1032,13 @@
         <v>63</v>
       </c>
       <c r="B14" s="6" t="n">
-        <v>19.8230000241602</v>
+        <v>19.8376369118686</v>
       </c>
       <c r="C14" s="6" t="n">
-        <v>21.3899548294243</v>
+        <v>21.6881428720343</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>20.9833783763448</v>
+        <v>21.0996625700685</v>
       </c>
       <c r="E14" s="7" t="n">
         <v>28</v>
@@ -1047,7 +1047,7 @@
         <v>22</v>
       </c>
       <c r="G14" s="7" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15">
@@ -1055,22 +1055,22 @@
         <v>64</v>
       </c>
       <c r="B15" s="6" t="n">
-        <v>19.8446315959127</v>
+        <v>19.8749889480157</v>
       </c>
       <c r="C15" s="6" t="n">
-        <v>21.3436476671982</v>
+        <v>21.2535451319265</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>21.3893921428051</v>
+        <v>21.249606061282</v>
       </c>
       <c r="E15" s="7" t="n">
         <v>27</v>
       </c>
       <c r="F15" s="7" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
@@ -1078,22 +1078,22 @@
         <v>65</v>
       </c>
       <c r="B16" s="6" t="n">
-        <v>19.8574757518145</v>
+        <v>19.8934475028689</v>
       </c>
       <c r="C16" s="6" t="n">
-        <v>21.2085716789226</v>
+        <v>21.5070163155761</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>21.0256770759222</v>
+        <v>21.1718113242052</v>
       </c>
       <c r="E16" s="7" t="n">
         <v>26</v>
       </c>
       <c r="F16" s="7" t="n">
+        <v>26</v>
+      </c>
+      <c r="G16" s="7" t="n">
         <v>28</v>
-      </c>
-      <c r="G16" s="7" t="n">
-        <v>29</v>
       </c>
     </row>
     <row r="17">
@@ -1101,22 +1101,22 @@
         <v>66</v>
       </c>
       <c r="B17" s="6" t="n">
-        <v>19.9061176278128</v>
+        <v>19.9734372876208</v>
       </c>
       <c r="C17" s="6" t="n">
-        <v>21.3178904257954</v>
+        <v>21.583230428307</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>21.1352768847315</v>
+        <v>21.3615170074005</v>
       </c>
       <c r="E17" s="7" t="n">
         <v>25</v>
       </c>
       <c r="F17" s="7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G17" s="7" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18">
@@ -1124,22 +1124,22 @@
         <v>67</v>
       </c>
       <c r="B18" s="6" t="n">
-        <v>19.9125102176982</v>
+        <v>19.992436174949</v>
       </c>
       <c r="C18" s="6" t="n">
-        <v>21.3845376291321</v>
+        <v>21.8409723843501</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>21.264708137411</v>
+        <v>22.0248022320709</v>
       </c>
       <c r="E18" s="7" t="n">
         <v>24</v>
       </c>
       <c r="F18" s="7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G18" s="7" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -1147,22 +1147,22 @@
         <v>68</v>
       </c>
       <c r="B19" s="6" t="n">
-        <v>20.0037192620776</v>
+        <v>19.9978967869061</v>
       </c>
       <c r="C19" s="6" t="n">
-        <v>21.1922909647355</v>
+        <v>21.6863002336057</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>21.2747942107957</v>
+        <v>21.3528315018074</v>
       </c>
       <c r="E19" s="7" t="n">
         <v>23</v>
       </c>
       <c r="F19" s="7" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G19" s="7" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20">
@@ -1170,22 +1170,22 @@
         <v>69</v>
       </c>
       <c r="B20" s="6" t="n">
-        <v>20.0142102961635</v>
+        <v>20.0212060417786</v>
       </c>
       <c r="C20" s="6" t="n">
-        <v>21.4252245465158</v>
+        <v>21.8747534865845</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>21.3669539158497</v>
+        <v>21.7355566677036</v>
       </c>
       <c r="E20" s="7" t="n">
         <v>22</v>
       </c>
       <c r="F20" s="7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G20" s="7" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21">
@@ -1193,22 +1193,22 @@
         <v>70</v>
       </c>
       <c r="B21" s="6" t="n">
-        <v>20.0367136523002</v>
+        <v>20.141675428836</v>
       </c>
       <c r="C21" s="6" t="n">
-        <v>21.2601764538718</v>
+        <v>21.4983656696279</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>21.6055106192795</v>
+        <v>21.4425464162067</v>
       </c>
       <c r="E21" s="7" t="n">
         <v>21</v>
       </c>
       <c r="F21" s="7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G21" s="7" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22">
@@ -1216,22 +1216,22 @@
         <v>71</v>
       </c>
       <c r="B22" s="6" t="n">
-        <v>20.0769187861105</v>
+        <v>20.1872522669656</v>
       </c>
       <c r="C22" s="6" t="n">
-        <v>21.5638656242099</v>
+        <v>21.8838692396097</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>21.9350921189996</v>
+        <v>21.5491744513175</v>
       </c>
       <c r="E22" s="7" t="n">
         <v>20</v>
       </c>
       <c r="F22" s="7" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G22" s="7" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
@@ -1239,22 +1239,22 @@
         <v>72</v>
       </c>
       <c r="B23" s="6" t="n">
-        <v>20.1058595572337</v>
+        <v>20.1972116221527</v>
       </c>
       <c r="C23" s="6" t="n">
-        <v>21.5910042147887</v>
+        <v>21.5823791014728</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>21.4276209117979</v>
+        <v>21.7892310840704</v>
       </c>
       <c r="E23" s="7" t="n">
         <v>19</v>
       </c>
       <c r="F23" s="7" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G23" s="7" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24">
@@ -1262,22 +1262,22 @@
         <v>73</v>
       </c>
       <c r="B24" s="6" t="n">
-        <v>20.135411033049</v>
+        <v>20.208241312078</v>
       </c>
       <c r="C24" s="6" t="n">
-        <v>21.8093598143099</v>
+        <v>21.9619483113112</v>
       </c>
       <c r="D24" s="6" t="n">
-        <v>21.4168949460185</v>
+        <v>21.2418276787164</v>
       </c>
       <c r="E24" s="7" t="n">
         <v>18</v>
       </c>
       <c r="F24" s="7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G24" s="7" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25">
@@ -1285,22 +1285,22 @@
         <v>74</v>
       </c>
       <c r="B25" s="6" t="n">
-        <v>20.2604967750997</v>
+        <v>20.2553225588279</v>
       </c>
       <c r="C25" s="6" t="n">
-        <v>21.7616139918495</v>
+        <v>22.1652706389102</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>21.2108258470818</v>
+        <v>21.5361125131561</v>
       </c>
       <c r="E25" s="7" t="n">
         <v>17</v>
       </c>
       <c r="F25" s="7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G25" s="7" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26">
@@ -1308,19 +1308,19 @@
         <v>75</v>
       </c>
       <c r="B26" s="6" t="n">
-        <v>20.375956479611</v>
+        <v>20.396539276075</v>
       </c>
       <c r="C26" s="6" t="n">
-        <v>21.8927381075612</v>
+        <v>22.1850860715555</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>21.4545591566096</v>
+        <v>21.5755963181864</v>
       </c>
       <c r="E26" s="7" t="n">
         <v>16</v>
       </c>
       <c r="F26" s="7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G26" s="7" t="n">
         <v>17</v>
@@ -1331,22 +1331,22 @@
         <v>76</v>
       </c>
       <c r="B27" s="6" t="n">
-        <v>20.3810422985352</v>
+        <v>20.5226512577276</v>
       </c>
       <c r="C27" s="6" t="n">
-        <v>22.8644491972051</v>
+        <v>22.2052020237789</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>21.5873240634659</v>
+        <v>21.6415630723616</v>
       </c>
       <c r="E27" s="7" t="n">
         <v>15</v>
       </c>
       <c r="F27" s="7" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G27" s="7" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28">
@@ -1354,22 +1354,22 @@
         <v>77</v>
       </c>
       <c r="B28" s="6" t="n">
-        <v>20.384047804269</v>
+        <v>20.5648468329649</v>
       </c>
       <c r="C28" s="6" t="n">
-        <v>21.6727120807677</v>
+        <v>22.109306438457</v>
       </c>
       <c r="D28" s="6" t="n">
-        <v>21.2749109934624</v>
+        <v>21.5176282902975</v>
       </c>
       <c r="E28" s="7" t="n">
         <v>14</v>
       </c>
       <c r="F28" s="7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G28" s="7" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29">
@@ -1377,19 +1377,19 @@
         <v>78</v>
       </c>
       <c r="B29" s="6" t="n">
-        <v>20.4552391650187</v>
+        <v>20.6354136777836</v>
       </c>
       <c r="C29" s="6" t="n">
-        <v>21.8335358737892</v>
+        <v>22.2547536151383</v>
       </c>
       <c r="D29" s="6" t="n">
-        <v>21.5046224421822</v>
+        <v>21.717654301185</v>
       </c>
       <c r="E29" s="7" t="n">
         <v>13</v>
       </c>
       <c r="F29" s="7" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G29" s="7" t="n">
         <v>14</v>
@@ -1400,13 +1400,13 @@
         <v>79</v>
       </c>
       <c r="B30" s="6" t="n">
-        <v>20.5309555180359</v>
+        <v>20.6394973465503</v>
       </c>
       <c r="C30" s="6" t="n">
-        <v>22.0047054104213</v>
+        <v>22.3191770733277</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>21.7766413189866</v>
+        <v>22.0011629462005</v>
       </c>
       <c r="E30" s="7" t="n">
         <v>12</v>
@@ -1415,7 +1415,7 @@
         <v>11</v>
       </c>
       <c r="G30" s="7" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31">
@@ -1423,22 +1423,22 @@
         <v>80</v>
       </c>
       <c r="B31" s="6" t="n">
-        <v>20.5856811144654</v>
+        <v>20.6648824787992</v>
       </c>
       <c r="C31" s="6" t="n">
-        <v>22.0892875232108</v>
+        <v>23.3275044065081</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>21.9460621498152</v>
+        <v>21.8516786530553</v>
       </c>
       <c r="E31" s="7" t="n">
         <v>11</v>
       </c>
       <c r="F31" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" s="7" t="n">
         <v>9</v>
-      </c>
-      <c r="G31" s="7" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="32">
@@ -1446,19 +1446,19 @@
         <v>81</v>
       </c>
       <c r="B32" s="6" t="n">
-        <v>20.6305569289684</v>
+        <v>20.6756639522729</v>
       </c>
       <c r="C32" s="6" t="n">
-        <v>21.5852338141457</v>
+        <v>22.3644107064039</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>21.9133415312278</v>
+        <v>21.8751203375015</v>
       </c>
       <c r="E32" s="7" t="n">
         <v>10</v>
       </c>
       <c r="F32" s="7" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="G32" s="7" t="n">
         <v>8</v>
@@ -1469,22 +1469,22 @@
         <v>82</v>
       </c>
       <c r="B33" s="6" t="n">
-        <v>20.6587043735987</v>
+        <v>20.7308297358785</v>
       </c>
       <c r="C33" s="6" t="n">
-        <v>21.9869290296209</v>
+        <v>22.3891148904204</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>21.9955361772595</v>
+        <v>21.6496451613442</v>
       </c>
       <c r="E33" s="7" t="n">
         <v>9</v>
       </c>
       <c r="F33" s="7" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G33" s="7" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34">
@@ -1492,22 +1492,22 @@
         <v>83</v>
       </c>
       <c r="B34" s="6" t="n">
-        <v>20.6964194817611</v>
+        <v>20.7687883006564</v>
       </c>
       <c r="C34" s="6" t="n">
-        <v>22.1807213214588</v>
+        <v>22.3346852234913</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>21.4830039922846</v>
+        <v>22.2234225165373</v>
       </c>
       <c r="E34" s="7" t="n">
         <v>8</v>
       </c>
       <c r="F34" s="7" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G34" s="7" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35">
@@ -1515,19 +1515,19 @@
         <v>84</v>
       </c>
       <c r="B35" s="6" t="n">
-        <v>20.7299881493105</v>
+        <v>20.8139937905873</v>
       </c>
       <c r="C35" s="6" t="n">
-        <v>22.1607848322046</v>
+        <v>21.8542327702446</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>21.7743314810484</v>
+        <v>21.8273245183991</v>
       </c>
       <c r="E35" s="7" t="n">
         <v>7</v>
       </c>
       <c r="F35" s="7" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G35" s="7" t="n">
         <v>10</v>
@@ -1538,13 +1538,13 @@
         <v>85</v>
       </c>
       <c r="B36" s="6" t="n">
-        <v>20.8228864725994</v>
+        <v>20.8761109695401</v>
       </c>
       <c r="C36" s="6" t="n">
-        <v>22.2522532206513</v>
+        <v>22.5411614951787</v>
       </c>
       <c r="D36" s="6" t="n">
-        <v>21.5442096181859</v>
+        <v>21.4971461456483</v>
       </c>
       <c r="E36" s="7" t="n">
         <v>6</v>
@@ -1553,7 +1553,7 @@
         <v>3</v>
       </c>
       <c r="G36" s="7" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37">
@@ -1561,22 +1561,22 @@
         <v>86</v>
       </c>
       <c r="B37" s="6" t="n">
-        <v>20.92588267107</v>
+        <v>21.0473143542338</v>
       </c>
       <c r="C37" s="6" t="n">
-        <v>22.3526686614134</v>
+        <v>22.4477988829848</v>
       </c>
       <c r="D37" s="6" t="n">
-        <v>21.4798863308905</v>
+        <v>22.3501144657146</v>
       </c>
       <c r="E37" s="7" t="n">
         <v>5</v>
       </c>
       <c r="F37" s="7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G37" s="7" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
@@ -1584,22 +1584,22 @@
         <v>87</v>
       </c>
       <c r="B38" s="6" t="n">
-        <v>20.9789161674321</v>
+        <v>21.069682966015</v>
       </c>
       <c r="C38" s="6" t="n">
-        <v>22.0637814474679</v>
+        <v>22.6769211401591</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>22.139514231909</v>
+        <v>21.7652353098645</v>
       </c>
       <c r="E38" s="7" t="n">
         <v>4</v>
       </c>
       <c r="F38" s="7" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G38" s="7" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39">
@@ -1607,13 +1607,13 @@
         <v>88</v>
       </c>
       <c r="B39" s="6" t="n">
-        <v>21.0106296322557</v>
+        <v>21.0757503393262</v>
       </c>
       <c r="C39" s="6" t="n">
-        <v>22.2381956739863</v>
+        <v>22.4497999346531</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>22.2975561212156</v>
+        <v>22.3555956315421</v>
       </c>
       <c r="E39" s="7" t="n">
         <v>3</v>
@@ -1622,7 +1622,7 @@
         <v>4</v>
       </c>
       <c r="G39" s="7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1630,22 +1630,22 @@
         <v>89</v>
       </c>
       <c r="B40" s="6" t="n">
-        <v>21.0117854155308</v>
+        <v>21.1292636443122</v>
       </c>
       <c r="C40" s="6" t="n">
-        <v>22.1835123760403</v>
+        <v>22.3716813013982</v>
       </c>
       <c r="D40" s="6" t="n">
-        <v>22.3046521057364</v>
+        <v>22.3528175406441</v>
       </c>
       <c r="E40" s="7" t="n">
         <v>2</v>
       </c>
       <c r="F40" s="7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G40" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -1653,22 +1653,22 @@
         <v>90</v>
       </c>
       <c r="B41" s="6" t="n">
-        <v>21.0548628021199</v>
+        <v>21.1641431018848</v>
       </c>
       <c r="C41" s="6" t="n">
-        <v>22.2152592284113</v>
+        <v>22.3712982063674</v>
       </c>
       <c r="D41" s="6" t="n">
-        <v>22.241371497262</v>
+        <v>22.3249745882114</v>
       </c>
       <c r="E41" s="7" t="n">
         <v>1</v>
       </c>
       <c r="F41" s="7" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G41" s="7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" ht="15" customHeight="1">

--- a/TabuladosGasolina.xlsx
+++ b/TabuladosGasolina.xlsx
@@ -159,13 +159,13 @@
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">marzo 2021</t>
+    <t xml:space="preserve">abril 2021</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">abril 2021</t>
+    <t xml:space="preserve">mayo 2021</t>
   </si>
   <si>
     <t xml:space="preserve">FUENTE: CRE; Comisión Reguladora de Energía</t>

--- a/TabuladosGasolina.xlsx
+++ b/TabuladosGasolina.xlsx
@@ -763,13 +763,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="250.71" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="250.71" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="250.71" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="250.71" hidden="0" customWidth="1"/>
-    <col min="5" max="5" width="250.71" hidden="0" customWidth="1"/>
-    <col min="6" max="6" width="250.71" hidden="0" customWidth="1"/>
-    <col min="7" max="7" width="250.71" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="19" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="19" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="19" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="19" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="19" hidden="0" customWidth="1"/>
+    <col min="6" max="6" width="19" hidden="0" customWidth="1"/>
+    <col min="7" max="7" width="19" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3">

--- a/TabuladosGasolina.xlsx
+++ b/TabuladosGasolina.xlsx
@@ -165,7 +165,7 @@
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">abril 2021</t>
+    <t xml:space="preserve">junio 2021</t>
   </si>
   <si>
     <t xml:space="preserve">FUENTE: CRE; Comisión Reguladora de Energía</t>

--- a/TabuladosGasolina.xlsx
+++ b/TabuladosGasolina.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>CRE, pesos por litro</t>
   </si>
@@ -169,27 +169,6 @@
   </si>
   <si>
     <t xml:space="preserve">FUENTE: CRE; Comisión Reguladora de Energía</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entidad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regular</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Premium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diesel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lugar Regular</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lugar Premium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lugar Diésel</t>
   </si>
   <si>
     <t xml:space="preserve">Tamaulipas</t>
@@ -877,781 +856,758 @@
       <c r="A15" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>58</v>
+      <c r="B15" s="5" t="n">
+        <v>17.936372295827</v>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>19.9245547199303</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>21.1671770624408</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>33</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>33</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="9" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>17.936372295827</v>
+        <v>18.3844670195887</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>19.9245547199303</v>
+        <v>20.5645187609962</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>21.1671770624408</v>
+        <v>21.6555795905385</v>
       </c>
       <c r="E16" s="6" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="9" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>18.3844670195887</v>
+        <v>19.3792480570266</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>20.5645187609962</v>
+        <v>21.1615048781507</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>21.6555795905385</v>
+        <v>20.6906392906205</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="9" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>19.3792480570266</v>
+        <v>19.7945776620227</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>21.1615048781507</v>
+        <v>21.5896895917198</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>20.6906392906205</v>
+        <v>21.2446955123477</v>
       </c>
       <c r="E18" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>29</v>
+      </c>
+      <c r="G18" s="6" t="n">
         <v>31</v>
-      </c>
-      <c r="F18" s="6" t="n">
-        <v>31</v>
-      </c>
-      <c r="G18" s="6" t="n">
-        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="9" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>19.7945776620227</v>
+        <v>19.8219915297738</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>21.5896895917198</v>
+        <v>21.6321621866342</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>21.2446955123477</v>
+        <v>21.3001440234865</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F19" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="G19" s="6" t="n">
         <v>29</v>
-      </c>
-      <c r="G19" s="6" t="n">
-        <v>31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>19.8219915297738</v>
+        <v>19.9059365441139</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>21.6321621866342</v>
+        <v>21.8521972683957</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>21.3001440234865</v>
+        <v>21.2825584808682</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="9" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>19.9059365441139</v>
+        <v>19.9122394729638</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>21.8521972683957</v>
+        <v>21.6263432640446</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>21.2825584808682</v>
+        <v>21.3153008241881</v>
       </c>
       <c r="E21" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="F21" s="6" t="n">
         <v>28</v>
       </c>
-      <c r="F21" s="6" t="n">
-        <v>21</v>
-      </c>
       <c r="G21" s="6" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="9" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>19.9122394729638</v>
+        <v>19.9158442278991</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>21.6263432640446</v>
+        <v>21.3995503860688</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>21.3153008241881</v>
+        <v>21.3407275447766</v>
       </c>
       <c r="E22" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="G22" s="6" t="n">
         <v>27</v>
-      </c>
-      <c r="F22" s="6" t="n">
-        <v>28</v>
-      </c>
-      <c r="G22" s="6" t="n">
-        <v>28</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="9" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>19.9158442278991</v>
+        <v>19.9673835423898</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>21.3995503860688</v>
+        <v>21.6818639465342</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>21.3407275447766</v>
+        <v>21.5047885373029</v>
       </c>
       <c r="E23" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="F23" s="6" t="n">
         <v>26</v>
       </c>
-      <c r="F23" s="6" t="n">
-        <v>30</v>
-      </c>
       <c r="G23" s="6" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="9" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>19.9673835423898</v>
+        <v>20.07905281324</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>21.6818639465342</v>
+        <v>22.0089859094333</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>21.5047885373029</v>
+        <v>22.2042269713115</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>20.07905281324</v>
+        <v>20.0823080500317</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>22.0089859094333</v>
+        <v>21.8382194269434</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>22.2042269713115</v>
+        <v>21.5064659186007</v>
       </c>
       <c r="E25" s="6" t="n">
+        <v>23</v>
+      </c>
+      <c r="F25" s="6" t="n">
+        <v>22</v>
+      </c>
+      <c r="G25" s="6" t="n">
         <v>24</v>
-      </c>
-      <c r="F25" s="6" t="n">
-        <v>19</v>
-      </c>
-      <c r="G25" s="6" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="9" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>20.0823080500317</v>
+        <v>20.1152327348128</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>21.8382194269434</v>
+        <v>21.9387902555111</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>21.5064659186007</v>
+        <v>21.7830418300634</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="9" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>20.1152327348128</v>
+        <v>20.2125820668291</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>21.9387902555111</v>
+        <v>21.7035037891207</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>21.7830418300634</v>
+        <v>21.6643368378115</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F27" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="G27" s="6" t="n">
         <v>20</v>
-      </c>
-      <c r="G27" s="6" t="n">
-        <v>14</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="9" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B28" s="5" t="n">
-        <v>20.2125820668291</v>
+        <v>20.2238548339058</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>21.7035037891207</v>
+        <v>22.0150561470371</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>21.6643368378115</v>
+        <v>21.6851540525282</v>
       </c>
       <c r="E28" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F28" s="6" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="9" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B29" s="5" t="n">
-        <v>20.2238548339058</v>
+        <v>20.2762075949868</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>22.0150561470371</v>
+        <v>22.1086356895075</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>21.6851540525282</v>
+        <v>21.4026699418263</v>
       </c>
       <c r="E29" s="6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="9" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B30" s="5" t="n">
-        <v>20.2762075949868</v>
+        <v>20.2848278985596</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>22.1086356895075</v>
+        <v>21.7458445548444</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>21.4026699418263</v>
+        <v>21.8447710924043</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="9" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B31" s="5" t="n">
-        <v>20.2848278985596</v>
+        <v>20.3729778141571</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>21.7458445548444</v>
+        <v>22.3687533967186</v>
       </c>
       <c r="D31" s="5" t="n">
-        <v>21.8447710924043</v>
+        <v>21.7145609440033</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="9" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B32" s="5" t="n">
-        <v>20.3729778141571</v>
+        <v>20.4118564016545</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>22.3687533967186</v>
+        <v>22.3040782526937</v>
       </c>
       <c r="D32" s="5" t="n">
-        <v>21.7145609440033</v>
+        <v>21.7419177323968</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="9" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B33" s="5" t="n">
-        <v>20.4118564016545</v>
+        <v>20.4535683677442</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>22.3040782526937</v>
+        <v>22.2994363213575</v>
       </c>
       <c r="D33" s="5" t="n">
-        <v>21.7419177323968</v>
+        <v>21.7227683583747</v>
       </c>
       <c r="E33" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="F33" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="G33" s="6" t="n">
         <v>16</v>
-      </c>
-      <c r="F33" s="6" t="n">
-        <v>14</v>
-      </c>
-      <c r="G33" s="6" t="n">
-        <v>15</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="9" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B34" s="5" t="n">
-        <v>20.4535683677442</v>
+        <v>20.6008433710482</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>22.2994363213575</v>
+        <v>22.2595976026841</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>21.7227683583747</v>
+        <v>21.7831034393297</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="9" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B35" s="5" t="n">
-        <v>20.6008433710482</v>
+        <v>20.6019730789007</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>22.2595976026841</v>
+        <v>21.7316348948948</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>21.7831034393297</v>
+        <v>21.6176870723966</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="9" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B36" s="5" t="n">
-        <v>20.6019730789007</v>
+        <v>20.6704781854794</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>21.7316348948948</v>
+        <v>22.3177242616356</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>21.6176870723966</v>
+        <v>21.6375490232028</v>
       </c>
       <c r="E36" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="F36" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="F36" s="6" t="n">
-        <v>24</v>
-      </c>
       <c r="G36" s="6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="9" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B37" s="5" t="n">
-        <v>20.6704781854794</v>
+        <v>20.7238707502758</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>22.3177242616356</v>
+        <v>22.5361813306409</v>
       </c>
       <c r="D37" s="5" t="n">
-        <v>21.6375490232028</v>
+        <v>22.1665256365511</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F37" s="6" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="9" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B38" s="5" t="n">
-        <v>20.7238707502758</v>
+        <v>20.7305410300966</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>22.5361813306409</v>
+        <v>23.4433286841023</v>
       </c>
       <c r="D38" s="5" t="n">
-        <v>22.1665256365511</v>
+        <v>21.8165081576757</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="9" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B39" s="5" t="n">
-        <v>20.7305410300966</v>
+        <v>20.7518244095311</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>23.4433286841023</v>
+        <v>22.3723761899979</v>
       </c>
       <c r="D39" s="5" t="n">
-        <v>21.8165081576757</v>
+        <v>22.3174702238449</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="9" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B40" s="5" t="n">
-        <v>20.7518244095311</v>
+        <v>20.7844168031617</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>22.3723761899979</v>
+        <v>22.5177533995697</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>22.3174702238449</v>
+        <v>21.8172513819571</v>
       </c>
       <c r="E40" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="F40" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="F40" s="6" t="n">
+      <c r="G40" s="6" t="n">
         <v>11</v>
-      </c>
-      <c r="G40" s="6" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="9" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B41" s="5" t="n">
-        <v>20.7844168031617</v>
+        <v>20.7897836563463</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>22.5177533995697</v>
+        <v>22.5751581860528</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>21.8172513819571</v>
+        <v>22.1213441029106</v>
       </c>
       <c r="E41" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="F41" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="G41" s="6" t="n">
         <v>8</v>
-      </c>
-      <c r="F41" s="6" t="n">
-        <v>9</v>
-      </c>
-      <c r="G41" s="6" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="9" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B42" s="5" t="n">
-        <v>20.7897836563463</v>
+        <v>20.9332878321282</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>22.5751581860528</v>
+        <v>22.7006753231928</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>22.1213441029106</v>
+        <v>21.6817931428749</v>
       </c>
       <c r="E42" s="6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F42" s="6" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B43" s="5" t="n">
-        <v>20.9332878321282</v>
+        <v>21.0554451724892</v>
       </c>
       <c r="C43" s="5" t="n">
-        <v>22.7006753231928</v>
+        <v>22.5974592010661</v>
       </c>
       <c r="D43" s="5" t="n">
-        <v>21.6817931428749</v>
+        <v>22.4637953852769</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F43" s="6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G43" s="6" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="9" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B44" s="5" t="n">
-        <v>21.0554451724892</v>
+        <v>21.0897339684361</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>22.5974592010661</v>
+        <v>22.5799800430862</v>
       </c>
       <c r="D44" s="5" t="n">
-        <v>22.4637953852769</v>
+        <v>22.4660599994762</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="9" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B45" s="5" t="n">
-        <v>21.0897339684361</v>
+        <v>21.1774680287759</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>22.5799800430862</v>
+        <v>22.4234641111451</v>
       </c>
       <c r="D45" s="5" t="n">
-        <v>22.4660599994762</v>
+        <v>22.5264431285858</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B46" s="5" t="n">
-        <v>21.1774680287759</v>
+        <v>21.1996025434127</v>
       </c>
       <c r="C46" s="5" t="n">
-        <v>22.4234641111451</v>
+        <v>22.8626085279982</v>
       </c>
       <c r="D46" s="5" t="n">
-        <v>22.5264431285858</v>
+        <v>21.8793767200047</v>
       </c>
       <c r="E46" s="6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F46" s="6" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G46" s="6" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B47" s="5" t="n">
-        <v>21.1996025434127</v>
+        <v>21.3552292868551</v>
       </c>
       <c r="C47" s="5" t="n">
-        <v>22.8626085279982</v>
+        <v>22.6692335259552</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>21.8793767200047</v>
+        <v>22.6311642812673</v>
       </c>
       <c r="E47" s="6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F47" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G47" s="6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s">
-        <v>91</v>
-      </c>
-      <c r="B48" t="n">
-        <v>21.3552292868551</v>
-      </c>
-      <c r="C48" t="n">
-        <v>22.6692335259552</v>
-      </c>
-      <c r="D48" t="n">
-        <v>22.6311642812673</v>
-      </c>
-      <c r="E48" t="n">
-        <v>1</v>
-      </c>
-      <c r="F48" t="n">
-        <v>4</v>
-      </c>
-      <c r="G48" t="n">
         <v>1</v>
       </c>
     </row>

--- a/TabuladosGasolina.xlsx
+++ b/TabuladosGasolina.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -159,13 +159,13 @@
     <t xml:space="preserve">CRE, pesos por litro</t>
   </si>
   <si>
-    <t xml:space="preserve">mayo 2021</t>
+    <t xml:space="preserve">junio 2021</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">junio 2021</t>
+    <t xml:space="preserve">julio 2021</t>
   </si>
   <si>
     <t xml:space="preserve">FUENTE: CRE; Comisión Reguladora de Energía</t>
@@ -180,30 +180,30 @@
     <t xml:space="preserve">Baja California</t>
   </si>
   <si>
+    <t xml:space="preserve">Hidalgo</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tlaxcala</t>
   </si>
   <si>
-    <t xml:space="preserve">Hidalgo</t>
+    <t xml:space="preserve">Puebla</t>
   </si>
   <si>
     <t xml:space="preserve">Querétaro</t>
   </si>
   <si>
-    <t xml:space="preserve">Puebla</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tabasco</t>
   </si>
   <si>
     <t xml:space="preserve">Morelos</t>
   </si>
   <si>
+    <t xml:space="preserve">Colima</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sonora</t>
   </si>
   <si>
-    <t xml:space="preserve">Colima</t>
-  </si>
-  <si>
     <t xml:space="preserve">Coahuila</t>
   </si>
   <si>
@@ -213,10 +213,13 @@
     <t xml:space="preserve">Nacional</t>
   </si>
   <si>
+    <t xml:space="preserve">Chiapas</t>
+  </si>
+  <si>
     <t xml:space="preserve">México</t>
   </si>
   <si>
-    <t xml:space="preserve">Chiapas</t>
+    <t xml:space="preserve">Aguascalientes</t>
   </si>
   <si>
     <t xml:space="preserve">San Luis Potosí</t>
@@ -225,43 +228,40 @@
     <t xml:space="preserve">Guanajuato</t>
   </si>
   <si>
-    <t xml:space="preserve">Aguascalientes</t>
-  </si>
-  <si>
     <t xml:space="preserve">Baja California Sur</t>
   </si>
   <si>
+    <t xml:space="preserve">Sinaloa</t>
+  </si>
+  <si>
     <t xml:space="preserve">Yucatán</t>
   </si>
   <si>
     <t xml:space="preserve">Zacatecas</t>
   </si>
   <si>
+    <t xml:space="preserve">Jalisco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nayarit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durango</t>
+  </si>
+  <si>
     <t xml:space="preserve">Michoacán</t>
   </si>
   <si>
-    <t xml:space="preserve">Sinaloa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Durango</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jalisco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nayarit</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ciudad de México</t>
   </si>
   <si>
     <t xml:space="preserve">Campeche</t>
   </si>
   <si>
+    <t xml:space="preserve">Quintana Roo</t>
+  </si>
+  <si>
     <t xml:space="preserve">Oaxaca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quintana Roo</t>
   </si>
   <si>
     <t xml:space="preserve">Nuevo León</t>
@@ -273,9 +273,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="7">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -289,14 +289,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <b/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b/>
     </font>
     <font>
       <sz val="11"/>
@@ -309,20 +307,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <b/>
     </font>
   </fonts>
   <fills count="4">
@@ -384,22 +368,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -733,10 +707,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="true" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -857,13 +831,13 @@
         <v>52</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>17.936372295827</v>
+        <v>18.0789676692544</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>19.9245547199303</v>
+        <v>20.4993678404723</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>21.1671770624408</v>
+        <v>21.0371716674289</v>
       </c>
       <c r="E15" s="6" t="n">
         <v>33</v>
@@ -880,13 +854,13 @@
         <v>53</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>18.3844670195887</v>
+        <v>18.2446231828486</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>20.5645187609962</v>
+        <v>20.504980789173</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>21.6555795905385</v>
+        <v>21.5801092487943</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>32</v>
@@ -895,7 +869,7 @@
         <v>32</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17">
@@ -903,13 +877,13 @@
         <v>54</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>19.3792480570266</v>
+        <v>19.4342762803399</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>21.1615048781507</v>
+        <v>21.4279100674108</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>20.6906392906205</v>
+        <v>20.7853196945746</v>
       </c>
       <c r="E17" s="6" t="n">
         <v>31</v>
@@ -926,22 +900,22 @@
         <v>55</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>19.7945776620227</v>
+        <v>19.8521576924721</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>21.5896895917198</v>
+        <v>21.7067489322467</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>21.2446955123477</v>
+        <v>21.3491100091099</v>
       </c>
       <c r="E18" s="6" t="n">
         <v>30</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19">
@@ -949,19 +923,19 @@
         <v>56</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>19.8219915297738</v>
+        <v>19.8805851565726</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>21.6321621866342</v>
+        <v>21.6854732186337</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>21.3001440234865</v>
+        <v>21.3313628436721</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>29</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>29</v>
@@ -972,19 +946,19 @@
         <v>57</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>19.9059365441139</v>
+        <v>19.916201876932</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>21.8521972683957</v>
+        <v>21.7382999135632</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>21.2825584808682</v>
+        <v>21.3230716024154</v>
       </c>
       <c r="E20" s="6" t="n">
         <v>28</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>30</v>
@@ -995,22 +969,22 @@
         <v>58</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>19.9122394729638</v>
+        <v>19.9241837845997</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>21.6263432640446</v>
+        <v>21.9434869167223</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>21.3153008241881</v>
+        <v>21.2823668858762</v>
       </c>
       <c r="E21" s="6" t="n">
         <v>27</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22">
@@ -1018,13 +992,13 @@
         <v>59</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>19.9158442278991</v>
+        <v>19.94807271769</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>21.3995503860688</v>
+        <v>21.5126285167845</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>21.3407275447766</v>
+        <v>21.3778723345895</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>26</v>
@@ -1041,19 +1015,19 @@
         <v>60</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>19.9673835423898</v>
+        <v>20.0258489184888</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>21.6818639465342</v>
+        <v>21.8002129115494</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>21.5047885373029</v>
+        <v>21.5692441880298</v>
       </c>
       <c r="E23" s="6" t="n">
         <v>25</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>25</v>
@@ -1064,22 +1038,22 @@
         <v>61</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>20.07905281324</v>
+        <v>20.1357804066404</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>22.0089859094333</v>
+        <v>21.925466062095</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>22.2042269713115</v>
+        <v>21.61215137279</v>
       </c>
       <c r="E24" s="6" t="n">
         <v>24</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25">
@@ -1087,22 +1061,22 @@
         <v>62</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>20.0823080500317</v>
+        <v>20.1785518269734</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>21.8382194269434</v>
+        <v>22.2758566911361</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>21.5064659186007</v>
+        <v>22.279914607375</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>23</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
@@ -1110,19 +1084,19 @@
         <v>63</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>20.1152327348128</v>
+        <v>20.186969214596</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>21.9387902555111</v>
+        <v>21.9593844149638</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>21.7830418300634</v>
+        <v>21.809411585054</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>22</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>14</v>
@@ -1133,22 +1107,22 @@
         <v>64</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>20.2125820668291</v>
+        <v>20.1931510819999</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>21.7035037891207</v>
+        <v>21.740640000576</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>21.6643368378115</v>
+        <v>21.6887226163607</v>
       </c>
       <c r="E27" s="6" t="n">
         <v>21</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28">
@@ -1156,19 +1130,19 @@
         <v>65</v>
       </c>
       <c r="B28" s="5" t="n">
-        <v>20.2238548339058</v>
+        <v>20.2690442064341</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>22.0150561470371</v>
+        <v>22.1309016385146</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>21.6851540525282</v>
+        <v>21.732751381016</v>
       </c>
       <c r="E28" s="6" t="n">
         <v>20</v>
       </c>
       <c r="F28" s="6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>18</v>
@@ -1179,22 +1153,22 @@
         <v>66</v>
       </c>
       <c r="B29" s="5" t="n">
-        <v>20.2762075949868</v>
+        <v>20.2918883432182</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>22.1086356895075</v>
+        <v>21.7541082149587</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>21.4026699418263</v>
+        <v>21.8901898037434</v>
       </c>
       <c r="E29" s="6" t="n">
         <v>19</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30">
@@ -1202,22 +1176,22 @@
         <v>67</v>
       </c>
       <c r="B30" s="5" t="n">
-        <v>20.2848278985596</v>
+        <v>20.3224293201431</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>21.7458445548444</v>
+        <v>22.2056848531328</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>21.8447710924043</v>
+        <v>21.4184342808819</v>
       </c>
       <c r="E30" s="6" t="n">
         <v>18</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31">
@@ -1225,22 +1199,22 @@
         <v>68</v>
       </c>
       <c r="B31" s="5" t="n">
-        <v>20.3729778141571</v>
+        <v>20.4569959895805</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>22.3687533967186</v>
+        <v>22.3425345411591</v>
       </c>
       <c r="D31" s="5" t="n">
-        <v>21.7145609440033</v>
+        <v>21.6925010801293</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>17</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32">
@@ -1248,19 +1222,19 @@
         <v>69</v>
       </c>
       <c r="B32" s="5" t="n">
-        <v>20.4118564016545</v>
+        <v>20.4629787884339</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>22.3040782526937</v>
+        <v>22.4966814799788</v>
       </c>
       <c r="D32" s="5" t="n">
-        <v>21.7419177323968</v>
+        <v>21.8079517108996</v>
       </c>
       <c r="E32" s="6" t="n">
         <v>16</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>15</v>
@@ -1271,22 +1245,22 @@
         <v>70</v>
       </c>
       <c r="B33" s="5" t="n">
-        <v>20.4535683677442</v>
+        <v>20.4688943734493</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>22.2994363213575</v>
+        <v>22.3884606180223</v>
       </c>
       <c r="D33" s="5" t="n">
-        <v>21.7227683583747</v>
+        <v>21.8394000644618</v>
       </c>
       <c r="E33" s="6" t="n">
         <v>15</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34">
@@ -1294,22 +1268,22 @@
         <v>71</v>
       </c>
       <c r="B34" s="5" t="n">
-        <v>20.6008433710482</v>
+        <v>20.6262552566696</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>22.2595976026841</v>
+        <v>22.3430235506456</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>21.7831034393297</v>
+        <v>21.8579853326099</v>
       </c>
       <c r="E34" s="6" t="n">
         <v>14</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35">
@@ -1317,22 +1291,22 @@
         <v>72</v>
       </c>
       <c r="B35" s="5" t="n">
-        <v>20.6019730789007</v>
+        <v>20.6567461569035</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>21.7316348948948</v>
+        <v>23.6154395003089</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>21.6176870723966</v>
+        <v>21.7142281801874</v>
       </c>
       <c r="E35" s="6" t="n">
         <v>13</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36">
@@ -1340,22 +1314,22 @@
         <v>73</v>
       </c>
       <c r="B36" s="5" t="n">
-        <v>20.6704781854794</v>
+        <v>20.7226062436147</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>22.3177242616356</v>
+        <v>21.9917989732262</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>21.6375490232028</v>
+        <v>21.9543778302129</v>
       </c>
       <c r="E36" s="6" t="n">
         <v>12</v>
       </c>
       <c r="F36" s="6" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37">
@@ -1363,22 +1337,22 @@
         <v>74</v>
       </c>
       <c r="B37" s="5" t="n">
-        <v>20.7238707502758</v>
+        <v>20.7556925280788</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>22.5361813306409</v>
+        <v>22.3649886120905</v>
       </c>
       <c r="D37" s="5" t="n">
-        <v>22.1665256365511</v>
+        <v>21.6976704570532</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>11</v>
       </c>
       <c r="F37" s="6" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38">
@@ -1386,22 +1360,22 @@
         <v>75</v>
       </c>
       <c r="B38" s="5" t="n">
-        <v>20.7305410300966</v>
+        <v>20.7865720842342</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>23.4433286841023</v>
+        <v>22.581968000779</v>
       </c>
       <c r="D38" s="5" t="n">
-        <v>21.8165081576757</v>
+        <v>21.8055485203615</v>
       </c>
       <c r="E38" s="6" t="n">
         <v>10</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39">
@@ -1409,22 +1383,22 @@
         <v>76</v>
       </c>
       <c r="B39" s="5" t="n">
-        <v>20.7518244095311</v>
+        <v>20.7924163418213</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>22.3723761899979</v>
+        <v>22.6954424724232</v>
       </c>
       <c r="D39" s="5" t="n">
-        <v>22.3174702238449</v>
+        <v>22.1792614269912</v>
       </c>
       <c r="E39" s="6" t="n">
         <v>9</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40">
@@ -1432,22 +1406,22 @@
         <v>77</v>
       </c>
       <c r="B40" s="5" t="n">
-        <v>20.7844168031617</v>
+        <v>20.798669232085</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>22.5177533995697</v>
+        <v>22.5372361719659</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>21.8172513819571</v>
+        <v>22.3677723340668</v>
       </c>
       <c r="E40" s="6" t="n">
         <v>8</v>
       </c>
       <c r="F40" s="6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41">
@@ -1455,22 +1429,22 @@
         <v>78</v>
       </c>
       <c r="B41" s="5" t="n">
-        <v>20.7897836563463</v>
+        <v>20.8381315082241</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>22.5751581860528</v>
+        <v>22.6453613379595</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>22.1213441029106</v>
+        <v>22.2831779229781</v>
       </c>
       <c r="E41" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F41" s="6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42">
@@ -1478,13 +1452,13 @@
         <v>79</v>
       </c>
       <c r="B42" s="5" t="n">
-        <v>20.9332878321282</v>
+        <v>20.9533449413726</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>22.7006753231928</v>
+        <v>22.7983355763316</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>21.6817931428749</v>
+        <v>21.7357961292948</v>
       </c>
       <c r="E42" s="6" t="n">
         <v>6</v>
@@ -1493,7 +1467,7 @@
         <v>3</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43">
@@ -1501,22 +1475,22 @@
         <v>80</v>
       </c>
       <c r="B43" s="5" t="n">
-        <v>21.0554451724892</v>
+        <v>21.1225056555891</v>
       </c>
       <c r="C43" s="5" t="n">
-        <v>22.5974592010661</v>
+        <v>22.6554002507461</v>
       </c>
       <c r="D43" s="5" t="n">
-        <v>22.4637953852769</v>
+        <v>22.5712236983414</v>
       </c>
       <c r="E43" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F43" s="6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G43" s="6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44">
@@ -1524,22 +1498,22 @@
         <v>81</v>
       </c>
       <c r="B44" s="5" t="n">
-        <v>21.0897339684361</v>
+        <v>21.1643089195633</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>22.5799800430862</v>
+        <v>22.4160220659173</v>
       </c>
       <c r="D44" s="5" t="n">
-        <v>22.4660599994762</v>
+        <v>22.4867542544406</v>
       </c>
       <c r="E44" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45">
@@ -1547,19 +1521,19 @@
         <v>82</v>
       </c>
       <c r="B45" s="5" t="n">
-        <v>21.1774680287759</v>
+        <v>21.1711137904484</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>22.4234641111451</v>
+        <v>22.6926302924581</v>
       </c>
       <c r="D45" s="5" t="n">
-        <v>22.5264431285858</v>
+        <v>22.5830564063672</v>
       </c>
       <c r="E45" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>2</v>
@@ -1570,13 +1544,13 @@
         <v>83</v>
       </c>
       <c r="B46" s="5" t="n">
-        <v>21.1996025434127</v>
+        <v>21.3011448533711</v>
       </c>
       <c r="C46" s="5" t="n">
-        <v>22.8626085279982</v>
+        <v>22.91790733836</v>
       </c>
       <c r="D46" s="5" t="n">
-        <v>21.8793767200047</v>
+        <v>21.8894192797328</v>
       </c>
       <c r="E46" s="6" t="n">
         <v>2</v>
@@ -1585,7 +1559,7 @@
         <v>2</v>
       </c>
       <c r="G46" s="6" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47">
@@ -1593,13 +1567,13 @@
         <v>84</v>
       </c>
       <c r="B47" s="5" t="n">
-        <v>21.3552292868551</v>
+        <v>21.4641195787566</v>
       </c>
       <c r="C47" s="5" t="n">
-        <v>22.6692335259552</v>
+        <v>22.7894530375549</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>22.6311642812673</v>
+        <v>22.7663857273844</v>
       </c>
       <c r="E47" s="6" t="n">
         <v>1</v>

--- a/TabuladosGasolina.xlsx
+++ b/TabuladosGasolina.xlsx
@@ -159,49 +159,52 @@
     <t xml:space="preserve">CRE, pesos por litro</t>
   </si>
   <si>
-    <t xml:space="preserve">junio 2021</t>
+    <t xml:space="preserve">julio 2021</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">julio 2021</t>
+    <t xml:space="preserve">agosto 2021</t>
   </si>
   <si>
     <t xml:space="preserve">FUENTE: CRE; Comisión Reguladora de Energía</t>
   </si>
   <si>
+    <t xml:space="preserve">Chihuahua</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tamaulipas</t>
   </si>
   <si>
-    <t xml:space="preserve">Chihuahua</t>
-  </si>
-  <si>
     <t xml:space="preserve">Baja California</t>
   </si>
   <si>
     <t xml:space="preserve">Hidalgo</t>
   </si>
   <si>
+    <t xml:space="preserve">Querétaro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sonora</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tlaxcala</t>
   </si>
   <si>
+    <t xml:space="preserve">Tabasco</t>
+  </si>
+  <si>
     <t xml:space="preserve">Puebla</t>
   </si>
   <si>
-    <t xml:space="preserve">Querétaro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tabasco</t>
-  </si>
-  <si>
     <t xml:space="preserve">Morelos</t>
   </si>
   <si>
     <t xml:space="preserve">Colima</t>
   </si>
   <si>
-    <t xml:space="preserve">Sonora</t>
+    <t xml:space="preserve">México</t>
   </si>
   <si>
     <t xml:space="preserve">Coahuila</t>
@@ -216,49 +219,46 @@
     <t xml:space="preserve">Chiapas</t>
   </si>
   <si>
-    <t xml:space="preserve">México</t>
+    <t xml:space="preserve">Guanajuato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sinaloa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Luis Potosí</t>
   </si>
   <si>
     <t xml:space="preserve">Aguascalientes</t>
   </si>
   <si>
-    <t xml:space="preserve">San Luis Potosí</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guanajuato</t>
+    <t xml:space="preserve">Jalisco</t>
   </si>
   <si>
     <t xml:space="preserve">Baja California Sur</t>
   </si>
   <si>
-    <t xml:space="preserve">Sinaloa</t>
+    <t xml:space="preserve">Durango</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michoacán</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ciudad de México</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nayarit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zacatecas</t>
   </si>
   <si>
     <t xml:space="preserve">Yucatán</t>
   </si>
   <si>
-    <t xml:space="preserve">Zacatecas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jalisco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nayarit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Durango</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michoacán</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ciudad de México</t>
+    <t xml:space="preserve">Quintana Roo</t>
   </si>
   <si>
     <t xml:space="preserve">Campeche</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quintana Roo</t>
   </si>
   <si>
     <t xml:space="preserve">Oaxaca</t>
@@ -831,22 +831,22 @@
         <v>52</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>18.0789676692544</v>
+        <v>18.1381314219799</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>20.4993678404723</v>
+        <v>20.4071650679521</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>21.0371716674289</v>
+        <v>21.5390580073286</v>
       </c>
       <c r="E15" s="6" t="n">
         <v>33</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16">
@@ -854,22 +854,22 @@
         <v>53</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>18.2446231828486</v>
+        <v>18.3017223066822</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>20.504980789173</v>
+        <v>20.2875756228681</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>21.5801092487943</v>
+        <v>21.1401111657416</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>32</v>
       </c>
       <c r="F16" s="6" t="n">
+        <v>33</v>
+      </c>
+      <c r="G16" s="6" t="n">
         <v>32</v>
-      </c>
-      <c r="G16" s="6" t="n">
-        <v>24</v>
       </c>
     </row>
     <row r="17">
@@ -877,13 +877,13 @@
         <v>54</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>19.4342762803399</v>
+        <v>19.3856882799074</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>21.4279100674108</v>
+        <v>21.5425999820368</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>20.7853196945746</v>
+        <v>20.6743774595159</v>
       </c>
       <c r="E17" s="6" t="n">
         <v>31</v>
@@ -900,22 +900,22 @@
         <v>55</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>19.8521576924721</v>
+        <v>19.8069487356706</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>21.7067489322467</v>
+        <v>21.7484550763128</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>21.3491100091099</v>
+        <v>21.3781322912552</v>
       </c>
       <c r="E18" s="6" t="n">
         <v>30</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19">
@@ -923,22 +923,22 @@
         <v>56</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>19.8805851565726</v>
+        <v>19.9762758842642</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>21.6854732186337</v>
+        <v>22.0539003824152</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>21.3313628436721</v>
+        <v>21.2073906923686</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>29</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
@@ -946,22 +946,22 @@
         <v>57</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>19.916201876932</v>
+        <v>19.9999157768445</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>21.7382999135632</v>
+        <v>22.3751400069618</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>21.3230716024154</v>
+        <v>22.0234415871491</v>
       </c>
       <c r="E20" s="6" t="n">
         <v>28</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -969,22 +969,22 @@
         <v>58</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>19.9241837845997</v>
+        <v>20.0011637446596</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>21.9434869167223</v>
+        <v>21.8426152819216</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>21.2823668858762</v>
+        <v>21.3838458559184</v>
       </c>
       <c r="E21" s="6" t="n">
         <v>27</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22">
@@ -992,13 +992,13 @@
         <v>59</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>19.94807271769</v>
+        <v>20.0057364828809</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>21.5126285167845</v>
+        <v>21.6324341414976</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>21.3778723345895</v>
+        <v>21.4723796225869</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>26</v>
@@ -1007,7 +1007,7 @@
         <v>30</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23">
@@ -1015,22 +1015,22 @@
         <v>60</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>20.0258489184888</v>
+        <v>20.0187738129997</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>21.8002129115494</v>
+        <v>21.8689101719978</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>21.5692441880298</v>
+        <v>21.3274727885207</v>
       </c>
       <c r="E23" s="6" t="n">
         <v>25</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24">
@@ -1038,19 +1038,19 @@
         <v>61</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>20.1357804066404</v>
+        <v>20.1952308706249</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>21.925466062095</v>
+        <v>21.9700070941659</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>21.61215137279</v>
+        <v>21.6212682471677</v>
       </c>
       <c r="E24" s="6" t="n">
         <v>24</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>23</v>
@@ -1061,22 +1061,22 @@
         <v>62</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>20.1785518269734</v>
+        <v>20.2065314860273</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>22.2758566911361</v>
+        <v>22.0126626464178</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>22.279914607375</v>
+        <v>21.6722701764357</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>23</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26">
@@ -1084,22 +1084,22 @@
         <v>63</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>20.186969214596</v>
+        <v>20.2159165397349</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>21.9593844149638</v>
+        <v>22.1805132349835</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>21.809411585054</v>
+        <v>21.4238234233376</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>22</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27">
@@ -1107,22 +1107,22 @@
         <v>64</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>20.1931510819999</v>
+        <v>20.2214509451613</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>21.740640000576</v>
+        <v>22.1504882482784</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>21.6887226163607</v>
+        <v>21.8102755770191</v>
       </c>
       <c r="E27" s="6" t="n">
         <v>21</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28">
@@ -1130,22 +1130,22 @@
         <v>65</v>
       </c>
       <c r="B28" s="5" t="n">
-        <v>20.2690442064341</v>
+        <v>20.2244775286382</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>22.1309016385146</v>
+        <v>21.7990154956641</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>21.732751381016</v>
+        <v>21.7843501122648</v>
       </c>
       <c r="E28" s="6" t="n">
         <v>20</v>
       </c>
       <c r="F28" s="6" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29">
@@ -1153,22 +1153,22 @@
         <v>66</v>
       </c>
       <c r="B29" s="5" t="n">
-        <v>20.2918883432182</v>
+        <v>20.2831685868788</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>21.7541082149587</v>
+        <v>22.2083093341077</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>21.8901898037434</v>
+        <v>21.7356236578145</v>
       </c>
       <c r="E29" s="6" t="n">
         <v>19</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30">
@@ -1176,22 +1176,22 @@
         <v>67</v>
       </c>
       <c r="B30" s="5" t="n">
-        <v>20.3224293201431</v>
+        <v>20.4106053512057</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>22.2056848531328</v>
+        <v>21.896650623729</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>21.4184342808819</v>
+        <v>21.9469654173166</v>
       </c>
       <c r="E30" s="6" t="n">
         <v>18</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31">
@@ -1199,13 +1199,13 @@
         <v>68</v>
       </c>
       <c r="B31" s="5" t="n">
-        <v>20.4569959895805</v>
+        <v>20.4230470391509</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>22.3425345411591</v>
+        <v>22.4536653190152</v>
       </c>
       <c r="D31" s="5" t="n">
-        <v>21.6925010801293</v>
+        <v>21.7352501811115</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>17</v>
@@ -1222,22 +1222,22 @@
         <v>69</v>
       </c>
       <c r="B32" s="5" t="n">
-        <v>20.4629787884339</v>
+        <v>20.4616783052316</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>22.4966814799788</v>
+        <v>23.3008521132937</v>
       </c>
       <c r="D32" s="5" t="n">
-        <v>21.8079517108996</v>
+        <v>21.3925272572111</v>
       </c>
       <c r="E32" s="6" t="n">
         <v>16</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33">
@@ -1245,22 +1245,22 @@
         <v>70</v>
       </c>
       <c r="B33" s="5" t="n">
-        <v>20.4688943734493</v>
+        <v>20.4860188120328</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>22.3884606180223</v>
+        <v>22.6202694136624</v>
       </c>
       <c r="D33" s="5" t="n">
-        <v>21.8394000644618</v>
+        <v>21.7390729435753</v>
       </c>
       <c r="E33" s="6" t="n">
         <v>15</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34">
@@ -1268,22 +1268,22 @@
         <v>71</v>
       </c>
       <c r="B34" s="5" t="n">
-        <v>20.6262552566696</v>
+        <v>20.5463302182913</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>22.3430235506456</v>
+        <v>22.4862584247934</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>21.8579853326099</v>
+        <v>21.7807688994717</v>
       </c>
       <c r="E34" s="6" t="n">
         <v>14</v>
       </c>
       <c r="F34" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="G34" s="6" t="n">
         <v>15</v>
-      </c>
-      <c r="G34" s="6" t="n">
-        <v>12</v>
       </c>
     </row>
     <row r="35">
@@ -1291,22 +1291,22 @@
         <v>72</v>
       </c>
       <c r="B35" s="5" t="n">
-        <v>20.6567461569035</v>
+        <v>20.7034063842785</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>23.6154395003089</v>
+        <v>22.6270970072441</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>21.7142281801874</v>
+        <v>21.8019515949038</v>
       </c>
       <c r="E35" s="6" t="n">
         <v>13</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36">
@@ -1314,19 +1314,19 @@
         <v>73</v>
       </c>
       <c r="B36" s="5" t="n">
-        <v>20.7226062436147</v>
+        <v>20.7334645467164</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>21.9917989732262</v>
+        <v>22.464919157158</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>21.9543778302129</v>
+        <v>21.9550749692946</v>
       </c>
       <c r="E36" s="6" t="n">
         <v>12</v>
       </c>
       <c r="F36" s="6" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>9</v>
@@ -1337,22 +1337,22 @@
         <v>74</v>
       </c>
       <c r="B37" s="5" t="n">
-        <v>20.7556925280788</v>
+        <v>20.7577085012739</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>22.3649886120905</v>
+        <v>22.6614413720103</v>
       </c>
       <c r="D37" s="5" t="n">
-        <v>21.6976704570532</v>
+        <v>22.2797017982273</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>11</v>
       </c>
       <c r="F37" s="6" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38">
@@ -1360,22 +1360,22 @@
         <v>75</v>
       </c>
       <c r="B38" s="5" t="n">
-        <v>20.7865720842342</v>
+        <v>20.8055774095294</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>22.581968000779</v>
+        <v>22.7158400002818</v>
       </c>
       <c r="D38" s="5" t="n">
-        <v>21.8055485203615</v>
+        <v>22.204545459072</v>
       </c>
       <c r="E38" s="6" t="n">
         <v>10</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39">
@@ -1383,22 +1383,22 @@
         <v>76</v>
       </c>
       <c r="B39" s="5" t="n">
-        <v>20.7924163418213</v>
+        <v>20.8306049163082</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>22.6954424724232</v>
+        <v>22.7765154721776</v>
       </c>
       <c r="D39" s="5" t="n">
-        <v>22.1792614269912</v>
+        <v>21.7703072547602</v>
       </c>
       <c r="E39" s="6" t="n">
         <v>9</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40">
@@ -1406,22 +1406,22 @@
         <v>77</v>
       </c>
       <c r="B40" s="5" t="n">
-        <v>20.798669232085</v>
+        <v>20.8542459781196</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>22.5372361719659</v>
+        <v>22.7697974229248</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>22.3677723340668</v>
+        <v>21.9120980052327</v>
       </c>
       <c r="E40" s="6" t="n">
         <v>8</v>
       </c>
       <c r="F40" s="6" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41">
@@ -1429,22 +1429,22 @@
         <v>78</v>
       </c>
       <c r="B41" s="5" t="n">
-        <v>20.8381315082241</v>
+        <v>20.859385033349</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>22.6453613379595</v>
+        <v>22.5262107756614</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>22.2831779229781</v>
+        <v>21.7792994376989</v>
       </c>
       <c r="E41" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F41" s="6" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42">
@@ -1452,22 +1452,22 @@
         <v>79</v>
       </c>
       <c r="B42" s="5" t="n">
-        <v>20.9533449413726</v>
+        <v>20.9304004642297</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>22.7983355763316</v>
+        <v>22.302411482421</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>21.7357961292948</v>
+        <v>22.332649836118</v>
       </c>
       <c r="E42" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F42" s="6" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43">
@@ -1475,22 +1475,22 @@
         <v>80</v>
       </c>
       <c r="B43" s="5" t="n">
-        <v>21.1225056555891</v>
+        <v>21.1728043818316</v>
       </c>
       <c r="C43" s="5" t="n">
-        <v>22.6554002507461</v>
+        <v>22.4710188374938</v>
       </c>
       <c r="D43" s="5" t="n">
-        <v>22.5712236983414</v>
+        <v>22.4859511338431</v>
       </c>
       <c r="E43" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F43" s="6" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G43" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
@@ -1498,22 +1498,22 @@
         <v>81</v>
       </c>
       <c r="B44" s="5" t="n">
-        <v>21.1643089195633</v>
+        <v>21.290762675889</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>22.4160220659173</v>
+        <v>22.7889034751791</v>
       </c>
       <c r="D44" s="5" t="n">
-        <v>22.4867542544406</v>
+        <v>22.7360060593275</v>
       </c>
       <c r="E44" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
@@ -1521,22 +1521,22 @@
         <v>82</v>
       </c>
       <c r="B45" s="5" t="n">
-        <v>21.1711137904484</v>
+        <v>21.3105305193531</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>22.6926302924581</v>
+        <v>22.8124785690676</v>
       </c>
       <c r="D45" s="5" t="n">
-        <v>22.5830564063672</v>
+        <v>22.6550359976774</v>
       </c>
       <c r="E45" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -1544,13 +1544,13 @@
         <v>83</v>
       </c>
       <c r="B46" s="5" t="n">
-        <v>21.3011448533711</v>
+        <v>21.3779562615238</v>
       </c>
       <c r="C46" s="5" t="n">
-        <v>22.91790733836</v>
+        <v>23.0885570832087</v>
       </c>
       <c r="D46" s="5" t="n">
-        <v>21.8894192797328</v>
+        <v>21.7670028129185</v>
       </c>
       <c r="E46" s="6" t="n">
         <v>2</v>
@@ -1559,7 +1559,7 @@
         <v>2</v>
       </c>
       <c r="G46" s="6" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47">
@@ -1567,19 +1567,19 @@
         <v>84</v>
       </c>
       <c r="B47" s="5" t="n">
-        <v>21.4641195787566</v>
+        <v>21.5219855296071</v>
       </c>
       <c r="C47" s="5" t="n">
-        <v>22.7894530375549</v>
+        <v>22.8505619174365</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>22.7663857273844</v>
+        <v>22.8074730958301</v>
       </c>
       <c r="E47" s="6" t="n">
         <v>1</v>
       </c>
       <c r="F47" s="6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>1</v>

--- a/TabuladosGasolina.xlsx
+++ b/TabuladosGasolina.xlsx
@@ -159,13 +159,13 @@
     <t xml:space="preserve">CRE, pesos por litro</t>
   </si>
   <si>
-    <t xml:space="preserve">julio 2021</t>
+    <t xml:space="preserve">agosto 2021</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">agosto 2021</t>
+    <t xml:space="preserve">septiembre 2021</t>
   </si>
   <si>
     <t xml:space="preserve">FUENTE: CRE; Comisión Reguladora de Energía</t>
@@ -186,60 +186,60 @@
     <t xml:space="preserve">Querétaro</t>
   </si>
   <si>
+    <t xml:space="preserve">Tlaxcala</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sonora</t>
   </si>
   <si>
-    <t xml:space="preserve">Tlaxcala</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tabasco</t>
   </si>
   <si>
     <t xml:space="preserve">Puebla</t>
   </si>
   <si>
+    <t xml:space="preserve">Coahuila</t>
+  </si>
+  <si>
+    <t xml:space="preserve">México</t>
+  </si>
+  <si>
     <t xml:space="preserve">Morelos</t>
   </si>
   <si>
+    <t xml:space="preserve">Veracruz</t>
+  </si>
+  <si>
     <t xml:space="preserve">Colima</t>
   </si>
   <si>
-    <t xml:space="preserve">México</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coahuila</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Veracruz</t>
+    <t xml:space="preserve">Guanajuato</t>
   </si>
   <si>
     <t xml:space="preserve">Nacional</t>
   </si>
   <si>
+    <t xml:space="preserve">Aguascalientes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sinaloa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Luis Potosí</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chiapas</t>
   </si>
   <si>
-    <t xml:space="preserve">Guanajuato</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sinaloa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Luis Potosí</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aguascalientes</t>
-  </si>
-  <si>
     <t xml:space="preserve">Jalisco</t>
   </si>
   <si>
+    <t xml:space="preserve">Durango</t>
+  </si>
+  <si>
     <t xml:space="preserve">Baja California Sur</t>
   </si>
   <si>
-    <t xml:space="preserve">Durango</t>
-  </si>
-  <si>
     <t xml:space="preserve">Michoacán</t>
   </si>
   <si>
@@ -255,16 +255,16 @@
     <t xml:space="preserve">Yucatán</t>
   </si>
   <si>
+    <t xml:space="preserve">Nuevo León</t>
+  </si>
+  <si>
     <t xml:space="preserve">Quintana Roo</t>
   </si>
   <si>
+    <t xml:space="preserve">Oaxaca</t>
+  </si>
+  <si>
     <t xml:space="preserve">Campeche</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oaxaca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nuevo León</t>
   </si>
   <si>
     <t xml:space="preserve">Guerrero</t>
@@ -831,19 +831,19 @@
         <v>52</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>18.1381314219799</v>
+        <v>18.219238019104</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>20.4071650679521</v>
+        <v>20.3723918924446</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>21.5390580073286</v>
+        <v>21.5628888539619</v>
       </c>
       <c r="E15" s="6" t="n">
         <v>33</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>24</v>
@@ -854,22 +854,22 @@
         <v>53</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>18.3017223066822</v>
+        <v>18.392552712483</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>20.2875756228681</v>
+        <v>20.4165551508803</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>21.1401111657416</v>
+        <v>21.3102432043975</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>32</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17">
@@ -877,13 +877,13 @@
         <v>54</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>19.3856882799074</v>
+        <v>19.4346444678754</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>21.5425999820368</v>
+        <v>21.5846604840432</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>20.6743774595159</v>
+        <v>20.7607326900457</v>
       </c>
       <c r="E17" s="6" t="n">
         <v>31</v>
@@ -900,13 +900,13 @@
         <v>55</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>19.8069487356706</v>
+        <v>19.876696371234</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>21.7484550763128</v>
+        <v>21.7916553250602</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>21.3781322912552</v>
+        <v>21.5277848077174</v>
       </c>
       <c r="E18" s="6" t="n">
         <v>30</v>
@@ -915,7 +915,7 @@
         <v>29</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19">
@@ -923,13 +923,13 @@
         <v>56</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>19.9762758842642</v>
+        <v>19.8996432694271</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>22.0539003824152</v>
+        <v>22.1709090191627</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>21.2073906923686</v>
+        <v>21.1632460795572</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>29</v>
@@ -938,7 +938,7 @@
         <v>22</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20">
@@ -946,22 +946,22 @@
         <v>57</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>19.9999157768445</v>
+        <v>19.9077270815668</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>22.3751400069618</v>
+        <v>21.8730745277367</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>22.0234415871491</v>
+        <v>21.3959982974883</v>
       </c>
       <c r="E20" s="6" t="n">
         <v>28</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21">
@@ -969,22 +969,22 @@
         <v>58</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>20.0011637446596</v>
+        <v>19.9858755812065</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>21.8426152819216</v>
+        <v>22.2639803579768</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>21.3838458559184</v>
+        <v>21.9079170119346</v>
       </c>
       <c r="E21" s="6" t="n">
         <v>27</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22">
@@ -992,13 +992,13 @@
         <v>59</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>20.0057364828809</v>
+        <v>20.0050107932447</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>21.6324341414976</v>
+        <v>21.7155095331395</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>21.4723796225869</v>
+        <v>21.582231744668</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>26</v>
@@ -1007,7 +1007,7 @@
         <v>30</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23">
@@ -1015,13 +1015,13 @@
         <v>60</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>20.0187738129997</v>
+        <v>20.0137029968901</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>21.8689101719978</v>
+        <v>21.9473528757251</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>21.3274727885207</v>
+        <v>21.4455302544051</v>
       </c>
       <c r="E23" s="6" t="n">
         <v>25</v>
@@ -1030,7 +1030,7 @@
         <v>26</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24">
@@ -1038,22 +1038,22 @@
         <v>61</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>20.1952308706249</v>
+        <v>20.1978819135912</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>21.9700070941659</v>
+        <v>22.3355017632937</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>21.6212682471677</v>
+        <v>21.8722497666674</v>
       </c>
       <c r="E24" s="6" t="n">
         <v>24</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25">
@@ -1061,22 +1061,22 @@
         <v>62</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>20.2065314860273</v>
+        <v>20.2246822876395</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>22.0126626464178</v>
+        <v>22.2495071000116</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>21.6722701764357</v>
+        <v>21.55963225916</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>23</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26">
@@ -1084,22 +1084,22 @@
         <v>63</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>20.2159165397349</v>
+        <v>20.2619792278848</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>22.1805132349835</v>
+        <v>22.0974564213456</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>21.4238234233376</v>
+        <v>21.7741597736893</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>22</v>
       </c>
       <c r="F26" s="6" t="n">
+        <v>24</v>
+      </c>
+      <c r="G26" s="6" t="n">
         <v>20</v>
-      </c>
-      <c r="G26" s="6" t="n">
-        <v>26</v>
       </c>
     </row>
     <row r="27">
@@ -1107,22 +1107,22 @@
         <v>64</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>20.2214509451613</v>
+        <v>20.2641999279498</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>22.1504882482784</v>
+        <v>21.9076628468034</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>21.8102755770191</v>
+        <v>21.8675540232988</v>
       </c>
       <c r="E27" s="6" t="n">
         <v>21</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28">
@@ -1130,22 +1130,22 @@
         <v>65</v>
       </c>
       <c r="B28" s="5" t="n">
-        <v>20.2244775286382</v>
+        <v>20.2740073120646</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>21.7990154956641</v>
+        <v>22.1408154894304</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>21.7843501122648</v>
+        <v>21.8075537891466</v>
       </c>
       <c r="E28" s="6" t="n">
         <v>20</v>
       </c>
       <c r="F28" s="6" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29">
@@ -1153,22 +1153,22 @@
         <v>66</v>
       </c>
       <c r="B29" s="5" t="n">
-        <v>20.2831685868788</v>
+        <v>20.2830298292209</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>22.2083093341077</v>
+        <v>22.4166034084372</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>21.7356236578145</v>
+        <v>21.560414365152</v>
       </c>
       <c r="E29" s="6" t="n">
         <v>19</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30">
@@ -1176,22 +1176,22 @@
         <v>67</v>
       </c>
       <c r="B30" s="5" t="n">
-        <v>20.4106053512057</v>
+        <v>20.3027005096969</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>21.896650623729</v>
+        <v>22.291945764376</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>21.9469654173166</v>
+        <v>21.7870390921737</v>
       </c>
       <c r="E30" s="6" t="n">
         <v>18</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31">
@@ -1199,19 +1199,19 @@
         <v>68</v>
       </c>
       <c r="B31" s="5" t="n">
-        <v>20.4230470391509</v>
+        <v>20.4974790981675</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>22.4536653190152</v>
+        <v>22.5786787277487</v>
       </c>
       <c r="D31" s="5" t="n">
-        <v>21.7352501811115</v>
+        <v>21.7590308095452</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>17</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>21</v>
@@ -1222,22 +1222,22 @@
         <v>69</v>
       </c>
       <c r="B32" s="5" t="n">
-        <v>20.4616783052316</v>
+        <v>20.5132916612311</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>23.3008521132937</v>
+        <v>23.0986853587843</v>
       </c>
       <c r="D32" s="5" t="n">
-        <v>21.3925272572111</v>
+        <v>21.449501463734</v>
       </c>
       <c r="E32" s="6" t="n">
         <v>16</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33">
@@ -1245,13 +1245,13 @@
         <v>70</v>
       </c>
       <c r="B33" s="5" t="n">
-        <v>20.4860188120328</v>
+        <v>20.5355938158282</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>22.6202694136624</v>
+        <v>22.6356977321585</v>
       </c>
       <c r="D33" s="5" t="n">
-        <v>21.7390729435753</v>
+        <v>21.8100580686935</v>
       </c>
       <c r="E33" s="6" t="n">
         <v>15</v>
@@ -1260,7 +1260,7 @@
         <v>11</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34">
@@ -1268,22 +1268,22 @@
         <v>71</v>
       </c>
       <c r="B34" s="5" t="n">
-        <v>20.5463302182913</v>
+        <v>20.5544285915414</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>22.4862584247934</v>
+        <v>22.0553033006587</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>21.7807688994717</v>
+        <v>22.1000070273259</v>
       </c>
       <c r="E34" s="6" t="n">
         <v>14</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35">
@@ -1291,13 +1291,13 @@
         <v>72</v>
       </c>
       <c r="B35" s="5" t="n">
-        <v>20.7034063842785</v>
+        <v>20.6232831107389</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>22.6270970072441</v>
+        <v>22.6680463146272</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>21.8019515949038</v>
+        <v>21.7968837806984</v>
       </c>
       <c r="E35" s="6" t="n">
         <v>13</v>
@@ -1306,7 +1306,7 @@
         <v>10</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36">
@@ -1314,22 +1314,22 @@
         <v>73</v>
       </c>
       <c r="B36" s="5" t="n">
-        <v>20.7334645467164</v>
+        <v>20.73515606077</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>22.464919157158</v>
+        <v>22.7342641097381</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>21.9550749692946</v>
+        <v>22.1901485548653</v>
       </c>
       <c r="E36" s="6" t="n">
         <v>12</v>
       </c>
       <c r="F36" s="6" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37">
@@ -1337,22 +1337,22 @@
         <v>74</v>
       </c>
       <c r="B37" s="5" t="n">
-        <v>20.7577085012739</v>
+        <v>20.7892485125238</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>22.6614413720103</v>
+        <v>22.5698459047888</v>
       </c>
       <c r="D37" s="5" t="n">
-        <v>22.2797017982273</v>
+        <v>21.9936501744021</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>11</v>
       </c>
       <c r="F37" s="6" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38">
@@ -1360,13 +1360,13 @@
         <v>75</v>
       </c>
       <c r="B38" s="5" t="n">
-        <v>20.8055774095294</v>
+        <v>20.797890857886</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>22.7158400002818</v>
+        <v>22.8209681695664</v>
       </c>
       <c r="D38" s="5" t="n">
-        <v>22.204545459072</v>
+        <v>22.2584226352833</v>
       </c>
       <c r="E38" s="6" t="n">
         <v>10</v>
@@ -1375,7 +1375,7 @@
         <v>8</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39">
@@ -1383,13 +1383,13 @@
         <v>76</v>
       </c>
       <c r="B39" s="5" t="n">
-        <v>20.8306049163082</v>
+        <v>20.8308092685026</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>22.7765154721776</v>
+        <v>22.8546692159736</v>
       </c>
       <c r="D39" s="5" t="n">
-        <v>21.7703072547602</v>
+        <v>21.8970319641952</v>
       </c>
       <c r="E39" s="6" t="n">
         <v>9</v>
@@ -1398,7 +1398,7 @@
         <v>6</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40">
@@ -1406,13 +1406,13 @@
         <v>77</v>
       </c>
       <c r="B40" s="5" t="n">
-        <v>20.8542459781196</v>
+        <v>20.854700783549</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>22.7697974229248</v>
+        <v>22.8495612983622</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>21.9120980052327</v>
+        <v>22.0480870207875</v>
       </c>
       <c r="E40" s="6" t="n">
         <v>8</v>
@@ -1421,7 +1421,7 @@
         <v>7</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41">
@@ -1429,22 +1429,22 @@
         <v>78</v>
       </c>
       <c r="B41" s="5" t="n">
-        <v>20.859385033349</v>
+        <v>20.8644470223033</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>22.5262107756614</v>
+        <v>22.5868032874056</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>21.7792994376989</v>
+        <v>21.8644957829326</v>
       </c>
       <c r="E41" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F41" s="6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42">
@@ -1452,19 +1452,19 @@
         <v>79</v>
       </c>
       <c r="B42" s="5" t="n">
-        <v>20.9304004642297</v>
+        <v>21.0545813385834</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>22.302411482421</v>
+        <v>22.4683572517343</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>22.332649836118</v>
+        <v>22.4749385215217</v>
       </c>
       <c r="E42" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F42" s="6" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>5</v>
@@ -1475,22 +1475,22 @@
         <v>80</v>
       </c>
       <c r="B43" s="5" t="n">
-        <v>21.1728043818316</v>
+        <v>21.2688352958016</v>
       </c>
       <c r="C43" s="5" t="n">
-        <v>22.4710188374938</v>
+        <v>23.2276182315358</v>
       </c>
       <c r="D43" s="5" t="n">
-        <v>22.4859511338431</v>
+        <v>21.707980061348</v>
       </c>
       <c r="E43" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F43" s="6" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G43" s="6" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44">
@@ -1498,22 +1498,22 @@
         <v>81</v>
       </c>
       <c r="B44" s="5" t="n">
-        <v>21.290762675889</v>
+        <v>21.3145917586163</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>22.7889034751791</v>
+        <v>22.6126419512704</v>
       </c>
       <c r="D44" s="5" t="n">
-        <v>22.7360060593275</v>
+        <v>22.5932733589597</v>
       </c>
       <c r="E44" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45">
@@ -1521,13 +1521,13 @@
         <v>82</v>
       </c>
       <c r="B45" s="5" t="n">
-        <v>21.3105305193531</v>
+        <v>21.3903222243799</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>22.8124785690676</v>
+        <v>22.8888337379354</v>
       </c>
       <c r="D45" s="5" t="n">
-        <v>22.6550359976774</v>
+        <v>22.7896555572344</v>
       </c>
       <c r="E45" s="6" t="n">
         <v>3</v>
@@ -1544,22 +1544,22 @@
         <v>83</v>
       </c>
       <c r="B46" s="5" t="n">
-        <v>21.3779562615238</v>
+        <v>21.3992102260504</v>
       </c>
       <c r="C46" s="5" t="n">
-        <v>23.0885570832087</v>
+        <v>22.867532683717</v>
       </c>
       <c r="D46" s="5" t="n">
-        <v>21.7670028129185</v>
+        <v>22.8161850807017</v>
       </c>
       <c r="E46" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F46" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="G46" s="6" t="n">
         <v>2</v>
-      </c>
-      <c r="G46" s="6" t="n">
-        <v>18</v>
       </c>
     </row>
     <row r="47">
@@ -1567,13 +1567,13 @@
         <v>84</v>
       </c>
       <c r="B47" s="5" t="n">
-        <v>21.5219855296071</v>
+        <v>21.6019850552072</v>
       </c>
       <c r="C47" s="5" t="n">
-        <v>22.8505619174365</v>
+        <v>22.9528218659976</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>22.8074730958301</v>
+        <v>22.9066360815562</v>
       </c>
       <c r="E47" s="6" t="n">
         <v>1</v>

--- a/TabuladosGasolina.xlsx
+++ b/TabuladosGasolina.xlsx
@@ -159,13 +159,13 @@
     <t xml:space="preserve">CRE, pesos por litro</t>
   </si>
   <si>
-    <t xml:space="preserve">agosto 2021</t>
+    <t xml:space="preserve">septiembre 2021</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">septiembre 2021</t>
+    <t xml:space="preserve">octubre 2021</t>
   </si>
   <si>
     <t xml:space="preserve">FUENTE: CRE; Comisión Reguladora de Energía</t>
@@ -180,24 +180,24 @@
     <t xml:space="preserve">Baja California</t>
   </si>
   <si>
+    <t xml:space="preserve">Sonora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tlaxcala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Querétaro</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hidalgo</t>
   </si>
   <si>
-    <t xml:space="preserve">Querétaro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tlaxcala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sonora</t>
+    <t xml:space="preserve">Puebla</t>
   </si>
   <si>
     <t xml:space="preserve">Tabasco</t>
   </si>
   <si>
-    <t xml:space="preserve">Puebla</t>
-  </si>
-  <si>
     <t xml:space="preserve">Coahuila</t>
   </si>
   <si>
@@ -207,49 +207,49 @@
     <t xml:space="preserve">Morelos</t>
   </si>
   <si>
+    <t xml:space="preserve">Guanajuato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aguascalientes</t>
+  </si>
+  <si>
     <t xml:space="preserve">Veracruz</t>
   </si>
   <si>
-    <t xml:space="preserve">Colima</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guanajuato</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nacional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aguascalientes</t>
+    <t xml:space="preserve">San Luis Potosí</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiapas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jalisco</t>
   </si>
   <si>
     <t xml:space="preserve">Sinaloa</t>
   </si>
   <si>
-    <t xml:space="preserve">San Luis Potosí</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chiapas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jalisco</t>
-  </si>
-  <si>
     <t xml:space="preserve">Durango</t>
   </si>
   <si>
+    <t xml:space="preserve">Ciudad de México</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michoacán</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zacatecas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nayarit</t>
+  </si>
+  <si>
     <t xml:space="preserve">Baja California Sur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michoacán</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ciudad de México</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nayarit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zacatecas</t>
   </si>
   <si>
     <t xml:space="preserve">Yucatán</t>
@@ -831,13 +831,13 @@
         <v>52</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>18.219238019104</v>
+        <v>18.2106902565802</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>20.3723918924446</v>
+        <v>20.360795620205</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>21.5628888539619</v>
+        <v>21.4777997124382</v>
       </c>
       <c r="E15" s="6" t="n">
         <v>33</v>
@@ -846,7 +846,7 @@
         <v>33</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
@@ -854,13 +854,13 @@
         <v>53</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>18.392552712483</v>
+        <v>18.2218972078911</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>20.4165551508803</v>
+        <v>20.5237317547699</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>21.3102432043975</v>
+        <v>21.3803721048169</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>32</v>
@@ -869,7 +869,7 @@
         <v>32</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
@@ -877,13 +877,13 @@
         <v>54</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>19.4346444678754</v>
+        <v>19.4172700904781</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>21.5846604840432</v>
+        <v>21.6750288797397</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>20.7607326900457</v>
+        <v>20.8519915009392</v>
       </c>
       <c r="E17" s="6" t="n">
         <v>31</v>
@@ -900,22 +900,22 @@
         <v>55</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>19.876696371234</v>
+        <v>19.6496895600766</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>21.7916553250602</v>
+        <v>21.9804947736222</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>21.5277848077174</v>
+        <v>21.8881257377024</v>
       </c>
       <c r="E18" s="6" t="n">
         <v>30</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19">
@@ -923,22 +923,22 @@
         <v>56</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>19.8996432694271</v>
+        <v>19.6836992800333</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>22.1709090191627</v>
+        <v>21.8506479677563</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>21.1632460795572</v>
+        <v>21.186191281915</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>29</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
@@ -946,22 +946,22 @@
         <v>57</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>19.9077270815668</v>
+        <v>19.8247188266653</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>21.8730745277367</v>
+        <v>22.171084558653</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>21.3959982974883</v>
+        <v>21.092594070038</v>
       </c>
       <c r="E20" s="6" t="n">
         <v>28</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21">
@@ -969,22 +969,22 @@
         <v>58</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>19.9858755812065</v>
+        <v>19.8526618936228</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>22.2639803579768</v>
+        <v>21.8747800867511</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>21.9079170119346</v>
+        <v>21.5249502554157</v>
       </c>
       <c r="E21" s="6" t="n">
         <v>27</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22">
@@ -992,22 +992,22 @@
         <v>59</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>20.0050107932447</v>
+        <v>19.8573594488187</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>21.7155095331395</v>
+        <v>21.9572718637364</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>21.582231744668</v>
+        <v>21.3042606421459</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>26</v>
       </c>
       <c r="F22" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="G22" s="6" t="n">
         <v>30</v>
-      </c>
-      <c r="G22" s="6" t="n">
-        <v>23</v>
       </c>
     </row>
     <row r="23">
@@ -1015,22 +1015,22 @@
         <v>60</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>20.0137029968901</v>
+        <v>20.0100249151178</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>21.9473528757251</v>
+        <v>21.7969387542225</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>21.4455302544051</v>
+        <v>21.6271618410113</v>
       </c>
       <c r="E23" s="6" t="n">
         <v>25</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24">
@@ -1038,22 +1038,22 @@
         <v>61</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>20.1978819135912</v>
+        <v>20.1253459906301</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>22.3355017632937</v>
+        <v>22.3004488885329</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>21.8722497666674</v>
+        <v>21.7878845948454</v>
       </c>
       <c r="E24" s="6" t="n">
         <v>24</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25">
@@ -1061,22 +1061,22 @@
         <v>62</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>20.2246822876395</v>
+        <v>20.1467417062493</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>22.2495071000116</v>
+        <v>22.2930663628976</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>21.55963225916</v>
+        <v>21.4943087795806</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>23</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26">
@@ -1084,19 +1084,19 @@
         <v>63</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>20.2619792278848</v>
+        <v>20.1543338083838</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>22.0974564213456</v>
+        <v>22.1238937983735</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>21.7741597736893</v>
+        <v>21.6896617066461</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>22</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>20</v>
@@ -1107,22 +1107,22 @@
         <v>64</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>20.2641999279498</v>
+        <v>20.1634550121544</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>21.9076628468034</v>
+        <v>22.424518218087</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>21.8675540232988</v>
+        <v>21.4270995234335</v>
       </c>
       <c r="E27" s="6" t="n">
         <v>21</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28">
@@ -1130,22 +1130,22 @@
         <v>65</v>
       </c>
       <c r="B28" s="5" t="n">
-        <v>20.2740073120646</v>
+        <v>20.1890565527936</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>22.1408154894304</v>
+        <v>22.3037979541638</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>21.8075537891466</v>
+        <v>21.7252354130321</v>
       </c>
       <c r="E28" s="6" t="n">
         <v>20</v>
       </c>
       <c r="F28" s="6" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29">
@@ -1153,22 +1153,22 @@
         <v>66</v>
       </c>
       <c r="B29" s="5" t="n">
-        <v>20.2830298292209</v>
+        <v>20.2114027507042</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>22.4166034084372</v>
+        <v>22.2090824656321</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>21.560414365152</v>
+        <v>21.7893714022283</v>
       </c>
       <c r="E29" s="6" t="n">
         <v>19</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30">
@@ -1176,22 +1176,22 @@
         <v>67</v>
       </c>
       <c r="B30" s="5" t="n">
-        <v>20.3027005096969</v>
+        <v>20.2566001347395</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>22.291945764376</v>
+        <v>22.5848266170901</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>21.7870390921737</v>
+        <v>21.6225880426349</v>
       </c>
       <c r="E30" s="6" t="n">
         <v>18</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31">
@@ -1199,22 +1199,22 @@
         <v>68</v>
       </c>
       <c r="B31" s="5" t="n">
-        <v>20.4974790981675</v>
+        <v>20.2939893257893</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>22.5786787277487</v>
+        <v>21.9875953234262</v>
       </c>
       <c r="D31" s="5" t="n">
-        <v>21.7590308095452</v>
+        <v>21.9157624746359</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>17</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
@@ -1222,22 +1222,22 @@
         <v>69</v>
       </c>
       <c r="B32" s="5" t="n">
-        <v>20.5132916612311</v>
+        <v>20.5395128079406</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>23.0986853587843</v>
+        <v>22.6905743333084</v>
       </c>
       <c r="D32" s="5" t="n">
-        <v>21.449501463734</v>
+        <v>21.8503593531278</v>
       </c>
       <c r="E32" s="6" t="n">
         <v>16</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33">
@@ -1245,22 +1245,22 @@
         <v>70</v>
       </c>
       <c r="B33" s="5" t="n">
-        <v>20.5355938158282</v>
+        <v>20.5422396725054</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>22.6356977321585</v>
+        <v>22.1059245882476</v>
       </c>
       <c r="D33" s="5" t="n">
-        <v>21.8100580686935</v>
+        <v>22.1521027198501</v>
       </c>
       <c r="E33" s="6" t="n">
         <v>15</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34">
@@ -1268,22 +1268,22 @@
         <v>71</v>
       </c>
       <c r="B34" s="5" t="n">
-        <v>20.5544285915414</v>
+        <v>20.5464718794372</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>22.0553033006587</v>
+        <v>22.6756995804713</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>22.1000070273259</v>
+        <v>21.7530876669217</v>
       </c>
       <c r="E34" s="6" t="n">
         <v>14</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35">
@@ -1291,22 +1291,22 @@
         <v>72</v>
       </c>
       <c r="B35" s="5" t="n">
-        <v>20.6232831107389</v>
+        <v>20.5529573181484</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>22.6680463146272</v>
+        <v>23.1364988250536</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>21.7968837806984</v>
+        <v>21.4451520804813</v>
       </c>
       <c r="E35" s="6" t="n">
         <v>13</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36">
@@ -1314,13 +1314,13 @@
         <v>73</v>
       </c>
       <c r="B36" s="5" t="n">
-        <v>20.73515606077</v>
+        <v>20.5684264057854</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>22.7342641097381</v>
+        <v>22.7426225269271</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>22.1901485548653</v>
+        <v>21.9148176626264</v>
       </c>
       <c r="E36" s="6" t="n">
         <v>12</v>
@@ -1329,7 +1329,7 @@
         <v>9</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37">
@@ -1337,22 +1337,22 @@
         <v>74</v>
       </c>
       <c r="B37" s="5" t="n">
-        <v>20.7892485125238</v>
+        <v>20.7114157896618</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>22.5698459047888</v>
+        <v>22.8937514995544</v>
       </c>
       <c r="D37" s="5" t="n">
-        <v>21.9936501744021</v>
+        <v>21.8569543761216</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>11</v>
       </c>
       <c r="F37" s="6" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38">
@@ -1360,13 +1360,13 @@
         <v>75</v>
       </c>
       <c r="B38" s="5" t="n">
-        <v>20.797890857886</v>
+        <v>20.7536295623868</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>22.8209681695664</v>
+        <v>22.870073116518</v>
       </c>
       <c r="D38" s="5" t="n">
-        <v>22.2584226352833</v>
+        <v>22.2008513147118</v>
       </c>
       <c r="E38" s="6" t="n">
         <v>10</v>
@@ -1383,22 +1383,22 @@
         <v>76</v>
       </c>
       <c r="B39" s="5" t="n">
-        <v>20.8308092685026</v>
+        <v>20.7712124939728</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>22.8546692159736</v>
+        <v>22.5906164994343</v>
       </c>
       <c r="D39" s="5" t="n">
-        <v>21.8970319641952</v>
+        <v>21.7155751535149</v>
       </c>
       <c r="E39" s="6" t="n">
         <v>9</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40">
@@ -1406,19 +1406,19 @@
         <v>77</v>
       </c>
       <c r="B40" s="5" t="n">
-        <v>20.854700783549</v>
+        <v>20.784443486872</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>22.8495612983622</v>
+        <v>22.9015585456419</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>22.0480870207875</v>
+        <v>22.1115225514253</v>
       </c>
       <c r="E40" s="6" t="n">
         <v>8</v>
       </c>
       <c r="F40" s="6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>9</v>
@@ -1429,22 +1429,22 @@
         <v>78</v>
       </c>
       <c r="B41" s="5" t="n">
-        <v>20.8644470223033</v>
+        <v>20.8446519956795</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>22.5868032874056</v>
+        <v>22.7087024096413</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>21.8644957829326</v>
+        <v>22.1564828994841</v>
       </c>
       <c r="E41" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F41" s="6" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42">
@@ -1452,13 +1452,13 @@
         <v>79</v>
       </c>
       <c r="B42" s="5" t="n">
-        <v>21.0545813385834</v>
+        <v>20.9044258927026</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>22.4683572517343</v>
+        <v>22.4351016664537</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>22.4749385215217</v>
+        <v>22.4659160308523</v>
       </c>
       <c r="E42" s="6" t="n">
         <v>6</v>
@@ -1475,13 +1475,13 @@
         <v>80</v>
       </c>
       <c r="B43" s="5" t="n">
-        <v>21.2688352958016</v>
+        <v>21.0618183851371</v>
       </c>
       <c r="C43" s="5" t="n">
-        <v>23.2276182315358</v>
+        <v>23.4175803187118</v>
       </c>
       <c r="D43" s="5" t="n">
-        <v>21.707980061348</v>
+        <v>21.5773073402516</v>
       </c>
       <c r="E43" s="6" t="n">
         <v>5</v>
@@ -1490,7 +1490,7 @@
         <v>1</v>
       </c>
       <c r="G43" s="6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44">
@@ -1498,19 +1498,19 @@
         <v>81</v>
       </c>
       <c r="B44" s="5" t="n">
-        <v>21.3145917586163</v>
+        <v>21.2830448773161</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>22.6126419512704</v>
+        <v>22.5884511198454</v>
       </c>
       <c r="D44" s="5" t="n">
-        <v>22.5932733589597</v>
+        <v>22.6614946094184</v>
       </c>
       <c r="E44" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>4</v>
@@ -1521,13 +1521,13 @@
         <v>82</v>
       </c>
       <c r="B45" s="5" t="n">
-        <v>21.3903222243799</v>
+        <v>21.3529490509968</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>22.8888337379354</v>
+        <v>22.9274351179987</v>
       </c>
       <c r="D45" s="5" t="n">
-        <v>22.7896555572344</v>
+        <v>22.7346610489343</v>
       </c>
       <c r="E45" s="6" t="n">
         <v>3</v>
@@ -1544,13 +1544,13 @@
         <v>83</v>
       </c>
       <c r="B46" s="5" t="n">
-        <v>21.3992102260504</v>
+        <v>21.4870249500412</v>
       </c>
       <c r="C46" s="5" t="n">
-        <v>22.867532683717</v>
+        <v>22.9127115179224</v>
       </c>
       <c r="D46" s="5" t="n">
-        <v>22.8161850807017</v>
+        <v>22.8643774259007</v>
       </c>
       <c r="E46" s="6" t="n">
         <v>2</v>
@@ -1567,13 +1567,13 @@
         <v>84</v>
       </c>
       <c r="B47" s="5" t="n">
-        <v>21.6019850552072</v>
+        <v>21.6647854538507</v>
       </c>
       <c r="C47" s="5" t="n">
-        <v>22.9528218659976</v>
+        <v>23.1024775586167</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>22.9066360815562</v>
+        <v>22.9574200101465</v>
       </c>
       <c r="E47" s="6" t="n">
         <v>1</v>

--- a/TabuladosGasolina.xlsx
+++ b/TabuladosGasolina.xlsx
@@ -159,109 +159,109 @@
     <t xml:space="preserve">CRE, pesos por litro</t>
   </si>
   <si>
-    <t xml:space="preserve">septiembre 2021</t>
+    <t xml:space="preserve">octubre 2021</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">octubre 2021</t>
+    <t xml:space="preserve">diciembre 2021</t>
   </si>
   <si>
     <t xml:space="preserve">FUENTE: CRE; Comisión Reguladora de Energía</t>
   </si>
   <si>
+    <t xml:space="preserve">Tamaulipas</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chihuahua</t>
   </si>
   <si>
-    <t xml:space="preserve">Tamaulipas</t>
-  </si>
-  <si>
     <t xml:space="preserve">Baja California</t>
   </si>
   <si>
+    <t xml:space="preserve">Tlaxcala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Querétaro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puebla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hidalgo</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sonora</t>
   </si>
   <si>
-    <t xml:space="preserve">Tlaxcala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Querétaro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hidalgo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puebla</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tabasco</t>
   </si>
   <si>
+    <t xml:space="preserve">México</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guanajuato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morelos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nacional</t>
+  </si>
+  <si>
     <t xml:space="preserve">Coahuila</t>
   </si>
   <si>
-    <t xml:space="preserve">México</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morelos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guanajuato</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nacional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colima</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aguascalientes</t>
   </si>
   <si>
     <t xml:space="preserve">Veracruz</t>
   </si>
   <si>
+    <t xml:space="preserve">Jalisco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durango</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sinaloa</t>
+  </si>
+  <si>
     <t xml:space="preserve">San Luis Potosí</t>
   </si>
   <si>
+    <t xml:space="preserve">Ciudad de México</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chiapas</t>
   </si>
   <si>
-    <t xml:space="preserve">Jalisco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sinaloa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Durango</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ciudad de México</t>
+    <t xml:space="preserve">Nayarit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zacatecas</t>
   </si>
   <si>
     <t xml:space="preserve">Michoacán</t>
   </si>
   <si>
-    <t xml:space="preserve">Zacatecas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nayarit</t>
+    <t xml:space="preserve">Yucatán</t>
   </si>
   <si>
     <t xml:space="preserve">Baja California Sur</t>
   </si>
   <si>
-    <t xml:space="preserve">Yucatán</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nuevo León</t>
   </si>
   <si>
+    <t xml:space="preserve">Oaxaca</t>
+  </si>
+  <si>
     <t xml:space="preserve">Quintana Roo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oaxaca</t>
   </si>
   <si>
     <t xml:space="preserve">Campeche</t>
@@ -831,13 +831,13 @@
         <v>52</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>18.2106902565802</v>
+        <v>17.8304086111858</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>20.360795620205</v>
+        <v>20.4495327110378</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>21.4777997124382</v>
+        <v>21.2141532866791</v>
       </c>
       <c r="E15" s="6" t="n">
         <v>33</v>
@@ -846,7 +846,7 @@
         <v>33</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16">
@@ -854,13 +854,13 @@
         <v>53</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>18.2218972078911</v>
+        <v>18.301867374128</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>20.5237317547699</v>
+        <v>20.4593859881847</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>21.3803721048169</v>
+        <v>21.4123892597466</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>32</v>
@@ -869,7 +869,7 @@
         <v>32</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17">
@@ -877,13 +877,13 @@
         <v>54</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>19.4172700904781</v>
+        <v>19.3983975582151</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>21.6750288797397</v>
+        <v>21.6217423019824</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>20.8519915009392</v>
+        <v>20.7636893176682</v>
       </c>
       <c r="E17" s="6" t="n">
         <v>31</v>
@@ -900,22 +900,22 @@
         <v>55</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>19.6496895600766</v>
+        <v>19.5896229598343</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>21.9804947736222</v>
+        <v>21.8174212470535</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>21.8881257377024</v>
+        <v>21.0785411618074</v>
       </c>
       <c r="E18" s="6" t="n">
         <v>30</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19">
@@ -923,22 +923,22 @@
         <v>56</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>19.6836992800333</v>
+        <v>19.6399918253942</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>21.8506479677563</v>
+        <v>22.1222217152608</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>21.186191281915</v>
+        <v>21.0681473892429</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>29</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20">
@@ -946,22 +946,22 @@
         <v>57</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>19.8247188266653</v>
+        <v>19.7148249176534</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>22.171084558653</v>
+        <v>21.9180704586838</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>21.092594070038</v>
+        <v>21.2248247253992</v>
       </c>
       <c r="E20" s="6" t="n">
         <v>28</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21">
@@ -969,13 +969,13 @@
         <v>58</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>19.8526618936228</v>
+        <v>19.769014197401</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>21.8747800867511</v>
+        <v>21.9028940648687</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>21.5249502554157</v>
+        <v>21.4552548488054</v>
       </c>
       <c r="E21" s="6" t="n">
         <v>27</v>
@@ -984,7 +984,7 @@
         <v>28</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22">
@@ -992,22 +992,22 @@
         <v>59</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>19.8573594488187</v>
+        <v>19.8452536589142</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>21.9572718637364</v>
+        <v>22.2092516867498</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>21.3042606421459</v>
+        <v>22.0337165953977</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>26</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -1015,13 +1015,13 @@
         <v>60</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>20.0100249151178</v>
+        <v>19.8891853240514</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>21.7969387542225</v>
+        <v>21.7659533603789</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>21.6271618410113</v>
+        <v>21.6396636100127</v>
       </c>
       <c r="E23" s="6" t="n">
         <v>25</v>
@@ -1030,7 +1030,7 @@
         <v>30</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24">
@@ -1038,22 +1038,22 @@
         <v>61</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>20.1253459906301</v>
+        <v>20.0130030119852</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>22.3004488885329</v>
+        <v>22.2627974379767</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>21.7878845948454</v>
+        <v>21.4926386064499</v>
       </c>
       <c r="E24" s="6" t="n">
         <v>24</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25">
@@ -1061,22 +1061,22 @@
         <v>62</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>20.1467417062493</v>
+        <v>20.0592141250455</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>22.2930663628976</v>
+        <v>22.564021933014</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>21.4943087795806</v>
+        <v>21.4244394155146</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>23</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26">
@@ -1084,22 +1084,22 @@
         <v>63</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>20.1543338083838</v>
+        <v>20.0826742569851</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>22.1238937983735</v>
+        <v>22.0603274381182</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>21.6896617066461</v>
+        <v>21.6122647812641</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>22</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27">
@@ -1107,22 +1107,22 @@
         <v>64</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>20.1634550121544</v>
+        <v>20.1201457737929</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>22.424518218087</v>
+        <v>22.2228375089914</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>21.4270995234335</v>
+        <v>21.8520243862116</v>
       </c>
       <c r="E27" s="6" t="n">
         <v>21</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28">
@@ -1130,22 +1130,22 @@
         <v>65</v>
       </c>
       <c r="B28" s="5" t="n">
-        <v>20.1890565527936</v>
+        <v>20.1275373147093</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>22.3037979541638</v>
+        <v>22.3590220572557</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>21.7252354130321</v>
+        <v>21.7081853844781</v>
       </c>
       <c r="E28" s="6" t="n">
         <v>20</v>
       </c>
       <c r="F28" s="6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29">
@@ -1153,22 +1153,22 @@
         <v>66</v>
       </c>
       <c r="B29" s="5" t="n">
-        <v>20.2114027507042</v>
+        <v>20.1429069619475</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>22.2090824656321</v>
+        <v>22.3765019337147</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>21.7893714022283</v>
+        <v>21.6833883151171</v>
       </c>
       <c r="E29" s="6" t="n">
         <v>19</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30">
@@ -1176,22 +1176,22 @@
         <v>67</v>
       </c>
       <c r="B30" s="5" t="n">
-        <v>20.2566001347395</v>
+        <v>20.1937949201751</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>22.5848266170901</v>
+        <v>22.6169971705988</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>21.6225880426349</v>
+        <v>21.5114974075018</v>
       </c>
       <c r="E30" s="6" t="n">
         <v>18</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31">
@@ -1199,22 +1199,22 @@
         <v>68</v>
       </c>
       <c r="B31" s="5" t="n">
-        <v>20.2939893257893</v>
+        <v>20.2641784085762</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>21.9875953234262</v>
+        <v>21.9927521525292</v>
       </c>
       <c r="D31" s="5" t="n">
-        <v>21.9157624746359</v>
+        <v>21.9360037578184</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>17</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32">
@@ -1222,22 +1222,22 @@
         <v>69</v>
       </c>
       <c r="B32" s="5" t="n">
-        <v>20.5395128079406</v>
+        <v>20.4592163297172</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>22.6905743333084</v>
+        <v>22.6777968539807</v>
       </c>
       <c r="D32" s="5" t="n">
-        <v>21.8503593531278</v>
+        <v>21.6736414388951</v>
       </c>
       <c r="E32" s="6" t="n">
         <v>16</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33">
@@ -1245,22 +1245,22 @@
         <v>70</v>
       </c>
       <c r="B33" s="5" t="n">
-        <v>20.5422396725054</v>
+        <v>20.4752743214301</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>22.1059245882476</v>
+        <v>22.7834327945062</v>
       </c>
       <c r="D33" s="5" t="n">
-        <v>22.1521027198501</v>
+        <v>21.7552197664543</v>
       </c>
       <c r="E33" s="6" t="n">
         <v>15</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34">
@@ -1268,22 +1268,22 @@
         <v>71</v>
       </c>
       <c r="B34" s="5" t="n">
-        <v>20.5464718794372</v>
+        <v>20.4868177125912</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>22.6756995804713</v>
+        <v>23.0963254861073</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>21.7530876669217</v>
+        <v>21.3675200262533</v>
       </c>
       <c r="E34" s="6" t="n">
         <v>14</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35">
@@ -1291,22 +1291,22 @@
         <v>72</v>
       </c>
       <c r="B35" s="5" t="n">
-        <v>20.5529573181484</v>
+        <v>20.5549128753872</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>23.1364988250536</v>
+        <v>22.7126347619647</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>21.4451520804813</v>
+        <v>21.8203377136988</v>
       </c>
       <c r="E35" s="6" t="n">
         <v>13</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36">
@@ -1314,22 +1314,22 @@
         <v>73</v>
       </c>
       <c r="B36" s="5" t="n">
-        <v>20.5684264057854</v>
+        <v>20.5746945659168</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>22.7426225269271</v>
+        <v>22.8944273198737</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>21.9148176626264</v>
+        <v>21.8463227184544</v>
       </c>
       <c r="E36" s="6" t="n">
         <v>12</v>
       </c>
       <c r="F36" s="6" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37">
@@ -1337,22 +1337,22 @@
         <v>74</v>
       </c>
       <c r="B37" s="5" t="n">
-        <v>20.7114157896618</v>
+        <v>20.6058327685736</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>22.8937514995544</v>
+        <v>22.1579959972994</v>
       </c>
       <c r="D37" s="5" t="n">
-        <v>21.8569543761216</v>
+        <v>22.2050064854606</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>11</v>
       </c>
       <c r="F37" s="6" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38">
@@ -1360,13 +1360,13 @@
         <v>75</v>
       </c>
       <c r="B38" s="5" t="n">
-        <v>20.7536295623868</v>
+        <v>20.6860644760886</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>22.870073116518</v>
+        <v>22.8751808349982</v>
       </c>
       <c r="D38" s="5" t="n">
-        <v>22.2008513147118</v>
+        <v>22.0506161026125</v>
       </c>
       <c r="E38" s="6" t="n">
         <v>10</v>
@@ -1375,7 +1375,7 @@
         <v>8</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39">
@@ -1383,22 +1383,22 @@
         <v>76</v>
       </c>
       <c r="B39" s="5" t="n">
-        <v>20.7712124939728</v>
+        <v>20.7151260618831</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>22.5906164994343</v>
+        <v>22.5443762659594</v>
       </c>
       <c r="D39" s="5" t="n">
-        <v>21.7155751535149</v>
+        <v>21.5920707812018</v>
       </c>
       <c r="E39" s="6" t="n">
         <v>9</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40">
@@ -1406,13 +1406,13 @@
         <v>77</v>
       </c>
       <c r="B40" s="5" t="n">
-        <v>20.784443486872</v>
+        <v>20.7916152420743</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>22.9015585456419</v>
+        <v>22.9143840120369</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>22.1115225514253</v>
+        <v>22.2020137055293</v>
       </c>
       <c r="E40" s="6" t="n">
         <v>8</v>
@@ -1421,7 +1421,7 @@
         <v>6</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41">
@@ -1429,22 +1429,22 @@
         <v>78</v>
       </c>
       <c r="B41" s="5" t="n">
-        <v>20.8446519956795</v>
+        <v>20.8379372870636</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>22.7087024096413</v>
+        <v>22.5204600557749</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>22.1564828994841</v>
+        <v>22.4330540668507</v>
       </c>
       <c r="E41" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F41" s="6" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42">
@@ -1452,22 +1452,22 @@
         <v>79</v>
       </c>
       <c r="B42" s="5" t="n">
-        <v>20.9044258927026</v>
+        <v>20.8452223178341</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>22.4351016664537</v>
+        <v>22.7065734018861</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>22.4659160308523</v>
+        <v>22.1798868126544</v>
       </c>
       <c r="E42" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F42" s="6" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43">
@@ -1475,13 +1475,13 @@
         <v>80</v>
       </c>
       <c r="B43" s="5" t="n">
-        <v>21.0618183851371</v>
+        <v>21.0922688089359</v>
       </c>
       <c r="C43" s="5" t="n">
-        <v>23.4175803187118</v>
+        <v>23.49544772372</v>
       </c>
       <c r="D43" s="5" t="n">
-        <v>21.5773073402516</v>
+        <v>21.7024622600102</v>
       </c>
       <c r="E43" s="6" t="n">
         <v>5</v>
@@ -1490,7 +1490,7 @@
         <v>1</v>
       </c>
       <c r="G43" s="6" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44">
@@ -1498,19 +1498,19 @@
         <v>81</v>
       </c>
       <c r="B44" s="5" t="n">
-        <v>21.2830448773161</v>
+        <v>21.2845213460203</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>22.5884511198454</v>
+        <v>22.9600055295874</v>
       </c>
       <c r="D44" s="5" t="n">
-        <v>22.6614946094184</v>
+        <v>22.7973861423243</v>
       </c>
       <c r="E44" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>4</v>
@@ -1521,19 +1521,19 @@
         <v>82</v>
       </c>
       <c r="B45" s="5" t="n">
-        <v>21.3529490509968</v>
+        <v>21.3314802092997</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>22.9274351179987</v>
+        <v>22.7360629681904</v>
       </c>
       <c r="D45" s="5" t="n">
-        <v>22.7346610489343</v>
+        <v>22.7977854450919</v>
       </c>
       <c r="E45" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>3</v>
@@ -1544,19 +1544,19 @@
         <v>83</v>
       </c>
       <c r="B46" s="5" t="n">
-        <v>21.4870249500412</v>
+        <v>21.6224493160238</v>
       </c>
       <c r="C46" s="5" t="n">
-        <v>22.9127115179224</v>
+        <v>23.0012718557593</v>
       </c>
       <c r="D46" s="5" t="n">
-        <v>22.8643774259007</v>
+        <v>22.995867331963</v>
       </c>
       <c r="E46" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F46" s="6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>2</v>
@@ -1567,19 +1567,19 @@
         <v>84</v>
       </c>
       <c r="B47" s="5" t="n">
-        <v>21.6647854538507</v>
+        <v>21.7025442349315</v>
       </c>
       <c r="C47" s="5" t="n">
-        <v>23.1024775586167</v>
+        <v>23.1758277533379</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>22.9574200101465</v>
+        <v>23.12667820609</v>
       </c>
       <c r="E47" s="6" t="n">
         <v>1</v>
       </c>
       <c r="F47" s="6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>1</v>

--- a/TabuladosGasolina.xlsx
+++ b/TabuladosGasolina.xlsx
@@ -159,13 +159,13 @@
     <t xml:space="preserve">CRE, pesos por litro</t>
   </si>
   <si>
-    <t xml:space="preserve">octubre 2021</t>
+    <t xml:space="preserve">noviembre 2021</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">diciembre 2021</t>
+    <t xml:space="preserve">Próxima actualización: enero 2022</t>
   </si>
   <si>
     <t xml:space="preserve">FUENTE: CRE; Comisión Reguladora de Energía</t>
@@ -192,69 +192,69 @@
     <t xml:space="preserve">Hidalgo</t>
   </si>
   <si>
+    <t xml:space="preserve">Tabasco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">México</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coahuila</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morelos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guanajuato</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sonora</t>
   </si>
   <si>
-    <t xml:space="preserve">Tabasco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">México</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guanajuato</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morelos</t>
-  </si>
-  <si>
     <t xml:space="preserve">Colima</t>
   </si>
   <si>
     <t xml:space="preserve">Nacional</t>
   </si>
   <si>
-    <t xml:space="preserve">Coahuila</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aguascalientes</t>
   </si>
   <si>
     <t xml:space="preserve">Veracruz</t>
   </si>
   <si>
+    <t xml:space="preserve">Durango</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jalisco</t>
   </si>
   <si>
-    <t xml:space="preserve">Durango</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sinaloa</t>
   </si>
   <si>
     <t xml:space="preserve">San Luis Potosí</t>
   </si>
   <si>
+    <t xml:space="preserve">Chiapas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nayarit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zacatecas</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ciudad de México</t>
   </si>
   <si>
-    <t xml:space="preserve">Chiapas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nayarit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zacatecas</t>
-  </si>
-  <si>
     <t xml:space="preserve">Michoacán</t>
   </si>
   <si>
+    <t xml:space="preserve">Baja California Sur</t>
+  </si>
+  <si>
     <t xml:space="preserve">Yucatán</t>
   </si>
   <si>
-    <t xml:space="preserve">Baja California Sur</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nuevo León</t>
   </si>
   <si>
@@ -264,10 +264,10 @@
     <t xml:space="preserve">Quintana Roo</t>
   </si>
   <si>
+    <t xml:space="preserve">Guerrero</t>
+  </si>
+  <si>
     <t xml:space="preserve">Campeche</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guerrero</t>
   </si>
 </sst>
 </file>
@@ -831,22 +831,22 @@
         <v>52</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>17.8304086111858</v>
+        <v>17.8826062908691</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>20.4495327110378</v>
+        <v>20.5744614804835</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>21.2141532866791</v>
+        <v>21.1530303081933</v>
       </c>
       <c r="E15" s="6" t="n">
         <v>33</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16">
@@ -854,22 +854,22 @@
         <v>53</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>18.301867374128</v>
+        <v>18.1509701865841</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>20.4593859881847</v>
+        <v>20.4072248411583</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>21.4123892597466</v>
+        <v>21.2837276539048</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>32</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
@@ -877,13 +877,13 @@
         <v>54</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>19.3983975582151</v>
+        <v>19.3103029904607</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>21.6217423019824</v>
+        <v>21.46517179858</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>20.7636893176682</v>
+        <v>20.6462668898539</v>
       </c>
       <c r="E17" s="6" t="n">
         <v>31</v>
@@ -900,13 +900,13 @@
         <v>55</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>19.5896229598343</v>
+        <v>19.43954088591</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>21.8174212470535</v>
+        <v>21.7177300851438</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>21.0785411618074</v>
+        <v>20.9237012507313</v>
       </c>
       <c r="E18" s="6" t="n">
         <v>30</v>
@@ -915,7 +915,7 @@
         <v>29</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
@@ -923,13 +923,13 @@
         <v>56</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>19.6399918253942</v>
+        <v>19.4951119697329</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>22.1222217152608</v>
+        <v>21.9679771557106</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>21.0681473892429</v>
+        <v>20.9903976349631</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>29</v>
@@ -938,7 +938,7 @@
         <v>24</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
@@ -946,13 +946,13 @@
         <v>57</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>19.7148249176534</v>
+        <v>19.6291683830497</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>21.9180704586838</v>
+        <v>21.8872722707757</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>21.2248247253992</v>
+        <v>21.1213775558985</v>
       </c>
       <c r="E20" s="6" t="n">
         <v>28</v>
@@ -961,7 +961,7 @@
         <v>27</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21">
@@ -969,13 +969,13 @@
         <v>58</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>19.769014197401</v>
+        <v>19.6783942027011</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>21.9028940648687</v>
+        <v>21.8146588659133</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>21.4552548488054</v>
+        <v>21.3415826528304</v>
       </c>
       <c r="E21" s="6" t="n">
         <v>27</v>
@@ -984,7 +984,7 @@
         <v>28</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22">
@@ -992,22 +992,22 @@
         <v>59</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>19.8452536589142</v>
+        <v>19.7853026104056</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>22.2092516867498</v>
+        <v>21.6510766618396</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>22.0337165953977</v>
+        <v>21.5602456928642</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>26</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
@@ -1015,22 +1015,22 @@
         <v>60</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>19.8891853240514</v>
+        <v>19.9532609567944</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>21.7659533603789</v>
+        <v>22.3100208299965</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>21.6396636100127</v>
+        <v>21.4218249600382</v>
       </c>
       <c r="E23" s="6" t="n">
         <v>25</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24">
@@ -1038,22 +1038,22 @@
         <v>61</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>20.0130030119852</v>
+        <v>19.9622003663094</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>22.2627974379767</v>
+        <v>22.4931408923485</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>21.4926386064499</v>
+        <v>21.5570728584796</v>
       </c>
       <c r="E24" s="6" t="n">
         <v>24</v>
       </c>
       <c r="F24" s="6" t="n">
+        <v>18</v>
+      </c>
+      <c r="G24" s="6" t="n">
         <v>20</v>
-      </c>
-      <c r="G24" s="6" t="n">
-        <v>24</v>
       </c>
     </row>
     <row r="25">
@@ -1061,22 +1061,22 @@
         <v>62</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>20.0592141250455</v>
+        <v>19.9697199030532</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>22.564021933014</v>
+        <v>21.9496495048894</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>21.4244394155146</v>
+        <v>21.500277241964</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>23</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26">
@@ -1084,22 +1084,22 @@
         <v>63</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>20.0826742569851</v>
+        <v>19.9878838165214</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>22.0603274381182</v>
+        <v>22.4992231352864</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>21.6122647812641</v>
+        <v>21.3535923305979</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>22</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27">
@@ -1107,22 +1107,22 @@
         <v>64</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>20.1201457737929</v>
+        <v>19.9991136250518</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>22.2228375089914</v>
+        <v>22.6417448363044</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>21.8520243862116</v>
+        <v>22.0689514270289</v>
       </c>
       <c r="E27" s="6" t="n">
         <v>21</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
@@ -1130,22 +1130,22 @@
         <v>65</v>
       </c>
       <c r="B28" s="5" t="n">
-        <v>20.1275373147093</v>
+        <v>20.0599728038873</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>22.3590220572557</v>
+        <v>22.0685346074889</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>21.7081853844781</v>
+        <v>21.7254506977494</v>
       </c>
       <c r="E28" s="6" t="n">
         <v>20</v>
       </c>
       <c r="F28" s="6" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29">
@@ -1153,22 +1153,22 @@
         <v>66</v>
       </c>
       <c r="B29" s="5" t="n">
-        <v>20.1429069619475</v>
+        <v>20.0649044777706</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>22.3765019337147</v>
+        <v>22.2826305579075</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>21.6833883151171</v>
+        <v>21.6420989374039</v>
       </c>
       <c r="E29" s="6" t="n">
         <v>19</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30">
@@ -1176,22 +1176,22 @@
         <v>67</v>
       </c>
       <c r="B30" s="5" t="n">
-        <v>20.1937949201751</v>
+        <v>20.0804838901648</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>22.6169971705988</v>
+        <v>22.5739468043455</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>21.5114974075018</v>
+        <v>21.4159732084147</v>
       </c>
       <c r="E30" s="6" t="n">
         <v>18</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31">
@@ -1199,13 +1199,13 @@
         <v>68</v>
       </c>
       <c r="B31" s="5" t="n">
-        <v>20.2641784085762</v>
+        <v>20.145530792824</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>21.9927521525292</v>
+        <v>21.9064077557173</v>
       </c>
       <c r="D31" s="5" t="n">
-        <v>21.9360037578184</v>
+        <v>21.8523717490145</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>17</v>
@@ -1214,7 +1214,7 @@
         <v>26</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32">
@@ -1222,22 +1222,22 @@
         <v>69</v>
       </c>
       <c r="B32" s="5" t="n">
-        <v>20.4592163297172</v>
+        <v>20.3746215502536</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>22.6777968539807</v>
+        <v>22.7899373314461</v>
       </c>
       <c r="D32" s="5" t="n">
-        <v>21.6736414388951</v>
+        <v>21.5932709996186</v>
       </c>
       <c r="E32" s="6" t="n">
         <v>16</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33">
@@ -1245,22 +1245,22 @@
         <v>70</v>
       </c>
       <c r="B33" s="5" t="n">
-        <v>20.4752743214301</v>
+        <v>20.4366281700018</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>22.7834327945062</v>
+        <v>22.7023721544429</v>
       </c>
       <c r="D33" s="5" t="n">
-        <v>21.7552197664543</v>
+        <v>21.6298265670886</v>
       </c>
       <c r="E33" s="6" t="n">
         <v>15</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34">
@@ -1268,13 +1268,13 @@
         <v>71</v>
       </c>
       <c r="B34" s="5" t="n">
-        <v>20.4868177125912</v>
+        <v>20.5196407796036</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>23.0963254861073</v>
+        <v>23.0419257822554</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>21.3675200262533</v>
+        <v>21.4836934879464</v>
       </c>
       <c r="E34" s="6" t="n">
         <v>14</v>
@@ -1283,7 +1283,7 @@
         <v>3</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35">
@@ -1291,19 +1291,19 @@
         <v>72</v>
       </c>
       <c r="B35" s="5" t="n">
-        <v>20.5549128753872</v>
+        <v>20.5340824804075</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>22.7126347619647</v>
+        <v>22.7505825672301</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>21.8203377136988</v>
+        <v>21.7232107329507</v>
       </c>
       <c r="E35" s="6" t="n">
         <v>13</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>14</v>
@@ -1314,22 +1314,22 @@
         <v>73</v>
       </c>
       <c r="B36" s="5" t="n">
-        <v>20.5746945659168</v>
+        <v>20.5461572690676</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>22.8944273198737</v>
+        <v>22.0549727387082</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>21.8463227184544</v>
+        <v>22.1886586480925</v>
       </c>
       <c r="E36" s="6" t="n">
         <v>12</v>
       </c>
       <c r="F36" s="6" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37">
@@ -1337,22 +1337,22 @@
         <v>74</v>
       </c>
       <c r="B37" s="5" t="n">
-        <v>20.6058327685736</v>
+        <v>20.570703551229</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>22.1579959972994</v>
+        <v>22.750028772469</v>
       </c>
       <c r="D37" s="5" t="n">
-        <v>22.2050064854606</v>
+        <v>21.8922140040275</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>11</v>
       </c>
       <c r="F37" s="6" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38">
@@ -1360,22 +1360,22 @@
         <v>75</v>
       </c>
       <c r="B38" s="5" t="n">
-        <v>20.6860644760886</v>
+        <v>20.6034346195178</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>22.8751808349982</v>
+        <v>22.5081242424953</v>
       </c>
       <c r="D38" s="5" t="n">
-        <v>22.0506161026125</v>
+        <v>21.5262931346229</v>
       </c>
       <c r="E38" s="6" t="n">
         <v>10</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39">
@@ -1383,22 +1383,22 @@
         <v>76</v>
       </c>
       <c r="B39" s="5" t="n">
-        <v>20.7151260618831</v>
+        <v>20.6300508607902</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>22.5443762659594</v>
+        <v>23.0236918376379</v>
       </c>
       <c r="D39" s="5" t="n">
-        <v>21.5920707812018</v>
+        <v>21.8646486754612</v>
       </c>
       <c r="E39" s="6" t="n">
         <v>9</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40">
@@ -1406,22 +1406,22 @@
         <v>77</v>
       </c>
       <c r="B40" s="5" t="n">
-        <v>20.7916152420743</v>
+        <v>20.6442288120658</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>22.9143840120369</v>
+        <v>22.7682268118558</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>22.2020137055293</v>
+        <v>22.0367334985768</v>
       </c>
       <c r="E40" s="6" t="n">
         <v>8</v>
       </c>
       <c r="F40" s="6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41">
@@ -1429,22 +1429,22 @@
         <v>78</v>
       </c>
       <c r="B41" s="5" t="n">
-        <v>20.8379372870636</v>
+        <v>20.7585890747552</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>22.5204600557749</v>
+        <v>22.6576815341112</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>22.4330540668507</v>
+        <v>22.1681078550863</v>
       </c>
       <c r="E41" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F41" s="6" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42">
@@ -1452,22 +1452,22 @@
         <v>79</v>
       </c>
       <c r="B42" s="5" t="n">
-        <v>20.8452223178341</v>
+        <v>20.7707756548612</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>22.7065734018861</v>
+        <v>22.3588964968402</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>22.1798868126544</v>
+        <v>22.2924519314818</v>
       </c>
       <c r="E42" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F42" s="6" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43">
@@ -1475,13 +1475,13 @@
         <v>80</v>
       </c>
       <c r="B43" s="5" t="n">
-        <v>21.0922688089359</v>
+        <v>21.0795111648156</v>
       </c>
       <c r="C43" s="5" t="n">
-        <v>23.49544772372</v>
+        <v>23.2301163810966</v>
       </c>
       <c r="D43" s="5" t="n">
-        <v>21.7024622600102</v>
+        <v>21.6870549198328</v>
       </c>
       <c r="E43" s="6" t="n">
         <v>5</v>
@@ -1490,7 +1490,7 @@
         <v>1</v>
       </c>
       <c r="G43" s="6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44">
@@ -1498,19 +1498,19 @@
         <v>81</v>
       </c>
       <c r="B44" s="5" t="n">
-        <v>21.2845213460203</v>
+        <v>21.143978476584</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>22.9600055295874</v>
+        <v>22.8264357095328</v>
       </c>
       <c r="D44" s="5" t="n">
-        <v>22.7973861423243</v>
+        <v>22.6184679444224</v>
       </c>
       <c r="E44" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>4</v>
@@ -1521,19 +1521,19 @@
         <v>82</v>
       </c>
       <c r="B45" s="5" t="n">
-        <v>21.3314802092997</v>
+        <v>21.2256413631027</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>22.7360629681904</v>
+        <v>22.6517243639874</v>
       </c>
       <c r="D45" s="5" t="n">
-        <v>22.7977854450919</v>
+        <v>22.6831973954889</v>
       </c>
       <c r="E45" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>3</v>
@@ -1544,22 +1544,22 @@
         <v>83</v>
       </c>
       <c r="B46" s="5" t="n">
-        <v>21.6224493160238</v>
+        <v>21.6036184894459</v>
       </c>
       <c r="C46" s="5" t="n">
-        <v>23.0012718557593</v>
+        <v>23.0776820350099</v>
       </c>
       <c r="D46" s="5" t="n">
-        <v>22.995867331963</v>
+        <v>23.0925391233784</v>
       </c>
       <c r="E46" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F46" s="6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G46" s="6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1567,22 +1567,22 @@
         <v>84</v>
       </c>
       <c r="B47" s="5" t="n">
-        <v>21.7025442349315</v>
+        <v>21.6117821516303</v>
       </c>
       <c r="C47" s="5" t="n">
-        <v>23.1758277533379</v>
+        <v>23.00309084066</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>23.12667820609</v>
+        <v>22.9969163574404</v>
       </c>
       <c r="E47" s="6" t="n">
         <v>1</v>
       </c>
       <c r="F47" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="G47" s="6" t="n">
         <v>2</v>
-      </c>
-      <c r="G47" s="6" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/TabuladosGasolina.xlsx
+++ b/TabuladosGasolina.xlsx
@@ -159,13 +159,13 @@
     <t xml:space="preserve">CRE, pesos por litro</t>
   </si>
   <si>
-    <t xml:space="preserve">noviembre 2021</t>
+    <t xml:space="preserve">diciembre 2021</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima actualización: enero 2022</t>
+    <t xml:space="preserve">Próxima actualización: febrero 2022</t>
   </si>
   <si>
     <t xml:space="preserve">FUENTE: CRE; Comisión Reguladora de Energía</t>
@@ -189,72 +189,72 @@
     <t xml:space="preserve">Puebla</t>
   </si>
   <si>
+    <t xml:space="preserve">Sonora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tabasco</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hidalgo</t>
   </si>
   <si>
-    <t xml:space="preserve">Tabasco</t>
+    <t xml:space="preserve">Coahuila</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morelos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guanajuato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aguascalientes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nacional</t>
   </si>
   <si>
     <t xml:space="preserve">México</t>
   </si>
   <si>
-    <t xml:space="preserve">Coahuila</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morelos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guanajuato</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sonora</t>
+    <t xml:space="preserve">Veracruz</t>
   </si>
   <si>
     <t xml:space="preserve">Colima</t>
   </si>
   <si>
-    <t xml:space="preserve">Nacional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aguascalientes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Veracruz</t>
+    <t xml:space="preserve">Sinaloa</t>
   </si>
   <si>
     <t xml:space="preserve">Durango</t>
   </si>
   <si>
+    <t xml:space="preserve">San Luis Potosí</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiapas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zacatecas</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jalisco</t>
   </si>
   <si>
-    <t xml:space="preserve">Sinaloa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Luis Potosí</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chiapas</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nayarit</t>
   </si>
   <si>
-    <t xml:space="preserve">Zacatecas</t>
+    <t xml:space="preserve">Baja California Sur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michoacán</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yucatán</t>
   </si>
   <si>
     <t xml:space="preserve">Ciudad de México</t>
   </si>
   <si>
-    <t xml:space="preserve">Michoacán</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baja California Sur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yucatán</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nuevo León</t>
   </si>
   <si>
@@ -264,10 +264,10 @@
     <t xml:space="preserve">Quintana Roo</t>
   </si>
   <si>
+    <t xml:space="preserve">Campeche</t>
+  </si>
+  <si>
     <t xml:space="preserve">Guerrero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Campeche</t>
   </si>
 </sst>
 </file>
@@ -831,22 +831,22 @@
         <v>52</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>17.8826062908691</v>
+        <v>17.9623811572635</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>20.5744614804835</v>
+        <v>20.4544971428541</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>21.1530303081933</v>
+        <v>21.2631032031525</v>
       </c>
       <c r="E15" s="6" t="n">
         <v>33</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16">
@@ -854,19 +854,19 @@
         <v>53</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>18.1509701865841</v>
+        <v>18.4590392918034</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>20.4072248411583</v>
+        <v>20.7975685046399</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>21.2837276539048</v>
+        <v>21.4885504078053</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>32</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>28</v>
@@ -877,13 +877,13 @@
         <v>54</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>19.3103029904607</v>
+        <v>19.3676371353928</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>21.46517179858</v>
+        <v>21.5334655422951</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>20.6462668898539</v>
+        <v>20.796739503629</v>
       </c>
       <c r="E17" s="6" t="n">
         <v>31</v>
@@ -900,13 +900,13 @@
         <v>55</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>19.43954088591</v>
+        <v>19.681368527161</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>21.7177300851438</v>
+        <v>21.8951522949721</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>20.9237012507313</v>
+        <v>21.1113154688287</v>
       </c>
       <c r="E18" s="6" t="n">
         <v>30</v>
@@ -923,13 +923,13 @@
         <v>56</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>19.4951119697329</v>
+        <v>19.7982346256986</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>21.9679771557106</v>
+        <v>22.1666323981306</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>20.9903976349631</v>
+        <v>21.2032215254459</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>29</v>
@@ -946,22 +946,22 @@
         <v>57</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>19.6291683830497</v>
+        <v>19.8607531680886</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>21.8872722707757</v>
+        <v>22.0371090840417</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>21.1213775558985</v>
+        <v>21.3101867745312</v>
       </c>
       <c r="E20" s="6" t="n">
         <v>28</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21">
@@ -969,22 +969,22 @@
         <v>58</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>19.6783942027011</v>
+        <v>19.9205211845602</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>21.8146588659133</v>
+        <v>22.3582366076284</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>21.3415826528304</v>
+        <v>22.0956716680528</v>
       </c>
       <c r="E21" s="6" t="n">
         <v>27</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22">
@@ -992,13 +992,13 @@
         <v>59</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>19.7853026104056</v>
+        <v>19.9250533358706</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>21.6510766618396</v>
+        <v>21.7420931988371</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>21.5602456928642</v>
+        <v>21.627042282108</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>26</v>
@@ -1007,7 +1007,7 @@
         <v>30</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23">
@@ -1015,22 +1015,22 @@
         <v>60</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>19.9532609567944</v>
+        <v>19.9348429367081</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>22.3100208299965</v>
+        <v>21.987379996309</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>21.4218249600382</v>
+        <v>21.5605586141855</v>
       </c>
       <c r="E23" s="6" t="n">
         <v>25</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24">
@@ -1038,19 +1038,19 @@
         <v>61</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>19.9622003663094</v>
+        <v>20.1833719404098</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>22.4931408923485</v>
+        <v>22.6656005483117</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>21.5570728584796</v>
+        <v>21.702691062512</v>
       </c>
       <c r="E24" s="6" t="n">
         <v>24</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>20</v>
@@ -1061,13 +1061,13 @@
         <v>62</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>19.9697199030532</v>
+        <v>20.1873765418034</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>21.9496495048894</v>
+        <v>22.116382091603</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>21.500277241964</v>
+        <v>21.7499926081286</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>23</v>
@@ -1076,7 +1076,7 @@
         <v>25</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26">
@@ -1084,22 +1084,22 @@
         <v>63</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>19.9878838165214</v>
+        <v>20.1985114358855</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>22.4992231352864</v>
+        <v>22.6498825651218</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>21.3535923305979</v>
+        <v>21.521537521735</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>22</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27">
@@ -1107,13 +1107,13 @@
         <v>64</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>19.9991136250518</v>
+        <v>20.2506122620308</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>22.6417448363044</v>
+        <v>22.6914738939824</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>22.0689514270289</v>
+        <v>21.6161065633715</v>
       </c>
       <c r="E27" s="6" t="n">
         <v>21</v>
@@ -1122,7 +1122,7 @@
         <v>14</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28">
@@ -1130,22 +1130,22 @@
         <v>65</v>
       </c>
       <c r="B28" s="5" t="n">
-        <v>20.0599728038873</v>
+        <v>20.2763577551438</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>22.0685346074889</v>
+        <v>22.4490790455572</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>21.7254506977494</v>
+        <v>21.8199123039081</v>
       </c>
       <c r="E28" s="6" t="n">
         <v>20</v>
       </c>
       <c r="F28" s="6" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29">
@@ -1153,22 +1153,22 @@
         <v>66</v>
       </c>
       <c r="B29" s="5" t="n">
-        <v>20.0649044777706</v>
+        <v>20.2928531890563</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>22.2826305579075</v>
+        <v>22.5458612999938</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>21.6420989374039</v>
+        <v>21.6405884673415</v>
       </c>
       <c r="E29" s="6" t="n">
         <v>19</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30">
@@ -1176,22 +1176,22 @@
         <v>67</v>
       </c>
       <c r="B30" s="5" t="n">
-        <v>20.0804838901648</v>
+        <v>20.3236100846294</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>22.5739468043455</v>
+        <v>22.0197529139776</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>21.4159732084147</v>
+        <v>21.9708148506027</v>
       </c>
       <c r="E30" s="6" t="n">
         <v>18</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31">
@@ -1199,19 +1199,19 @@
         <v>68</v>
       </c>
       <c r="B31" s="5" t="n">
-        <v>20.145530792824</v>
+        <v>20.3304510524173</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>21.9064077557173</v>
+        <v>22.3394066835055</v>
       </c>
       <c r="D31" s="5" t="n">
-        <v>21.8523717490145</v>
+        <v>22.0388380116699</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>17</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>12</v>
@@ -1222,22 +1222,22 @@
         <v>69</v>
       </c>
       <c r="B32" s="5" t="n">
-        <v>20.3746215502536</v>
+        <v>20.5530228503558</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>22.7899373314461</v>
+        <v>23.021759756587</v>
       </c>
       <c r="D32" s="5" t="n">
-        <v>21.5932709996186</v>
+        <v>21.6607332182448</v>
       </c>
       <c r="E32" s="6" t="n">
         <v>16</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33">
@@ -1245,22 +1245,22 @@
         <v>70</v>
       </c>
       <c r="B33" s="5" t="n">
-        <v>20.4366281700018</v>
+        <v>20.5633201995514</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>22.7023721544429</v>
+        <v>22.9272528231505</v>
       </c>
       <c r="D33" s="5" t="n">
-        <v>21.6298265670886</v>
+        <v>21.7449729266548</v>
       </c>
       <c r="E33" s="6" t="n">
         <v>15</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34">
@@ -1268,22 +1268,22 @@
         <v>71</v>
       </c>
       <c r="B34" s="5" t="n">
-        <v>20.5196407796036</v>
+        <v>20.6745144680903</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>23.0419257822554</v>
+        <v>22.754499600604</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>21.4836934879464</v>
+        <v>21.8705355187352</v>
       </c>
       <c r="E34" s="6" t="n">
         <v>14</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35">
@@ -1291,22 +1291,22 @@
         <v>72</v>
       </c>
       <c r="B35" s="5" t="n">
-        <v>20.5340824804075</v>
+        <v>20.7057311420213</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>22.7505825672301</v>
+        <v>22.2720039056565</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>21.7232107329507</v>
+        <v>22.3240357665965</v>
       </c>
       <c r="E35" s="6" t="n">
         <v>13</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36">
@@ -1314,22 +1314,22 @@
         <v>73</v>
       </c>
       <c r="B36" s="5" t="n">
-        <v>20.5461572690676</v>
+        <v>20.7149558553608</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>22.0549727387082</v>
+        <v>22.5988347868012</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>22.1886586480925</v>
+        <v>21.6538374028235</v>
       </c>
       <c r="E36" s="6" t="n">
         <v>12</v>
       </c>
       <c r="F36" s="6" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37">
@@ -1337,22 +1337,22 @@
         <v>74</v>
       </c>
       <c r="B37" s="5" t="n">
-        <v>20.570703551229</v>
+        <v>20.7772917799114</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>22.750028772469</v>
+        <v>22.9300141945325</v>
       </c>
       <c r="D37" s="5" t="n">
-        <v>21.8922140040275</v>
+        <v>21.8999608070896</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>11</v>
       </c>
       <c r="F37" s="6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38">
@@ -1360,22 +1360,22 @@
         <v>75</v>
       </c>
       <c r="B38" s="5" t="n">
-        <v>20.6034346195178</v>
+        <v>20.7903153002287</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>22.5081242424953</v>
+        <v>22.9318278226417</v>
       </c>
       <c r="D38" s="5" t="n">
-        <v>21.5262931346229</v>
+        <v>22.1518419531878</v>
       </c>
       <c r="E38" s="6" t="n">
         <v>10</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39">
@@ -1383,22 +1383,22 @@
         <v>76</v>
       </c>
       <c r="B39" s="5" t="n">
-        <v>20.6300508607902</v>
+        <v>20.8431059523846</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>23.0236918376379</v>
+        <v>22.7518963920943</v>
       </c>
       <c r="D39" s="5" t="n">
-        <v>21.8646486754612</v>
+        <v>22.2522191125028</v>
       </c>
       <c r="E39" s="6" t="n">
         <v>9</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40">
@@ -1406,22 +1406,22 @@
         <v>77</v>
       </c>
       <c r="B40" s="5" t="n">
-        <v>20.6442288120658</v>
+        <v>20.9254696309852</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>22.7682268118558</v>
+        <v>22.9858700475656</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>22.0367334985768</v>
+        <v>22.2762767112597</v>
       </c>
       <c r="E40" s="6" t="n">
         <v>8</v>
       </c>
       <c r="F40" s="6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41">
@@ -1429,22 +1429,22 @@
         <v>78</v>
       </c>
       <c r="B41" s="5" t="n">
-        <v>20.7585890747552</v>
+        <v>21.0075617273407</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>22.6576815341112</v>
+        <v>22.5560607643807</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>22.1681078550863</v>
+        <v>22.5290356545365</v>
       </c>
       <c r="E41" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F41" s="6" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42">
@@ -1452,22 +1452,22 @@
         <v>79</v>
       </c>
       <c r="B42" s="5" t="n">
-        <v>20.7707756548612</v>
+        <v>21.0770083953494</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>22.3588964968402</v>
+        <v>23.2583507008894</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>22.2924519314818</v>
+        <v>22.141952230083</v>
       </c>
       <c r="E42" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F42" s="6" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43">
@@ -1475,13 +1475,13 @@
         <v>80</v>
       </c>
       <c r="B43" s="5" t="n">
-        <v>21.0795111648156</v>
+        <v>21.1382298791556</v>
       </c>
       <c r="C43" s="5" t="n">
-        <v>23.2301163810966</v>
+        <v>23.5167555782012</v>
       </c>
       <c r="D43" s="5" t="n">
-        <v>21.6870549198328</v>
+        <v>21.7248368508683</v>
       </c>
       <c r="E43" s="6" t="n">
         <v>5</v>
@@ -1490,7 +1490,7 @@
         <v>1</v>
       </c>
       <c r="G43" s="6" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44">
@@ -1498,22 +1498,22 @@
         <v>81</v>
       </c>
       <c r="B44" s="5" t="n">
-        <v>21.143978476584</v>
+        <v>21.2487208366021</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>22.8264357095328</v>
+        <v>22.9439600157925</v>
       </c>
       <c r="D44" s="5" t="n">
-        <v>22.6184679444224</v>
+        <v>22.7513200116527</v>
       </c>
       <c r="E44" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45">
@@ -1521,22 +1521,22 @@
         <v>82</v>
       </c>
       <c r="B45" s="5" t="n">
-        <v>21.2256413631027</v>
+        <v>21.3431239326433</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>22.6517243639874</v>
+        <v>22.7600035048987</v>
       </c>
       <c r="D45" s="5" t="n">
-        <v>22.6831973954889</v>
+        <v>22.7512645889547</v>
       </c>
       <c r="E45" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
@@ -1544,22 +1544,22 @@
         <v>83</v>
       </c>
       <c r="B46" s="5" t="n">
-        <v>21.6036184894459</v>
+        <v>21.6926257025597</v>
       </c>
       <c r="C46" s="5" t="n">
-        <v>23.0776820350099</v>
+        <v>23.1098855386474</v>
       </c>
       <c r="D46" s="5" t="n">
-        <v>23.0925391233784</v>
+        <v>23.075736021548</v>
       </c>
       <c r="E46" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F46" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G46" s="6" t="n">
         <v>2</v>
-      </c>
-      <c r="G46" s="6" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1567,22 +1567,22 @@
         <v>84</v>
       </c>
       <c r="B47" s="5" t="n">
-        <v>21.6117821516303</v>
+        <v>21.7838887968409</v>
       </c>
       <c r="C47" s="5" t="n">
-        <v>23.00309084066</v>
+        <v>23.1657445636733</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>22.9969163574404</v>
+        <v>23.1967885095319</v>
       </c>
       <c r="E47" s="6" t="n">
         <v>1</v>
       </c>
       <c r="F47" s="6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G47" s="6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/TabuladosGasolina.xlsx
+++ b/TabuladosGasolina.xlsx
@@ -159,13 +159,13 @@
     <t xml:space="preserve">CRE, pesos por litro</t>
   </si>
   <si>
-    <t xml:space="preserve">diciembre 2021</t>
+    <t xml:space="preserve">enero 2022</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima actualización: febrero 2022</t>
+    <t xml:space="preserve">Próxima actualización: marzo 2022</t>
   </si>
   <si>
     <t xml:space="preserve">FUENTE: CRE; Comisión Reguladora de Energía</t>
@@ -183,18 +183,18 @@
     <t xml:space="preserve">Tlaxcala</t>
   </si>
   <si>
+    <t xml:space="preserve">Tabasco</t>
+  </si>
+  <si>
     <t xml:space="preserve">Querétaro</t>
   </si>
   <si>
+    <t xml:space="preserve">Sonora</t>
+  </si>
+  <si>
     <t xml:space="preserve">Puebla</t>
   </si>
   <si>
-    <t xml:space="preserve">Sonora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tabasco</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hidalgo</t>
   </si>
   <si>
@@ -222,31 +222,31 @@
     <t xml:space="preserve">Colima</t>
   </si>
   <si>
+    <t xml:space="preserve">Durango</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiapas</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sinaloa</t>
   </si>
   <si>
-    <t xml:space="preserve">Durango</t>
+    <t xml:space="preserve">Zacatecas</t>
   </si>
   <si>
     <t xml:space="preserve">San Luis Potosí</t>
   </si>
   <si>
-    <t xml:space="preserve">Chiapas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zacatecas</t>
-  </si>
-  <si>
     <t xml:space="preserve">Jalisco</t>
   </si>
   <si>
+    <t xml:space="preserve">Baja California Sur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michoacán</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nayarit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baja California Sur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michoacán</t>
   </si>
   <si>
     <t xml:space="preserve">Yucatán</t>
@@ -831,13 +831,13 @@
         <v>52</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>17.9623811572635</v>
+        <v>18.2323626195443</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>20.4544971428541</v>
+        <v>20.5478862302796</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>21.2631032031525</v>
+        <v>21.5405355945929</v>
       </c>
       <c r="E15" s="6" t="n">
         <v>33</v>
@@ -846,7 +846,7 @@
         <v>33</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16">
@@ -854,13 +854,13 @@
         <v>53</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>18.4590392918034</v>
+        <v>18.9224367847634</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>20.7975685046399</v>
+        <v>21.2731884051648</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>21.4885504078053</v>
+        <v>21.8007802714365</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>32</v>
@@ -877,13 +877,13 @@
         <v>54</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>19.3676371353928</v>
+        <v>19.681787741258</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>21.5334655422951</v>
+        <v>21.924662473895</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>20.796739503629</v>
+        <v>21.0404746882025</v>
       </c>
       <c r="E17" s="6" t="n">
         <v>31</v>
@@ -900,13 +900,13 @@
         <v>55</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>19.681368527161</v>
+        <v>20.1290014623623</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>21.8951522949721</v>
+        <v>22.2342022470317</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>21.1113154688287</v>
+        <v>21.6131731015906</v>
       </c>
       <c r="E18" s="6" t="n">
         <v>30</v>
@@ -915,7 +915,7 @@
         <v>29</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19">
@@ -923,22 +923,22 @@
         <v>56</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>19.7982346256986</v>
+        <v>20.2038534461952</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>22.1666323981306</v>
+        <v>21.9892935300931</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>21.2032215254459</v>
+        <v>21.8506873838475</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>29</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20">
@@ -946,22 +946,22 @@
         <v>57</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>19.8607531680886</v>
+        <v>20.2498345770392</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>22.0371090840417</v>
+        <v>22.5197601728739</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>21.3101867745312</v>
+        <v>21.6523028589098</v>
       </c>
       <c r="E20" s="6" t="n">
         <v>28</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21">
@@ -969,22 +969,22 @@
         <v>58</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>19.9205211845602</v>
+        <v>20.2585938804067</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>22.3582366076284</v>
+        <v>22.6624218702221</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>22.0956716680528</v>
+        <v>22.2912917170155</v>
       </c>
       <c r="E21" s="6" t="n">
         <v>27</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22">
@@ -992,22 +992,22 @@
         <v>59</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>19.9250533358706</v>
+        <v>20.3008126072188</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>21.7420931988371</v>
+        <v>22.3563268710592</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>21.627042282108</v>
+        <v>21.7642706786216</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>26</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23">
@@ -1015,22 +1015,22 @@
         <v>60</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>19.9348429367081</v>
+        <v>20.3780657320704</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>21.987379996309</v>
+        <v>22.3604823591471</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>21.5605586141855</v>
+        <v>21.9646428284051</v>
       </c>
       <c r="E23" s="6" t="n">
         <v>25</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24">
@@ -1038,22 +1038,22 @@
         <v>61</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>20.1833719404098</v>
+        <v>20.4589600630582</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>22.6656005483117</v>
+        <v>22.9703942025286</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>21.702691062512</v>
+        <v>21.960826489744</v>
       </c>
       <c r="E24" s="6" t="n">
         <v>24</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25">
@@ -1061,13 +1061,13 @@
         <v>62</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>20.1873765418034</v>
+        <v>20.5582300283616</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>22.116382091603</v>
+        <v>22.4111986085436</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>21.7499926081286</v>
+        <v>22.1293770741033</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>23</v>
@@ -1084,19 +1084,19 @@
         <v>63</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>20.1985114358855</v>
+        <v>20.593334543451</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>22.6498825651218</v>
+        <v>23.0566504887913</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>21.521537521735</v>
+        <v>21.8427632024324</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>22</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>27</v>
@@ -1107,19 +1107,19 @@
         <v>64</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>20.2506122620308</v>
+        <v>20.621329138868</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>22.6914738939824</v>
+        <v>23.0491147471117</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>21.6161065633715</v>
+        <v>21.9107770514191</v>
       </c>
       <c r="E27" s="6" t="n">
         <v>21</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>25</v>
@@ -1130,13 +1130,13 @@
         <v>65</v>
       </c>
       <c r="B28" s="5" t="n">
-        <v>20.2763577551438</v>
+        <v>20.6509258006312</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>22.4490790455572</v>
+        <v>22.7404153248967</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>21.8199123039081</v>
+        <v>22.1629026447476</v>
       </c>
       <c r="E28" s="6" t="n">
         <v>20</v>
@@ -1153,22 +1153,22 @@
         <v>66</v>
       </c>
       <c r="B29" s="5" t="n">
-        <v>20.2928531890563</v>
+        <v>20.651624083436</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>22.5458612999938</v>
+        <v>22.7745560490828</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>21.6405884673415</v>
+        <v>22.0008988742222</v>
       </c>
       <c r="E29" s="6" t="n">
         <v>19</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30">
@@ -1176,19 +1176,19 @@
         <v>67</v>
       </c>
       <c r="B30" s="5" t="n">
-        <v>20.3236100846294</v>
+        <v>20.6718511983948</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>22.0197529139776</v>
+        <v>22.3136210707181</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>21.9708148506027</v>
+        <v>22.3033410532585</v>
       </c>
       <c r="E30" s="6" t="n">
         <v>18</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>13</v>
@@ -1199,22 +1199,22 @@
         <v>68</v>
       </c>
       <c r="B31" s="5" t="n">
-        <v>20.3304510524173</v>
+        <v>20.7002613725578</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>22.3394066835055</v>
+        <v>22.689382999235</v>
       </c>
       <c r="D31" s="5" t="n">
-        <v>22.0388380116699</v>
+        <v>22.3998993993869</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>17</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32">
@@ -1222,22 +1222,22 @@
         <v>69</v>
       </c>
       <c r="B32" s="5" t="n">
-        <v>20.5530228503558</v>
+        <v>20.8545320949232</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>23.021759756587</v>
+        <v>23.2494394724373</v>
       </c>
       <c r="D32" s="5" t="n">
-        <v>21.6607332182448</v>
+        <v>22.034260500493</v>
       </c>
       <c r="E32" s="6" t="n">
         <v>16</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33">
@@ -1245,22 +1245,22 @@
         <v>70</v>
       </c>
       <c r="B33" s="5" t="n">
-        <v>20.5633201995514</v>
+        <v>20.9095930345152</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>22.9272528231505</v>
+        <v>22.4680337936412</v>
       </c>
       <c r="D33" s="5" t="n">
-        <v>21.7449729266548</v>
+        <v>22.5172019376626</v>
       </c>
       <c r="E33" s="6" t="n">
         <v>15</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34">
@@ -1268,22 +1268,22 @@
         <v>71</v>
       </c>
       <c r="B34" s="5" t="n">
-        <v>20.6745144680903</v>
+        <v>20.9726455613115</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>22.754499600604</v>
+        <v>23.2273918024994</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>21.8705355187352</v>
+        <v>21.9370907672925</v>
       </c>
       <c r="E34" s="6" t="n">
         <v>14</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35">
@@ -1291,22 +1291,22 @@
         <v>72</v>
       </c>
       <c r="B35" s="5" t="n">
-        <v>20.7057311420213</v>
+        <v>21.0104124490525</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>22.2720039056565</v>
+        <v>22.7691285922127</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>22.3240357665965</v>
+        <v>21.9224739890853</v>
       </c>
       <c r="E35" s="6" t="n">
         <v>13</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36">
@@ -1314,22 +1314,22 @@
         <v>73</v>
       </c>
       <c r="B36" s="5" t="n">
-        <v>20.7149558553608</v>
+        <v>21.0712536897445</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>22.5988347868012</v>
+        <v>23.0043757438366</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>21.6538374028235</v>
+        <v>22.2539868687935</v>
       </c>
       <c r="E36" s="6" t="n">
         <v>12</v>
       </c>
       <c r="F36" s="6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37">
@@ -1337,22 +1337,22 @@
         <v>74</v>
       </c>
       <c r="B37" s="5" t="n">
-        <v>20.7772917799114</v>
+        <v>21.1711532073344</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>22.9300141945325</v>
+        <v>23.2961619514965</v>
       </c>
       <c r="D37" s="5" t="n">
-        <v>21.8999608070896</v>
+        <v>22.3081989515863</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>11</v>
       </c>
       <c r="F37" s="6" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38">
@@ -1360,22 +1360,22 @@
         <v>75</v>
       </c>
       <c r="B38" s="5" t="n">
-        <v>20.7903153002287</v>
+        <v>21.207535140756</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>22.9318278226417</v>
+        <v>23.0149005300658</v>
       </c>
       <c r="D38" s="5" t="n">
-        <v>22.1518419531878</v>
+        <v>22.5429771339688</v>
       </c>
       <c r="E38" s="6" t="n">
         <v>10</v>
       </c>
       <c r="F38" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="G38" s="6" t="n">
         <v>8</v>
-      </c>
-      <c r="G38" s="6" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="39">
@@ -1383,22 +1383,22 @@
         <v>76</v>
       </c>
       <c r="B39" s="5" t="n">
-        <v>20.8431059523846</v>
+        <v>21.2167472168663</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>22.7518963920943</v>
+        <v>23.1783412612364</v>
       </c>
       <c r="D39" s="5" t="n">
-        <v>22.2522191125028</v>
+        <v>22.6278604929198</v>
       </c>
       <c r="E39" s="6" t="n">
         <v>9</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40">
@@ -1406,22 +1406,22 @@
         <v>77</v>
       </c>
       <c r="B40" s="5" t="n">
-        <v>20.9254696309852</v>
+        <v>21.2929081725473</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>22.9858700475656</v>
+        <v>23.3823535897132</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>22.2762767112597</v>
+        <v>22.648997236496</v>
       </c>
       <c r="E40" s="6" t="n">
         <v>8</v>
       </c>
       <c r="F40" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G40" s="6" t="n">
         <v>6</v>
-      </c>
-      <c r="G40" s="6" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="41">
@@ -1429,19 +1429,19 @@
         <v>78</v>
       </c>
       <c r="B41" s="5" t="n">
-        <v>21.0075617273407</v>
+        <v>21.3845958832634</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>22.5560607643807</v>
+        <v>22.8455353788003</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>22.5290356545365</v>
+        <v>23.0233128186838</v>
       </c>
       <c r="E41" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F41" s="6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>5</v>
@@ -1452,19 +1452,19 @@
         <v>79</v>
       </c>
       <c r="B42" s="5" t="n">
-        <v>21.0770083953494</v>
+        <v>21.4069220733692</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>23.2583507008894</v>
+        <v>23.4348439770626</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>22.141952230083</v>
+        <v>22.4331456655314</v>
       </c>
       <c r="E42" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F42" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>10</v>
@@ -1475,13 +1475,13 @@
         <v>80</v>
       </c>
       <c r="B43" s="5" t="n">
-        <v>21.1382298791556</v>
+        <v>21.5642252215848</v>
       </c>
       <c r="C43" s="5" t="n">
-        <v>23.5167555782012</v>
+        <v>23.7852627157998</v>
       </c>
       <c r="D43" s="5" t="n">
-        <v>21.7248368508683</v>
+        <v>22.0213887011449</v>
       </c>
       <c r="E43" s="6" t="n">
         <v>5</v>
@@ -1498,19 +1498,19 @@
         <v>81</v>
       </c>
       <c r="B44" s="5" t="n">
-        <v>21.2487208366021</v>
+        <v>21.6394025221146</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>22.9439600157925</v>
+        <v>23.3377091594549</v>
       </c>
       <c r="D44" s="5" t="n">
-        <v>22.7513200116527</v>
+        <v>23.2189473829997</v>
       </c>
       <c r="E44" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>3</v>
@@ -1521,19 +1521,19 @@
         <v>82</v>
       </c>
       <c r="B45" s="5" t="n">
-        <v>21.3431239326433</v>
+        <v>21.6812199905582</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>22.7600035048987</v>
+        <v>23.0206238683829</v>
       </c>
       <c r="D45" s="5" t="n">
-        <v>22.7512645889547</v>
+        <v>23.118568090856</v>
       </c>
       <c r="E45" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>4</v>
@@ -1544,19 +1544,19 @@
         <v>83</v>
       </c>
       <c r="B46" s="5" t="n">
-        <v>21.6926257025597</v>
+        <v>21.9072765099924</v>
       </c>
       <c r="C46" s="5" t="n">
-        <v>23.1098855386474</v>
+        <v>23.3317877074949</v>
       </c>
       <c r="D46" s="5" t="n">
-        <v>23.075736021548</v>
+        <v>23.3469360643576</v>
       </c>
       <c r="E46" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F46" s="6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>2</v>
@@ -1567,19 +1567,19 @@
         <v>84</v>
       </c>
       <c r="B47" s="5" t="n">
-        <v>21.7838887968409</v>
+        <v>22.0370983895321</v>
       </c>
       <c r="C47" s="5" t="n">
-        <v>23.1657445636733</v>
+        <v>23.4466081098016</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>23.1967885095319</v>
+        <v>23.4752671036386</v>
       </c>
       <c r="E47" s="6" t="n">
         <v>1</v>
       </c>
       <c r="F47" s="6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>1</v>

--- a/TabuladosGasolina.xlsx
+++ b/TabuladosGasolina.xlsx
@@ -159,13 +159,13 @@
     <t xml:space="preserve">CRE, pesos por litro</t>
   </si>
   <si>
-    <t xml:space="preserve">enero 2022</t>
+    <t xml:space="preserve">febrero 2022</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima actualización: marzo 2022</t>
+    <t xml:space="preserve">Próxima actualización: abril 2022</t>
   </si>
   <si>
     <t xml:space="preserve">FUENTE: CRE; Comisión Reguladora de Energía</t>
@@ -189,51 +189,51 @@
     <t xml:space="preserve">Querétaro</t>
   </si>
   <si>
+    <t xml:space="preserve">Puebla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hidalgo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coahuila</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sonora</t>
   </si>
   <si>
-    <t xml:space="preserve">Puebla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hidalgo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coahuila</t>
-  </si>
-  <si>
     <t xml:space="preserve">Morelos</t>
   </si>
   <si>
     <t xml:space="preserve">Guanajuato</t>
   </si>
   <si>
+    <t xml:space="preserve">México</t>
+  </si>
+  <si>
     <t xml:space="preserve">Aguascalientes</t>
   </si>
   <si>
+    <t xml:space="preserve">Veracruz</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nacional</t>
   </si>
   <si>
-    <t xml:space="preserve">México</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Veracruz</t>
-  </si>
-  <si>
     <t xml:space="preserve">Colima</t>
   </si>
   <si>
+    <t xml:space="preserve">Chiapas</t>
+  </si>
+  <si>
     <t xml:space="preserve">Durango</t>
   </si>
   <si>
-    <t xml:space="preserve">Chiapas</t>
+    <t xml:space="preserve">Zacatecas</t>
   </si>
   <si>
     <t xml:space="preserve">Sinaloa</t>
   </si>
   <si>
-    <t xml:space="preserve">Zacatecas</t>
-  </si>
-  <si>
     <t xml:space="preserve">San Luis Potosí</t>
   </si>
   <si>
@@ -255,19 +255,19 @@
     <t xml:space="preserve">Ciudad de México</t>
   </si>
   <si>
+    <t xml:space="preserve">Oaxaca</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nuevo León</t>
   </si>
   <si>
-    <t xml:space="preserve">Oaxaca</t>
-  </si>
-  <si>
     <t xml:space="preserve">Quintana Roo</t>
   </si>
   <si>
+    <t xml:space="preserve">Guerrero</t>
+  </si>
+  <si>
     <t xml:space="preserve">Campeche</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guerrero</t>
   </si>
 </sst>
 </file>
@@ -831,13 +831,13 @@
         <v>52</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>18.2323626195443</v>
+        <v>18.5552866733325</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>20.5478862302796</v>
+        <v>20.5644970120571</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>21.5405355945929</v>
+        <v>21.5724335021776</v>
       </c>
       <c r="E15" s="6" t="n">
         <v>33</v>
@@ -854,13 +854,13 @@
         <v>53</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>18.9224367847634</v>
+        <v>19.2167984034717</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>21.2731884051648</v>
+        <v>21.6636235946786</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>21.8007802714365</v>
+        <v>21.8115301550623</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>32</v>
@@ -869,7 +869,7 @@
         <v>32</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17">
@@ -877,19 +877,19 @@
         <v>54</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>19.681787741258</v>
+        <v>19.9947282907296</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>21.924662473895</v>
+        <v>22.4578323235887</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>21.0404746882025</v>
+        <v>21.3255385908933</v>
       </c>
       <c r="E17" s="6" t="n">
         <v>31</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>33</v>
@@ -900,22 +900,22 @@
         <v>55</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>20.1290014623623</v>
+        <v>20.3482013192145</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>22.2342022470317</v>
+        <v>22.4173934419121</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>21.6131731015906</v>
+        <v>21.8888432940456</v>
       </c>
       <c r="E18" s="6" t="n">
         <v>30</v>
       </c>
       <c r="F18" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="G18" s="6" t="n">
         <v>29</v>
-      </c>
-      <c r="G18" s="6" t="n">
-        <v>31</v>
       </c>
     </row>
     <row r="19">
@@ -923,19 +923,19 @@
         <v>56</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>20.2038534461952</v>
+        <v>20.3566816507491</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>21.9892935300931</v>
+        <v>22.1243441302313</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>21.8506873838475</v>
+        <v>22.0139009390485</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>29</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>26</v>
@@ -946,13 +946,13 @@
         <v>57</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>20.2498345770392</v>
+        <v>20.4432705100378</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>22.5197601728739</v>
+        <v>22.6882605175385</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>21.6523028589098</v>
+        <v>21.8168379165788</v>
       </c>
       <c r="E20" s="6" t="n">
         <v>28</v>
@@ -969,22 +969,22 @@
         <v>58</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>20.2585938804067</v>
+        <v>20.4856604622173</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>22.6624218702221</v>
+        <v>22.5029339413396</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>22.2912917170155</v>
+        <v>21.977430232126</v>
       </c>
       <c r="E21" s="6" t="n">
         <v>27</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22">
@@ -992,22 +992,22 @@
         <v>59</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>20.3008126072188</v>
+        <v>20.5268023304599</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>22.3563268710592</v>
+        <v>22.5199460602389</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>21.7642706786216</v>
+        <v>22.1278998811371</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>26</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23">
@@ -1015,22 +1015,22 @@
         <v>60</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>20.3780657320704</v>
+        <v>20.527877204148</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>22.3604823591471</v>
+        <v>22.9495630988159</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>21.9646428284051</v>
+        <v>22.0034523200322</v>
       </c>
       <c r="E23" s="6" t="n">
         <v>25</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24">
@@ -1038,13 +1038,13 @@
         <v>61</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>20.4589600630582</v>
+        <v>20.6809784995399</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>22.9703942025286</v>
+        <v>23.0129081845707</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>21.960826489744</v>
+        <v>22.6489856667324</v>
       </c>
       <c r="E24" s="6" t="n">
         <v>24</v>
@@ -1053,7 +1053,7 @@
         <v>16</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -1061,22 +1061,22 @@
         <v>62</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>20.5582300283616</v>
+        <v>20.7616718433327</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>22.4111986085436</v>
+        <v>22.5778934808201</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>22.1293770741033</v>
+        <v>22.3610659189652</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>23</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26">
@@ -1084,22 +1084,22 @@
         <v>63</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>20.593334543451</v>
+        <v>20.780128908291</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>23.0566504887913</v>
+        <v>23.248930203087</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>21.8427632024324</v>
+        <v>22.0198578864622</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>22</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27">
@@ -1107,22 +1107,22 @@
         <v>64</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>20.621329138868</v>
+        <v>20.8024497402581</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>23.0491147471117</v>
+        <v>22.9598743666348</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>21.9107770514191</v>
+        <v>22.1836193700606</v>
       </c>
       <c r="E27" s="6" t="n">
         <v>21</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28">
@@ -1130,22 +1130,22 @@
         <v>65</v>
       </c>
       <c r="B28" s="5" t="n">
-        <v>20.6509258006312</v>
+        <v>20.8084927195773</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>22.7404153248967</v>
+        <v>23.2546699165466</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>22.1629026447476</v>
+        <v>22.066349795201</v>
       </c>
       <c r="E28" s="6" t="n">
         <v>20</v>
       </c>
       <c r="F28" s="6" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29">
@@ -1153,22 +1153,22 @@
         <v>66</v>
       </c>
       <c r="B29" s="5" t="n">
-        <v>20.651624083436</v>
+        <v>20.8361695321903</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>22.7745560490828</v>
+        <v>22.4793029384445</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>22.0008988742222</v>
+        <v>22.4961878456862</v>
       </c>
       <c r="E29" s="6" t="n">
         <v>19</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30">
@@ -1176,22 +1176,22 @@
         <v>67</v>
       </c>
       <c r="B30" s="5" t="n">
-        <v>20.6718511983948</v>
+        <v>20.852547586578</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>22.3136210707181</v>
+        <v>22.9529956080865</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>22.3033410532585</v>
+        <v>22.3282811756912</v>
       </c>
       <c r="E30" s="6" t="n">
         <v>18</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31">
@@ -1199,13 +1199,13 @@
         <v>68</v>
       </c>
       <c r="B31" s="5" t="n">
-        <v>20.7002613725578</v>
+        <v>20.9054161681842</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>22.689382999235</v>
+        <v>22.9114167615628</v>
       </c>
       <c r="D31" s="5" t="n">
-        <v>22.3998993993869</v>
+        <v>22.5582382450686</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>17</v>
@@ -1214,7 +1214,7 @@
         <v>21</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32">
@@ -1222,22 +1222,22 @@
         <v>69</v>
       </c>
       <c r="B32" s="5" t="n">
-        <v>20.8545320949232</v>
+        <v>20.9593555230688</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>23.2494394724373</v>
+        <v>22.5500021055153</v>
       </c>
       <c r="D32" s="5" t="n">
-        <v>22.034260500493</v>
+        <v>22.6185407954692</v>
       </c>
       <c r="E32" s="6" t="n">
         <v>16</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33">
@@ -1245,22 +1245,22 @@
         <v>70</v>
       </c>
       <c r="B33" s="5" t="n">
-        <v>20.9095930345152</v>
+        <v>21.0618377805335</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>22.4680337936412</v>
+        <v>23.4080709758504</v>
       </c>
       <c r="D33" s="5" t="n">
-        <v>22.5172019376626</v>
+        <v>22.2823962782666</v>
       </c>
       <c r="E33" s="6" t="n">
         <v>15</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34">
@@ -1268,22 +1268,22 @@
         <v>71</v>
       </c>
       <c r="B34" s="5" t="n">
-        <v>20.9726455613115</v>
+        <v>21.1462124607091</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>23.2273918024994</v>
+        <v>22.9328945096015</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>21.9370907672925</v>
+        <v>22.0377293042242</v>
       </c>
       <c r="E34" s="6" t="n">
         <v>14</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35">
@@ -1291,22 +1291,22 @@
         <v>72</v>
       </c>
       <c r="B35" s="5" t="n">
-        <v>21.0104124490525</v>
+        <v>21.2396447300303</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>22.7691285922127</v>
+        <v>23.3907485966065</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>21.9224739890853</v>
+        <v>22.2481172285987</v>
       </c>
       <c r="E35" s="6" t="n">
         <v>13</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36">
@@ -1314,13 +1314,13 @@
         <v>73</v>
       </c>
       <c r="B36" s="5" t="n">
-        <v>21.0712536897445</v>
+        <v>21.2424042982026</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>23.0043757438366</v>
+        <v>23.1273763740123</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>22.2539868687935</v>
+        <v>22.3806741989241</v>
       </c>
       <c r="E36" s="6" t="n">
         <v>12</v>
@@ -1337,22 +1337,22 @@
         <v>74</v>
       </c>
       <c r="B37" s="5" t="n">
-        <v>21.1711532073344</v>
+        <v>21.3480900053926</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>23.2961619514965</v>
+        <v>23.4826262150575</v>
       </c>
       <c r="D37" s="5" t="n">
-        <v>22.3081989515863</v>
+        <v>22.4737356712195</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>11</v>
       </c>
       <c r="F37" s="6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38">
@@ -1360,13 +1360,13 @@
         <v>75</v>
       </c>
       <c r="B38" s="5" t="n">
-        <v>21.207535140756</v>
+        <v>21.3996386295916</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>23.0149005300658</v>
+        <v>23.1587011184988</v>
       </c>
       <c r="D38" s="5" t="n">
-        <v>22.5429771339688</v>
+        <v>22.7167853927571</v>
       </c>
       <c r="E38" s="6" t="n">
         <v>10</v>
@@ -1383,19 +1383,19 @@
         <v>76</v>
       </c>
       <c r="B39" s="5" t="n">
-        <v>21.2167472168663</v>
+        <v>21.447090184526</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>23.1783412612364</v>
+        <v>23.4324025283967</v>
       </c>
       <c r="D39" s="5" t="n">
-        <v>22.6278604929198</v>
+        <v>22.8242174741176</v>
       </c>
       <c r="E39" s="6" t="n">
         <v>9</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>7</v>
@@ -1406,13 +1406,13 @@
         <v>77</v>
       </c>
       <c r="B40" s="5" t="n">
-        <v>21.2929081725473</v>
+        <v>21.4645644588229</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>23.3823535897132</v>
+        <v>23.6063545249472</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>22.648997236496</v>
+        <v>22.839335609972</v>
       </c>
       <c r="E40" s="6" t="n">
         <v>8</v>
@@ -1429,19 +1429,19 @@
         <v>78</v>
       </c>
       <c r="B41" s="5" t="n">
-        <v>21.3845958832634</v>
+        <v>21.4900670367677</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>22.8455353788003</v>
+        <v>22.8890922712623</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>23.0233128186838</v>
+        <v>23.2014842631536</v>
       </c>
       <c r="E41" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F41" s="6" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>5</v>
@@ -1452,22 +1452,22 @@
         <v>79</v>
       </c>
       <c r="B42" s="5" t="n">
-        <v>21.4069220733692</v>
+        <v>21.5384734548993</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>23.4348439770626</v>
+        <v>23.6880381496611</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>22.4331456655314</v>
+        <v>22.6170916740917</v>
       </c>
       <c r="E42" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F42" s="6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43">
@@ -1475,22 +1475,22 @@
         <v>80</v>
       </c>
       <c r="B43" s="5" t="n">
-        <v>21.5642252215848</v>
+        <v>21.7107637513142</v>
       </c>
       <c r="C43" s="5" t="n">
-        <v>23.7852627157998</v>
+        <v>23.3992196297215</v>
       </c>
       <c r="D43" s="5" t="n">
-        <v>22.0213887011449</v>
+        <v>23.3261059173419</v>
       </c>
       <c r="E43" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F43" s="6" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G43" s="6" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
@@ -1498,22 +1498,22 @@
         <v>81</v>
       </c>
       <c r="B44" s="5" t="n">
-        <v>21.6394025221146</v>
+        <v>21.961104941501</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>23.3377091594549</v>
+        <v>24.321925352552</v>
       </c>
       <c r="D44" s="5" t="n">
-        <v>23.2189473829997</v>
+        <v>22.303067504638</v>
       </c>
       <c r="E44" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45">
@@ -1521,22 +1521,22 @@
         <v>82</v>
       </c>
       <c r="B45" s="5" t="n">
-        <v>21.6812199905582</v>
+        <v>22.0558774749191</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>23.0206238683829</v>
+        <v>23.3466926617564</v>
       </c>
       <c r="D45" s="5" t="n">
-        <v>23.118568090856</v>
+        <v>23.4832768572086</v>
       </c>
       <c r="E45" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -1544,19 +1544,19 @@
         <v>83</v>
       </c>
       <c r="B46" s="5" t="n">
-        <v>21.9072765099924</v>
+        <v>22.1844176666175</v>
       </c>
       <c r="C46" s="5" t="n">
-        <v>23.3317877074949</v>
+        <v>23.5603835462208</v>
       </c>
       <c r="D46" s="5" t="n">
-        <v>23.3469360643576</v>
+        <v>23.5584004264813</v>
       </c>
       <c r="E46" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F46" s="6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>2</v>
@@ -1567,19 +1567,19 @@
         <v>84</v>
       </c>
       <c r="B47" s="5" t="n">
-        <v>22.0370983895321</v>
+        <v>22.2335036713284</v>
       </c>
       <c r="C47" s="5" t="n">
-        <v>23.4466081098016</v>
+        <v>23.6255582463064</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>23.4752671036386</v>
+        <v>23.6312582633339</v>
       </c>
       <c r="E47" s="6" t="n">
         <v>1</v>
       </c>
       <c r="F47" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>1</v>

--- a/TabuladosGasolina.xlsx
+++ b/TabuladosGasolina.xlsx
@@ -159,7 +159,7 @@
     <t xml:space="preserve">CRE, pesos por litro</t>
   </si>
   <si>
-    <t xml:space="preserve">febrero 2022</t>
+    <t xml:space="preserve">marzo 2022</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
@@ -180,88 +180,88 @@
     <t xml:space="preserve">Baja California</t>
   </si>
   <si>
+    <t xml:space="preserve">Tabasco</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tlaxcala</t>
   </si>
   <si>
-    <t xml:space="preserve">Tabasco</t>
+    <t xml:space="preserve">Hidalgo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puebla</t>
   </si>
   <si>
     <t xml:space="preserve">Querétaro</t>
   </si>
   <si>
-    <t xml:space="preserve">Puebla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hidalgo</t>
+    <t xml:space="preserve">Sonora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veracruz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morelos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiapas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guanajuato</t>
   </si>
   <si>
     <t xml:space="preserve">Coahuila</t>
   </si>
   <si>
-    <t xml:space="preserve">Sonora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morelos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guanajuato</t>
+    <t xml:space="preserve">Aguascalientes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nacional</t>
   </si>
   <si>
     <t xml:space="preserve">México</t>
   </si>
   <si>
-    <t xml:space="preserve">Aguascalientes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Veracruz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nacional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colima</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chiapas</t>
-  </si>
-  <si>
     <t xml:space="preserve">Durango</t>
   </si>
   <si>
     <t xml:space="preserve">Zacatecas</t>
   </si>
   <si>
+    <t xml:space="preserve">San Luis Potosí</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baja California Sur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michoacán</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nayarit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yucatán</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sinaloa</t>
   </si>
   <si>
-    <t xml:space="preserve">San Luis Potosí</t>
-  </si>
-  <si>
     <t xml:space="preserve">Jalisco</t>
   </si>
   <si>
-    <t xml:space="preserve">Baja California Sur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michoacán</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nayarit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yucatán</t>
+    <t xml:space="preserve">Oaxaca</t>
   </si>
   <si>
     <t xml:space="preserve">Ciudad de México</t>
   </si>
   <si>
-    <t xml:space="preserve">Oaxaca</t>
+    <t xml:space="preserve">Quintana Roo</t>
   </si>
   <si>
     <t xml:space="preserve">Nuevo León</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quintana Roo</t>
   </si>
   <si>
     <t xml:space="preserve">Guerrero</t>
@@ -831,13 +831,13 @@
         <v>52</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>18.5552866733325</v>
+        <v>18.9796893147053</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>20.5644970120571</v>
+        <v>21.0154298355361</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>21.5724335021776</v>
+        <v>22.1579022696022</v>
       </c>
       <c r="E15" s="6" t="n">
         <v>33</v>
@@ -854,13 +854,13 @@
         <v>53</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>19.2167984034717</v>
+        <v>19.7527096569341</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>21.6636235946786</v>
+        <v>22.1800832798802</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>21.8115301550623</v>
+        <v>22.3721360982751</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>32</v>
@@ -869,7 +869,7 @@
         <v>32</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
@@ -877,19 +877,19 @@
         <v>54</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>19.9947282907296</v>
+        <v>20.4833635950303</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>22.4578323235887</v>
+        <v>22.7068663742048</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>21.3255385908933</v>
+        <v>21.7700329470762</v>
       </c>
       <c r="E17" s="6" t="n">
         <v>31</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>33</v>
@@ -900,22 +900,22 @@
         <v>55</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>20.3482013192145</v>
+        <v>20.5910159632594</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>22.4173934419121</v>
+        <v>22.2848105851735</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>21.8888432940456</v>
+        <v>22.2288497302392</v>
       </c>
       <c r="E18" s="6" t="n">
         <v>30</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19">
@@ -923,22 +923,22 @@
         <v>56</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>20.3566816507491</v>
+        <v>20.7671928454269</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>22.1243441302313</v>
+        <v>22.6908780478633</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>22.0139009390485</v>
+        <v>22.323538905067</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>29</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
@@ -946,22 +946,22 @@
         <v>57</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>20.4432705100378</v>
+        <v>20.8830240960831</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>22.6882605175385</v>
+        <v>22.7312946786766</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>21.8168379165788</v>
+        <v>22.4220184104172</v>
       </c>
       <c r="E20" s="6" t="n">
         <v>28</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21">
@@ -969,22 +969,22 @@
         <v>58</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>20.4856604622173</v>
+        <v>20.9154687515893</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>22.5029339413396</v>
+        <v>22.7965106311295</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>21.977430232126</v>
+        <v>22.4139487850521</v>
       </c>
       <c r="E21" s="6" t="n">
         <v>27</v>
       </c>
       <c r="F21" s="6" t="n">
+        <v>24</v>
+      </c>
+      <c r="G21" s="6" t="n">
         <v>27</v>
-      </c>
-      <c r="G21" s="6" t="n">
-        <v>28</v>
       </c>
     </row>
     <row r="22">
@@ -992,22 +992,22 @@
         <v>59</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>20.5268023304599</v>
+        <v>20.9323549991079</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>22.5199460602389</v>
+        <v>23.1046909389425</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>22.1278998811371</v>
+        <v>22.3649938848677</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>26</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23">
@@ -1015,22 +1015,22 @@
         <v>60</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>20.527877204148</v>
+        <v>21.0353204864958</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>22.9495630988159</v>
+        <v>23.1808783730044</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>22.0034523200322</v>
+        <v>23.0071363117758</v>
       </c>
       <c r="E23" s="6" t="n">
         <v>25</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
@@ -1038,22 +1038,22 @@
         <v>61</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>20.6809784995399</v>
+        <v>21.0734963375663</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>23.0129081845707</v>
+        <v>22.656273590766</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>22.6489856667324</v>
+        <v>22.7442686061099</v>
       </c>
       <c r="E24" s="6" t="n">
         <v>24</v>
       </c>
       <c r="F24" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="G24" s="6" t="n">
         <v>16</v>
-      </c>
-      <c r="G24" s="6" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -1061,22 +1061,22 @@
         <v>62</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>20.7616718433327</v>
+        <v>21.0856418988733</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>22.5778934808201</v>
+        <v>22.7875541272075</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>22.3610659189652</v>
+        <v>22.6614457830733</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>23</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26">
@@ -1084,22 +1084,22 @@
         <v>63</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>20.780128908291</v>
+        <v>21.210728013549</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>23.248930203087</v>
+        <v>23.0944557535208</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>22.0198578864622</v>
+        <v>22.8383568363296</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>22</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27">
@@ -1107,22 +1107,22 @@
         <v>64</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>20.8024497402581</v>
+        <v>21.217987172198</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>22.9598743666348</v>
+        <v>22.7181259918667</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>22.1836193700606</v>
+        <v>22.8697044252001</v>
       </c>
       <c r="E27" s="6" t="n">
         <v>21</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28">
@@ -1130,22 +1130,22 @@
         <v>65</v>
       </c>
       <c r="B28" s="5" t="n">
-        <v>20.8084927195773</v>
+        <v>21.2236042090037</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>23.2546699165466</v>
+        <v>23.5648205364172</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>22.066349795201</v>
+        <v>22.4531583068958</v>
       </c>
       <c r="E28" s="6" t="n">
         <v>20</v>
       </c>
       <c r="F28" s="6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29">
@@ -1153,22 +1153,22 @@
         <v>66</v>
       </c>
       <c r="B29" s="5" t="n">
-        <v>20.8361695321903</v>
+        <v>21.2277025281374</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>22.4793029384445</v>
+        <v>23.4762268232306</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>22.4961878456862</v>
+        <v>22.7374959037687</v>
       </c>
       <c r="E29" s="6" t="n">
         <v>19</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30">
@@ -1176,22 +1176,22 @@
         <v>67</v>
       </c>
       <c r="B30" s="5" t="n">
-        <v>20.852547586578</v>
+        <v>21.2481464878057</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>22.9529956080865</v>
+        <v>23.485021911408</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>22.3282811756912</v>
+        <v>22.4837946305692</v>
       </c>
       <c r="E30" s="6" t="n">
         <v>18</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31">
@@ -1199,22 +1199,22 @@
         <v>68</v>
       </c>
       <c r="B31" s="5" t="n">
-        <v>20.9054161681842</v>
+        <v>21.2761072017153</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>22.9114167615628</v>
+        <v>23.2468859664551</v>
       </c>
       <c r="D31" s="5" t="n">
-        <v>22.5582382450686</v>
+        <v>22.72678317568</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>17</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32">
@@ -1222,22 +1222,22 @@
         <v>69</v>
       </c>
       <c r="B32" s="5" t="n">
-        <v>20.9593555230688</v>
+        <v>21.3082171705904</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>22.5500021055153</v>
+        <v>23.3163872984274</v>
       </c>
       <c r="D32" s="5" t="n">
-        <v>22.6185407954692</v>
+        <v>22.5811437688743</v>
       </c>
       <c r="E32" s="6" t="n">
         <v>16</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33">
@@ -1245,19 +1245,19 @@
         <v>70</v>
       </c>
       <c r="B33" s="5" t="n">
-        <v>21.0618377805335</v>
+        <v>21.5107124110824</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>23.4080709758504</v>
+        <v>23.8263728127057</v>
       </c>
       <c r="D33" s="5" t="n">
-        <v>22.2823962782666</v>
+        <v>22.6914814548678</v>
       </c>
       <c r="E33" s="6" t="n">
         <v>15</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>19</v>
@@ -1268,22 +1268,22 @@
         <v>71</v>
       </c>
       <c r="B34" s="5" t="n">
-        <v>21.1462124607091</v>
+        <v>21.5596581678158</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>22.9328945096015</v>
+        <v>23.3405635316149</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>22.0377293042242</v>
+        <v>22.4917173737327</v>
       </c>
       <c r="E34" s="6" t="n">
         <v>14</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35">
@@ -1291,22 +1291,22 @@
         <v>72</v>
       </c>
       <c r="B35" s="5" t="n">
-        <v>21.2396447300303</v>
+        <v>21.5942190004318</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>23.3907485966065</v>
+        <v>23.3952636649233</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>22.2481172285987</v>
+        <v>22.8353001622465</v>
       </c>
       <c r="E35" s="6" t="n">
         <v>13</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36">
@@ -1314,22 +1314,22 @@
         <v>73</v>
       </c>
       <c r="B36" s="5" t="n">
-        <v>21.2424042982026</v>
+        <v>21.6216002233076</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>23.1273763740123</v>
+        <v>23.2948009594903</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>22.3806741989241</v>
+        <v>22.995812059761</v>
       </c>
       <c r="E36" s="6" t="n">
         <v>12</v>
       </c>
       <c r="F36" s="6" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37">
@@ -1337,22 +1337,22 @@
         <v>74</v>
       </c>
       <c r="B37" s="5" t="n">
-        <v>21.3480900053926</v>
+        <v>21.7253325311565</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>23.4826262150575</v>
+        <v>23.6078107340719</v>
       </c>
       <c r="D37" s="5" t="n">
-        <v>22.4737356712195</v>
+        <v>23.0731647310673</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>11</v>
       </c>
       <c r="F37" s="6" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38">
@@ -1360,22 +1360,22 @@
         <v>75</v>
       </c>
       <c r="B38" s="5" t="n">
-        <v>21.3996386295916</v>
+        <v>21.793010574499</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>23.1587011184988</v>
+        <v>23.7672185923978</v>
       </c>
       <c r="D38" s="5" t="n">
-        <v>22.7167853927571</v>
+        <v>23.1326507175969</v>
       </c>
       <c r="E38" s="6" t="n">
         <v>10</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39">
@@ -1383,22 +1383,22 @@
         <v>76</v>
       </c>
       <c r="B39" s="5" t="n">
-        <v>21.447090184526</v>
+        <v>21.8237633476701</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>23.4324025283967</v>
+        <v>22.9843936717483</v>
       </c>
       <c r="D39" s="5" t="n">
-        <v>22.8242174741176</v>
+        <v>23.4484045265882</v>
       </c>
       <c r="E39" s="6" t="n">
         <v>9</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40">
@@ -1406,22 +1406,22 @@
         <v>77</v>
       </c>
       <c r="B40" s="5" t="n">
-        <v>21.4645644588229</v>
+        <v>21.8484763651999</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>23.6063545249472</v>
+        <v>23.6733126625006</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>22.839335609972</v>
+        <v>22.8799242584028</v>
       </c>
       <c r="E40" s="6" t="n">
         <v>8</v>
       </c>
       <c r="F40" s="6" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41">
@@ -1429,22 +1429,22 @@
         <v>78</v>
       </c>
       <c r="B41" s="5" t="n">
-        <v>21.4900670367677</v>
+        <v>21.9101389749714</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>22.8890922712623</v>
+        <v>23.876881610192</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>23.2014842631536</v>
+        <v>22.9643789654536</v>
       </c>
       <c r="E41" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F41" s="6" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42">
@@ -1452,22 +1452,22 @@
         <v>79</v>
       </c>
       <c r="B42" s="5" t="n">
-        <v>21.5384734548993</v>
+        <v>22.0281923696622</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>23.6880381496611</v>
+        <v>23.6284428502616</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>22.6170916740917</v>
+        <v>23.6454136907361</v>
       </c>
       <c r="E42" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F42" s="6" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
@@ -1475,22 +1475,22 @@
         <v>80</v>
       </c>
       <c r="B43" s="5" t="n">
-        <v>21.7107637513142</v>
+        <v>22.1024954325366</v>
       </c>
       <c r="C43" s="5" t="n">
-        <v>23.3992196297215</v>
+        <v>24.1498255946033</v>
       </c>
       <c r="D43" s="5" t="n">
-        <v>23.3261059173419</v>
+        <v>23.0779761259527</v>
       </c>
       <c r="E43" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F43" s="6" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G43" s="6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44">
@@ -1498,22 +1498,22 @@
         <v>81</v>
       </c>
       <c r="B44" s="5" t="n">
-        <v>21.961104941501</v>
+        <v>22.3819421742461</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>24.321925352552</v>
+        <v>23.5025809622056</v>
       </c>
       <c r="D44" s="5" t="n">
-        <v>22.303067504638</v>
+        <v>23.671321605667</v>
       </c>
       <c r="E44" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45">
@@ -1521,22 +1521,22 @@
         <v>82</v>
       </c>
       <c r="B45" s="5" t="n">
-        <v>22.0558774749191</v>
+        <v>22.3853081377296</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>23.3466926617564</v>
+        <v>24.6005849207977</v>
       </c>
       <c r="D45" s="5" t="n">
-        <v>23.4832768572086</v>
+        <v>22.6808114125739</v>
       </c>
       <c r="E45" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46">
@@ -1544,19 +1544,19 @@
         <v>83</v>
       </c>
       <c r="B46" s="5" t="n">
-        <v>22.1844176666175</v>
+        <v>22.4333404820137</v>
       </c>
       <c r="C46" s="5" t="n">
-        <v>23.5603835462208</v>
+        <v>23.7423221307584</v>
       </c>
       <c r="D46" s="5" t="n">
-        <v>23.5584004264813</v>
+        <v>23.8348877336705</v>
       </c>
       <c r="E46" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F46" s="6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>2</v>
@@ -1567,19 +1567,19 @@
         <v>84</v>
       </c>
       <c r="B47" s="5" t="n">
-        <v>22.2335036713284</v>
+        <v>22.580139197572</v>
       </c>
       <c r="C47" s="5" t="n">
-        <v>23.6255582463064</v>
+        <v>23.8139611217279</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>23.6312582633339</v>
+        <v>23.8414773878002</v>
       </c>
       <c r="E47" s="6" t="n">
         <v>1</v>
       </c>
       <c r="F47" s="6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>1</v>

--- a/TabuladosGasolina.xlsx
+++ b/TabuladosGasolina.xlsx
@@ -159,13 +159,13 @@
     <t xml:space="preserve">CRE, pesos por litro</t>
   </si>
   <si>
-    <t xml:space="preserve">marzo 2022</t>
+    <t xml:space="preserve">abril 2022</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima actualización: abril 2022</t>
+    <t xml:space="preserve">Próxima actualización: junio 2022</t>
   </si>
   <si>
     <t xml:space="preserve">FUENTE: CRE; Comisión Reguladora de Energía</t>
@@ -177,19 +177,22 @@
     <t xml:space="preserve">Chihuahua</t>
   </si>
   <si>
+    <t xml:space="preserve">Tabasco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tlaxcala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hidalgo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puebla</t>
+  </si>
+  <si>
     <t xml:space="preserve">Baja California</t>
   </si>
   <si>
-    <t xml:space="preserve">Tabasco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tlaxcala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hidalgo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puebla</t>
+    <t xml:space="preserve">Morelos</t>
   </si>
   <si>
     <t xml:space="preserve">Querétaro</t>
@@ -201,73 +204,70 @@
     <t xml:space="preserve">Veracruz</t>
   </si>
   <si>
-    <t xml:space="preserve">Morelos</t>
+    <t xml:space="preserve">Chiapas</t>
   </si>
   <si>
     <t xml:space="preserve">Colima</t>
   </si>
   <si>
-    <t xml:space="preserve">Chiapas</t>
-  </si>
-  <si>
     <t xml:space="preserve">Guanajuato</t>
   </si>
   <si>
+    <t xml:space="preserve">México</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aguascalientes</t>
+  </si>
+  <si>
     <t xml:space="preserve">Coahuila</t>
   </si>
   <si>
-    <t xml:space="preserve">Aguascalientes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nacional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">México</t>
+    <t xml:space="preserve">Baja California Sur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Luis Potosí</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michoacán</t>
   </si>
   <si>
     <t xml:space="preserve">Durango</t>
   </si>
   <si>
+    <t xml:space="preserve">Yucatán</t>
+  </si>
+  <si>
     <t xml:space="preserve">Zacatecas</t>
   </si>
   <si>
-    <t xml:space="preserve">San Luis Potosí</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baja California Sur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michoacán</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nayarit</t>
   </si>
   <si>
-    <t xml:space="preserve">Yucatán</t>
+    <t xml:space="preserve">Jalisco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oaxaca</t>
   </si>
   <si>
     <t xml:space="preserve">Sinaloa</t>
   </si>
   <si>
-    <t xml:space="preserve">Jalisco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oaxaca</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ciudad de México</t>
   </si>
   <si>
+    <t xml:space="preserve">Guerrero</t>
+  </si>
+  <si>
     <t xml:space="preserve">Quintana Roo</t>
   </si>
   <si>
+    <t xml:space="preserve">Campeche</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nuevo León</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guerrero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Campeche</t>
   </si>
 </sst>
 </file>
@@ -831,13 +831,13 @@
         <v>52</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>18.9796893147053</v>
+        <v>19.39</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>21.0154298355361</v>
+        <v>21.41</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>22.1579022696022</v>
+        <v>22.94</v>
       </c>
       <c r="E15" s="6" t="n">
         <v>33</v>
@@ -846,7 +846,7 @@
         <v>33</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16">
@@ -854,13 +854,13 @@
         <v>53</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>19.7527096569341</v>
+        <v>20.18</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>22.1800832798802</v>
+        <v>22.31</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>22.3721360982751</v>
+        <v>23.17</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>32</v>
@@ -869,7 +869,7 @@
         <v>32</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
@@ -877,22 +877,22 @@
         <v>54</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>20.4833635950303</v>
+        <v>20.74</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>22.7068663742048</v>
+        <v>22.48</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>21.7700329470762</v>
+        <v>22.42</v>
       </c>
       <c r="E17" s="6" t="n">
         <v>31</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18">
@@ -900,19 +900,19 @@
         <v>55</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>20.5910159632594</v>
+        <v>20.98</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>22.2848105851735</v>
+        <v>22.94</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>22.2288497302392</v>
+        <v>22.6</v>
       </c>
       <c r="E18" s="6" t="n">
         <v>30</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>31</v>
@@ -923,19 +923,19 @@
         <v>56</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>20.7671928454269</v>
+        <v>21.04</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>22.6908780478633</v>
+        <v>22.96</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>22.323538905067</v>
+        <v>22.66</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>29</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>30</v>
@@ -946,22 +946,22 @@
         <v>57</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>20.8830240960831</v>
+        <v>21.09</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>22.7312946786766</v>
+        <v>23</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>22.4220184104172</v>
+        <v>22.72</v>
       </c>
       <c r="E20" s="6" t="n">
         <v>28</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21">
@@ -969,22 +969,22 @@
         <v>58</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>20.9154687515893</v>
+        <v>21.12</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>22.7965106311295</v>
+        <v>23.41</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>22.4139487850521</v>
+        <v>22.06</v>
       </c>
       <c r="E21" s="6" t="n">
         <v>27</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22">
@@ -992,22 +992,22 @@
         <v>59</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>20.9323549991079</v>
+        <v>21.18</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>23.1046909389425</v>
+        <v>22.91</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>22.3649938848677</v>
+        <v>22.83</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>26</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23">
@@ -1015,22 +1015,22 @@
         <v>60</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>21.0353204864958</v>
+        <v>21.18</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>23.1808783730044</v>
+        <v>23.35</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>23.0071363117758</v>
+        <v>22.81</v>
       </c>
       <c r="E23" s="6" t="n">
         <v>25</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24">
@@ -1038,22 +1038,22 @@
         <v>61</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>21.0734963375663</v>
+        <v>21.21</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>22.656273590766</v>
+        <v>23.46</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>22.7442686061099</v>
+        <v>23.46</v>
       </c>
       <c r="E24" s="6" t="n">
         <v>24</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -1061,22 +1061,22 @@
         <v>62</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>21.0856418988733</v>
+        <v>21.25</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>22.7875541272075</v>
+        <v>22.86</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>22.6614457830733</v>
+        <v>22.94</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>23</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26">
@@ -1084,22 +1084,22 @@
         <v>63</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>21.210728013549</v>
+        <v>21.36</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>23.0944557535208</v>
+        <v>22.91</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>22.8383568363296</v>
+        <v>23.03</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>22</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27">
@@ -1107,22 +1107,22 @@
         <v>64</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>21.217987172198</v>
+        <v>21.38</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>22.7181259918667</v>
+        <v>23.4</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>22.8697044252001</v>
+        <v>23.09</v>
       </c>
       <c r="E27" s="6" t="n">
         <v>21</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28">
@@ -1130,22 +1130,22 @@
         <v>65</v>
       </c>
       <c r="B28" s="5" t="n">
-        <v>21.2236042090037</v>
+        <v>21.44</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>23.5648205364172</v>
+        <v>23.85</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>22.4531583068958</v>
+        <v>22.82</v>
       </c>
       <c r="E28" s="6" t="n">
         <v>20</v>
       </c>
       <c r="F28" s="6" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29">
@@ -1153,22 +1153,22 @@
         <v>66</v>
       </c>
       <c r="B29" s="5" t="n">
-        <v>21.2277025281374</v>
+        <v>21.47</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>23.4762268232306</v>
+        <v>23.54</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>22.7374959037687</v>
+        <v>22.83</v>
       </c>
       <c r="E29" s="6" t="n">
         <v>19</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30">
@@ -1176,22 +1176,22 @@
         <v>67</v>
       </c>
       <c r="B30" s="5" t="n">
-        <v>21.2481464878057</v>
+        <v>21.4733333333333</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>23.485021911408</v>
+        <v>23.424</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>22.4837946305692</v>
+        <v>23.135</v>
       </c>
       <c r="E30" s="6" t="n">
         <v>18</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31">
@@ -1199,22 +1199,22 @@
         <v>68</v>
       </c>
       <c r="B31" s="5" t="n">
-        <v>21.2761072017153</v>
+        <v>21.48</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>23.2468859664551</v>
+        <v>23.72</v>
       </c>
       <c r="D31" s="5" t="n">
-        <v>22.72678317568</v>
+        <v>22.9</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>17</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32">
@@ -1222,22 +1222,22 @@
         <v>69</v>
       </c>
       <c r="B32" s="5" t="n">
-        <v>21.3082171705904</v>
+        <v>21.57</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>23.3163872984274</v>
+        <v>23.85</v>
       </c>
       <c r="D32" s="5" t="n">
-        <v>22.5811437688743</v>
+        <v>23.51</v>
       </c>
       <c r="E32" s="6" t="n">
         <v>16</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33">
@@ -1245,22 +1245,22 @@
         <v>70</v>
       </c>
       <c r="B33" s="5" t="n">
-        <v>21.5107124110824</v>
+        <v>21.7</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>23.8263728127057</v>
+        <v>23.43</v>
       </c>
       <c r="D33" s="5" t="n">
-        <v>22.6914814548678</v>
+        <v>23.16</v>
       </c>
       <c r="E33" s="6" t="n">
         <v>15</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34">
@@ -1268,22 +1268,22 @@
         <v>71</v>
       </c>
       <c r="B34" s="5" t="n">
-        <v>21.5596581678158</v>
+        <v>21.76</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>23.3405635316149</v>
+        <v>23.61</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>22.4917173737327</v>
+        <v>23.19</v>
       </c>
       <c r="E34" s="6" t="n">
         <v>14</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35">
@@ -1291,22 +1291,22 @@
         <v>72</v>
       </c>
       <c r="B35" s="5" t="n">
-        <v>21.5942190004318</v>
+        <v>21.81</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>23.3952636649233</v>
+        <v>23.59</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>22.8353001622465</v>
+        <v>23.35</v>
       </c>
       <c r="E35" s="6" t="n">
         <v>13</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36">
@@ -1314,22 +1314,22 @@
         <v>73</v>
       </c>
       <c r="B36" s="5" t="n">
-        <v>21.6216002233076</v>
+        <v>21.9</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>23.2948009594903</v>
+        <v>24.12</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>22.995812059761</v>
+        <v>23.61</v>
       </c>
       <c r="E36" s="6" t="n">
         <v>12</v>
       </c>
       <c r="F36" s="6" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37">
@@ -1337,22 +1337,22 @@
         <v>74</v>
       </c>
       <c r="B37" s="5" t="n">
-        <v>21.7253325311565</v>
+        <v>21.94</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>23.6078107340719</v>
+        <v>23.25</v>
       </c>
       <c r="D37" s="5" t="n">
-        <v>23.0731647310673</v>
+        <v>23.71</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>11</v>
       </c>
       <c r="F37" s="6" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38">
@@ -1360,22 +1360,22 @@
         <v>75</v>
       </c>
       <c r="B38" s="5" t="n">
-        <v>21.793010574499</v>
+        <v>21.97</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>23.7672185923978</v>
+        <v>23.67</v>
       </c>
       <c r="D38" s="5" t="n">
-        <v>23.1326507175969</v>
+        <v>23.13</v>
       </c>
       <c r="E38" s="6" t="n">
         <v>10</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39">
@@ -1383,22 +1383,22 @@
         <v>76</v>
       </c>
       <c r="B39" s="5" t="n">
-        <v>21.8237633476701</v>
+        <v>22.02</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>22.9843936717483</v>
+        <v>23.98</v>
       </c>
       <c r="D39" s="5" t="n">
-        <v>23.4484045265882</v>
+        <v>23.52</v>
       </c>
       <c r="E39" s="6" t="n">
         <v>9</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40">
@@ -1406,22 +1406,22 @@
         <v>77</v>
       </c>
       <c r="B40" s="5" t="n">
-        <v>21.8484763651999</v>
+        <v>22.13</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>23.6733126625006</v>
+        <v>24.14</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>22.8799242584028</v>
+        <v>23.38</v>
       </c>
       <c r="E40" s="6" t="n">
         <v>8</v>
       </c>
       <c r="F40" s="6" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41">
@@ -1429,22 +1429,22 @@
         <v>78</v>
       </c>
       <c r="B41" s="5" t="n">
-        <v>21.9101389749714</v>
+        <v>22.13</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>23.876881610192</v>
+        <v>23.75</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>22.9643789654536</v>
+        <v>23.74</v>
       </c>
       <c r="E41" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F41" s="6" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42">
@@ -1452,22 +1452,22 @@
         <v>79</v>
       </c>
       <c r="B42" s="5" t="n">
-        <v>22.0281923696622</v>
+        <v>22.13</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>23.6284428502616</v>
+        <v>23.91</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>23.6454136907361</v>
+        <v>24.23</v>
       </c>
       <c r="E42" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F42" s="6" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1475,13 +1475,13 @@
         <v>80</v>
       </c>
       <c r="B43" s="5" t="n">
-        <v>22.1024954325366</v>
+        <v>22.19</v>
       </c>
       <c r="C43" s="5" t="n">
-        <v>24.1498255946033</v>
+        <v>24.22</v>
       </c>
       <c r="D43" s="5" t="n">
-        <v>23.0779761259527</v>
+        <v>23.27</v>
       </c>
       <c r="E43" s="6" t="n">
         <v>5</v>
@@ -1490,7 +1490,7 @@
         <v>2</v>
       </c>
       <c r="G43" s="6" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44">
@@ -1498,22 +1498,22 @@
         <v>81</v>
       </c>
       <c r="B44" s="5" t="n">
-        <v>22.3819421742461</v>
+        <v>22.41</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>23.5025809622056</v>
+        <v>23.91</v>
       </c>
       <c r="D44" s="5" t="n">
-        <v>23.671321605667</v>
+        <v>23.99</v>
       </c>
       <c r="E44" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
@@ -1521,22 +1521,22 @@
         <v>82</v>
       </c>
       <c r="B45" s="5" t="n">
-        <v>22.3853081377296</v>
+        <v>22.52</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>24.6005849207977</v>
+        <v>23.64</v>
       </c>
       <c r="D45" s="5" t="n">
-        <v>22.6808114125739</v>
+        <v>23.84</v>
       </c>
       <c r="E45" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
@@ -1544,22 +1544,22 @@
         <v>83</v>
       </c>
       <c r="B46" s="5" t="n">
-        <v>22.4333404820137</v>
+        <v>22.6</v>
       </c>
       <c r="C46" s="5" t="n">
-        <v>23.7423221307584</v>
+        <v>23.84</v>
       </c>
       <c r="D46" s="5" t="n">
-        <v>23.8348877336705</v>
+        <v>23.89</v>
       </c>
       <c r="E46" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F46" s="6" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G46" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47">
@@ -1567,22 +1567,22 @@
         <v>84</v>
       </c>
       <c r="B47" s="5" t="n">
-        <v>22.580139197572</v>
+        <v>22.66</v>
       </c>
       <c r="C47" s="5" t="n">
-        <v>23.8139611217279</v>
+        <v>24.52</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>23.8414773878002</v>
+        <v>23.22</v>
       </c>
       <c r="E47" s="6" t="n">
         <v>1</v>
       </c>
       <c r="F47" s="6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G47" s="6" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/TabuladosGasolina.xlsx
+++ b/TabuladosGasolina.xlsx
@@ -159,13 +159,13 @@
     <t xml:space="preserve">CRE, pesos por litro</t>
   </si>
   <si>
-    <t xml:space="preserve">abril 2022</t>
+    <t xml:space="preserve">mayo 2022</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima actualización: junio 2022</t>
+    <t xml:space="preserve">Próxima actualización: julio 2022</t>
   </si>
   <si>
     <t xml:space="preserve">FUENTE: CRE; Comisión Reguladora de Energía</t>

--- a/TabuladosGasolina.xlsx
+++ b/TabuladosGasolina.xlsx
@@ -183,24 +183,24 @@
     <t xml:space="preserve">Tlaxcala</t>
   </si>
   <si>
+    <t xml:space="preserve">Sonora</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hidalgo</t>
   </si>
   <si>
     <t xml:space="preserve">Puebla</t>
   </si>
   <si>
+    <t xml:space="preserve">Morelos</t>
+  </si>
+  <si>
     <t xml:space="preserve">Baja California</t>
   </si>
   <si>
-    <t xml:space="preserve">Morelos</t>
-  </si>
-  <si>
     <t xml:space="preserve">Querétaro</t>
   </si>
   <si>
-    <t xml:space="preserve">Sonora</t>
-  </si>
-  <si>
     <t xml:space="preserve">Veracruz</t>
   </si>
   <si>
@@ -213,58 +213,58 @@
     <t xml:space="preserve">Guanajuato</t>
   </si>
   <si>
+    <t xml:space="preserve">Nacional</t>
+  </si>
+  <si>
     <t xml:space="preserve">México</t>
   </si>
   <si>
-    <t xml:space="preserve">Nacional</t>
+    <t xml:space="preserve">Baja California Sur</t>
   </si>
   <si>
     <t xml:space="preserve">Aguascalientes</t>
   </si>
   <si>
+    <t xml:space="preserve">Michoacán</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sinaloa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Luis Potosí</t>
+  </si>
+  <si>
     <t xml:space="preserve">Coahuila</t>
   </si>
   <si>
-    <t xml:space="preserve">Baja California Sur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Luis Potosí</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michoacán</t>
+    <t xml:space="preserve">Nayarit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yucatán</t>
   </si>
   <si>
     <t xml:space="preserve">Durango</t>
   </si>
   <si>
-    <t xml:space="preserve">Yucatán</t>
-  </si>
-  <si>
     <t xml:space="preserve">Zacatecas</t>
   </si>
   <si>
-    <t xml:space="preserve">Nayarit</t>
+    <t xml:space="preserve">Oaxaca</t>
   </si>
   <si>
     <t xml:space="preserve">Jalisco</t>
   </si>
   <si>
-    <t xml:space="preserve">Oaxaca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sinaloa</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ciudad de México</t>
   </si>
   <si>
+    <t xml:space="preserve">Campeche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quintana Roo</t>
+  </si>
+  <si>
     <t xml:space="preserve">Guerrero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quintana Roo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Campeche</t>
   </si>
   <si>
     <t xml:space="preserve">Nuevo León</t>
@@ -831,13 +831,13 @@
         <v>52</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>19.39</v>
+        <v>19.6346800514303</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>21.41</v>
+        <v>21.842045798218</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>22.94</v>
+        <v>23.1783678356989</v>
       </c>
       <c r="E15" s="6" t="n">
         <v>33</v>
@@ -846,7 +846,7 @@
         <v>33</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16">
@@ -854,13 +854,13 @@
         <v>53</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>20.18</v>
+        <v>20.2314855101275</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>22.31</v>
+        <v>22.2254782961491</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>23.17</v>
+        <v>23.445011529376</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>32</v>
@@ -877,13 +877,13 @@
         <v>54</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>20.74</v>
+        <v>20.9618138811286</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>22.48</v>
+        <v>22.6530988067377</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>22.42</v>
+        <v>22.6269029441572</v>
       </c>
       <c r="E17" s="6" t="n">
         <v>31</v>
@@ -900,19 +900,19 @@
         <v>55</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>20.98</v>
+        <v>21.0732314826588</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>22.94</v>
+        <v>23.0427019326902</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>22.6</v>
+        <v>22.7007890427881</v>
       </c>
       <c r="E18" s="6" t="n">
         <v>30</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>31</v>
@@ -923,22 +923,22 @@
         <v>56</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>21.04</v>
+        <v>21.1807565690378</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>22.96</v>
+        <v>23.6263860096394</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>22.66</v>
+        <v>23.5458673395513</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>29</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20">
@@ -946,22 +946,22 @@
         <v>57</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>21.09</v>
+        <v>21.1890625763278</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>23</v>
+        <v>23.0893199101135</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>22.72</v>
+        <v>22.8003810228231</v>
       </c>
       <c r="E20" s="6" t="n">
         <v>28</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21">
@@ -969,22 +969,22 @@
         <v>58</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>21.12</v>
+        <v>21.1964763188723</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>23.41</v>
+        <v>23.1258662254834</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>22.06</v>
+        <v>22.8514660010497</v>
       </c>
       <c r="E21" s="6" t="n">
         <v>27</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22">
@@ -992,22 +992,22 @@
         <v>59</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>21.18</v>
+        <v>21.2353995952816</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>22.91</v>
+        <v>23.0130471196007</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>22.83</v>
+        <v>22.8940021617391</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>26</v>
       </c>
       <c r="F22" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="G22" s="6" t="n">
         <v>28</v>
-      </c>
-      <c r="G22" s="6" t="n">
-        <v>25</v>
       </c>
     </row>
     <row r="23">
@@ -1015,13 +1015,13 @@
         <v>60</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>21.18</v>
+        <v>21.2778468372615</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>23.35</v>
+        <v>23.5449923863695</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>22.81</v>
+        <v>22.2389978270465</v>
       </c>
       <c r="E23" s="6" t="n">
         <v>25</v>
@@ -1030,7 +1030,7 @@
         <v>23</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24">
@@ -1038,22 +1038,22 @@
         <v>61</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>21.21</v>
+        <v>21.3591244823854</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>23.46</v>
+        <v>23.5707891662618</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>23.46</v>
+        <v>23.0228136281647</v>
       </c>
       <c r="E24" s="6" t="n">
         <v>24</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25">
@@ -1061,22 +1061,22 @@
         <v>62</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>21.25</v>
+        <v>21.3968281634148</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>22.86</v>
+        <v>23.0132246439919</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>22.94</v>
+        <v>23.1123574268584</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>23</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26">
@@ -1084,22 +1084,22 @@
         <v>63</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>21.36</v>
+        <v>21.4651378076925</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>22.91</v>
+        <v>23.0787615812026</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>23.03</v>
+        <v>23.157941474565</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>22</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27">
@@ -1107,22 +1107,22 @@
         <v>64</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>21.38</v>
+        <v>21.4780443677209</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>23.4</v>
+        <v>23.5985473534907</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>23.09</v>
+        <v>23.1871609520454</v>
       </c>
       <c r="E27" s="6" t="n">
         <v>21</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28">
@@ -1130,22 +1130,22 @@
         <v>65</v>
       </c>
       <c r="B28" s="5" t="n">
-        <v>21.44</v>
+        <v>21.6582232071538</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>23.85</v>
+        <v>24.122696759431</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>22.82</v>
+        <v>23.15161335282</v>
       </c>
       <c r="E28" s="6" t="n">
         <v>20</v>
       </c>
       <c r="F28" s="6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29">
@@ -1153,22 +1153,22 @@
         <v>66</v>
       </c>
       <c r="B29" s="5" t="n">
-        <v>21.47</v>
+        <v>21.6608777281668</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>23.54</v>
+        <v>23.6921372574732</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>22.83</v>
+        <v>23.2925700640227</v>
       </c>
       <c r="E29" s="6" t="n">
         <v>19</v>
       </c>
       <c r="F29" s="6" t="n">
+        <v>18</v>
+      </c>
+      <c r="G29" s="6" t="n">
         <v>17</v>
-      </c>
-      <c r="G29" s="6" t="n">
-        <v>26</v>
       </c>
     </row>
     <row r="30">
@@ -1176,22 +1176,22 @@
         <v>67</v>
       </c>
       <c r="B30" s="5" t="n">
-        <v>21.4733333333333</v>
+        <v>21.6979626329001</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>23.424</v>
+        <v>23.7991486706436</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>23.135</v>
+        <v>23.0133391818593</v>
       </c>
       <c r="E30" s="6" t="n">
         <v>18</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31">
@@ -1199,22 +1199,22 @@
         <v>68</v>
       </c>
       <c r="B31" s="5" t="n">
-        <v>21.48</v>
+        <v>21.7592596225393</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>23.72</v>
+        <v>23.5586794376736</v>
       </c>
       <c r="D31" s="5" t="n">
-        <v>22.9</v>
+        <v>23.2727111759048</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>17</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32">
@@ -1222,13 +1222,13 @@
         <v>69</v>
       </c>
       <c r="B32" s="5" t="n">
-        <v>21.57</v>
+        <v>21.7937984408985</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>23.85</v>
+        <v>24.0015561598412</v>
       </c>
       <c r="D32" s="5" t="n">
-        <v>23.51</v>
+        <v>23.2107431943024</v>
       </c>
       <c r="E32" s="6" t="n">
         <v>16</v>
@@ -1237,7 +1237,7 @@
         <v>9</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33">
@@ -1245,22 +1245,22 @@
         <v>70</v>
       </c>
       <c r="B33" s="5" t="n">
-        <v>21.7</v>
+        <v>21.8214347005448</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>23.43</v>
+        <v>23.771689228954</v>
       </c>
       <c r="D33" s="5" t="n">
-        <v>23.16</v>
+        <v>23.2732274264764</v>
       </c>
       <c r="E33" s="6" t="n">
         <v>15</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34">
@@ -1268,22 +1268,22 @@
         <v>71</v>
       </c>
       <c r="B34" s="5" t="n">
-        <v>21.76</v>
+        <v>21.8770534482518</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>23.61</v>
+        <v>24.0289208346532</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>23.19</v>
+        <v>24.3290290054532</v>
       </c>
       <c r="E34" s="6" t="n">
         <v>14</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1291,13 +1291,13 @@
         <v>72</v>
       </c>
       <c r="B35" s="5" t="n">
-        <v>21.81</v>
+        <v>21.9439933899241</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>23.59</v>
+        <v>23.7894740265653</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>23.35</v>
+        <v>23.4611032995706</v>
       </c>
       <c r="E35" s="6" t="n">
         <v>13</v>
@@ -1306,7 +1306,7 @@
         <v>16</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36">
@@ -1314,22 +1314,22 @@
         <v>73</v>
       </c>
       <c r="B36" s="5" t="n">
-        <v>21.9</v>
+        <v>21.9568209675937</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>24.12</v>
+        <v>24.2427249541439</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>23.61</v>
+        <v>23.9440187844951</v>
       </c>
       <c r="E36" s="6" t="n">
         <v>12</v>
       </c>
       <c r="F36" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="G36" s="6" t="n">
         <v>4</v>
-      </c>
-      <c r="G36" s="6" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="37">
@@ -1337,22 +1337,22 @@
         <v>74</v>
       </c>
       <c r="B37" s="5" t="n">
-        <v>21.94</v>
+        <v>22.0529435187512</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>23.25</v>
+        <v>24.0794527189475</v>
       </c>
       <c r="D37" s="5" t="n">
-        <v>23.71</v>
+        <v>23.6462711124264</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>11</v>
       </c>
       <c r="F37" s="6" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38">
@@ -1360,22 +1360,22 @@
         <v>75</v>
       </c>
       <c r="B38" s="5" t="n">
-        <v>21.97</v>
+        <v>22.0622802403232</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>23.67</v>
+        <v>23.3911147097407</v>
       </c>
       <c r="D38" s="5" t="n">
-        <v>23.13</v>
+        <v>23.7626271490892</v>
       </c>
       <c r="E38" s="6" t="n">
         <v>10</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39">
@@ -1383,22 +1383,22 @@
         <v>76</v>
       </c>
       <c r="B39" s="5" t="n">
-        <v>22.02</v>
+        <v>22.1403425568591</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>23.98</v>
+        <v>24.3347190416018</v>
       </c>
       <c r="D39" s="5" t="n">
-        <v>23.52</v>
+        <v>24.0518829599708</v>
       </c>
       <c r="E39" s="6" t="n">
         <v>9</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -1406,22 +1406,22 @@
         <v>77</v>
       </c>
       <c r="B40" s="5" t="n">
-        <v>22.13</v>
+        <v>22.1510770521755</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>24.14</v>
+        <v>23.8879841824338</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>23.38</v>
+        <v>23.4873154309348</v>
       </c>
       <c r="E40" s="6" t="n">
         <v>8</v>
       </c>
       <c r="F40" s="6" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41">
@@ -1429,22 +1429,22 @@
         <v>78</v>
       </c>
       <c r="B41" s="5" t="n">
-        <v>22.13</v>
+        <v>22.2062308267939</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>23.75</v>
+        <v>23.8181168650466</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>23.74</v>
+        <v>23.8017970439038</v>
       </c>
       <c r="E41" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F41" s="6" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42">
@@ -1452,22 +1452,22 @@
         <v>79</v>
       </c>
       <c r="B42" s="5" t="n">
-        <v>22.13</v>
+        <v>22.3385426804593</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>23.91</v>
+        <v>24.4385241312958</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>24.23</v>
+        <v>23.4994266820039</v>
       </c>
       <c r="E42" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F42" s="6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43">
@@ -1475,13 +1475,13 @@
         <v>80</v>
       </c>
       <c r="B43" s="5" t="n">
-        <v>22.19</v>
+        <v>22.3943925066446</v>
       </c>
       <c r="C43" s="5" t="n">
-        <v>24.22</v>
+        <v>24.5671260962873</v>
       </c>
       <c r="D43" s="5" t="n">
-        <v>23.27</v>
+        <v>23.4477964864172</v>
       </c>
       <c r="E43" s="6" t="n">
         <v>5</v>
@@ -1490,7 +1490,7 @@
         <v>2</v>
       </c>
       <c r="G43" s="6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44">
@@ -1498,22 +1498,22 @@
         <v>81</v>
       </c>
       <c r="B44" s="5" t="n">
-        <v>22.41</v>
+        <v>22.6768429802793</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>23.91</v>
+        <v>23.8836631189437</v>
       </c>
       <c r="D44" s="5" t="n">
-        <v>23.99</v>
+        <v>23.9134919427477</v>
       </c>
       <c r="E44" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45">
@@ -1521,13 +1521,13 @@
         <v>82</v>
       </c>
       <c r="B45" s="5" t="n">
-        <v>22.52</v>
+        <v>22.6891205801551</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>23.64</v>
+        <v>23.8154431959827</v>
       </c>
       <c r="D45" s="5" t="n">
-        <v>23.84</v>
+        <v>23.9395380033879</v>
       </c>
       <c r="E45" s="6" t="n">
         <v>3</v>
@@ -1536,7 +1536,7 @@
         <v>14</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46">
@@ -1544,13 +1544,13 @@
         <v>83</v>
       </c>
       <c r="B46" s="5" t="n">
-        <v>22.6</v>
+        <v>22.6930186165918</v>
       </c>
       <c r="C46" s="5" t="n">
-        <v>23.84</v>
+        <v>23.9919086542574</v>
       </c>
       <c r="D46" s="5" t="n">
-        <v>23.89</v>
+        <v>24.0461708332847</v>
       </c>
       <c r="E46" s="6" t="n">
         <v>2</v>
@@ -1567,13 +1567,13 @@
         <v>84</v>
       </c>
       <c r="B47" s="5" t="n">
-        <v>22.66</v>
+        <v>22.8139050051037</v>
       </c>
       <c r="C47" s="5" t="n">
-        <v>24.52</v>
+        <v>25.0606166221184</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>23.22</v>
+        <v>23.638494107851</v>
       </c>
       <c r="E47" s="6" t="n">
         <v>1</v>
@@ -1582,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="G47" s="6" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/TabuladosGasolina.xlsx
+++ b/TabuladosGasolina.xlsx
@@ -159,13 +159,13 @@
     <t xml:space="preserve">CRE, pesos por litro</t>
   </si>
   <si>
-    <t xml:space="preserve">mayo 2022</t>
+    <t xml:space="preserve">junio 2022</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima actualización: julio 2022</t>
+    <t xml:space="preserve">Próxima actualización: agosto 2022</t>
   </si>
   <si>
     <t xml:space="preserve">FUENTE: CRE; Comisión Reguladora de Energía</t>
@@ -177,39 +177,48 @@
     <t xml:space="preserve">Chihuahua</t>
   </si>
   <si>
+    <t xml:space="preserve">Tlaxcala</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tabasco</t>
   </si>
   <si>
-    <t xml:space="preserve">Tlaxcala</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sonora</t>
   </si>
   <si>
+    <t xml:space="preserve">Puebla</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hidalgo</t>
   </si>
   <si>
-    <t xml:space="preserve">Puebla</t>
-  </si>
-  <si>
     <t xml:space="preserve">Morelos</t>
   </si>
   <si>
     <t xml:space="preserve">Baja California</t>
   </si>
   <si>
+    <t xml:space="preserve">Veracruz</t>
+  </si>
+  <si>
     <t xml:space="preserve">Querétaro</t>
   </si>
   <si>
-    <t xml:space="preserve">Veracruz</t>
-  </si>
-  <si>
     <t xml:space="preserve">Chiapas</t>
   </si>
   <si>
     <t xml:space="preserve">Colima</t>
   </si>
   <si>
+    <t xml:space="preserve">Sinaloa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aguascalientes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baja California Sur</t>
+  </si>
+  <si>
     <t xml:space="preserve">Guanajuato</t>
   </si>
   <si>
@@ -219,28 +228,22 @@
     <t xml:space="preserve">México</t>
   </si>
   <si>
-    <t xml:space="preserve">Baja California Sur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aguascalientes</t>
-  </si>
-  <si>
     <t xml:space="preserve">Michoacán</t>
   </si>
   <si>
-    <t xml:space="preserve">Sinaloa</t>
-  </si>
-  <si>
     <t xml:space="preserve">San Luis Potosí</t>
   </si>
   <si>
+    <t xml:space="preserve">Yucatán</t>
+  </si>
+  <si>
     <t xml:space="preserve">Coahuila</t>
   </si>
   <si>
     <t xml:space="preserve">Nayarit</t>
   </si>
   <si>
-    <t xml:space="preserve">Yucatán</t>
+    <t xml:space="preserve">Oaxaca</t>
   </si>
   <si>
     <t xml:space="preserve">Durango</t>
@@ -249,22 +252,19 @@
     <t xml:space="preserve">Zacatecas</t>
   </si>
   <si>
-    <t xml:space="preserve">Oaxaca</t>
-  </si>
-  <si>
     <t xml:space="preserve">Jalisco</t>
   </si>
   <si>
     <t xml:space="preserve">Ciudad de México</t>
   </si>
   <si>
+    <t xml:space="preserve">Guerrero</t>
+  </si>
+  <si>
     <t xml:space="preserve">Campeche</t>
   </si>
   <si>
     <t xml:space="preserve">Quintana Roo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guerrero</t>
   </si>
   <si>
     <t xml:space="preserve">Nuevo León</t>
@@ -831,13 +831,13 @@
         <v>52</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>19.6346800514303</v>
+        <v>19.6795901355853</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>21.842045798218</v>
+        <v>21.8984074217926</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>23.1783678356989</v>
+        <v>23.2064990706077</v>
       </c>
       <c r="E15" s="6" t="n">
         <v>33</v>
@@ -846,7 +846,7 @@
         <v>33</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16">
@@ -854,13 +854,13 @@
         <v>53</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>20.2314855101275</v>
+        <v>20.7000416472691</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>22.2254782961491</v>
+        <v>22.5381825185453</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>23.445011529376</v>
+        <v>23.6310535444908</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>32</v>
@@ -869,7 +869,7 @@
         <v>32</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17">
@@ -877,19 +877,19 @@
         <v>54</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>20.9618138811286</v>
+        <v>21.1417125380473</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>22.6530988067377</v>
+        <v>23.1295562963574</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>22.6269029441572</v>
+        <v>22.7907984288343</v>
       </c>
       <c r="E17" s="6" t="n">
         <v>31</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>32</v>
@@ -900,22 +900,22 @@
         <v>55</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>21.0732314826588</v>
+        <v>21.1567730177393</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>23.0427019326902</v>
+        <v>22.8273516261949</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>22.7007890427881</v>
+        <v>23.0208118271643</v>
       </c>
       <c r="E18" s="6" t="n">
         <v>30</v>
       </c>
       <c r="F18" s="6" t="n">
+        <v>31</v>
+      </c>
+      <c r="G18" s="6" t="n">
         <v>28</v>
-      </c>
-      <c r="G18" s="6" t="n">
-        <v>31</v>
       </c>
     </row>
     <row r="19">
@@ -923,22 +923,22 @@
         <v>56</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>21.1807565690378</v>
+        <v>21.2172591459283</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>23.6263860096394</v>
+        <v>23.5581528120886</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>23.5458673395513</v>
+        <v>23.5012832037193</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>29</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20">
@@ -946,22 +946,22 @@
         <v>57</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>21.1890625763278</v>
+        <v>21.2208638681543</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>23.0893199101135</v>
+        <v>23.1380049048081</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>22.8003810228231</v>
+        <v>22.8770190331641</v>
       </c>
       <c r="E20" s="6" t="n">
         <v>28</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21">
@@ -969,13 +969,13 @@
         <v>58</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>21.1964763188723</v>
+        <v>21.2251012144532</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>23.1258662254834</v>
+        <v>23.1873548086905</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>22.8514660010497</v>
+        <v>22.9166885060617</v>
       </c>
       <c r="E21" s="6" t="n">
         <v>27</v>
@@ -984,7 +984,7 @@
         <v>25</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22">
@@ -992,22 +992,22 @@
         <v>59</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>21.2353995952816</v>
+        <v>21.2764250125108</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>23.0130471196007</v>
+        <v>23.0873515175449</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>22.8940021617391</v>
+        <v>22.9324660739657</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>26</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23">
@@ -1015,19 +1015,19 @@
         <v>60</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>21.2778468372615</v>
+        <v>21.3022872678694</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>23.5449923863695</v>
+        <v>23.6495651070528</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>22.2389978270465</v>
+        <v>22.4445136415868</v>
       </c>
       <c r="E23" s="6" t="n">
         <v>25</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>33</v>
@@ -1038,22 +1038,22 @@
         <v>61</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>21.3591244823854</v>
+        <v>21.4012946235503</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>23.5707891662618</v>
+        <v>23.0409342669593</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>23.0228136281647</v>
+        <v>23.1761576552338</v>
       </c>
       <c r="E24" s="6" t="n">
         <v>24</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25">
@@ -1061,22 +1061,22 @@
         <v>62</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>21.3968281634148</v>
+        <v>21.4411987509042</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>23.0132246439919</v>
+        <v>23.7585303105827</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>23.1123574268584</v>
+        <v>23.168906021132</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>23</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26">
@@ -1084,19 +1084,19 @@
         <v>63</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>21.4651378076925</v>
+        <v>21.4972671625797</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>23.0787615812026</v>
+        <v>23.1390096761967</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>23.157941474565</v>
+        <v>23.2558036410879</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>22</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>23</v>
@@ -1107,13 +1107,13 @@
         <v>64</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>21.4780443677209</v>
+        <v>21.5295922860279</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>23.5985473534907</v>
+        <v>23.7318930981126</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>23.1871609520454</v>
+        <v>23.2725698708556</v>
       </c>
       <c r="E27" s="6" t="n">
         <v>21</v>
@@ -1122,7 +1122,7 @@
         <v>20</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28">
@@ -1130,22 +1130,22 @@
         <v>65</v>
       </c>
       <c r="B28" s="5" t="n">
-        <v>21.6582232071538</v>
+        <v>21.7883287310892</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>24.122696759431</v>
+        <v>23.9834476654747</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>23.15161335282</v>
+        <v>24.0001650136315</v>
       </c>
       <c r="E28" s="6" t="n">
         <v>20</v>
       </c>
       <c r="F28" s="6" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29">
@@ -1153,22 +1153,22 @@
         <v>66</v>
       </c>
       <c r="B29" s="5" t="n">
-        <v>21.6608777281668</v>
+        <v>21.7981090249717</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>23.6921372574732</v>
+        <v>24.1205489278851</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>23.2925700640227</v>
+        <v>23.3641708539502</v>
       </c>
       <c r="E29" s="6" t="n">
         <v>19</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30">
@@ -1176,22 +1176,22 @@
         <v>67</v>
       </c>
       <c r="B30" s="5" t="n">
-        <v>21.6979626329001</v>
+        <v>21.8210060103999</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>23.7991486706436</v>
+        <v>23.6721106455194</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>23.0133391818593</v>
+        <v>23.3653297921715</v>
       </c>
       <c r="E30" s="6" t="n">
         <v>18</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31">
@@ -1199,19 +1199,19 @@
         <v>68</v>
       </c>
       <c r="B31" s="5" t="n">
-        <v>21.7592596225393</v>
+        <v>21.8493670858906</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>23.5586794376736</v>
+        <v>24.2518278462386</v>
       </c>
       <c r="D31" s="5" t="n">
-        <v>23.2727111759048</v>
+        <v>23.3645083536178</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>17</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>19</v>
@@ -1222,22 +1222,22 @@
         <v>69</v>
       </c>
       <c r="B32" s="5" t="n">
-        <v>21.7937984408985</v>
+        <v>21.8552515817664</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>24.0015561598412</v>
+        <v>23.8503407271181</v>
       </c>
       <c r="D32" s="5" t="n">
-        <v>23.2107431943024</v>
+        <v>23.3833011655434</v>
       </c>
       <c r="E32" s="6" t="n">
         <v>16</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33">
@@ -1245,22 +1245,22 @@
         <v>70</v>
       </c>
       <c r="B33" s="5" t="n">
-        <v>21.8214347005448</v>
+        <v>21.9093192411299</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>23.771689228954</v>
+        <v>24.0145359019695</v>
       </c>
       <c r="D33" s="5" t="n">
-        <v>23.2732274264764</v>
+        <v>23.0991634083397</v>
       </c>
       <c r="E33" s="6" t="n">
         <v>15</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34">
@@ -1268,22 +1268,22 @@
         <v>71</v>
       </c>
       <c r="B34" s="5" t="n">
-        <v>21.8770534482518</v>
+        <v>21.9686852727455</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>24.0289208346532</v>
+        <v>23.9819646614923</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>24.3290290054532</v>
+        <v>23.3311321063887</v>
       </c>
       <c r="E34" s="6" t="n">
         <v>14</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35">
@@ -1291,19 +1291,19 @@
         <v>72</v>
       </c>
       <c r="B35" s="5" t="n">
-        <v>21.9439933899241</v>
+        <v>22.0368917733697</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>23.7894740265653</v>
+        <v>23.8884225836091</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>23.4611032995706</v>
+        <v>23.5708751518328</v>
       </c>
       <c r="E35" s="6" t="n">
         <v>13</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>14</v>
@@ -1314,22 +1314,22 @@
         <v>73</v>
       </c>
       <c r="B36" s="5" t="n">
-        <v>21.9568209675937</v>
+        <v>22.090226531327</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>24.2427249541439</v>
+        <v>23.4822672934153</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>23.9440187844951</v>
+        <v>23.7356186963013</v>
       </c>
       <c r="E36" s="6" t="n">
         <v>12</v>
       </c>
       <c r="F36" s="6" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37">
@@ -1337,22 +1337,22 @@
         <v>74</v>
       </c>
       <c r="B37" s="5" t="n">
-        <v>22.0529435187512</v>
+        <v>22.1112215319787</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>24.0794527189475</v>
+        <v>24.3907072670608</v>
       </c>
       <c r="D37" s="5" t="n">
-        <v>23.6462711124264</v>
+        <v>24.1178865462778</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>11</v>
       </c>
       <c r="F37" s="6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
@@ -1360,22 +1360,22 @@
         <v>75</v>
       </c>
       <c r="B38" s="5" t="n">
-        <v>22.0622802403232</v>
+        <v>22.1677165259765</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>23.3911147097407</v>
+        <v>24.1713818791863</v>
       </c>
       <c r="D38" s="5" t="n">
-        <v>23.7626271490892</v>
+        <v>23.5832333742722</v>
       </c>
       <c r="E38" s="6" t="n">
         <v>10</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39">
@@ -1383,22 +1383,22 @@
         <v>76</v>
       </c>
       <c r="B39" s="5" t="n">
-        <v>22.1403425568591</v>
+        <v>22.2515533204605</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>24.3347190416018</v>
+        <v>23.8645892382871</v>
       </c>
       <c r="D39" s="5" t="n">
-        <v>24.0518829599708</v>
+        <v>23.8597669855027</v>
       </c>
       <c r="E39" s="6" t="n">
         <v>9</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40">
@@ -1406,22 +1406,22 @@
         <v>77</v>
       </c>
       <c r="B40" s="5" t="n">
-        <v>22.1510770521755</v>
+        <v>22.2875516672645</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>23.8879841824338</v>
+        <v>24.6357868179538</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>23.4873154309348</v>
+        <v>24.1780345300894</v>
       </c>
       <c r="E40" s="6" t="n">
         <v>8</v>
       </c>
       <c r="F40" s="6" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1429,22 +1429,22 @@
         <v>78</v>
       </c>
       <c r="B41" s="5" t="n">
-        <v>22.2062308267939</v>
+        <v>22.3535054467551</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>23.8181168650466</v>
+        <v>24.0915511233047</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>23.8017970439038</v>
+        <v>23.6613415979842</v>
       </c>
       <c r="E41" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F41" s="6" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42">
@@ -1452,13 +1452,13 @@
         <v>79</v>
       </c>
       <c r="B42" s="5" t="n">
-        <v>22.3385426804593</v>
+        <v>22.5843976774147</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>24.4385241312958</v>
+        <v>24.6735755394889</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>23.4994266820039</v>
+        <v>23.5705058066474</v>
       </c>
       <c r="E42" s="6" t="n">
         <v>6</v>
@@ -1467,7 +1467,7 @@
         <v>3</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43">
@@ -1475,13 +1475,13 @@
         <v>80</v>
       </c>
       <c r="B43" s="5" t="n">
-        <v>22.3943925066446</v>
+        <v>22.6663454188594</v>
       </c>
       <c r="C43" s="5" t="n">
-        <v>24.5671260962873</v>
+        <v>24.8737469540256</v>
       </c>
       <c r="D43" s="5" t="n">
-        <v>23.4477964864172</v>
+        <v>23.5809352181673</v>
       </c>
       <c r="E43" s="6" t="n">
         <v>5</v>
@@ -1490,7 +1490,7 @@
         <v>2</v>
       </c>
       <c r="G43" s="6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44">
@@ -1498,22 +1498,22 @@
         <v>81</v>
       </c>
       <c r="B44" s="5" t="n">
-        <v>22.6768429802793</v>
+        <v>22.7011327809616</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>23.8836631189437</v>
+        <v>24.0971380318617</v>
       </c>
       <c r="D44" s="5" t="n">
-        <v>23.9134919427477</v>
+        <v>24.15436507445</v>
       </c>
       <c r="E44" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
@@ -1521,13 +1521,13 @@
         <v>82</v>
       </c>
       <c r="B45" s="5" t="n">
-        <v>22.6891205801551</v>
+        <v>22.7314956967638</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>23.8154431959827</v>
+        <v>23.9522254092417</v>
       </c>
       <c r="D45" s="5" t="n">
-        <v>23.9395380033879</v>
+        <v>24.0187561436419</v>
       </c>
       <c r="E45" s="6" t="n">
         <v>3</v>
@@ -1536,7 +1536,7 @@
         <v>14</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
@@ -1544,22 +1544,22 @@
         <v>83</v>
       </c>
       <c r="B46" s="5" t="n">
-        <v>22.6930186165918</v>
+        <v>22.7745296177648</v>
       </c>
       <c r="C46" s="5" t="n">
-        <v>23.9919086542574</v>
+        <v>23.8870095067534</v>
       </c>
       <c r="D46" s="5" t="n">
-        <v>24.0461708332847</v>
+        <v>23.9647621559417</v>
       </c>
       <c r="E46" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F46" s="6" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G46" s="6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47">
@@ -1567,13 +1567,13 @@
         <v>84</v>
       </c>
       <c r="B47" s="5" t="n">
-        <v>22.8139050051037</v>
+        <v>23.084898423745</v>
       </c>
       <c r="C47" s="5" t="n">
-        <v>25.0606166221184</v>
+        <v>25.1060732328196</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>23.638494107851</v>
+        <v>23.8096337788414</v>
       </c>
       <c r="E47" s="6" t="n">
         <v>1</v>
@@ -1582,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="G47" s="6" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/TabuladosGasolina.xlsx
+++ b/TabuladosGasolina.xlsx
@@ -159,13 +159,13 @@
     <t xml:space="preserve">CRE, pesos por litro</t>
   </si>
   <si>
-    <t xml:space="preserve">junio 2022</t>
+    <t xml:space="preserve">julio 2022</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima actualización: agosto 2022</t>
+    <t xml:space="preserve">Próxima actualización: septiembre 2022</t>
   </si>
   <si>
     <t xml:space="preserve">FUENTE: CRE; Comisión Reguladora de Energía</t>
@@ -177,67 +177,70 @@
     <t xml:space="preserve">Chihuahua</t>
   </si>
   <si>
+    <t xml:space="preserve">Baja California</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tabasco</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tlaxcala</t>
   </si>
   <si>
-    <t xml:space="preserve">Tabasco</t>
+    <t xml:space="preserve">Hidalgo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puebla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morelos</t>
   </si>
   <si>
     <t xml:space="preserve">Sonora</t>
   </si>
   <si>
-    <t xml:space="preserve">Puebla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hidalgo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morelos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baja California</t>
+    <t xml:space="preserve">Querétaro</t>
   </si>
   <si>
     <t xml:space="preserve">Veracruz</t>
   </si>
   <si>
-    <t xml:space="preserve">Querétaro</t>
-  </si>
-  <si>
     <t xml:space="preserve">Chiapas</t>
   </si>
   <si>
+    <t xml:space="preserve">Aguascalientes</t>
+  </si>
+  <si>
     <t xml:space="preserve">Colima</t>
   </si>
   <si>
+    <t xml:space="preserve">Nacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">México</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guanajuato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baja California Sur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coahuila</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Luis Potosí</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michoacán</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yucatán</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sinaloa</t>
   </si>
   <si>
-    <t xml:space="preserve">Aguascalientes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baja California Sur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guanajuato</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nacional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">México</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michoacán</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Luis Potosí</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yucatán</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coahuila</t>
+    <t xml:space="preserve">Durango</t>
   </si>
   <si>
     <t xml:space="preserve">Nayarit</t>
@@ -246,9 +249,6 @@
     <t xml:space="preserve">Oaxaca</t>
   </si>
   <si>
-    <t xml:space="preserve">Durango</t>
-  </si>
-  <si>
     <t xml:space="preserve">Zacatecas</t>
   </si>
   <si>
@@ -258,16 +258,16 @@
     <t xml:space="preserve">Ciudad de México</t>
   </si>
   <si>
+    <t xml:space="preserve">Campeche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuevo León</t>
+  </si>
+  <si>
     <t xml:space="preserve">Guerrero</t>
   </si>
   <si>
-    <t xml:space="preserve">Campeche</t>
-  </si>
-  <si>
     <t xml:space="preserve">Quintana Roo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nuevo León</t>
   </si>
 </sst>
 </file>
@@ -831,13 +831,13 @@
         <v>52</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>19.6795901355853</v>
+        <v>19.1670726339297</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>21.8984074217926</v>
+        <v>21.7814206804999</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>23.2064990706077</v>
+        <v>23.117406408326</v>
       </c>
       <c r="E15" s="6" t="n">
         <v>33</v>
@@ -846,7 +846,7 @@
         <v>33</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
@@ -854,13 +854,13 @@
         <v>53</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>20.7000416472691</v>
+        <v>20.4540758212389</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>22.5381825185453</v>
+        <v>22.6167844875102</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>23.6310535444908</v>
+        <v>23.745204003356</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>32</v>
@@ -869,7 +869,7 @@
         <v>32</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17">
@@ -877,22 +877,22 @@
         <v>54</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>21.1417125380473</v>
+        <v>21.1219743005953</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>23.1295562963574</v>
+        <v>23.5947860591747</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>22.7907984288343</v>
+        <v>22.4535288307984</v>
       </c>
       <c r="E17" s="6" t="n">
         <v>31</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18">
@@ -900,13 +900,13 @@
         <v>55</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>21.1567730177393</v>
+        <v>21.2882048328431</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>22.8273516261949</v>
+        <v>22.8975904899854</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>23.0208118271643</v>
+        <v>23.0517476570395</v>
       </c>
       <c r="E18" s="6" t="n">
         <v>30</v>
@@ -923,22 +923,22 @@
         <v>56</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>21.2172591459283</v>
+        <v>21.3168017624474</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>23.5581528120886</v>
+        <v>23.3106369527067</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>23.5012832037193</v>
+        <v>22.9407720308613</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>29</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20">
@@ -946,22 +946,22 @@
         <v>57</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>21.2208638681543</v>
+        <v>21.3280290530524</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>23.1380049048081</v>
+        <v>23.2702530784188</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>22.8770190331641</v>
+        <v>23.0427862494242</v>
       </c>
       <c r="E20" s="6" t="n">
         <v>28</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21">
@@ -969,22 +969,22 @@
         <v>58</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>21.2251012144532</v>
+        <v>21.4051183880572</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>23.1873548086905</v>
+        <v>23.301631631052</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>22.9166885060617</v>
+        <v>22.9502278592576</v>
       </c>
       <c r="E21" s="6" t="n">
         <v>27</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22">
@@ -992,13 +992,13 @@
         <v>59</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>21.2764250125108</v>
+        <v>21.4201047867195</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>23.0873515175449</v>
+        <v>23.216887416148</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>22.9324660739657</v>
+        <v>23.0336229262652</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>26</v>
@@ -1007,7 +1007,7 @@
         <v>29</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23">
@@ -1015,22 +1015,22 @@
         <v>60</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>21.3022872678694</v>
+        <v>21.4360268922429</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>23.6495651070528</v>
+        <v>23.910755012881</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>22.4445136415868</v>
+        <v>23.6049407068343</v>
       </c>
       <c r="E23" s="6" t="n">
         <v>25</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24">
@@ -1038,22 +1038,22 @@
         <v>61</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>21.4012946235503</v>
+        <v>21.497929889414</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>23.0409342669593</v>
+        <v>23.7419957239392</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>23.1761576552338</v>
+        <v>23.2527348319188</v>
       </c>
       <c r="E24" s="6" t="n">
         <v>24</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25">
@@ -1061,22 +1061,22 @@
         <v>62</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>21.4411987509042</v>
+        <v>21.5165050084522</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>23.7585303105827</v>
+        <v>23.1342264743331</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>23.168906021132</v>
+        <v>23.2515505196235</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>23</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26">
@@ -1084,13 +1084,13 @@
         <v>63</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>21.4972671625797</v>
+        <v>21.6599754400288</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>23.1390096761967</v>
+        <v>23.3043677973859</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>23.2558036410879</v>
+        <v>23.3836517745757</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>22</v>
@@ -1099,7 +1099,7 @@
         <v>26</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27">
@@ -1107,22 +1107,22 @@
         <v>64</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>21.5295922860279</v>
+        <v>21.6971309629733</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>23.7318930981126</v>
+        <v>24.1383382768857</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>23.2725698708556</v>
+        <v>23.373267859407</v>
       </c>
       <c r="E27" s="6" t="n">
         <v>21</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28">
@@ -1130,22 +1130,22 @@
         <v>65</v>
       </c>
       <c r="B28" s="5" t="n">
-        <v>21.7883287310892</v>
+        <v>21.7056563629372</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>23.9834476654747</v>
+        <v>23.8462671135009</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>24.0001650136315</v>
+        <v>23.4023180357001</v>
       </c>
       <c r="E28" s="6" t="n">
         <v>20</v>
       </c>
       <c r="F28" s="6" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29">
@@ -1153,19 +1153,19 @@
         <v>66</v>
       </c>
       <c r="B29" s="5" t="n">
-        <v>21.7981090249717</v>
+        <v>21.8327874397047</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>24.1205489278851</v>
+        <v>23.8835168937048</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>23.3641708539502</v>
+        <v>23.4554114159097</v>
       </c>
       <c r="E29" s="6" t="n">
         <v>19</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>20</v>
@@ -1176,22 +1176,22 @@
         <v>67</v>
       </c>
       <c r="B30" s="5" t="n">
-        <v>21.8210060103999</v>
+        <v>21.8621467671724</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>23.6721106455194</v>
+        <v>24.0349841206264</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>23.3653297921715</v>
+        <v>23.1464523061101</v>
       </c>
       <c r="E30" s="6" t="n">
         <v>18</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31">
@@ -1199,22 +1199,22 @@
         <v>68</v>
       </c>
       <c r="B31" s="5" t="n">
-        <v>21.8493670858906</v>
+        <v>21.9422133698647</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>24.2518278462386</v>
+        <v>24.3180656942659</v>
       </c>
       <c r="D31" s="5" t="n">
-        <v>23.3645083536178</v>
+        <v>23.5283644468553</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>17</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32">
@@ -1222,13 +1222,13 @@
         <v>69</v>
       </c>
       <c r="B32" s="5" t="n">
-        <v>21.8552515817664</v>
+        <v>22.0463110219596</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>23.8503407271181</v>
+        <v>23.9123305756852</v>
       </c>
       <c r="D32" s="5" t="n">
-        <v>23.3833011655434</v>
+        <v>23.500418906975</v>
       </c>
       <c r="E32" s="6" t="n">
         <v>16</v>
@@ -1237,7 +1237,7 @@
         <v>18</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33">
@@ -1245,22 +1245,22 @@
         <v>70</v>
       </c>
       <c r="B33" s="5" t="n">
-        <v>21.9093192411299</v>
+        <v>22.0582697893318</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>24.0145359019695</v>
+        <v>24.3836295752097</v>
       </c>
       <c r="D33" s="5" t="n">
-        <v>23.0991634083397</v>
+        <v>24.0800810199736</v>
       </c>
       <c r="E33" s="6" t="n">
         <v>15</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
@@ -1268,22 +1268,22 @@
         <v>71</v>
       </c>
       <c r="B34" s="5" t="n">
-        <v>21.9686852727455</v>
+        <v>22.0913163702635</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>23.9819646614923</v>
+        <v>23.9569353856616</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>23.3311321063887</v>
+        <v>23.6486951216926</v>
       </c>
       <c r="E34" s="6" t="n">
         <v>14</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35">
@@ -1291,22 +1291,22 @@
         <v>72</v>
       </c>
       <c r="B35" s="5" t="n">
-        <v>22.0368917733697</v>
+        <v>22.1362961292222</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>23.8884225836091</v>
+        <v>24.1015352969484</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>23.5708751518328</v>
+        <v>23.481577742245</v>
       </c>
       <c r="E35" s="6" t="n">
         <v>13</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36">
@@ -1314,22 +1314,22 @@
         <v>73</v>
       </c>
       <c r="B36" s="5" t="n">
-        <v>22.090226531327</v>
+        <v>22.1879415217392</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>23.4822672934153</v>
+        <v>23.5951840932059</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>23.7356186963013</v>
+        <v>23.8517652443255</v>
       </c>
       <c r="E36" s="6" t="n">
         <v>12</v>
       </c>
       <c r="F36" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37">
@@ -1337,22 +1337,22 @@
         <v>74</v>
       </c>
       <c r="B37" s="5" t="n">
-        <v>22.1112215319787</v>
+        <v>22.2962128500876</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>24.3907072670608</v>
+        <v>24.1573649980844</v>
       </c>
       <c r="D37" s="5" t="n">
-        <v>24.1178865462778</v>
+        <v>23.9268523370937</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>11</v>
       </c>
       <c r="F37" s="6" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38">
@@ -1360,22 +1360,22 @@
         <v>75</v>
       </c>
       <c r="B38" s="5" t="n">
-        <v>22.1677165259765</v>
+        <v>22.3421124363521</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>24.1713818791863</v>
+        <v>24.5809371989874</v>
       </c>
       <c r="D38" s="5" t="n">
-        <v>23.5832333742722</v>
+        <v>24.1861872945491</v>
       </c>
       <c r="E38" s="6" t="n">
         <v>10</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
@@ -1383,22 +1383,22 @@
         <v>76</v>
       </c>
       <c r="B39" s="5" t="n">
-        <v>22.2515533204605</v>
+        <v>22.3729270890748</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>23.8645892382871</v>
+        <v>24.4332846029233</v>
       </c>
       <c r="D39" s="5" t="n">
-        <v>23.8597669855027</v>
+        <v>23.8047453087848</v>
       </c>
       <c r="E39" s="6" t="n">
         <v>9</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40">
@@ -1406,22 +1406,22 @@
         <v>77</v>
       </c>
       <c r="B40" s="5" t="n">
-        <v>22.2875516672645</v>
+        <v>22.3858219765255</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>24.6357868179538</v>
+        <v>24.0413993960458</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>24.1780345300894</v>
+        <v>23.9277307699014</v>
       </c>
       <c r="E40" s="6" t="n">
         <v>8</v>
       </c>
       <c r="F40" s="6" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41">
@@ -1429,22 +1429,22 @@
         <v>78</v>
       </c>
       <c r="B41" s="5" t="n">
-        <v>22.3535054467551</v>
+        <v>22.4474158562457</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>24.0915511233047</v>
+        <v>24.2356774939659</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>23.6613415979842</v>
+        <v>23.7582663129857</v>
       </c>
       <c r="E41" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F41" s="6" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42">
@@ -1452,13 +1452,13 @@
         <v>79</v>
       </c>
       <c r="B42" s="5" t="n">
-        <v>22.5843976774147</v>
+        <v>22.540508142899</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>24.6735755394889</v>
+        <v>24.6533103149005</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>23.5705058066474</v>
+        <v>23.6649591174615</v>
       </c>
       <c r="E42" s="6" t="n">
         <v>6</v>
@@ -1467,7 +1467,7 @@
         <v>3</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43">
@@ -1475,13 +1475,13 @@
         <v>80</v>
       </c>
       <c r="B43" s="5" t="n">
-        <v>22.6663454188594</v>
+        <v>22.6719413296646</v>
       </c>
       <c r="C43" s="5" t="n">
-        <v>24.8737469540256</v>
+        <v>24.959337248475</v>
       </c>
       <c r="D43" s="5" t="n">
-        <v>23.5809352181673</v>
+        <v>23.6061307916069</v>
       </c>
       <c r="E43" s="6" t="n">
         <v>5</v>
@@ -1490,7 +1490,7 @@
         <v>2</v>
       </c>
       <c r="G43" s="6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44">
@@ -1498,22 +1498,22 @@
         <v>81</v>
       </c>
       <c r="B44" s="5" t="n">
-        <v>22.7011327809616</v>
+        <v>22.8042203474369</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>24.0971380318617</v>
+        <v>24.0020986738636</v>
       </c>
       <c r="D44" s="5" t="n">
-        <v>24.15436507445</v>
+        <v>24.0717287522965</v>
       </c>
       <c r="E44" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45">
@@ -1521,22 +1521,22 @@
         <v>82</v>
       </c>
       <c r="B45" s="5" t="n">
-        <v>22.7314956967638</v>
+        <v>22.8631503887136</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>23.9522254092417</v>
+        <v>25.0710399386781</v>
       </c>
       <c r="D45" s="5" t="n">
-        <v>24.0187561436419</v>
+        <v>23.8061180214463</v>
       </c>
       <c r="E45" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46">
@@ -1544,22 +1544,22 @@
         <v>83</v>
       </c>
       <c r="B46" s="5" t="n">
-        <v>22.7745296177648</v>
+        <v>22.8638215781566</v>
       </c>
       <c r="C46" s="5" t="n">
-        <v>23.8870095067534</v>
+        <v>24.1899323188467</v>
       </c>
       <c r="D46" s="5" t="n">
-        <v>23.9647621559417</v>
+        <v>24.2053740931621</v>
       </c>
       <c r="E46" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F46" s="6" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G46" s="6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1567,22 +1567,22 @@
         <v>84</v>
       </c>
       <c r="B47" s="5" t="n">
-        <v>23.084898423745</v>
+        <v>22.9177570920394</v>
       </c>
       <c r="C47" s="5" t="n">
-        <v>25.1060732328196</v>
+        <v>24.0466259507331</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>23.8096337788414</v>
+        <v>24.0837946757672</v>
       </c>
       <c r="E47" s="6" t="n">
         <v>1</v>
       </c>
       <c r="F47" s="6" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G47" s="6" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/TabuladosGasolina.xlsx
+++ b/TabuladosGasolina.xlsx
@@ -159,7 +159,7 @@
     <t xml:space="preserve">CRE, pesos por litro</t>
   </si>
   <si>
-    <t xml:space="preserve">julio 2022</t>
+    <t xml:space="preserve">agosto 2022</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
@@ -180,12 +180,12 @@
     <t xml:space="preserve">Baja California</t>
   </si>
   <si>
+    <t xml:space="preserve">Tlaxcala</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tabasco</t>
   </si>
   <si>
-    <t xml:space="preserve">Tlaxcala</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hidalgo</t>
   </si>
   <si>
@@ -195,19 +195,22 @@
     <t xml:space="preserve">Morelos</t>
   </si>
   <si>
+    <t xml:space="preserve">Querétaro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veracruz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aguascalientes</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sonora</t>
   </si>
   <si>
-    <t xml:space="preserve">Querétaro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Veracruz</t>
-  </si>
-  <si>
     <t xml:space="preserve">Chiapas</t>
   </si>
   <si>
-    <t xml:space="preserve">Aguascalientes</t>
+    <t xml:space="preserve">México</t>
   </si>
   <si>
     <t xml:space="preserve">Colima</t>
@@ -216,55 +219,52 @@
     <t xml:space="preserve">Nacional</t>
   </si>
   <si>
-    <t xml:space="preserve">México</t>
-  </si>
-  <si>
     <t xml:space="preserve">Guanajuato</t>
   </si>
   <si>
+    <t xml:space="preserve">Coahuila</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Luis Potosí</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yucatán</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michoacán</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durango</t>
+  </si>
+  <si>
     <t xml:space="preserve">Baja California Sur</t>
   </si>
   <si>
-    <t xml:space="preserve">Coahuila</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Luis Potosí</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michoacán</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yucatán</t>
+    <t xml:space="preserve">Zacatecas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oaxaca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jalisco</t>
   </si>
   <si>
     <t xml:space="preserve">Sinaloa</t>
   </si>
   <si>
-    <t xml:space="preserve">Durango</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nayarit</t>
   </si>
   <si>
-    <t xml:space="preserve">Oaxaca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zacatecas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jalisco</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ciudad de México</t>
   </si>
   <si>
+    <t xml:space="preserve">Guerrero</t>
+  </si>
+  <si>
     <t xml:space="preserve">Campeche</t>
   </si>
   <si>
     <t xml:space="preserve">Nuevo León</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guerrero</t>
   </si>
   <si>
     <t xml:space="preserve">Quintana Roo</t>
@@ -831,13 +831,13 @@
         <v>52</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>19.1670726339297</v>
+        <v>19.51</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>21.7814206804999</v>
+        <v>22.14</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>23.117406408326</v>
+        <v>23.1</v>
       </c>
       <c r="E15" s="6" t="n">
         <v>33</v>
@@ -846,7 +846,7 @@
         <v>33</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16">
@@ -854,13 +854,13 @@
         <v>53</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>20.4540758212389</v>
+        <v>20.57</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>22.6167844875102</v>
+        <v>22.24</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>23.745204003356</v>
+        <v>23.6</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>32</v>
@@ -869,7 +869,7 @@
         <v>32</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
@@ -877,19 +877,19 @@
         <v>54</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>21.1219743005953</v>
+        <v>21.19</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>23.5947860591747</v>
+        <v>23.77</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>22.4535288307984</v>
+        <v>22.54</v>
       </c>
       <c r="E17" s="6" t="n">
         <v>31</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>33</v>
@@ -900,22 +900,22 @@
         <v>55</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>21.2882048328431</v>
+        <v>21.34</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>22.8975904899854</v>
+        <v>23.35</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>23.0517476570395</v>
+        <v>22.95</v>
       </c>
       <c r="E18" s="6" t="n">
         <v>30</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
@@ -923,22 +923,22 @@
         <v>56</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>21.3168017624474</v>
+        <v>21.37</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>23.3106369527067</v>
+        <v>23</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>22.9407720308613</v>
+        <v>23.16</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>29</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20">
@@ -946,22 +946,22 @@
         <v>57</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>21.3280290530524</v>
+        <v>21.38</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>23.2702530784188</v>
+        <v>23.41</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>23.0427862494242</v>
+        <v>23.14</v>
       </c>
       <c r="E20" s="6" t="n">
         <v>28</v>
       </c>
       <c r="F20" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="G20" s="6" t="n">
         <v>28</v>
-      </c>
-      <c r="G20" s="6" t="n">
-        <v>29</v>
       </c>
     </row>
     <row r="21">
@@ -969,19 +969,19 @@
         <v>58</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>21.4051183880572</v>
+        <v>21.44</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>23.301631631052</v>
+        <v>23.34</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>22.9502278592576</v>
+        <v>23.02</v>
       </c>
       <c r="E21" s="6" t="n">
         <v>27</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>31</v>
@@ -992,13 +992,13 @@
         <v>59</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>21.4201047867195</v>
+        <v>21.47</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>23.216887416148</v>
+        <v>23.27</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>23.0336229262652</v>
+        <v>23.08</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>26</v>
@@ -1015,22 +1015,22 @@
         <v>60</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>21.4360268922429</v>
+        <v>21.49</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>23.910755012881</v>
+        <v>23.74</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>23.6049407068343</v>
+        <v>23.28</v>
       </c>
       <c r="E23" s="6" t="n">
         <v>25</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24">
@@ -1038,19 +1038,19 @@
         <v>61</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>21.497929889414</v>
+        <v>21.63</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>23.7419957239392</v>
+        <v>23.24</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>23.2527348319188</v>
+        <v>23.35</v>
       </c>
       <c r="E24" s="6" t="n">
         <v>24</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>24</v>
@@ -1061,22 +1061,22 @@
         <v>62</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>21.5165050084522</v>
+        <v>21.64</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>23.1342264743331</v>
+        <v>24.16</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>23.2515505196235</v>
+        <v>23.38</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>23</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26">
@@ -1084,22 +1084,22 @@
         <v>63</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>21.6599754400288</v>
+        <v>21.67</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>23.3043677973859</v>
+        <v>24.15</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>23.3836517745757</v>
+        <v>23.75</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>22</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27">
@@ -1107,22 +1107,22 @@
         <v>64</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>21.6971309629733</v>
+        <v>21.71</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>24.1383382768857</v>
+        <v>23.43</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>23.373267859407</v>
+        <v>23.43</v>
       </c>
       <c r="E27" s="6" t="n">
         <v>21</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28">
@@ -1130,22 +1130,22 @@
         <v>65</v>
       </c>
       <c r="B28" s="5" t="n">
-        <v>21.7056563629372</v>
+        <v>21.87</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>23.8462671135009</v>
+        <v>24.09</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>23.4023180357001</v>
+        <v>23.2</v>
       </c>
       <c r="E28" s="6" t="n">
         <v>20</v>
       </c>
       <c r="F28" s="6" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29">
@@ -1153,19 +1153,19 @@
         <v>66</v>
       </c>
       <c r="B29" s="5" t="n">
-        <v>21.8327874397047</v>
+        <v>21.9</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>23.8835168937048</v>
+        <v>23.96</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>23.4554114159097</v>
+        <v>23.57</v>
       </c>
       <c r="E29" s="6" t="n">
         <v>19</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>20</v>
@@ -1176,22 +1176,22 @@
         <v>67</v>
       </c>
       <c r="B30" s="5" t="n">
-        <v>21.8621467671724</v>
+        <v>21.931935483871</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>24.0349841206264</v>
+        <v>23.9925806451613</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>23.1464523061101</v>
+        <v>23.5287096774193</v>
       </c>
       <c r="E30" s="6" t="n">
         <v>18</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31">
@@ -1199,13 +1199,13 @@
         <v>68</v>
       </c>
       <c r="B31" s="5" t="n">
-        <v>21.9422133698647</v>
+        <v>21.98</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>24.3180656942659</v>
+        <v>24.45</v>
       </c>
       <c r="D31" s="5" t="n">
-        <v>23.5283644468553</v>
+        <v>23.63</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>17</v>
@@ -1222,22 +1222,22 @@
         <v>69</v>
       </c>
       <c r="B32" s="5" t="n">
-        <v>22.0463110219596</v>
+        <v>22.01</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>23.9123305756852</v>
+        <v>24.48</v>
       </c>
       <c r="D32" s="5" t="n">
-        <v>23.500418906975</v>
+        <v>24.12</v>
       </c>
       <c r="E32" s="6" t="n">
         <v>16</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33">
@@ -1245,22 +1245,22 @@
         <v>70</v>
       </c>
       <c r="B33" s="5" t="n">
-        <v>22.0582697893318</v>
+        <v>22.15</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>24.3836295752097</v>
+        <v>24</v>
       </c>
       <c r="D33" s="5" t="n">
-        <v>24.0800810199736</v>
+        <v>23.78</v>
       </c>
       <c r="E33" s="6" t="n">
         <v>15</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34">
@@ -1268,22 +1268,22 @@
         <v>71</v>
       </c>
       <c r="B34" s="5" t="n">
-        <v>22.0913163702635</v>
+        <v>22.19</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>23.9569353856616</v>
+        <v>23.84</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>23.6486951216926</v>
+        <v>23.81</v>
       </c>
       <c r="E34" s="6" t="n">
         <v>14</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35">
@@ -1291,13 +1291,13 @@
         <v>72</v>
       </c>
       <c r="B35" s="5" t="n">
-        <v>22.1362961292222</v>
+        <v>22.21</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>24.1015352969484</v>
+        <v>24.24</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>23.481577742245</v>
+        <v>23.61</v>
       </c>
       <c r="E35" s="6" t="n">
         <v>13</v>
@@ -1306,7 +1306,7 @@
         <v>12</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36">
@@ -1314,22 +1314,22 @@
         <v>73</v>
       </c>
       <c r="B36" s="5" t="n">
-        <v>22.1879415217392</v>
+        <v>22.39</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>23.5951840932059</v>
+        <v>24.69</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>23.8517652443255</v>
+        <v>24.26</v>
       </c>
       <c r="E36" s="6" t="n">
         <v>12</v>
       </c>
       <c r="F36" s="6" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -1337,22 +1337,22 @@
         <v>74</v>
       </c>
       <c r="B37" s="5" t="n">
-        <v>22.2962128500876</v>
+        <v>22.42</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>24.1573649980844</v>
+        <v>24.34</v>
       </c>
       <c r="D37" s="5" t="n">
-        <v>23.9268523370937</v>
+        <v>23.83</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>11</v>
       </c>
       <c r="F37" s="6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38">
@@ -1360,22 +1360,22 @@
         <v>75</v>
       </c>
       <c r="B38" s="5" t="n">
-        <v>22.3421124363521</v>
+        <v>22.44</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>24.5809371989874</v>
+        <v>24.25</v>
       </c>
       <c r="D38" s="5" t="n">
-        <v>24.1861872945491</v>
+        <v>23.8</v>
       </c>
       <c r="E38" s="6" t="n">
         <v>10</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39">
@@ -1383,22 +1383,22 @@
         <v>76</v>
       </c>
       <c r="B39" s="5" t="n">
-        <v>22.3729270890748</v>
+        <v>22.5</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>24.4332846029233</v>
+        <v>24.2</v>
       </c>
       <c r="D39" s="5" t="n">
-        <v>23.8047453087848</v>
+        <v>23.99</v>
       </c>
       <c r="E39" s="6" t="n">
         <v>9</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40">
@@ -1406,22 +1406,22 @@
         <v>77</v>
       </c>
       <c r="B40" s="5" t="n">
-        <v>22.3858219765255</v>
+        <v>22.51</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>24.0413993960458</v>
+        <v>24.69</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>23.9277307699014</v>
+        <v>23.74</v>
       </c>
       <c r="E40" s="6" t="n">
         <v>8</v>
       </c>
       <c r="F40" s="6" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41">
@@ -1429,13 +1429,13 @@
         <v>78</v>
       </c>
       <c r="B41" s="5" t="n">
-        <v>22.4474158562457</v>
+        <v>22.53</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>24.2356774939659</v>
+        <v>24.43</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>23.7582663129857</v>
+        <v>24.05</v>
       </c>
       <c r="E41" s="6" t="n">
         <v>7</v>
@@ -1444,7 +1444,7 @@
         <v>8</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42">
@@ -1452,22 +1452,22 @@
         <v>79</v>
       </c>
       <c r="B42" s="5" t="n">
-        <v>22.540508142899</v>
+        <v>22.55</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>24.6533103149005</v>
+        <v>24.66</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>23.6649591174615</v>
+        <v>23.98</v>
       </c>
       <c r="E42" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F42" s="6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43">
@@ -1475,13 +1475,13 @@
         <v>80</v>
       </c>
       <c r="B43" s="5" t="n">
-        <v>22.6719413296646</v>
+        <v>22.66</v>
       </c>
       <c r="C43" s="5" t="n">
-        <v>24.959337248475</v>
+        <v>25.01</v>
       </c>
       <c r="D43" s="5" t="n">
-        <v>23.6061307916069</v>
+        <v>23.64</v>
       </c>
       <c r="E43" s="6" t="n">
         <v>5</v>
@@ -1490,7 +1490,7 @@
         <v>2</v>
       </c>
       <c r="G43" s="6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44">
@@ -1498,22 +1498,22 @@
         <v>81</v>
       </c>
       <c r="B44" s="5" t="n">
-        <v>22.8042203474369</v>
+        <v>22.87</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>24.0020986738636</v>
+        <v>24.28</v>
       </c>
       <c r="D44" s="5" t="n">
-        <v>24.0717287522965</v>
+        <v>24.27</v>
       </c>
       <c r="E44" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1521,22 +1521,22 @@
         <v>82</v>
       </c>
       <c r="B45" s="5" t="n">
-        <v>22.8631503887136</v>
+        <v>22.93</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>25.0710399386781</v>
+        <v>24.18</v>
       </c>
       <c r="D45" s="5" t="n">
-        <v>23.8061180214463</v>
+        <v>24.2</v>
       </c>
       <c r="E45" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -1544,22 +1544,22 @@
         <v>83</v>
       </c>
       <c r="B46" s="5" t="n">
-        <v>22.8638215781566</v>
+        <v>22.96</v>
       </c>
       <c r="C46" s="5" t="n">
-        <v>24.1899323188467</v>
+        <v>25.19</v>
       </c>
       <c r="D46" s="5" t="n">
-        <v>24.2053740931621</v>
+        <v>23.8</v>
       </c>
       <c r="E46" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F46" s="6" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G46" s="6" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47">
@@ -1567,22 +1567,22 @@
         <v>84</v>
       </c>
       <c r="B47" s="5" t="n">
-        <v>22.9177570920394</v>
+        <v>23.07</v>
       </c>
       <c r="C47" s="5" t="n">
-        <v>24.0466259507331</v>
+        <v>24.19</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>24.0837946757672</v>
+        <v>24.18</v>
       </c>
       <c r="E47" s="6" t="n">
         <v>1</v>
       </c>
       <c r="F47" s="6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G47" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/TabuladosGasolina.xlsx
+++ b/TabuladosGasolina.xlsx
@@ -159,13 +159,13 @@
     <t xml:space="preserve">CRE, pesos por litro</t>
   </si>
   <si>
-    <t xml:space="preserve">agosto 2022</t>
+    <t xml:space="preserve">septiembre 2022</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima actualización: septiembre 2022</t>
+    <t xml:space="preserve">Próxima actualización: octubre 2022</t>
   </si>
   <si>
     <t xml:space="preserve">FUENTE: CRE; Comisión Reguladora de Energía</t>
@@ -183,48 +183,48 @@
     <t xml:space="preserve">Tlaxcala</t>
   </si>
   <si>
+    <t xml:space="preserve">Querétaro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hidalgo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puebla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morelos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aguascalientes</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tabasco</t>
   </si>
   <si>
-    <t xml:space="preserve">Hidalgo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puebla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morelos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Querétaro</t>
-  </si>
-  <si>
     <t xml:space="preserve">Veracruz</t>
   </si>
   <si>
-    <t xml:space="preserve">Aguascalientes</t>
+    <t xml:space="preserve">Coahuila</t>
+  </si>
+  <si>
+    <t xml:space="preserve">México</t>
   </si>
   <si>
     <t xml:space="preserve">Sonora</t>
   </si>
   <si>
+    <t xml:space="preserve">Nacional</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chiapas</t>
   </si>
   <si>
-    <t xml:space="preserve">México</t>
+    <t xml:space="preserve">Guanajuato</t>
   </si>
   <si>
     <t xml:space="preserve">Colima</t>
   </si>
   <si>
-    <t xml:space="preserve">Nacional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guanajuato</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coahuila</t>
-  </si>
-  <si>
     <t xml:space="preserve">San Luis Potosí</t>
   </si>
   <si>
@@ -234,40 +234,40 @@
     <t xml:space="preserve">Michoacán</t>
   </si>
   <si>
+    <t xml:space="preserve">Zacatecas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jalisco</t>
+  </si>
+  <si>
     <t xml:space="preserve">Durango</t>
   </si>
   <si>
+    <t xml:space="preserve">Ciudad de México</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nayarit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oaxaca</t>
+  </si>
+  <si>
     <t xml:space="preserve">Baja California Sur</t>
   </si>
   <si>
-    <t xml:space="preserve">Zacatecas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oaxaca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jalisco</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sinaloa</t>
   </si>
   <si>
-    <t xml:space="preserve">Nayarit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ciudad de México</t>
+    <t xml:space="preserve">Nuevo León</t>
   </si>
   <si>
     <t xml:space="preserve">Guerrero</t>
   </si>
   <si>
+    <t xml:space="preserve">Quintana Roo</t>
+  </si>
+  <si>
     <t xml:space="preserve">Campeche</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nuevo León</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quintana Roo</t>
   </si>
 </sst>
 </file>
@@ -831,13 +831,13 @@
         <v>52</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>19.51</v>
+        <v>18.9990417960567</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>22.14</v>
+        <v>21.9222676057234</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>23.1</v>
+        <v>23.1373008416249</v>
       </c>
       <c r="E15" s="6" t="n">
         <v>33</v>
@@ -846,7 +846,7 @@
         <v>33</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
@@ -854,13 +854,13 @@
         <v>53</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>20.57</v>
+        <v>19.8086573298246</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>22.24</v>
+        <v>22.0080842593222</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>23.6</v>
+        <v>23.3277245346712</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>32</v>
@@ -869,7 +869,7 @@
         <v>32</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17">
@@ -877,13 +877,13 @@
         <v>54</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>21.19</v>
+        <v>21.0820534221113</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>23.77</v>
+        <v>23.7261422985492</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>22.54</v>
+        <v>22.6630476566693</v>
       </c>
       <c r="E17" s="6" t="n">
         <v>31</v>
@@ -900,19 +900,19 @@
         <v>55</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>21.34</v>
+        <v>21.124572492586</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>23.35</v>
+        <v>23.3397079307505</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>22.95</v>
+        <v>23.0310717582397</v>
       </c>
       <c r="E18" s="6" t="n">
         <v>30</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>32</v>
@@ -923,22 +923,22 @@
         <v>56</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>21.37</v>
+        <v>21.240160176237</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>23</v>
+        <v>23.6290369099498</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>23.16</v>
+        <v>23.3087930657034</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>29</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20">
@@ -946,22 +946,22 @@
         <v>57</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>21.38</v>
+        <v>21.2518361291141</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>23.41</v>
+        <v>23.3746510857314</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>23.14</v>
+        <v>23.2165501696491</v>
       </c>
       <c r="E20" s="6" t="n">
         <v>28</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21">
@@ -969,13 +969,13 @@
         <v>58</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>21.44</v>
+        <v>21.2591736876291</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>23.34</v>
+        <v>23.3600931571078</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>23.02</v>
+        <v>23.1417068150061</v>
       </c>
       <c r="E21" s="6" t="n">
         <v>27</v>
@@ -984,7 +984,7 @@
         <v>28</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22">
@@ -992,22 +992,22 @@
         <v>59</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>21.47</v>
+        <v>21.3625040736993</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>23.27</v>
+        <v>23.3786309549233</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>23.08</v>
+        <v>23.2282980074894</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>26</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23">
@@ -1015,22 +1015,22 @@
         <v>60</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>21.49</v>
+        <v>21.3915728872132</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>23.74</v>
+        <v>24.0195447559256</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>23.28</v>
+        <v>23.3598594251734</v>
       </c>
       <c r="E23" s="6" t="n">
         <v>25</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24">
@@ -1038,22 +1038,22 @@
         <v>61</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>21.63</v>
+        <v>21.4258147596159</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>23.24</v>
+        <v>23.1731840081311</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>23.35</v>
+        <v>23.3222940269815</v>
       </c>
       <c r="E24" s="6" t="n">
         <v>24</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25">
@@ -1061,22 +1061,22 @@
         <v>62</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>21.64</v>
+        <v>21.4755362557291</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>24.16</v>
+        <v>23.2200061054785</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>23.38</v>
+        <v>23.3784117432811</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>23</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26">
@@ -1084,22 +1084,22 @@
         <v>63</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>21.67</v>
+        <v>21.5495330570999</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>24.15</v>
+        <v>24.2248173734726</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>23.75</v>
+        <v>24.0757728266145</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>22</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27">
@@ -1107,22 +1107,22 @@
         <v>64</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>21.71</v>
+        <v>21.592014217387</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>23.43</v>
+        <v>24.0066352875588</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>23.43</v>
+        <v>23.2480221251869</v>
       </c>
       <c r="E27" s="6" t="n">
         <v>21</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28">
@@ -1130,22 +1130,22 @@
         <v>65</v>
       </c>
       <c r="B28" s="5" t="n">
-        <v>21.87</v>
+        <v>21.6075721816176</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>24.09</v>
+        <v>24.3045097748607</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>23.2</v>
+        <v>23.8523045509115</v>
       </c>
       <c r="E28" s="6" t="n">
         <v>20</v>
       </c>
       <c r="F28" s="6" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29">
@@ -1153,19 +1153,19 @@
         <v>66</v>
       </c>
       <c r="B29" s="5" t="n">
-        <v>21.9</v>
+        <v>21.6942532303975</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>23.96</v>
+        <v>23.9748274810343</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>23.57</v>
+        <v>23.5693184923224</v>
       </c>
       <c r="E29" s="6" t="n">
         <v>19</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>20</v>
@@ -1176,19 +1176,19 @@
         <v>67</v>
       </c>
       <c r="B30" s="5" t="n">
-        <v>21.931935483871</v>
+        <v>21.8583422469373</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>23.9925806451613</v>
+        <v>23.5421097308089</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>23.5287096774193</v>
+        <v>23.5499002412303</v>
       </c>
       <c r="E30" s="6" t="n">
         <v>18</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>21</v>
@@ -1199,13 +1199,13 @@
         <v>68</v>
       </c>
       <c r="B31" s="5" t="n">
-        <v>21.98</v>
+        <v>21.9078048078984</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>24.45</v>
+        <v>24.4804726365091</v>
       </c>
       <c r="D31" s="5" t="n">
-        <v>23.63</v>
+        <v>23.702499117144</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>17</v>
@@ -1214,7 +1214,7 @@
         <v>7</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32">
@@ -1222,22 +1222,22 @@
         <v>69</v>
       </c>
       <c r="B32" s="5" t="n">
-        <v>22.01</v>
+        <v>21.9179260345172</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>24.48</v>
+        <v>24.0892583150482</v>
       </c>
       <c r="D32" s="5" t="n">
-        <v>24.12</v>
+        <v>23.6727928922239</v>
       </c>
       <c r="E32" s="6" t="n">
         <v>16</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33">
@@ -1245,19 +1245,19 @@
         <v>70</v>
       </c>
       <c r="B33" s="5" t="n">
-        <v>22.15</v>
+        <v>22.0465205753214</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>24</v>
+        <v>24.0387060172026</v>
       </c>
       <c r="D33" s="5" t="n">
-        <v>23.78</v>
+        <v>23.8117732650391</v>
       </c>
       <c r="E33" s="6" t="n">
         <v>15</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>13</v>
@@ -1268,19 +1268,19 @@
         <v>71</v>
       </c>
       <c r="B34" s="5" t="n">
-        <v>22.19</v>
+        <v>22.1207401279371</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>23.84</v>
+        <v>23.9936353483691</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>23.81</v>
+        <v>23.8880563456947</v>
       </c>
       <c r="E34" s="6" t="n">
         <v>14</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>10</v>
@@ -1291,22 +1291,22 @@
         <v>72</v>
       </c>
       <c r="B35" s="5" t="n">
-        <v>22.21</v>
+        <v>22.1226847732844</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>24.24</v>
+        <v>24.2291180294277</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>23.61</v>
+        <v>23.6908884611022</v>
       </c>
       <c r="E35" s="6" t="n">
         <v>13</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36">
@@ -1314,22 +1314,22 @@
         <v>73</v>
       </c>
       <c r="B36" s="5" t="n">
-        <v>22.39</v>
+        <v>22.1265701143668</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>24.69</v>
+        <v>24.136335139059</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>24.26</v>
+        <v>23.7110233747937</v>
       </c>
       <c r="E36" s="6" t="n">
         <v>12</v>
       </c>
       <c r="F36" s="6" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37">
@@ -1337,22 +1337,22 @@
         <v>74</v>
       </c>
       <c r="B37" s="5" t="n">
-        <v>22.42</v>
+        <v>22.1771154864642</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>24.34</v>
+        <v>24.6451019147556</v>
       </c>
       <c r="D37" s="5" t="n">
-        <v>23.83</v>
+        <v>23.7785382687134</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>11</v>
       </c>
       <c r="F37" s="6" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38">
@@ -1360,22 +1360,22 @@
         <v>75</v>
       </c>
       <c r="B38" s="5" t="n">
-        <v>22.44</v>
+        <v>22.2067789118776</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>24.25</v>
+        <v>24.648605789054</v>
       </c>
       <c r="D38" s="5" t="n">
-        <v>23.8</v>
+        <v>24.299472490973</v>
       </c>
       <c r="E38" s="6" t="n">
         <v>10</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
@@ -1383,22 +1383,22 @@
         <v>76</v>
       </c>
       <c r="B39" s="5" t="n">
-        <v>22.5</v>
+        <v>22.3231778649575</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>24.2</v>
+        <v>24.8830246269922</v>
       </c>
       <c r="D39" s="5" t="n">
-        <v>23.99</v>
+        <v>23.6522386962228</v>
       </c>
       <c r="E39" s="6" t="n">
         <v>9</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40">
@@ -1406,22 +1406,22 @@
         <v>77</v>
       </c>
       <c r="B40" s="5" t="n">
-        <v>22.51</v>
+        <v>22.3808969895529</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>24.69</v>
+        <v>24.5613990223355</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>23.74</v>
+        <v>24.0814238013526</v>
       </c>
       <c r="E40" s="6" t="n">
         <v>8</v>
       </c>
       <c r="F40" s="6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41">
@@ -1429,19 +1429,19 @@
         <v>78</v>
       </c>
       <c r="B41" s="5" t="n">
-        <v>22.53</v>
+        <v>22.4959882419393</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>24.43</v>
+        <v>24.2476696677877</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>24.05</v>
+        <v>24.1048582070386</v>
       </c>
       <c r="E41" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F41" s="6" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>6</v>
@@ -1452,22 +1452,22 @@
         <v>79</v>
       </c>
       <c r="B42" s="5" t="n">
-        <v>22.55</v>
+        <v>22.5313889556593</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>24.66</v>
+        <v>24.5419543000873</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>23.98</v>
+        <v>23.9814534942392</v>
       </c>
       <c r="E42" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F42" s="6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43">
@@ -1475,22 +1475,22 @@
         <v>80</v>
       </c>
       <c r="B43" s="5" t="n">
-        <v>22.66</v>
+        <v>22.5457169702553</v>
       </c>
       <c r="C43" s="5" t="n">
-        <v>25.01</v>
+        <v>24.4299774136416</v>
       </c>
       <c r="D43" s="5" t="n">
-        <v>23.64</v>
+        <v>24.1307233015085</v>
       </c>
       <c r="E43" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F43" s="6" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G43" s="6" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44">
@@ -1498,22 +1498,22 @@
         <v>81</v>
       </c>
       <c r="B44" s="5" t="n">
-        <v>22.87</v>
+        <v>22.7393354729601</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>24.28</v>
+        <v>25.0829567484579</v>
       </c>
       <c r="D44" s="5" t="n">
-        <v>24.27</v>
+        <v>23.8558105939871</v>
       </c>
       <c r="E44" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45">
@@ -1521,22 +1521,22 @@
         <v>82</v>
       </c>
       <c r="B45" s="5" t="n">
-        <v>22.93</v>
+        <v>22.9006854453508</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>24.18</v>
+        <v>24.4477789142577</v>
       </c>
       <c r="D45" s="5" t="n">
-        <v>24.2</v>
+        <v>24.3681278729311</v>
       </c>
       <c r="E45" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1544,22 +1544,22 @@
         <v>83</v>
       </c>
       <c r="B46" s="5" t="n">
-        <v>22.96</v>
+        <v>22.9490854478085</v>
       </c>
       <c r="C46" s="5" t="n">
-        <v>25.19</v>
+        <v>24.21531491329</v>
       </c>
       <c r="D46" s="5" t="n">
-        <v>23.8</v>
+        <v>24.2840016422946</v>
       </c>
       <c r="E46" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F46" s="6" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G46" s="6" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47">
@@ -1567,22 +1567,22 @@
         <v>84</v>
       </c>
       <c r="B47" s="5" t="n">
-        <v>23.07</v>
+        <v>23.0571621630687</v>
       </c>
       <c r="C47" s="5" t="n">
-        <v>24.19</v>
+        <v>24.2931318389864</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>24.18</v>
+        <v>24.2983591187326</v>
       </c>
       <c r="E47" s="6" t="n">
         <v>1</v>
       </c>
       <c r="F47" s="6" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G47" s="6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/TabuladosGasolina.xlsx
+++ b/TabuladosGasolina.xlsx
@@ -159,13 +159,13 @@
     <t xml:space="preserve">CRE, pesos por litro</t>
   </si>
   <si>
-    <t xml:space="preserve">septiembre 2022</t>
+    <t xml:space="preserve">octubre 2022</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima actualización: octubre 2022</t>
+    <t xml:space="preserve">Próxima actualización: noviembre 2022</t>
   </si>
   <si>
     <t xml:space="preserve">FUENTE: CRE; Comisión Reguladora de Energía</t>
@@ -192,27 +192,27 @@
     <t xml:space="preserve">Puebla</t>
   </si>
   <si>
+    <t xml:space="preserve">Aguascalientes</t>
+  </si>
+  <si>
     <t xml:space="preserve">Morelos</t>
   </si>
   <si>
-    <t xml:space="preserve">Aguascalientes</t>
+    <t xml:space="preserve">Sonora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veracruz</t>
   </si>
   <si>
     <t xml:space="preserve">Tabasco</t>
   </si>
   <si>
-    <t xml:space="preserve">Veracruz</t>
-  </si>
-  <si>
     <t xml:space="preserve">Coahuila</t>
   </si>
   <si>
     <t xml:space="preserve">México</t>
   </si>
   <si>
-    <t xml:space="preserve">Sonora</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nacional</t>
   </si>
   <si>
@@ -225,37 +225,37 @@
     <t xml:space="preserve">Colima</t>
   </si>
   <si>
+    <t xml:space="preserve">Zacatecas</t>
+  </si>
+  <si>
     <t xml:space="preserve">San Luis Potosí</t>
   </si>
   <si>
+    <t xml:space="preserve">Michoacán</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durango</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jalisco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nayarit</t>
+  </si>
+  <si>
     <t xml:space="preserve">Yucatán</t>
   </si>
   <si>
-    <t xml:space="preserve">Michoacán</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zacatecas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jalisco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Durango</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ciudad de México</t>
   </si>
   <si>
-    <t xml:space="preserve">Nayarit</t>
+    <t xml:space="preserve">Sinaloa</t>
   </si>
   <si>
     <t xml:space="preserve">Oaxaca</t>
   </si>
   <si>
     <t xml:space="preserve">Baja California Sur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sinaloa</t>
   </si>
   <si>
     <t xml:space="preserve">Nuevo León</t>
@@ -831,13 +831,13 @@
         <v>52</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>18.9990417960567</v>
+        <v>19.51</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>21.9222676057234</v>
+        <v>22.36</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>23.1373008416249</v>
+        <v>23.12</v>
       </c>
       <c r="E15" s="6" t="n">
         <v>33</v>
@@ -846,7 +846,7 @@
         <v>33</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16">
@@ -854,13 +854,13 @@
         <v>53</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>19.8086573298246</v>
+        <v>20.09</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>22.0080842593222</v>
+        <v>22.4</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>23.3277245346712</v>
+        <v>23.29</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>32</v>
@@ -869,7 +869,7 @@
         <v>32</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
@@ -877,13 +877,13 @@
         <v>54</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>21.0820534221113</v>
+        <v>21.2</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>23.7261422985492</v>
+        <v>23.84</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>22.6630476566693</v>
+        <v>22.69</v>
       </c>
       <c r="E17" s="6" t="n">
         <v>31</v>
@@ -900,13 +900,13 @@
         <v>55</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>21.124572492586</v>
+        <v>21.4</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>23.3397079307505</v>
+        <v>23.55</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>23.0310717582397</v>
+        <v>23.12</v>
       </c>
       <c r="E18" s="6" t="n">
         <v>30</v>
@@ -915,7 +915,7 @@
         <v>29</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19">
@@ -923,13 +923,13 @@
         <v>56</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>21.240160176237</v>
+        <v>21.43</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>23.6290369099498</v>
+        <v>23.75</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>23.3087930657034</v>
+        <v>23.36</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>29</v>
@@ -938,7 +938,7 @@
         <v>24</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20">
@@ -946,22 +946,22 @@
         <v>57</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>21.2518361291141</v>
+        <v>21.5</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>23.3746510857314</v>
+        <v>23.61</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>23.2165501696491</v>
+        <v>23.27</v>
       </c>
       <c r="E20" s="6" t="n">
         <v>28</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21">
@@ -969,22 +969,22 @@
         <v>58</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>21.2591736876291</v>
+        <v>21.53</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>23.3600931571078</v>
+        <v>23.59</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>23.1417068150061</v>
+        <v>23.27</v>
       </c>
       <c r="E21" s="6" t="n">
         <v>27</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22">
@@ -992,22 +992,22 @@
         <v>59</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>21.3625040736993</v>
+        <v>21.56</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>23.3786309549233</v>
+        <v>24.13</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>23.2282980074894</v>
+        <v>23.41</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>26</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23">
@@ -1015,22 +1015,22 @@
         <v>60</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>21.3915728872132</v>
+        <v>21.58</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>24.0195447559256</v>
+        <v>23.58</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>23.3598594251734</v>
+        <v>23.29</v>
       </c>
       <c r="E23" s="6" t="n">
         <v>25</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24">
@@ -1038,22 +1038,22 @@
         <v>61</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>21.4258147596159</v>
+        <v>21.66</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>23.1731840081311</v>
+        <v>24.38</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>23.3222940269815</v>
+        <v>23.69</v>
       </c>
       <c r="E24" s="6" t="n">
         <v>24</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25">
@@ -1061,13 +1061,13 @@
         <v>62</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>21.4755362557291</v>
+        <v>21.69</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>23.2200061054785</v>
+        <v>23.42</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>23.3784117432811</v>
+        <v>23.5</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>23</v>
@@ -1084,22 +1084,22 @@
         <v>63</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>21.5495330570999</v>
+        <v>21.72</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>24.2248173734726</v>
+        <v>23.39</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>24.0757728266145</v>
+        <v>23.4</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>22</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27">
@@ -1107,22 +1107,22 @@
         <v>64</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>21.592014217387</v>
+        <v>21.74</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>24.0066352875588</v>
+        <v>24.34</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>23.2480221251869</v>
+        <v>24.07</v>
       </c>
       <c r="E27" s="6" t="n">
         <v>21</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28">
@@ -1130,22 +1130,22 @@
         <v>65</v>
       </c>
       <c r="B28" s="5" t="n">
-        <v>21.6075721816176</v>
+        <v>21.8</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>24.3045097748607</v>
+        <v>24.15</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>23.8523045509115</v>
+        <v>23.34</v>
       </c>
       <c r="E28" s="6" t="n">
         <v>20</v>
       </c>
       <c r="F28" s="6" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29">
@@ -1153,22 +1153,22 @@
         <v>66</v>
       </c>
       <c r="B29" s="5" t="n">
-        <v>21.6942532303975</v>
+        <v>21.8935483870968</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>23.9748274810343</v>
+        <v>24.1367741935484</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>23.5693184923224</v>
+        <v>23.6458064516129</v>
       </c>
       <c r="E29" s="6" t="n">
         <v>19</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30">
@@ -1176,22 +1176,22 @@
         <v>67</v>
       </c>
       <c r="B30" s="5" t="n">
-        <v>21.8583422469373</v>
+        <v>21.93</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>23.5421097308089</v>
+        <v>23.61</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>23.5499002412303</v>
+        <v>23.66</v>
       </c>
       <c r="E30" s="6" t="n">
         <v>18</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31">
@@ -1199,22 +1199,22 @@
         <v>68</v>
       </c>
       <c r="B31" s="5" t="n">
-        <v>21.9078048078984</v>
+        <v>22.04</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>24.4804726365091</v>
+        <v>24.62</v>
       </c>
       <c r="D31" s="5" t="n">
-        <v>23.702499117144</v>
+        <v>23.81</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>17</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32">
@@ -1222,13 +1222,13 @@
         <v>69</v>
       </c>
       <c r="B32" s="5" t="n">
-        <v>21.9179260345172</v>
+        <v>22.06</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>24.0892583150482</v>
+        <v>24.2</v>
       </c>
       <c r="D32" s="5" t="n">
-        <v>23.6727928922239</v>
+        <v>23.76</v>
       </c>
       <c r="E32" s="6" t="n">
         <v>16</v>
@@ -1237,7 +1237,7 @@
         <v>17</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33">
@@ -1245,13 +1245,13 @@
         <v>70</v>
       </c>
       <c r="B33" s="5" t="n">
-        <v>22.0465205753214</v>
+        <v>22.21</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>24.0387060172026</v>
+        <v>24.15</v>
       </c>
       <c r="D33" s="5" t="n">
-        <v>23.8117732650391</v>
+        <v>23.79</v>
       </c>
       <c r="E33" s="6" t="n">
         <v>15</v>
@@ -1260,7 +1260,7 @@
         <v>18</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34">
@@ -1268,22 +1268,22 @@
         <v>71</v>
       </c>
       <c r="B34" s="5" t="n">
-        <v>22.1207401279371</v>
+        <v>22.26</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>23.9936353483691</v>
+        <v>24.25</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>23.8880563456947</v>
+        <v>23.87</v>
       </c>
       <c r="E34" s="6" t="n">
         <v>14</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35">
@@ -1291,13 +1291,13 @@
         <v>72</v>
       </c>
       <c r="B35" s="5" t="n">
-        <v>22.1226847732844</v>
+        <v>22.29</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>24.2291180294277</v>
+        <v>24.38</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>23.6908884611022</v>
+        <v>23.73</v>
       </c>
       <c r="E35" s="6" t="n">
         <v>13</v>
@@ -1314,22 +1314,22 @@
         <v>73</v>
       </c>
       <c r="B36" s="5" t="n">
-        <v>22.1265701143668</v>
+        <v>22.33</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>24.136335139059</v>
+        <v>24.82</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>23.7110233747937</v>
+        <v>24.4</v>
       </c>
       <c r="E36" s="6" t="n">
         <v>12</v>
       </c>
       <c r="F36" s="6" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37">
@@ -1337,22 +1337,22 @@
         <v>74</v>
       </c>
       <c r="B37" s="5" t="n">
-        <v>22.1771154864642</v>
+        <v>22.41</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>24.6451019147556</v>
+        <v>24.77</v>
       </c>
       <c r="D37" s="5" t="n">
-        <v>23.7785382687134</v>
+        <v>23.85</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>11</v>
       </c>
       <c r="F37" s="6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38">
@@ -1360,22 +1360,22 @@
         <v>75</v>
       </c>
       <c r="B38" s="5" t="n">
-        <v>22.2067789118776</v>
+        <v>22.41</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>24.648605789054</v>
+        <v>24.7</v>
       </c>
       <c r="D38" s="5" t="n">
-        <v>24.299472490973</v>
+        <v>24.13</v>
       </c>
       <c r="E38" s="6" t="n">
         <v>10</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39">
@@ -1383,22 +1383,22 @@
         <v>76</v>
       </c>
       <c r="B39" s="5" t="n">
-        <v>22.3231778649575</v>
+        <v>22.46</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>24.8830246269922</v>
+        <v>24.01</v>
       </c>
       <c r="D39" s="5" t="n">
-        <v>23.6522386962228</v>
+        <v>23.81</v>
       </c>
       <c r="E39" s="6" t="n">
         <v>9</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40">
@@ -1406,22 +1406,22 @@
         <v>77</v>
       </c>
       <c r="B40" s="5" t="n">
-        <v>22.3808969895529</v>
+        <v>22.5</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>24.5613990223355</v>
+        <v>25.03</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>24.0814238013526</v>
+        <v>23.73</v>
       </c>
       <c r="E40" s="6" t="n">
         <v>8</v>
       </c>
       <c r="F40" s="6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41">
@@ -1429,22 +1429,22 @@
         <v>78</v>
       </c>
       <c r="B41" s="5" t="n">
-        <v>22.4959882419393</v>
+        <v>22.6</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>24.2476696677877</v>
+        <v>24.52</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>24.1048582070386</v>
+        <v>24.08</v>
       </c>
       <c r="E41" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F41" s="6" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42">
@@ -1452,22 +1452,22 @@
         <v>79</v>
       </c>
       <c r="B42" s="5" t="n">
-        <v>22.5313889556593</v>
+        <v>22.66</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>24.5419543000873</v>
+        <v>24.37</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>23.9814534942392</v>
+        <v>24.17</v>
       </c>
       <c r="E42" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F42" s="6" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43">
@@ -1475,22 +1475,22 @@
         <v>80</v>
       </c>
       <c r="B43" s="5" t="n">
-        <v>22.5457169702553</v>
+        <v>22.75</v>
       </c>
       <c r="C43" s="5" t="n">
-        <v>24.4299774136416</v>
+        <v>24.78</v>
       </c>
       <c r="D43" s="5" t="n">
-        <v>24.1307233015085</v>
+        <v>24.07</v>
       </c>
       <c r="E43" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F43" s="6" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G43" s="6" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44">
@@ -1498,13 +1498,13 @@
         <v>81</v>
       </c>
       <c r="B44" s="5" t="n">
-        <v>22.7393354729601</v>
+        <v>22.98</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>25.0829567484579</v>
+        <v>25.34</v>
       </c>
       <c r="D44" s="5" t="n">
-        <v>23.8558105939871</v>
+        <v>24.08</v>
       </c>
       <c r="E44" s="6" t="n">
         <v>4</v>
@@ -1513,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45">
@@ -1521,19 +1521,19 @@
         <v>82</v>
       </c>
       <c r="B45" s="5" t="n">
-        <v>22.9006854453508</v>
+        <v>23.09</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>24.4477789142577</v>
+        <v>24.64</v>
       </c>
       <c r="D45" s="5" t="n">
-        <v>24.3681278729311</v>
+        <v>24.47</v>
       </c>
       <c r="E45" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>1</v>
@@ -1544,19 +1544,19 @@
         <v>83</v>
       </c>
       <c r="B46" s="5" t="n">
-        <v>22.9490854478085</v>
+        <v>23.18</v>
       </c>
       <c r="C46" s="5" t="n">
-        <v>24.21531491329</v>
+        <v>24.48</v>
       </c>
       <c r="D46" s="5" t="n">
-        <v>24.2840016422946</v>
+        <v>24.39</v>
       </c>
       <c r="E46" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F46" s="6" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>4</v>
@@ -1567,13 +1567,13 @@
         <v>84</v>
       </c>
       <c r="B47" s="5" t="n">
-        <v>23.0571621630687</v>
+        <v>23.22</v>
       </c>
       <c r="C47" s="5" t="n">
-        <v>24.2931318389864</v>
+        <v>24.45</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>24.2983591187326</v>
+        <v>24.43</v>
       </c>
       <c r="E47" s="6" t="n">
         <v>1</v>
@@ -1582,7 +1582,7 @@
         <v>11</v>
       </c>
       <c r="G47" s="6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/TabuladosGasolina.xlsx
+++ b/TabuladosGasolina.xlsx
@@ -159,13 +159,13 @@
     <t xml:space="preserve">CRE, pesos por litro</t>
   </si>
   <si>
-    <t xml:space="preserve">octubre 2022</t>
+    <t xml:space="preserve">noviembre 2022</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima actualización: noviembre 2022</t>
+    <t xml:space="preserve">Próxima actualización: enero 2022</t>
   </si>
   <si>
     <t xml:space="preserve">FUENTE: CRE; Comisión Reguladora de Energía</t>
@@ -180,36 +180,36 @@
     <t xml:space="preserve">Baja California</t>
   </si>
   <si>
+    <t xml:space="preserve">Querétaro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hidalgo</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tlaxcala</t>
   </si>
   <si>
-    <t xml:space="preserve">Querétaro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hidalgo</t>
-  </si>
-  <si>
     <t xml:space="preserve">Puebla</t>
   </si>
   <si>
+    <t xml:space="preserve">Morelos</t>
+  </si>
+  <si>
     <t xml:space="preserve">Aguascalientes</t>
   </si>
   <si>
-    <t xml:space="preserve">Morelos</t>
+    <t xml:space="preserve">Veracruz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tabasco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coahuila</t>
   </si>
   <si>
     <t xml:space="preserve">Sonora</t>
   </si>
   <si>
-    <t xml:space="preserve">Veracruz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tabasco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coahuila</t>
-  </si>
-  <si>
     <t xml:space="preserve">México</t>
   </si>
   <si>
@@ -219,49 +219,49 @@
     <t xml:space="preserve">Chiapas</t>
   </si>
   <si>
+    <t xml:space="preserve">Colima</t>
+  </si>
+  <si>
     <t xml:space="preserve">Guanajuato</t>
   </si>
   <si>
-    <t xml:space="preserve">Colima</t>
+    <t xml:space="preserve">San Luis Potosí</t>
   </si>
   <si>
     <t xml:space="preserve">Zacatecas</t>
   </si>
   <si>
-    <t xml:space="preserve">San Luis Potosí</t>
+    <t xml:space="preserve">Durango</t>
   </si>
   <si>
     <t xml:space="preserve">Michoacán</t>
   </si>
   <si>
-    <t xml:space="preserve">Durango</t>
+    <t xml:space="preserve">Nayarit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yucatán</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sinaloa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ciudad de México</t>
   </si>
   <si>
     <t xml:space="preserve">Jalisco</t>
   </si>
   <si>
-    <t xml:space="preserve">Nayarit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yucatán</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ciudad de México</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sinaloa</t>
-  </si>
-  <si>
     <t xml:space="preserve">Oaxaca</t>
   </si>
   <si>
     <t xml:space="preserve">Baja California Sur</t>
   </si>
   <si>
+    <t xml:space="preserve">Guerrero</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nuevo León</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guerrero</t>
   </si>
   <si>
     <t xml:space="preserve">Quintana Roo</t>
@@ -831,13 +831,13 @@
         <v>52</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>19.51</v>
+        <v>19.4614530234356</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>22.36</v>
+        <v>22.2009185490667</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>23.12</v>
+        <v>23.046788556558</v>
       </c>
       <c r="E15" s="6" t="n">
         <v>33</v>
@@ -854,13 +854,13 @@
         <v>53</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>20.09</v>
+        <v>19.707251217702</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>22.4</v>
+        <v>22.2524775632469</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>23.29</v>
+        <v>23.4235834287131</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>32</v>
@@ -869,7 +869,7 @@
         <v>32</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17">
@@ -877,13 +877,13 @@
         <v>54</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>21.2</v>
+        <v>21.0911155866243</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>23.84</v>
+        <v>23.7758227037191</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>22.69</v>
+        <v>22.7123399210567</v>
       </c>
       <c r="E17" s="6" t="n">
         <v>31</v>
@@ -900,22 +900,22 @@
         <v>55</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>21.4</v>
+        <v>21.1684432632538</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>23.55</v>
+        <v>23.6079856386405</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>23.12</v>
+        <v>23.3131506801574</v>
       </c>
       <c r="E18" s="6" t="n">
         <v>30</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19">
@@ -923,22 +923,22 @@
         <v>56</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>21.43</v>
+        <v>21.2228940885827</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>23.75</v>
+        <v>23.4758345362534</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>23.36</v>
+        <v>23.3023337720623</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>29</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20">
@@ -946,22 +946,22 @@
         <v>57</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>21.5</v>
+        <v>21.2687670046035</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>23.61</v>
+        <v>23.3964924255761</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>23.27</v>
+        <v>23.1701481146612</v>
       </c>
       <c r="E20" s="6" t="n">
         <v>28</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21">
@@ -969,22 +969,22 @@
         <v>58</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>21.53</v>
+        <v>21.3591186031769</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>23.59</v>
+        <v>23.5218385093472</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>23.27</v>
+        <v>23.2925590530313</v>
       </c>
       <c r="E21" s="6" t="n">
         <v>27</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22">
@@ -992,22 +992,22 @@
         <v>59</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>21.56</v>
+        <v>21.4007091522329</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>24.13</v>
+        <v>23.4453416994327</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>23.41</v>
+        <v>23.3134785478464</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>26</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23">
@@ -1015,22 +1015,22 @@
         <v>60</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>21.58</v>
+        <v>21.5067298712703</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>23.58</v>
+        <v>24.194309907498</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>23.29</v>
+        <v>23.5040303620944</v>
       </c>
       <c r="E23" s="6" t="n">
         <v>25</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24">
@@ -1038,22 +1038,22 @@
         <v>61</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>21.66</v>
+        <v>21.6275670764362</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>24.38</v>
+        <v>23.432811799389</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>23.69</v>
+        <v>23.5734063472536</v>
       </c>
       <c r="E24" s="6" t="n">
         <v>24</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25">
@@ -1061,22 +1061,22 @@
         <v>62</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>21.69</v>
+        <v>21.6424230800271</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>23.42</v>
+        <v>23.4384184213591</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>23.5</v>
+        <v>23.4181308947811</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>23</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26">
@@ -1084,22 +1084,22 @@
         <v>63</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>21.72</v>
+        <v>21.6630832254886</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>23.39</v>
+        <v>24.431533721424</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>23.4</v>
+        <v>24.3953340090194</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>22</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27">
@@ -1107,22 +1107,22 @@
         <v>64</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>21.74</v>
+        <v>21.7253092832963</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>24.34</v>
+        <v>24.6710233587898</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>24.07</v>
+        <v>23.9437284054831</v>
       </c>
       <c r="E27" s="6" t="n">
         <v>21</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28">
@@ -1130,19 +1130,19 @@
         <v>65</v>
       </c>
       <c r="B28" s="5" t="n">
-        <v>21.8</v>
+        <v>21.7532515097335</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>24.15</v>
+        <v>24.1775888483511</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>23.34</v>
+        <v>23.373925250579</v>
       </c>
       <c r="E28" s="6" t="n">
         <v>20</v>
       </c>
       <c r="F28" s="6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>26</v>
@@ -1153,22 +1153,22 @@
         <v>66</v>
       </c>
       <c r="B29" s="5" t="n">
-        <v>21.8935483870968</v>
+        <v>21.78942326841</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>24.1367741935484</v>
+        <v>24.1276350351351</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>23.6458064516129</v>
+        <v>23.7345106519887</v>
       </c>
       <c r="E29" s="6" t="n">
         <v>19</v>
       </c>
       <c r="F29" s="6" t="n">
+        <v>18</v>
+      </c>
+      <c r="G29" s="6" t="n">
         <v>20</v>
-      </c>
-      <c r="G29" s="6" t="n">
-        <v>21</v>
       </c>
     </row>
     <row r="30">
@@ -1176,22 +1176,22 @@
         <v>67</v>
       </c>
       <c r="B30" s="5" t="n">
-        <v>21.93</v>
+        <v>21.903735677843</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>23.61</v>
+        <v>23.7017257991578</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>23.66</v>
+        <v>23.7558845263479</v>
       </c>
       <c r="E30" s="6" t="n">
         <v>18</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31">
@@ -1199,22 +1199,22 @@
         <v>68</v>
       </c>
       <c r="B31" s="5" t="n">
-        <v>22.04</v>
+        <v>21.9888928056823</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>24.62</v>
+        <v>24.1027837784555</v>
       </c>
       <c r="D31" s="5" t="n">
-        <v>23.81</v>
+        <v>23.7557516111319</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>17</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32">
@@ -1222,22 +1222,22 @@
         <v>69</v>
       </c>
       <c r="B32" s="5" t="n">
-        <v>22.06</v>
+        <v>22.0078939446657</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>24.2</v>
+        <v>24.6694240999136</v>
       </c>
       <c r="D32" s="5" t="n">
-        <v>23.76</v>
+        <v>23.9309882087922</v>
       </c>
       <c r="E32" s="6" t="n">
         <v>16</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33">
@@ -1245,19 +1245,19 @@
         <v>70</v>
       </c>
       <c r="B33" s="5" t="n">
-        <v>22.21</v>
+        <v>22.0210367189956</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>24.15</v>
+        <v>24.1021128282355</v>
       </c>
       <c r="D33" s="5" t="n">
-        <v>23.79</v>
+        <v>23.9301450864234</v>
       </c>
       <c r="E33" s="6" t="n">
         <v>15</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>15</v>
@@ -1268,22 +1268,22 @@
         <v>71</v>
       </c>
       <c r="B34" s="5" t="n">
-        <v>22.26</v>
+        <v>22.0254559279125</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>24.25</v>
+        <v>24.1135781033765</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>23.87</v>
+        <v>23.8302917009927</v>
       </c>
       <c r="E34" s="6" t="n">
         <v>14</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35">
@@ -1291,22 +1291,22 @@
         <v>72</v>
       </c>
       <c r="B35" s="5" t="n">
-        <v>22.29</v>
+        <v>22.1067944304041</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>24.38</v>
+        <v>24.8723839322472</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>23.73</v>
+        <v>24.5197139179219</v>
       </c>
       <c r="E35" s="6" t="n">
         <v>13</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -1314,22 +1314,22 @@
         <v>73</v>
       </c>
       <c r="B36" s="5" t="n">
-        <v>22.33</v>
+        <v>22.138423645397</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>24.82</v>
+        <v>24.3290498663733</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>24.4</v>
+        <v>24.1016029816304</v>
       </c>
       <c r="E36" s="6" t="n">
         <v>12</v>
       </c>
       <c r="F36" s="6" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37">
@@ -1337,22 +1337,22 @@
         <v>74</v>
       </c>
       <c r="B37" s="5" t="n">
-        <v>22.41</v>
+        <v>22.2542344761935</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>24.77</v>
+        <v>24.5966457934783</v>
       </c>
       <c r="D37" s="5" t="n">
-        <v>23.85</v>
+        <v>24.1582743876733</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>11</v>
       </c>
       <c r="F37" s="6" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38">
@@ -1360,22 +1360,22 @@
         <v>75</v>
       </c>
       <c r="B38" s="5" t="n">
-        <v>22.41</v>
+        <v>22.2914515187607</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>24.7</v>
+        <v>23.9421302281456</v>
       </c>
       <c r="D38" s="5" t="n">
-        <v>24.13</v>
+        <v>23.9961377963726</v>
       </c>
       <c r="E38" s="6" t="n">
         <v>10</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39">
@@ -1383,22 +1383,22 @@
         <v>76</v>
       </c>
       <c r="B39" s="5" t="n">
-        <v>22.46</v>
+        <v>22.3456849495376</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>24.01</v>
+        <v>24.3914851306041</v>
       </c>
       <c r="D39" s="5" t="n">
-        <v>23.81</v>
+        <v>24.079215238956</v>
       </c>
       <c r="E39" s="6" t="n">
         <v>9</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40">
@@ -1406,13 +1406,13 @@
         <v>77</v>
       </c>
       <c r="B40" s="5" t="n">
-        <v>22.5</v>
+        <v>22.3558438986336</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>25.03</v>
+        <v>24.8778605587049</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>23.73</v>
+        <v>23.724579619986</v>
       </c>
       <c r="E40" s="6" t="n">
         <v>8</v>
@@ -1421,7 +1421,7 @@
         <v>2</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41">
@@ -1429,22 +1429,22 @@
         <v>78</v>
       </c>
       <c r="B41" s="5" t="n">
-        <v>22.6</v>
+        <v>22.3693705483677</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>24.52</v>
+        <v>24.8719848427161</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>24.08</v>
+        <v>23.9152672382806</v>
       </c>
       <c r="E41" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F41" s="6" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42">
@@ -1452,22 +1452,22 @@
         <v>79</v>
       </c>
       <c r="B42" s="5" t="n">
-        <v>22.66</v>
+        <v>22.6065098305744</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>24.37</v>
+        <v>24.4153432846107</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>24.17</v>
+        <v>24.3548127819624</v>
       </c>
       <c r="E42" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F42" s="6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43">
@@ -1475,22 +1475,22 @@
         <v>80</v>
       </c>
       <c r="B43" s="5" t="n">
-        <v>22.75</v>
+        <v>22.6519799718583</v>
       </c>
       <c r="C43" s="5" t="n">
-        <v>24.78</v>
+        <v>24.7575286952788</v>
       </c>
       <c r="D43" s="5" t="n">
-        <v>24.07</v>
+        <v>24.2160611265318</v>
       </c>
       <c r="E43" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F43" s="6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G43" s="6" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44">
@@ -1498,22 +1498,22 @@
         <v>81</v>
       </c>
       <c r="B44" s="5" t="n">
-        <v>22.98</v>
+        <v>23.0136176291114</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>25.34</v>
+        <v>24.514668765412</v>
       </c>
       <c r="D44" s="5" t="n">
-        <v>24.08</v>
+        <v>24.7076866591211</v>
       </c>
       <c r="E44" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F44" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="G44" s="6" t="n">
         <v>1</v>
-      </c>
-      <c r="G44" s="6" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="45">
@@ -1521,22 +1521,22 @@
         <v>82</v>
       </c>
       <c r="B45" s="5" t="n">
-        <v>23.09</v>
+        <v>23.1149556872171</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>24.64</v>
+        <v>25.4113794521126</v>
       </c>
       <c r="D45" s="5" t="n">
-        <v>24.47</v>
+        <v>24.1576267592613</v>
       </c>
       <c r="E45" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46">
@@ -1544,22 +1544,22 @@
         <v>83</v>
       </c>
       <c r="B46" s="5" t="n">
-        <v>23.18</v>
+        <v>23.1473888584036</v>
       </c>
       <c r="C46" s="5" t="n">
-        <v>24.48</v>
+        <v>24.428794612048</v>
       </c>
       <c r="D46" s="5" t="n">
-        <v>24.39</v>
+        <v>24.5072811516342</v>
       </c>
       <c r="E46" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F46" s="6" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G46" s="6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47">
@@ -1567,22 +1567,22 @@
         <v>84</v>
       </c>
       <c r="B47" s="5" t="n">
-        <v>23.22</v>
+        <v>23.3242420556284</v>
       </c>
       <c r="C47" s="5" t="n">
-        <v>24.45</v>
+        <v>24.529024255484</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>24.43</v>
+        <v>24.5004352550296</v>
       </c>
       <c r="E47" s="6" t="n">
         <v>1</v>
       </c>
       <c r="F47" s="6" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G47" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/TabuladosGasolina.xlsx
+++ b/TabuladosGasolina.xlsx
@@ -159,13 +159,13 @@
     <t xml:space="preserve">CRE, pesos por litro</t>
   </si>
   <si>
-    <t xml:space="preserve">noviembre 2022</t>
+    <t xml:space="preserve">diciembre 2022</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima actualización: enero 2022</t>
+    <t xml:space="preserve">Próxima actualización: febrero 2023</t>
   </si>
   <si>
     <t xml:space="preserve">FUENTE: CRE; Comisión Reguladora de Energía</t>
@@ -186,10 +186,13 @@
     <t xml:space="preserve">Hidalgo</t>
   </si>
   <si>
+    <t xml:space="preserve">Puebla</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tlaxcala</t>
   </si>
   <si>
-    <t xml:space="preserve">Puebla</t>
+    <t xml:space="preserve">Coahuila</t>
   </si>
   <si>
     <t xml:space="preserve">Morelos</t>
@@ -198,70 +201,67 @@
     <t xml:space="preserve">Aguascalientes</t>
   </si>
   <si>
+    <t xml:space="preserve">Sonora</t>
+  </si>
+  <si>
     <t xml:space="preserve">Veracruz</t>
   </si>
   <si>
+    <t xml:space="preserve">Nacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">México</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durango</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tabasco</t>
   </si>
   <si>
-    <t xml:space="preserve">Coahuila</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sonora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">México</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nacional</t>
+    <t xml:space="preserve">Guanajuato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colima</t>
   </si>
   <si>
     <t xml:space="preserve">Chiapas</t>
   </si>
   <si>
-    <t xml:space="preserve">Colima</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guanajuato</t>
+    <t xml:space="preserve">Zacatecas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yucatán</t>
   </si>
   <si>
     <t xml:space="preserve">San Luis Potosí</t>
   </si>
   <si>
-    <t xml:space="preserve">Zacatecas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Durango</t>
-  </si>
-  <si>
     <t xml:space="preserve">Michoacán</t>
   </si>
   <si>
     <t xml:space="preserve">Nayarit</t>
   </si>
   <si>
-    <t xml:space="preserve">Yucatán</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sinaloa</t>
   </si>
   <si>
+    <t xml:space="preserve">Jalisco</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ciudad de México</t>
   </si>
   <si>
-    <t xml:space="preserve">Jalisco</t>
-  </si>
-  <si>
     <t xml:space="preserve">Oaxaca</t>
   </si>
   <si>
     <t xml:space="preserve">Baja California Sur</t>
   </si>
   <si>
+    <t xml:space="preserve">Nuevo León</t>
+  </si>
+  <si>
     <t xml:space="preserve">Guerrero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nuevo León</t>
   </si>
   <si>
     <t xml:space="preserve">Quintana Roo</t>
@@ -831,13 +831,13 @@
         <v>52</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>19.4614530234356</v>
+        <v>18.75</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>22.2009185490667</v>
+        <v>21.63</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>23.046788556558</v>
+        <v>22.89</v>
       </c>
       <c r="E15" s="6" t="n">
         <v>33</v>
@@ -854,13 +854,13 @@
         <v>53</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>19.707251217702</v>
+        <v>19.69</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>22.2524775632469</v>
+        <v>22.17</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>23.4235834287131</v>
+        <v>23.28</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>32</v>
@@ -869,7 +869,7 @@
         <v>32</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17">
@@ -877,19 +877,19 @@
         <v>54</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>21.0911155866243</v>
+        <v>20.69</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>23.7758227037191</v>
+        <v>23.45</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>22.7123399210567</v>
+        <v>22.69</v>
       </c>
       <c r="E17" s="6" t="n">
         <v>31</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>33</v>
@@ -900,22 +900,22 @@
         <v>55</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>21.1684432632538</v>
+        <v>20.87</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>23.6079856386405</v>
+        <v>23.22</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>23.3131506801574</v>
+        <v>23.25</v>
       </c>
       <c r="E18" s="6" t="n">
         <v>30</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19">
@@ -923,22 +923,22 @@
         <v>56</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>21.2228940885827</v>
+        <v>20.95</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>23.4758345362534</v>
+        <v>23.23</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>23.3023337720623</v>
+        <v>23.19</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>29</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
@@ -946,22 +946,22 @@
         <v>57</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>21.2687670046035</v>
+        <v>21.06</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>23.3964924255761</v>
+        <v>23.26</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>23.1701481146612</v>
+        <v>23.2</v>
       </c>
       <c r="E20" s="6" t="n">
         <v>28</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21">
@@ -969,22 +969,22 @@
         <v>58</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>21.3591186031769</v>
+        <v>21.08</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>23.5218385093472</v>
+        <v>23.25</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>23.2925590530313</v>
+        <v>23.04</v>
       </c>
       <c r="E21" s="6" t="n">
         <v>27</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22">
@@ -992,22 +992,22 @@
         <v>59</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>21.4007091522329</v>
+        <v>21.1</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>23.4453416994327</v>
+        <v>24</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>23.3134785478464</v>
+        <v>24.18</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>26</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -1015,22 +1015,22 @@
         <v>60</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>21.5067298712703</v>
+        <v>21.19</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>24.194309907498</v>
+        <v>23.22</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>23.5040303620944</v>
+        <v>23.24</v>
       </c>
       <c r="E23" s="6" t="n">
         <v>25</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24">
@@ -1038,22 +1038,22 @@
         <v>61</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>21.6275670764362</v>
+        <v>21.22</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>23.432811799389</v>
+        <v>23.95</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>23.5734063472536</v>
+        <v>23.4</v>
       </c>
       <c r="E24" s="6" t="n">
         <v>24</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25">
@@ -1061,22 +1061,22 @@
         <v>62</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>21.6424230800271</v>
+        <v>21.27</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>23.4384184213591</v>
+        <v>24.27</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>23.4181308947811</v>
+        <v>23.88</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>23</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26">
@@ -1084,22 +1084,22 @@
         <v>63</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>21.6630832254886</v>
+        <v>21.4</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>24.431533721424</v>
+        <v>23.3</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>24.3953340090194</v>
+        <v>23.51</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>22</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27">
@@ -1107,22 +1107,22 @@
         <v>64</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>21.7253092832963</v>
+        <v>21.5012903225806</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>24.6710233587898</v>
+        <v>23.9016129032258</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>23.9437284054831</v>
+        <v>23.6625806451613</v>
       </c>
       <c r="E27" s="6" t="n">
         <v>21</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28">
@@ -1130,22 +1130,22 @@
         <v>65</v>
       </c>
       <c r="B28" s="5" t="n">
-        <v>21.7532515097335</v>
+        <v>21.51</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>24.1775888483511</v>
+        <v>24.02</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>23.373925250579</v>
+        <v>23.31</v>
       </c>
       <c r="E28" s="6" t="n">
         <v>20</v>
       </c>
       <c r="F28" s="6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29">
@@ -1153,22 +1153,22 @@
         <v>66</v>
       </c>
       <c r="B29" s="5" t="n">
-        <v>21.78942326841</v>
+        <v>21.65</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>24.1276350351351</v>
+        <v>24.52</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>23.7345106519887</v>
+        <v>24.39</v>
       </c>
       <c r="E29" s="6" t="n">
         <v>19</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
@@ -1176,13 +1176,13 @@
         <v>67</v>
       </c>
       <c r="B30" s="5" t="n">
-        <v>21.903735677843</v>
+        <v>21.65</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>23.7017257991578</v>
+        <v>23.47</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>23.7558845263479</v>
+        <v>23.57</v>
       </c>
       <c r="E30" s="6" t="n">
         <v>18</v>
@@ -1191,7 +1191,7 @@
         <v>24</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31">
@@ -1199,22 +1199,22 @@
         <v>68</v>
       </c>
       <c r="B31" s="5" t="n">
-        <v>21.9888928056823</v>
+        <v>21.7</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>24.1027837784555</v>
+        <v>24.47</v>
       </c>
       <c r="D31" s="5" t="n">
-        <v>23.7557516111319</v>
+        <v>23.88</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>17</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32">
@@ -1222,22 +1222,22 @@
         <v>69</v>
       </c>
       <c r="B32" s="5" t="n">
-        <v>22.0078939446657</v>
+        <v>21.8</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>24.6694240999136</v>
+        <v>23.91</v>
       </c>
       <c r="D32" s="5" t="n">
-        <v>23.9309882087922</v>
+        <v>23.77</v>
       </c>
       <c r="E32" s="6" t="n">
         <v>16</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33">
@@ -1245,22 +1245,22 @@
         <v>70</v>
       </c>
       <c r="B33" s="5" t="n">
-        <v>22.0210367189956</v>
+        <v>21.81</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>24.1021128282355</v>
+        <v>23.68</v>
       </c>
       <c r="D33" s="5" t="n">
-        <v>23.9301450864234</v>
+        <v>23.7</v>
       </c>
       <c r="E33" s="6" t="n">
         <v>15</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34">
@@ -1268,19 +1268,19 @@
         <v>71</v>
       </c>
       <c r="B34" s="5" t="n">
-        <v>22.0254559279125</v>
+        <v>21.86</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>24.1135781033765</v>
+        <v>23.98</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>23.8302917009927</v>
+        <v>23.77</v>
       </c>
       <c r="E34" s="6" t="n">
         <v>14</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>17</v>
@@ -1291,22 +1291,22 @@
         <v>72</v>
       </c>
       <c r="B35" s="5" t="n">
-        <v>22.1067944304041</v>
+        <v>21.92</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>24.8723839322472</v>
+        <v>23.56</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>24.5197139179219</v>
+        <v>23.88</v>
       </c>
       <c r="E35" s="6" t="n">
         <v>13</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36">
@@ -1314,13 +1314,13 @@
         <v>73</v>
       </c>
       <c r="B36" s="5" t="n">
-        <v>22.138423645397</v>
+        <v>21.97</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>24.3290498663733</v>
+        <v>24.05</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>24.1016029816304</v>
+        <v>23.89</v>
       </c>
       <c r="E36" s="6" t="n">
         <v>12</v>
@@ -1329,7 +1329,7 @@
         <v>15</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37">
@@ -1337,22 +1337,22 @@
         <v>74</v>
       </c>
       <c r="B37" s="5" t="n">
-        <v>22.2542344761935</v>
+        <v>22.03</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>24.5966457934783</v>
+        <v>24.14</v>
       </c>
       <c r="D37" s="5" t="n">
-        <v>24.1582743876733</v>
+        <v>24.12</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>11</v>
       </c>
       <c r="F37" s="6" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38">
@@ -1360,22 +1360,22 @@
         <v>75</v>
       </c>
       <c r="B38" s="5" t="n">
-        <v>22.2914515187607</v>
+        <v>22.06</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>23.9421302281456</v>
+        <v>24.53</v>
       </c>
       <c r="D38" s="5" t="n">
-        <v>23.9961377963726</v>
+        <v>24.12</v>
       </c>
       <c r="E38" s="6" t="n">
         <v>10</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39">
@@ -1383,13 +1383,13 @@
         <v>76</v>
       </c>
       <c r="B39" s="5" t="n">
-        <v>22.3456849495376</v>
+        <v>22.08</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>24.3914851306041</v>
+        <v>24.06</v>
       </c>
       <c r="D39" s="5" t="n">
-        <v>24.079215238956</v>
+        <v>23.94</v>
       </c>
       <c r="E39" s="6" t="n">
         <v>9</v>
@@ -1406,22 +1406,22 @@
         <v>77</v>
       </c>
       <c r="B40" s="5" t="n">
-        <v>22.3558438986336</v>
+        <v>22.09</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>24.8778605587049</v>
+        <v>24.66</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>23.724579619986</v>
+        <v>23.83</v>
       </c>
       <c r="E40" s="6" t="n">
         <v>8</v>
       </c>
       <c r="F40" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41">
@@ -1429,22 +1429,22 @@
         <v>78</v>
       </c>
       <c r="B41" s="5" t="n">
-        <v>22.3693705483677</v>
+        <v>22.15</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>24.8719848427161</v>
+        <v>24.7</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>23.9152672382806</v>
+        <v>23.66</v>
       </c>
       <c r="E41" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F41" s="6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42">
@@ -1452,22 +1452,22 @@
         <v>79</v>
       </c>
       <c r="B42" s="5" t="n">
-        <v>22.6065098305744</v>
+        <v>22.5</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>24.4153432846107</v>
+        <v>24.27</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>24.3548127819624</v>
+        <v>24.25</v>
       </c>
       <c r="E42" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F42" s="6" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43">
@@ -1475,22 +1475,22 @@
         <v>80</v>
       </c>
       <c r="B43" s="5" t="n">
-        <v>22.6519799718583</v>
+        <v>22.57</v>
       </c>
       <c r="C43" s="5" t="n">
-        <v>24.7575286952788</v>
+        <v>24.69</v>
       </c>
       <c r="D43" s="5" t="n">
-        <v>24.2160611265318</v>
+        <v>24.22</v>
       </c>
       <c r="E43" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F43" s="6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G43" s="6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44">
@@ -1498,22 +1498,22 @@
         <v>81</v>
       </c>
       <c r="B44" s="5" t="n">
-        <v>23.0136176291114</v>
+        <v>22.73</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>24.514668765412</v>
+        <v>25.05</v>
       </c>
       <c r="D44" s="5" t="n">
-        <v>24.7076866591211</v>
+        <v>24.11</v>
       </c>
       <c r="E44" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F44" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" s="6" t="n">
         <v>10</v>
-      </c>
-      <c r="G44" s="6" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1521,22 +1521,22 @@
         <v>82</v>
       </c>
       <c r="B45" s="5" t="n">
-        <v>23.1149556872171</v>
+        <v>22.92</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>25.4113794521126</v>
+        <v>24.4</v>
       </c>
       <c r="D45" s="5" t="n">
-        <v>24.1576267592613</v>
+        <v>24.63</v>
       </c>
       <c r="E45" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F45" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="G45" s="6" t="n">
         <v>1</v>
-      </c>
-      <c r="G45" s="6" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="46">
@@ -1544,13 +1544,13 @@
         <v>83</v>
       </c>
       <c r="B46" s="5" t="n">
-        <v>23.1473888584036</v>
+        <v>22.92</v>
       </c>
       <c r="C46" s="5" t="n">
-        <v>24.428794612048</v>
+        <v>24.18</v>
       </c>
       <c r="D46" s="5" t="n">
-        <v>24.5072811516342</v>
+        <v>24.49</v>
       </c>
       <c r="E46" s="6" t="n">
         <v>2</v>
@@ -1559,7 +1559,7 @@
         <v>12</v>
       </c>
       <c r="G46" s="6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
@@ -1567,22 +1567,22 @@
         <v>84</v>
       </c>
       <c r="B47" s="5" t="n">
-        <v>23.3242420556284</v>
+        <v>23.26</v>
       </c>
       <c r="C47" s="5" t="n">
-        <v>24.529024255484</v>
+        <v>24.47</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>24.5004352550296</v>
+        <v>24.46</v>
       </c>
       <c r="E47" s="6" t="n">
         <v>1</v>
       </c>
       <c r="F47" s="6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G47" s="6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/TabuladosGasolina.xlsx
+++ b/TabuladosGasolina.xlsx
@@ -159,13 +159,13 @@
     <t xml:space="preserve">CRE, pesos por litro</t>
   </si>
   <si>
-    <t xml:space="preserve">diciembre 2022</t>
+    <t xml:space="preserve">enero 2023</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima actualización: febrero 2023</t>
+    <t xml:space="preserve">Próxima actualización: marzo 2023</t>
   </si>
   <si>
     <t xml:space="preserve">FUENTE: CRE; Comisión Reguladora de Energía</t>
@@ -180,6 +180,9 @@
     <t xml:space="preserve">Baja California</t>
   </si>
   <si>
+    <t xml:space="preserve">Coahuila</t>
+  </si>
+  <si>
     <t xml:space="preserve">Querétaro</t>
   </si>
   <si>
@@ -192,9 +195,6 @@
     <t xml:space="preserve">Tlaxcala</t>
   </si>
   <si>
-    <t xml:space="preserve">Coahuila</t>
-  </si>
-  <si>
     <t xml:space="preserve">Morelos</t>
   </si>
   <si>
@@ -207,34 +207,43 @@
     <t xml:space="preserve">Veracruz</t>
   </si>
   <si>
+    <t xml:space="preserve">México</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tabasco</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nacional</t>
   </si>
   <si>
-    <t xml:space="preserve">México</t>
+    <t xml:space="preserve">Chiapas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guanajuato</t>
   </si>
   <si>
     <t xml:space="preserve">Durango</t>
   </si>
   <si>
-    <t xml:space="preserve">Tabasco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guanajuato</t>
+    <t xml:space="preserve">Zacatecas</t>
   </si>
   <si>
     <t xml:space="preserve">Colima</t>
   </si>
   <si>
-    <t xml:space="preserve">Chiapas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zacatecas</t>
+    <t xml:space="preserve">San Luis Potosí</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ciudad de México</t>
   </si>
   <si>
     <t xml:space="preserve">Yucatán</t>
   </si>
   <si>
-    <t xml:space="preserve">San Luis Potosí</t>
+    <t xml:space="preserve">Jalisco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sinaloa</t>
   </si>
   <si>
     <t xml:space="preserve">Michoacán</t>
@@ -243,15 +252,6 @@
     <t xml:space="preserve">Nayarit</t>
   </si>
   <si>
-    <t xml:space="preserve">Sinaloa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jalisco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ciudad de México</t>
-  </si>
-  <si>
     <t xml:space="preserve">Oaxaca</t>
   </si>
   <si>
@@ -261,13 +261,13 @@
     <t xml:space="preserve">Nuevo León</t>
   </si>
   <si>
+    <t xml:space="preserve">Campeche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quintana Roo</t>
+  </si>
+  <si>
     <t xml:space="preserve">Guerrero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quintana Roo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Campeche</t>
   </si>
 </sst>
 </file>
@@ -831,13 +831,13 @@
         <v>52</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>18.75</v>
+        <v>18.9796269411991</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>21.63</v>
+        <v>21.4255189204346</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>22.89</v>
+        <v>22.8914905219434</v>
       </c>
       <c r="E15" s="6" t="n">
         <v>33</v>
@@ -854,13 +854,13 @@
         <v>53</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>19.69</v>
+        <v>19.8652809584241</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>22.17</v>
+        <v>22.3407041541064</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>23.28</v>
+        <v>23.1649396431545</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>32</v>
@@ -869,7 +869,7 @@
         <v>32</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17">
@@ -877,19 +877,19 @@
         <v>54</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>20.69</v>
+        <v>20.9825966411963</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>23.45</v>
+        <v>23.6144097276379</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>22.69</v>
+        <v>22.7535227008167</v>
       </c>
       <c r="E17" s="6" t="n">
         <v>31</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>33</v>
@@ -900,22 +900,22 @@
         <v>55</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>20.87</v>
+        <v>21.0986516222167</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>23.22</v>
+        <v>23.8436251108546</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>23.25</v>
+        <v>24.0037137832351</v>
       </c>
       <c r="E18" s="6" t="n">
         <v>30</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19">
@@ -923,22 +923,22 @@
         <v>56</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>20.95</v>
+        <v>21.1744546136808</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>23.23</v>
+        <v>23.3900384241959</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>23.19</v>
+        <v>23.2796369694128</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>29</v>
       </c>
       <c r="F19" s="6" t="n">
+        <v>31</v>
+      </c>
+      <c r="G19" s="6" t="n">
         <v>29</v>
-      </c>
-      <c r="G19" s="6" t="n">
-        <v>30</v>
       </c>
     </row>
     <row r="20">
@@ -946,22 +946,22 @@
         <v>57</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>21.06</v>
+        <v>21.3674589466684</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>23.26</v>
+        <v>23.4432418421228</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>23.2</v>
+        <v>23.3036613891238</v>
       </c>
       <c r="E20" s="6" t="n">
         <v>28</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21">
@@ -969,22 +969,22 @@
         <v>58</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>21.08</v>
+        <v>21.4048774046736</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>23.25</v>
+        <v>23.4769161833776</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>23.04</v>
+        <v>23.3129753781646</v>
       </c>
       <c r="E21" s="6" t="n">
         <v>27</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22">
@@ -992,22 +992,22 @@
         <v>59</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>21.1</v>
+        <v>21.4057953843945</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>24</v>
+        <v>23.529544770596</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>24.18</v>
+        <v>23.1780950428263</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>26</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23">
@@ -1015,22 +1015,22 @@
         <v>60</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>21.19</v>
+        <v>21.4892026243808</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>23.22</v>
+        <v>23.4740458213909</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>23.24</v>
+        <v>23.3295785396877</v>
       </c>
       <c r="E23" s="6" t="n">
         <v>25</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24">
@@ -1038,19 +1038,19 @@
         <v>61</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>21.22</v>
+        <v>21.5074706153665</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>23.95</v>
+        <v>24.1620637414776</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>23.4</v>
+        <v>23.5170116132206</v>
       </c>
       <c r="E24" s="6" t="n">
         <v>24</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>24</v>
@@ -1061,22 +1061,22 @@
         <v>62</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>21.27</v>
+        <v>21.5922347095922</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>24.27</v>
+        <v>24.4289312057821</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>23.88</v>
+        <v>24.0497771920409</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>23</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26">
@@ -1084,19 +1084,19 @@
         <v>63</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>21.4</v>
+        <v>21.6026122772944</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>23.3</v>
+        <v>23.451931205664</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>23.51</v>
+        <v>23.5731761528704</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>22</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>23</v>
@@ -1107,22 +1107,22 @@
         <v>64</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>21.5012903225806</v>
+        <v>21.7176026137933</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>23.9016129032258</v>
+        <v>24.1657594162968</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>23.6625806451613</v>
+        <v>23.3670240118451</v>
       </c>
       <c r="E27" s="6" t="n">
         <v>21</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28">
@@ -1130,22 +1130,22 @@
         <v>65</v>
       </c>
       <c r="B28" s="5" t="n">
-        <v>21.51</v>
+        <v>21.7382572334139</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>24.02</v>
+        <v>23.6079826303795</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>23.31</v>
+        <v>23.5781828273207</v>
       </c>
       <c r="E28" s="6" t="n">
         <v>20</v>
       </c>
       <c r="F28" s="6" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29">
@@ -1153,22 +1153,22 @@
         <v>66</v>
       </c>
       <c r="B29" s="5" t="n">
-        <v>21.65</v>
+        <v>21.76065738756</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>24.52</v>
+        <v>24.0338034812858</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>24.39</v>
+        <v>23.7414361307134</v>
       </c>
       <c r="E29" s="6" t="n">
         <v>19</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30">
@@ -1176,22 +1176,22 @@
         <v>67</v>
       </c>
       <c r="B30" s="5" t="n">
-        <v>21.65</v>
+        <v>21.9002244151172</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>23.47</v>
+        <v>23.7413052902984</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>23.57</v>
+        <v>23.8254297438041</v>
       </c>
       <c r="E30" s="6" t="n">
         <v>18</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31">
@@ -1199,13 +1199,13 @@
         <v>68</v>
       </c>
       <c r="B31" s="5" t="n">
-        <v>21.7</v>
+        <v>22.0106421519441</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>24.47</v>
+        <v>24.6139650231957</v>
       </c>
       <c r="D31" s="5" t="n">
-        <v>23.88</v>
+        <v>23.9834306086323</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>17</v>
@@ -1214,7 +1214,7 @@
         <v>7</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32">
@@ -1222,22 +1222,22 @@
         <v>69</v>
       </c>
       <c r="B32" s="5" t="n">
-        <v>21.8</v>
+        <v>22.0118236396557</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>23.91</v>
+        <v>24.5690321604158</v>
       </c>
       <c r="D32" s="5" t="n">
-        <v>23.77</v>
+        <v>24.4440703334705</v>
       </c>
       <c r="E32" s="6" t="n">
         <v>16</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33">
@@ -1245,22 +1245,22 @@
         <v>70</v>
       </c>
       <c r="B33" s="5" t="n">
-        <v>21.81</v>
+        <v>22.0465079131493</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>23.68</v>
+        <v>24.1220380793591</v>
       </c>
       <c r="D33" s="5" t="n">
-        <v>23.7</v>
+        <v>23.818282114346</v>
       </c>
       <c r="E33" s="6" t="n">
         <v>15</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34">
@@ -1268,22 +1268,22 @@
         <v>71</v>
       </c>
       <c r="B34" s="5" t="n">
-        <v>21.86</v>
+        <v>22.0660995033294</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>23.98</v>
+        <v>24.2218721130278</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>23.77</v>
+        <v>23.8077086980492</v>
       </c>
       <c r="E34" s="6" t="n">
         <v>14</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35">
@@ -1291,22 +1291,22 @@
         <v>72</v>
       </c>
       <c r="B35" s="5" t="n">
-        <v>21.92</v>
+        <v>22.2029674911784</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>23.56</v>
+        <v>24.28951738624</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>23.88</v>
+        <v>23.8601913008025</v>
       </c>
       <c r="E35" s="6" t="n">
         <v>13</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36">
@@ -1314,22 +1314,22 @@
         <v>73</v>
       </c>
       <c r="B36" s="5" t="n">
-        <v>21.97</v>
+        <v>22.3082804236719</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>24.05</v>
+        <v>24.8567682340926</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>23.89</v>
+        <v>23.6890918781121</v>
       </c>
       <c r="E36" s="6" t="n">
         <v>12</v>
       </c>
       <c r="F36" s="6" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37">
@@ -1337,22 +1337,22 @@
         <v>74</v>
       </c>
       <c r="B37" s="5" t="n">
-        <v>22.03</v>
+        <v>22.3101099896748</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>24.14</v>
+        <v>23.9761309382481</v>
       </c>
       <c r="D37" s="5" t="n">
-        <v>24.12</v>
+        <v>24.0743070806293</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>11</v>
       </c>
       <c r="F37" s="6" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38">
@@ -1360,13 +1360,13 @@
         <v>75</v>
       </c>
       <c r="B38" s="5" t="n">
-        <v>22.06</v>
+        <v>22.3261788619478</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>24.53</v>
+        <v>24.7967008395776</v>
       </c>
       <c r="D38" s="5" t="n">
-        <v>24.12</v>
+        <v>23.9237056787865</v>
       </c>
       <c r="E38" s="6" t="n">
         <v>10</v>
@@ -1375,7 +1375,7 @@
         <v>5</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39">
@@ -1383,13 +1383,13 @@
         <v>76</v>
       </c>
       <c r="B39" s="5" t="n">
-        <v>22.08</v>
+        <v>22.3698489729979</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>24.06</v>
+        <v>24.327102413571</v>
       </c>
       <c r="D39" s="5" t="n">
-        <v>23.94</v>
+        <v>23.9403664637381</v>
       </c>
       <c r="E39" s="6" t="n">
         <v>9</v>
@@ -1398,7 +1398,7 @@
         <v>14</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40">
@@ -1406,22 +1406,22 @@
         <v>77</v>
       </c>
       <c r="B40" s="5" t="n">
-        <v>22.09</v>
+        <v>22.4055348746032</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>24.66</v>
+        <v>24.3595176949056</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>23.83</v>
+        <v>24.2097466261597</v>
       </c>
       <c r="E40" s="6" t="n">
         <v>8</v>
       </c>
       <c r="F40" s="6" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41">
@@ -1429,22 +1429,22 @@
         <v>78</v>
       </c>
       <c r="B41" s="5" t="n">
-        <v>22.15</v>
+        <v>22.5046824504528</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>24.7</v>
+        <v>24.8820550239201</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>23.66</v>
+        <v>24.2226714081664</v>
       </c>
       <c r="E41" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F41" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42">
@@ -1452,22 +1452,22 @@
         <v>79</v>
       </c>
       <c r="B42" s="5" t="n">
-        <v>22.5</v>
+        <v>22.7788747843151</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>24.27</v>
+        <v>24.4952759877567</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>24.25</v>
+        <v>24.3843618604855</v>
       </c>
       <c r="E42" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F42" s="6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
@@ -1475,19 +1475,19 @@
         <v>80</v>
       </c>
       <c r="B43" s="5" t="n">
-        <v>22.57</v>
+        <v>22.8640577524224</v>
       </c>
       <c r="C43" s="5" t="n">
-        <v>24.69</v>
+        <v>24.8989596564271</v>
       </c>
       <c r="D43" s="5" t="n">
-        <v>24.22</v>
+        <v>24.2687859059837</v>
       </c>
       <c r="E43" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F43" s="6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>6</v>
@@ -1498,13 +1498,13 @@
         <v>81</v>
       </c>
       <c r="B44" s="5" t="n">
-        <v>22.73</v>
+        <v>22.9279269881326</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>25.05</v>
+        <v>25.2957843152197</v>
       </c>
       <c r="D44" s="5" t="n">
-        <v>24.11</v>
+        <v>24.2066886672853</v>
       </c>
       <c r="E44" s="6" t="n">
         <v>4</v>
@@ -1513,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45">
@@ -1521,22 +1521,22 @@
         <v>82</v>
       </c>
       <c r="B45" s="5" t="n">
-        <v>22.92</v>
+        <v>23.150931687577</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>24.4</v>
+        <v>24.3980079115037</v>
       </c>
       <c r="D45" s="5" t="n">
-        <v>24.63</v>
+        <v>24.3795287150999</v>
       </c>
       <c r="E45" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46">
@@ -1544,19 +1544,19 @@
         <v>83</v>
       </c>
       <c r="B46" s="5" t="n">
-        <v>22.92</v>
+        <v>23.1691711799041</v>
       </c>
       <c r="C46" s="5" t="n">
-        <v>24.18</v>
+        <v>24.5401809573361</v>
       </c>
       <c r="D46" s="5" t="n">
-        <v>24.49</v>
+        <v>24.601047072702</v>
       </c>
       <c r="E46" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F46" s="6" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>2</v>
@@ -1567,22 +1567,22 @@
         <v>84</v>
       </c>
       <c r="B47" s="5" t="n">
-        <v>23.26</v>
+        <v>23.1822439889912</v>
       </c>
       <c r="C47" s="5" t="n">
-        <v>24.47</v>
+        <v>24.6707323528031</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>24.46</v>
+        <v>24.7411847025136</v>
       </c>
       <c r="E47" s="6" t="n">
         <v>1</v>
       </c>
       <c r="F47" s="6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G47" s="6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/TabuladosGasolina.xlsx
+++ b/TabuladosGasolina.xlsx
@@ -159,13 +159,13 @@
     <t xml:space="preserve">CRE, pesos por litro</t>
   </si>
   <si>
-    <t xml:space="preserve">enero 2023</t>
+    <t xml:space="preserve">febrero 2023</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima actualización: marzo 2023</t>
+    <t xml:space="preserve">Próxima actualización: abril 2023</t>
   </si>
   <si>
     <t xml:space="preserve">FUENTE: CRE; Comisión Reguladora de Energía</t>
@@ -177,42 +177,42 @@
     <t xml:space="preserve">Chihuahua</t>
   </si>
   <si>
+    <t xml:space="preserve">Querétaro</t>
+  </si>
+  <si>
     <t xml:space="preserve">Baja California</t>
   </si>
   <si>
     <t xml:space="preserve">Coahuila</t>
   </si>
   <si>
-    <t xml:space="preserve">Querétaro</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hidalgo</t>
   </si>
   <si>
+    <t xml:space="preserve">Tlaxcala</t>
+  </si>
+  <si>
     <t xml:space="preserve">Puebla</t>
   </si>
   <si>
-    <t xml:space="preserve">Tlaxcala</t>
-  </si>
-  <si>
     <t xml:space="preserve">Morelos</t>
   </si>
   <si>
+    <t xml:space="preserve">Veracruz</t>
+  </si>
+  <si>
     <t xml:space="preserve">Aguascalientes</t>
   </si>
   <si>
+    <t xml:space="preserve">Tabasco</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sonora</t>
   </si>
   <si>
-    <t xml:space="preserve">Veracruz</t>
-  </si>
-  <si>
     <t xml:space="preserve">México</t>
   </si>
   <si>
-    <t xml:space="preserve">Tabasco</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nacional</t>
   </si>
   <si>
@@ -228,6 +228,9 @@
     <t xml:space="preserve">Zacatecas</t>
   </si>
   <si>
+    <t xml:space="preserve">Sinaloa</t>
+  </si>
+  <si>
     <t xml:space="preserve">Colima</t>
   </si>
   <si>
@@ -237,18 +240,15 @@
     <t xml:space="preserve">Ciudad de México</t>
   </si>
   <si>
+    <t xml:space="preserve">Jalisco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michoacán</t>
+  </si>
+  <si>
     <t xml:space="preserve">Yucatán</t>
   </si>
   <si>
-    <t xml:space="preserve">Jalisco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sinaloa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michoacán</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nayarit</t>
   </si>
   <si>
@@ -258,16 +258,16 @@
     <t xml:space="preserve">Baja California Sur</t>
   </si>
   <si>
+    <t xml:space="preserve">Campeche</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nuevo León</t>
   </si>
   <si>
-    <t xml:space="preserve">Campeche</t>
+    <t xml:space="preserve">Guerrero</t>
   </si>
   <si>
     <t xml:space="preserve">Quintana Roo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guerrero</t>
   </si>
 </sst>
 </file>
@@ -831,13 +831,13 @@
         <v>52</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>18.9796269411991</v>
+        <v>18.821261195912</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>21.4255189204346</v>
+        <v>21.3239557072886</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>22.8914905219434</v>
+        <v>22.7169353711707</v>
       </c>
       <c r="E15" s="6" t="n">
         <v>33</v>
@@ -854,13 +854,13 @@
         <v>53</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>19.8652809584241</v>
+        <v>19.7624401776388</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>22.3407041541064</v>
+        <v>22.2214348312323</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>23.1649396431545</v>
+        <v>22.8900103664796</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>32</v>
@@ -877,22 +877,22 @@
         <v>54</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>20.9825966411963</v>
+        <v>21.0566415276488</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>23.6144097276379</v>
+        <v>23.2637242157589</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>22.7535227008167</v>
+        <v>23.0433780928502</v>
       </c>
       <c r="E17" s="6" t="n">
         <v>31</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18">
@@ -900,22 +900,22 @@
         <v>55</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>21.0986516222167</v>
+        <v>21.0689461492551</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>23.8436251108546</v>
+        <v>23.6233558706756</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>24.0037137832351</v>
+        <v>22.6732904979711</v>
       </c>
       <c r="E18" s="6" t="n">
         <v>30</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
@@ -923,22 +923,22 @@
         <v>56</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>21.1744546136808</v>
+        <v>21.1005810689643</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>23.3900384241959</v>
+        <v>24.133632564835</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>23.2796369694128</v>
+        <v>23.7946667598307</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>29</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20">
@@ -946,19 +946,19 @@
         <v>57</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>21.3674589466684</v>
+        <v>21.3630520827687</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>23.4432418421228</v>
+        <v>23.4387707891877</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>23.3036613891238</v>
+        <v>23.0657316440451</v>
       </c>
       <c r="E20" s="6" t="n">
         <v>28</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>28</v>
@@ -969,22 +969,22 @@
         <v>58</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>21.4048774046736</v>
+        <v>21.4040513980069</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>23.4769161833776</v>
+        <v>23.5430109400363</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>23.3129753781646</v>
+        <v>22.9617035572308</v>
       </c>
       <c r="E21" s="6" t="n">
         <v>27</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22">
@@ -992,22 +992,22 @@
         <v>59</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>21.4057953843945</v>
+        <v>21.4075233312671</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>23.529544770596</v>
+        <v>23.4676488973536</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>23.1780950428263</v>
+        <v>23.1301163164067</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>26</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23">
@@ -1015,13 +1015,13 @@
         <v>60</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>21.4892026243808</v>
+        <v>21.541710360026</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>23.4740458213909</v>
+        <v>23.4480092819383</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>23.3295785396877</v>
+        <v>23.2683677385337</v>
       </c>
       <c r="E23" s="6" t="n">
         <v>25</v>
@@ -1030,7 +1030,7 @@
         <v>28</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24">
@@ -1038,19 +1038,19 @@
         <v>61</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>21.5074706153665</v>
+        <v>21.56094541331</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>24.1620637414776</v>
+        <v>23.3997386341159</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>23.5170116132206</v>
+        <v>23.4151387165131</v>
       </c>
       <c r="E24" s="6" t="n">
         <v>24</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>24</v>
@@ -1061,22 +1061,22 @@
         <v>62</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>21.5922347095922</v>
+        <v>21.5857930198726</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>24.4289312057821</v>
+        <v>24.1611317196055</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>24.0497771920409</v>
+        <v>23.4855483483135</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>23</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26">
@@ -1084,19 +1084,19 @@
         <v>63</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>21.6026122772944</v>
+        <v>21.6080021126017</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>23.451931205664</v>
+        <v>23.5401151703511</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>23.5731761528704</v>
+        <v>23.4736607902448</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>22</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>23</v>
@@ -1107,22 +1107,22 @@
         <v>64</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>21.7176026137933</v>
+        <v>21.637665638704</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>24.1657594162968</v>
+        <v>24.1492250353394</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>23.3670240118451</v>
+        <v>24.0472634073198</v>
       </c>
       <c r="E27" s="6" t="n">
         <v>21</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28">
@@ -1130,22 +1130,22 @@
         <v>65</v>
       </c>
       <c r="B28" s="5" t="n">
-        <v>21.7382572334139</v>
+        <v>21.7390547090107</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>23.6079826303795</v>
+        <v>24.1757383689262</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>23.5781828273207</v>
+        <v>23.2309622271726</v>
       </c>
       <c r="E28" s="6" t="n">
         <v>20</v>
       </c>
       <c r="F28" s="6" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29">
@@ -1153,19 +1153,19 @@
         <v>66</v>
       </c>
       <c r="B29" s="5" t="n">
-        <v>21.76065738756</v>
+        <v>21.7898864656477</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>24.0338034812858</v>
+        <v>24.086428378056</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>23.7414361307134</v>
+        <v>23.6311561758415</v>
       </c>
       <c r="E29" s="6" t="n">
         <v>19</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>20</v>
@@ -1176,13 +1176,13 @@
         <v>67</v>
       </c>
       <c r="B30" s="5" t="n">
-        <v>21.9002244151172</v>
+        <v>21.8527167405929</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>23.7413052902984</v>
+        <v>23.7572803411366</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>23.8254297438041</v>
+        <v>23.7663647952083</v>
       </c>
       <c r="E30" s="6" t="n">
         <v>18</v>
@@ -1199,22 +1199,22 @@
         <v>68</v>
       </c>
       <c r="B31" s="5" t="n">
-        <v>22.0106421519441</v>
+        <v>22.0469083166969</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>24.6139650231957</v>
+        <v>24.602960023701</v>
       </c>
       <c r="D31" s="5" t="n">
-        <v>23.9834306086323</v>
+        <v>23.9134140221128</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>17</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32">
@@ -1222,22 +1222,22 @@
         <v>69</v>
       </c>
       <c r="B32" s="5" t="n">
-        <v>22.0118236396557</v>
+        <v>22.0634473751307</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>24.5690321604158</v>
+        <v>24.5725858759134</v>
       </c>
       <c r="D32" s="5" t="n">
-        <v>24.4440703334705</v>
+        <v>24.1016105313386</v>
       </c>
       <c r="E32" s="6" t="n">
         <v>16</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33">
@@ -1245,22 +1245,22 @@
         <v>70</v>
       </c>
       <c r="B33" s="5" t="n">
-        <v>22.0465079131493</v>
+        <v>22.0970192849646</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>24.1220380793591</v>
+        <v>24.2721519930355</v>
       </c>
       <c r="D33" s="5" t="n">
-        <v>23.818282114346</v>
+        <v>23.7319518602768</v>
       </c>
       <c r="E33" s="6" t="n">
         <v>15</v>
       </c>
       <c r="F33" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="G33" s="6" t="n">
         <v>19</v>
-      </c>
-      <c r="G33" s="6" t="n">
-        <v>18</v>
       </c>
     </row>
     <row r="34">
@@ -1268,22 +1268,22 @@
         <v>71</v>
       </c>
       <c r="B34" s="5" t="n">
-        <v>22.0660995033294</v>
+        <v>22.1370636781795</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>24.2218721130278</v>
+        <v>24.3419417885897</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>23.8077086980492</v>
+        <v>23.7585197493257</v>
       </c>
       <c r="E34" s="6" t="n">
         <v>14</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35">
@@ -1291,22 +1291,22 @@
         <v>72</v>
       </c>
       <c r="B35" s="5" t="n">
-        <v>22.2029674911784</v>
+        <v>22.1615420060231</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>24.28951738624</v>
+        <v>24.2101185841858</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>23.8601913008025</v>
+        <v>23.8062404702258</v>
       </c>
       <c r="E35" s="6" t="n">
         <v>13</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36">
@@ -1314,22 +1314,22 @@
         <v>73</v>
       </c>
       <c r="B36" s="5" t="n">
-        <v>22.3082804236719</v>
+        <v>22.1871818608819</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>24.8567682340926</v>
+        <v>24.2637912062402</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>23.6890918781121</v>
+        <v>23.8043691643342</v>
       </c>
       <c r="E36" s="6" t="n">
         <v>12</v>
       </c>
       <c r="F36" s="6" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37">
@@ -1337,22 +1337,22 @@
         <v>74</v>
       </c>
       <c r="B37" s="5" t="n">
-        <v>22.3101099896748</v>
+        <v>22.3665699064541</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>23.9761309382481</v>
+        <v>24.8303670988999</v>
       </c>
       <c r="D37" s="5" t="n">
-        <v>24.0743070806293</v>
+        <v>23.5071571303162</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>11</v>
       </c>
       <c r="F37" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G37" s="6" t="n">
         <v>21</v>
-      </c>
-      <c r="G37" s="6" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="38">
@@ -1360,22 +1360,22 @@
         <v>75</v>
       </c>
       <c r="B38" s="5" t="n">
-        <v>22.3261788619478</v>
+        <v>22.3928779192125</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>24.7967008395776</v>
+        <v>24.8062525170852</v>
       </c>
       <c r="D38" s="5" t="n">
-        <v>23.9237056787865</v>
+        <v>23.8097106622658</v>
       </c>
       <c r="E38" s="6" t="n">
         <v>10</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39">
@@ -1383,22 +1383,22 @@
         <v>76</v>
       </c>
       <c r="B39" s="5" t="n">
-        <v>22.3698489729979</v>
+        <v>22.4520942416019</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>24.327102413571</v>
+        <v>24.3943124964963</v>
       </c>
       <c r="D39" s="5" t="n">
-        <v>23.9403664637381</v>
+        <v>24.0684912072489</v>
       </c>
       <c r="E39" s="6" t="n">
         <v>9</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40">
@@ -1406,22 +1406,22 @@
         <v>77</v>
       </c>
       <c r="B40" s="5" t="n">
-        <v>22.4055348746032</v>
+        <v>22.4647652045381</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>24.3595176949056</v>
+        <v>24.1260351618924</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>24.2097466261597</v>
+        <v>24.2127838921638</v>
       </c>
       <c r="E40" s="6" t="n">
         <v>8</v>
       </c>
       <c r="F40" s="6" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41">
@@ -1429,22 +1429,22 @@
         <v>78</v>
       </c>
       <c r="B41" s="5" t="n">
-        <v>22.5046824504528</v>
+        <v>22.6538434419251</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>24.8820550239201</v>
+        <v>24.694127952365</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>24.2226714081664</v>
+        <v>24.1190194282627</v>
       </c>
       <c r="E41" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F41" s="6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42">
@@ -1452,22 +1452,22 @@
         <v>79</v>
       </c>
       <c r="B42" s="5" t="n">
-        <v>22.7788747843151</v>
+        <v>22.8880548423861</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>24.4952759877567</v>
+        <v>24.6018586159964</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>24.3843618604855</v>
+        <v>24.4940046339325</v>
       </c>
       <c r="E42" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F42" s="6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
@@ -1475,13 +1475,13 @@
         <v>80</v>
       </c>
       <c r="B43" s="5" t="n">
-        <v>22.8640577524224</v>
+        <v>22.9723899941507</v>
       </c>
       <c r="C43" s="5" t="n">
-        <v>24.8989596564271</v>
+        <v>24.992741858747</v>
       </c>
       <c r="D43" s="5" t="n">
-        <v>24.2687859059837</v>
+        <v>24.3073038138545</v>
       </c>
       <c r="E43" s="6" t="n">
         <v>5</v>
@@ -1490,7 +1490,7 @@
         <v>2</v>
       </c>
       <c r="G43" s="6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
@@ -1498,22 +1498,22 @@
         <v>81</v>
       </c>
       <c r="B44" s="5" t="n">
-        <v>22.9279269881326</v>
+        <v>23.0066430932137</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>25.2957843152197</v>
+        <v>24.2867271319594</v>
       </c>
       <c r="D44" s="5" t="n">
-        <v>24.2066886672853</v>
+        <v>24.2725043158423</v>
       </c>
       <c r="E44" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45">
@@ -1521,22 +1521,22 @@
         <v>82</v>
       </c>
       <c r="B45" s="5" t="n">
-        <v>23.150931687577</v>
+        <v>23.1674397778022</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>24.3980079115037</v>
+        <v>25.5634655799686</v>
       </c>
       <c r="D45" s="5" t="n">
-        <v>24.3795287150999</v>
+        <v>24.1261408051101</v>
       </c>
       <c r="E45" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46">
@@ -1544,22 +1544,22 @@
         <v>83</v>
       </c>
       <c r="B46" s="5" t="n">
-        <v>23.1691711799041</v>
+        <v>23.3038186753203</v>
       </c>
       <c r="C46" s="5" t="n">
-        <v>24.5401809573361</v>
+        <v>24.7640505815308</v>
       </c>
       <c r="D46" s="5" t="n">
-        <v>24.601047072702</v>
+        <v>24.7038709152226</v>
       </c>
       <c r="E46" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F46" s="6" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G46" s="6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1567,22 +1567,22 @@
         <v>84</v>
       </c>
       <c r="B47" s="5" t="n">
-        <v>23.1822439889912</v>
+        <v>23.3271513502284</v>
       </c>
       <c r="C47" s="5" t="n">
-        <v>24.6707323528031</v>
+        <v>24.6865491713036</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>24.7411847025136</v>
+        <v>24.650930062805</v>
       </c>
       <c r="E47" s="6" t="n">
         <v>1</v>
       </c>
       <c r="F47" s="6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G47" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/TabuladosGasolina.xlsx
+++ b/TabuladosGasolina.xlsx
@@ -159,13 +159,13 @@
     <t xml:space="preserve">CRE, pesos por litro</t>
   </si>
   <si>
-    <t xml:space="preserve">febrero 2023</t>
+    <t xml:space="preserve">marzo 2023</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima actualización: abril 2023</t>
+    <t xml:space="preserve">Próxima actualización: mayo 2023</t>
   </si>
   <si>
     <t xml:space="preserve">FUENTE: CRE; Comisión Reguladora de Energía</t>
@@ -183,91 +183,91 @@
     <t xml:space="preserve">Baja California</t>
   </si>
   <si>
+    <t xml:space="preserve">Sonora</t>
+  </si>
+  <si>
     <t xml:space="preserve">Coahuila</t>
   </si>
   <si>
     <t xml:space="preserve">Hidalgo</t>
   </si>
   <si>
+    <t xml:space="preserve">Puebla</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tlaxcala</t>
   </si>
   <si>
-    <t xml:space="preserve">Puebla</t>
+    <t xml:space="preserve">Veracruz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tabasco</t>
   </si>
   <si>
     <t xml:space="preserve">Morelos</t>
   </si>
   <si>
-    <t xml:space="preserve">Veracruz</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aguascalientes</t>
   </si>
   <si>
-    <t xml:space="preserve">Tabasco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sonora</t>
+    <t xml:space="preserve">Chiapas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nacional</t>
   </si>
   <si>
     <t xml:space="preserve">México</t>
   </si>
   <si>
-    <t xml:space="preserve">Nacional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chiapas</t>
-  </si>
-  <si>
     <t xml:space="preserve">Guanajuato</t>
   </si>
   <si>
+    <t xml:space="preserve">San Luis Potosí</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zacatecas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colima</t>
+  </si>
+  <si>
     <t xml:space="preserve">Durango</t>
   </si>
   <si>
-    <t xml:space="preserve">Zacatecas</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sinaloa</t>
   </si>
   <si>
-    <t xml:space="preserve">Colima</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Luis Potosí</t>
+    <t xml:space="preserve">Michoacán</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jalisco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yucatán</t>
   </si>
   <si>
     <t xml:space="preserve">Ciudad de México</t>
   </si>
   <si>
-    <t xml:space="preserve">Jalisco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michoacán</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yucatán</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nayarit</t>
   </si>
   <si>
     <t xml:space="preserve">Oaxaca</t>
   </si>
   <si>
+    <t xml:space="preserve">Campeche</t>
+  </si>
+  <si>
     <t xml:space="preserve">Baja California Sur</t>
   </si>
   <si>
-    <t xml:space="preserve">Campeche</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nuevo León</t>
   </si>
   <si>
+    <t xml:space="preserve">Quintana Roo</t>
+  </si>
+  <si>
     <t xml:space="preserve">Guerrero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quintana Roo</t>
   </si>
 </sst>
 </file>
@@ -831,13 +831,13 @@
         <v>52</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>18.821261195912</v>
+        <v>19.1037320564422</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>21.3239557072886</v>
+        <v>21.7265578447414</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>22.7169353711707</v>
+        <v>22.9009815220802</v>
       </c>
       <c r="E15" s="6" t="n">
         <v>33</v>
@@ -854,13 +854,13 @@
         <v>53</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>19.7624401776388</v>
+        <v>19.7498772229194</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>22.2214348312323</v>
+        <v>22.3543429268016</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>22.8900103664796</v>
+        <v>23.134916597099</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>32</v>
@@ -869,7 +869,7 @@
         <v>32</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17">
@@ -877,13 +877,13 @@
         <v>54</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>21.0566415276488</v>
+        <v>21.1396757486676</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>23.2637242157589</v>
+        <v>23.2773687212931</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>23.0433780928502</v>
+        <v>23.0733112822831</v>
       </c>
       <c r="E17" s="6" t="n">
         <v>31</v>
@@ -892,7 +892,7 @@
         <v>31</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
@@ -900,19 +900,19 @@
         <v>55</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>21.0689461492551</v>
+        <v>21.170472533458</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>23.6233558706756</v>
+        <v>23.680857505253</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>22.6732904979711</v>
+        <v>22.7626867548117</v>
       </c>
       <c r="E18" s="6" t="n">
         <v>30</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>33</v>
@@ -923,22 +923,22 @@
         <v>56</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>21.1005810689643</v>
+        <v>21.2670240668353</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>24.133632564835</v>
+        <v>24.0618179019135</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>23.7946667598307</v>
+        <v>24.0370952016375</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>29</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20">
@@ -946,22 +946,22 @@
         <v>57</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>21.3630520827687</v>
+        <v>21.3970258624059</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>23.4387707891877</v>
+        <v>23.9994159267687</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>23.0657316440451</v>
+        <v>23.718489410855</v>
       </c>
       <c r="E20" s="6" t="n">
         <v>28</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
@@ -969,22 +969,22 @@
         <v>58</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>21.4040513980069</v>
+        <v>21.4483720600509</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>23.5430109400363</v>
+        <v>23.5996225400174</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>22.9617035572308</v>
+        <v>23.2199701882542</v>
       </c>
       <c r="E21" s="6" t="n">
         <v>27</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22">
@@ -992,19 +992,19 @@
         <v>59</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>21.4075233312671</v>
+        <v>21.4591078604657</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>23.4676488973536</v>
+        <v>23.5483175369274</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>23.1301163164067</v>
+        <v>23.2598664295041</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>26</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>27</v>
@@ -1015,22 +1015,22 @@
         <v>60</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>21.541710360026</v>
+        <v>21.4605704322582</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>23.4480092819383</v>
+        <v>23.6826426310416</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>23.2683677385337</v>
+        <v>23.1387492327345</v>
       </c>
       <c r="E23" s="6" t="n">
         <v>25</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24">
@@ -1038,13 +1038,13 @@
         <v>61</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>21.56094541331</v>
+        <v>21.6039489355744</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>23.3997386341159</v>
+        <v>23.4239820139097</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>23.4151387165131</v>
+        <v>23.4680719932407</v>
       </c>
       <c r="E24" s="6" t="n">
         <v>24</v>
@@ -1061,22 +1061,22 @@
         <v>62</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>21.5857930198726</v>
+        <v>21.6216117649665</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>24.1611317196055</v>
+        <v>23.6240177709969</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>23.4855483483135</v>
+        <v>23.5295370315244</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>23</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26">
@@ -1084,22 +1084,22 @@
         <v>63</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>21.6080021126017</v>
+        <v>21.625473100015</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>23.5401151703511</v>
+        <v>23.5818986158886</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>23.4736607902448</v>
+        <v>23.3923597019126</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>22</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27">
@@ -1107,13 +1107,13 @@
         <v>64</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>21.637665638704</v>
+        <v>21.631633841923</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>24.1492250353394</v>
+        <v>24.2054402118778</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>24.0472634073198</v>
+        <v>23.5737861066224</v>
       </c>
       <c r="E27" s="6" t="n">
         <v>21</v>
@@ -1122,7 +1122,7 @@
         <v>19</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28">
@@ -1130,22 +1130,22 @@
         <v>65</v>
       </c>
       <c r="B28" s="5" t="n">
-        <v>21.7390547090107</v>
+        <v>21.8230633058105</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>24.1757383689262</v>
+        <v>23.7631580031735</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>23.2309622271726</v>
+        <v>23.8507951760159</v>
       </c>
       <c r="E28" s="6" t="n">
         <v>20</v>
       </c>
       <c r="F28" s="6" t="n">
+        <v>23</v>
+      </c>
+      <c r="G28" s="6" t="n">
         <v>17</v>
-      </c>
-      <c r="G28" s="6" t="n">
-        <v>26</v>
       </c>
     </row>
     <row r="29">
@@ -1153,19 +1153,19 @@
         <v>66</v>
       </c>
       <c r="B29" s="5" t="n">
-        <v>21.7898864656477</v>
+        <v>21.8620485299293</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>24.086428378056</v>
+        <v>24.1824699488651</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>23.6311561758415</v>
+        <v>23.7169984452278</v>
       </c>
       <c r="E29" s="6" t="n">
         <v>19</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>20</v>
@@ -1176,22 +1176,22 @@
         <v>67</v>
       </c>
       <c r="B30" s="5" t="n">
-        <v>21.8527167405929</v>
+        <v>21.8859074609426</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>23.7572803411366</v>
+        <v>24.252152119558</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>23.7663647952083</v>
+        <v>23.3176653080671</v>
       </c>
       <c r="E30" s="6" t="n">
         <v>18</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31">
@@ -1199,22 +1199,22 @@
         <v>68</v>
       </c>
       <c r="B31" s="5" t="n">
-        <v>22.0469083166969</v>
+        <v>22.050838393978</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>24.602960023701</v>
+        <v>24.5669262542435</v>
       </c>
       <c r="D31" s="5" t="n">
-        <v>23.9134140221128</v>
+        <v>23.9686615234392</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>17</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32">
@@ -1222,22 +1222,22 @@
         <v>69</v>
       </c>
       <c r="B32" s="5" t="n">
-        <v>22.0634473751307</v>
+        <v>22.1323003919838</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>24.5725858759134</v>
+        <v>24.388838832648</v>
       </c>
       <c r="D32" s="5" t="n">
-        <v>24.1016105313386</v>
+        <v>23.9656855793161</v>
       </c>
       <c r="E32" s="6" t="n">
         <v>16</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33">
@@ -1245,22 +1245,22 @@
         <v>70</v>
       </c>
       <c r="B33" s="5" t="n">
-        <v>22.0970192849646</v>
+        <v>22.1562596051225</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>24.2721519930355</v>
+        <v>24.2935071039494</v>
       </c>
       <c r="D33" s="5" t="n">
-        <v>23.7319518602768</v>
+        <v>23.872849853518</v>
       </c>
       <c r="E33" s="6" t="n">
         <v>15</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34">
@@ -1268,22 +1268,22 @@
         <v>71</v>
       </c>
       <c r="B34" s="5" t="n">
-        <v>22.1370636781795</v>
+        <v>22.2532483384049</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>24.3419417885897</v>
+        <v>24.3987479612355</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>23.7585197493257</v>
+        <v>23.886307969769</v>
       </c>
       <c r="E34" s="6" t="n">
         <v>14</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35">
@@ -1291,22 +1291,22 @@
         <v>72</v>
       </c>
       <c r="B35" s="5" t="n">
-        <v>22.1615420060231</v>
+        <v>22.2782230048454</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>24.2101185841858</v>
+        <v>24.7000927860341</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>23.8062404702258</v>
+        <v>24.1215836368814</v>
       </c>
       <c r="E35" s="6" t="n">
         <v>13</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36">
@@ -1314,22 +1314,22 @@
         <v>73</v>
       </c>
       <c r="B36" s="5" t="n">
-        <v>22.1871818608819</v>
+        <v>22.3446480354756</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>24.2637912062402</v>
+        <v>24.406336690998</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>23.8043691643342</v>
+        <v>23.8310672099737</v>
       </c>
       <c r="E36" s="6" t="n">
         <v>12</v>
       </c>
       <c r="F36" s="6" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37">
@@ -1337,22 +1337,22 @@
         <v>74</v>
       </c>
       <c r="B37" s="5" t="n">
-        <v>22.3665699064541</v>
+        <v>22.4735846205752</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>24.8303670988999</v>
+        <v>24.5324829812049</v>
       </c>
       <c r="D37" s="5" t="n">
-        <v>23.5071571303162</v>
+        <v>24.1874784453694</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>11</v>
       </c>
       <c r="F37" s="6" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38">
@@ -1360,22 +1360,22 @@
         <v>75</v>
       </c>
       <c r="B38" s="5" t="n">
-        <v>22.3928779192125</v>
+        <v>22.5237506776281</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>24.8062525170852</v>
+        <v>24.9745134837926</v>
       </c>
       <c r="D38" s="5" t="n">
-        <v>23.8097106622658</v>
+        <v>23.9687152403321</v>
       </c>
       <c r="E38" s="6" t="n">
         <v>10</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39">
@@ -1383,22 +1383,22 @@
         <v>76</v>
       </c>
       <c r="B39" s="5" t="n">
-        <v>22.4520942416019</v>
+        <v>22.5239899574889</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>24.3943124964963</v>
+        <v>24.2078627922141</v>
       </c>
       <c r="D39" s="5" t="n">
-        <v>24.0684912072489</v>
+        <v>24.2710999263868</v>
       </c>
       <c r="E39" s="6" t="n">
         <v>9</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40">
@@ -1406,22 +1406,22 @@
         <v>77</v>
       </c>
       <c r="B40" s="5" t="n">
-        <v>22.4647652045381</v>
+        <v>22.5499402276762</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>24.1260351618924</v>
+        <v>24.9494818113743</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>24.2127838921638</v>
+        <v>23.6337311028712</v>
       </c>
       <c r="E40" s="6" t="n">
         <v>8</v>
       </c>
       <c r="F40" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G40" s="6" t="n">
         <v>21</v>
-      </c>
-      <c r="G40" s="6" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="41">
@@ -1429,13 +1429,13 @@
         <v>78</v>
       </c>
       <c r="B41" s="5" t="n">
-        <v>22.6538434419251</v>
+        <v>22.620435266753</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>24.694127952365</v>
+        <v>24.8234485475305</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>24.1190194282627</v>
+        <v>24.2768969785891</v>
       </c>
       <c r="E41" s="6" t="n">
         <v>7</v>
@@ -1444,7 +1444,7 @@
         <v>6</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42">
@@ -1452,13 +1452,13 @@
         <v>79</v>
       </c>
       <c r="B42" s="5" t="n">
-        <v>22.8880548423861</v>
+        <v>22.8229358206873</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>24.6018586159964</v>
+        <v>24.6637387692263</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>24.4940046339325</v>
+        <v>24.4576436493391</v>
       </c>
       <c r="E42" s="6" t="n">
         <v>6</v>
@@ -1467,7 +1467,7 @@
         <v>9</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
@@ -1475,22 +1475,22 @@
         <v>80</v>
       </c>
       <c r="B43" s="5" t="n">
-        <v>22.9723899941507</v>
+        <v>22.982120592295</v>
       </c>
       <c r="C43" s="5" t="n">
-        <v>24.992741858747</v>
+        <v>24.3688169620304</v>
       </c>
       <c r="D43" s="5" t="n">
-        <v>24.3073038138545</v>
+        <v>24.3292182027489</v>
       </c>
       <c r="E43" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F43" s="6" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G43" s="6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44">
@@ -1498,22 +1498,22 @@
         <v>81</v>
       </c>
       <c r="B44" s="5" t="n">
-        <v>23.0066430932137</v>
+        <v>23.0504602486393</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>24.2867271319594</v>
+        <v>25.1382211340059</v>
       </c>
       <c r="D44" s="5" t="n">
-        <v>24.2725043158423</v>
+        <v>24.475949142935</v>
       </c>
       <c r="E44" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45">
@@ -1521,13 +1521,13 @@
         <v>82</v>
       </c>
       <c r="B45" s="5" t="n">
-        <v>23.1674397778022</v>
+        <v>23.3263343111833</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>25.5634655799686</v>
+        <v>25.6783230189151</v>
       </c>
       <c r="D45" s="5" t="n">
-        <v>24.1261408051101</v>
+        <v>24.1145785532974</v>
       </c>
       <c r="E45" s="6" t="n">
         <v>3</v>
@@ -1536,7 +1536,7 @@
         <v>1</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46">
@@ -1544,22 +1544,22 @@
         <v>83</v>
       </c>
       <c r="B46" s="5" t="n">
-        <v>23.3038186753203</v>
+        <v>23.3891597687791</v>
       </c>
       <c r="C46" s="5" t="n">
-        <v>24.7640505815308</v>
+        <v>24.729390433761</v>
       </c>
       <c r="D46" s="5" t="n">
-        <v>24.7038709152226</v>
+        <v>24.6626704032499</v>
       </c>
       <c r="E46" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F46" s="6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G46" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
@@ -1567,22 +1567,22 @@
         <v>84</v>
       </c>
       <c r="B47" s="5" t="n">
-        <v>23.3271513502284</v>
+        <v>23.3913661024424</v>
       </c>
       <c r="C47" s="5" t="n">
-        <v>24.6865491713036</v>
+        <v>24.8721675863348</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>24.650930062805</v>
+        <v>24.8579635025289</v>
       </c>
       <c r="E47" s="6" t="n">
         <v>1</v>
       </c>
       <c r="F47" s="6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G47" s="6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/TabuladosGasolina.xlsx
+++ b/TabuladosGasolina.xlsx
@@ -159,13 +159,13 @@
     <t xml:space="preserve">CRE, pesos por litro</t>
   </si>
   <si>
-    <t xml:space="preserve">marzo 2023</t>
+    <t xml:space="preserve">abril 2023</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima actualización: mayo 2023</t>
+    <t xml:space="preserve">Próxima actualización: junio 2023</t>
   </si>
   <si>
     <t xml:space="preserve">FUENTE: CRE; Comisión Reguladora de Energía</t>
@@ -186,30 +186,30 @@
     <t xml:space="preserve">Sonora</t>
   </si>
   <si>
+    <t xml:space="preserve">Hidalgo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puebla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tlaxcala</t>
+  </si>
+  <si>
     <t xml:space="preserve">Coahuila</t>
   </si>
   <si>
-    <t xml:space="preserve">Hidalgo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puebla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tlaxcala</t>
-  </si>
-  <si>
     <t xml:space="preserve">Veracruz</t>
   </si>
   <si>
     <t xml:space="preserve">Tabasco</t>
   </si>
   <si>
+    <t xml:space="preserve">Aguascalientes</t>
+  </si>
+  <si>
     <t xml:space="preserve">Morelos</t>
   </si>
   <si>
-    <t xml:space="preserve">Aguascalientes</t>
-  </si>
-  <si>
     <t xml:space="preserve">Chiapas</t>
   </si>
   <si>
@@ -231,10 +231,13 @@
     <t xml:space="preserve">Colima</t>
   </si>
   <si>
+    <t xml:space="preserve">Sinaloa</t>
+  </si>
+  <si>
     <t xml:space="preserve">Durango</t>
   </si>
   <si>
-    <t xml:space="preserve">Sinaloa</t>
+    <t xml:space="preserve">Yucatán</t>
   </si>
   <si>
     <t xml:space="preserve">Michoacán</t>
@@ -243,31 +246,28 @@
     <t xml:space="preserve">Jalisco</t>
   </si>
   <si>
-    <t xml:space="preserve">Yucatán</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ciudad de México</t>
   </si>
   <si>
+    <t xml:space="preserve">Oaxaca</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nayarit</t>
   </si>
   <si>
-    <t xml:space="preserve">Oaxaca</t>
-  </si>
-  <si>
     <t xml:space="preserve">Campeche</t>
   </si>
   <si>
     <t xml:space="preserve">Baja California Sur</t>
   </si>
   <si>
+    <t xml:space="preserve">Guerrero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quintana Roo</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nuevo León</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quintana Roo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guerrero</t>
   </si>
 </sst>
 </file>
@@ -831,13 +831,13 @@
         <v>52</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>19.1037320564422</v>
+        <v>19.2148951163544</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>21.7265578447414</v>
+        <v>21.7410754136638</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>22.9009815220802</v>
+        <v>22.9677938636701</v>
       </c>
       <c r="E15" s="6" t="n">
         <v>33</v>
@@ -854,13 +854,13 @@
         <v>53</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>19.7498772229194</v>
+        <v>19.9393439622855</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>22.3543429268016</v>
+        <v>22.4881064130904</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>23.134916597099</v>
+        <v>23.0945142792071</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>32</v>
@@ -869,7 +869,7 @@
         <v>32</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17">
@@ -877,13 +877,13 @@
         <v>54</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>21.1396757486676</v>
+        <v>21.2038924438224</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>23.2773687212931</v>
+        <v>23.5121489752945</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>23.0733112822831</v>
+        <v>23.11790111494</v>
       </c>
       <c r="E17" s="6" t="n">
         <v>31</v>
@@ -892,7 +892,7 @@
         <v>31</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
@@ -900,13 +900,13 @@
         <v>55</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>21.170472533458</v>
+        <v>21.2865922875683</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>23.680857505253</v>
+        <v>23.8052409663027</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>22.7626867548117</v>
+        <v>22.8658937219294</v>
       </c>
       <c r="E18" s="6" t="n">
         <v>30</v>
@@ -923,22 +923,22 @@
         <v>56</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>21.2670240668353</v>
+        <v>21.3180374710227</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>24.0618179019135</v>
+        <v>24.3091068591885</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>24.0370952016375</v>
+        <v>23.8490056522756</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>29</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20">
@@ -946,22 +946,22 @@
         <v>57</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>21.3970258624059</v>
+        <v>21.5394611756415</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>23.9994159267687</v>
+        <v>23.7542317491929</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>23.718489410855</v>
+        <v>23.2428003287592</v>
       </c>
       <c r="E20" s="6" t="n">
         <v>28</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21">
@@ -969,13 +969,13 @@
         <v>58</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>21.4483720600509</v>
+        <v>21.5690806477129</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>23.5996225400174</v>
+        <v>23.8026226932459</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>23.2199701882542</v>
+        <v>23.2486615065123</v>
       </c>
       <c r="E21" s="6" t="n">
         <v>27</v>
@@ -984,7 +984,7 @@
         <v>27</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22">
@@ -992,22 +992,22 @@
         <v>59</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>21.4591078604657</v>
+        <v>21.625790326458</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>23.5483175369274</v>
+        <v>23.914924808466</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>23.2598664295041</v>
+        <v>23.1417086428291</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>26</v>
       </c>
       <c r="F22" s="6" t="n">
+        <v>24</v>
+      </c>
+      <c r="G22" s="6" t="n">
         <v>29</v>
-      </c>
-      <c r="G22" s="6" t="n">
-        <v>27</v>
       </c>
     </row>
     <row r="23">
@@ -1015,22 +1015,22 @@
         <v>60</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>21.4605704322582</v>
+        <v>21.6554090759772</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>23.6826426310416</v>
+        <v>24.3147677536064</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>23.1387492327345</v>
+        <v>23.7957252446992</v>
       </c>
       <c r="E23" s="6" t="n">
         <v>25</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
@@ -1038,13 +1038,13 @@
         <v>61</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>21.6039489355744</v>
+        <v>21.7094388226484</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>23.4239820139097</v>
+        <v>23.6262336122398</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>23.4680719932407</v>
+        <v>23.5555660259972</v>
       </c>
       <c r="E24" s="6" t="n">
         <v>24</v>
@@ -1053,7 +1053,7 @@
         <v>30</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25">
@@ -1061,22 +1061,22 @@
         <v>62</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>21.6216117649665</v>
+        <v>21.7254740232023</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>23.6240177709969</v>
+        <v>23.7571119214675</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>23.5295370315244</v>
+        <v>23.5409907723265</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>23</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26">
@@ -1084,22 +1084,22 @@
         <v>63</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>21.625473100015</v>
+        <v>21.7614401136013</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>23.5818986158886</v>
+        <v>24.2094357453795</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>23.3923597019126</v>
+        <v>23.6576445517113</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>22</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27">
@@ -1107,22 +1107,22 @@
         <v>64</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>21.631633841923</v>
+        <v>21.8022472961235</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>24.2054402118778</v>
+        <v>23.804358194292</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>23.5737861066224</v>
+        <v>23.4296143023557</v>
       </c>
       <c r="E27" s="6" t="n">
         <v>21</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28">
@@ -1130,13 +1130,13 @@
         <v>65</v>
       </c>
       <c r="B28" s="5" t="n">
-        <v>21.8230633058105</v>
+        <v>21.9409641993262</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>23.7631580031735</v>
+        <v>23.9359256827006</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>23.8507951760159</v>
+        <v>23.9222278654911</v>
       </c>
       <c r="E28" s="6" t="n">
         <v>20</v>
@@ -1145,7 +1145,7 @@
         <v>23</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29">
@@ -1153,13 +1153,13 @@
         <v>66</v>
       </c>
       <c r="B29" s="5" t="n">
-        <v>21.8620485299293</v>
+        <v>21.963588493703</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>24.1824699488651</v>
+        <v>24.2544517043663</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>23.7169984452278</v>
+        <v>23.6991805733729</v>
       </c>
       <c r="E29" s="6" t="n">
         <v>19</v>
@@ -1176,13 +1176,13 @@
         <v>67</v>
       </c>
       <c r="B30" s="5" t="n">
-        <v>21.8859074609426</v>
+        <v>22.1100961571955</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>24.252152119558</v>
+        <v>24.3317494688842</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>23.3176653080671</v>
+        <v>23.3613760584323</v>
       </c>
       <c r="E30" s="6" t="n">
         <v>18</v>
@@ -1199,22 +1199,22 @@
         <v>68</v>
       </c>
       <c r="B31" s="5" t="n">
-        <v>22.050838393978</v>
+        <v>22.1220561274426</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>24.5669262542435</v>
+        <v>24.4747743173918</v>
       </c>
       <c r="D31" s="5" t="n">
-        <v>23.9686615234392</v>
+        <v>23.9318722952125</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>17</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32">
@@ -1222,22 +1222,22 @@
         <v>69</v>
       </c>
       <c r="B32" s="5" t="n">
-        <v>22.1323003919838</v>
+        <v>22.1478199485095</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>24.388838832648</v>
+        <v>24.3782972358799</v>
       </c>
       <c r="D32" s="5" t="n">
-        <v>23.9656855793161</v>
+        <v>23.7260665705423</v>
       </c>
       <c r="E32" s="6" t="n">
         <v>16</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33">
@@ -1245,13 +1245,13 @@
         <v>70</v>
       </c>
       <c r="B33" s="5" t="n">
-        <v>22.1562596051225</v>
+        <v>22.2005977863558</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>24.2935071039494</v>
+        <v>24.3577601158706</v>
       </c>
       <c r="D33" s="5" t="n">
-        <v>23.872849853518</v>
+        <v>23.8223151065897</v>
       </c>
       <c r="E33" s="6" t="n">
         <v>15</v>
@@ -1260,7 +1260,7 @@
         <v>16</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34">
@@ -1268,22 +1268,22 @@
         <v>71</v>
       </c>
       <c r="B34" s="5" t="n">
-        <v>22.2532483384049</v>
+        <v>22.2353301982131</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>24.3987479612355</v>
+        <v>24.4853824300043</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>23.886307969769</v>
+        <v>23.8581995192747</v>
       </c>
       <c r="E34" s="6" t="n">
         <v>14</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35">
@@ -1291,22 +1291,22 @@
         <v>72</v>
       </c>
       <c r="B35" s="5" t="n">
-        <v>22.2782230048454</v>
+        <v>22.4232481047332</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>24.7000927860341</v>
+        <v>24.6861504430739</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>24.1215836368814</v>
+        <v>23.831365355797</v>
       </c>
       <c r="E35" s="6" t="n">
         <v>13</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36">
@@ -1314,22 +1314,22 @@
         <v>73</v>
       </c>
       <c r="B36" s="5" t="n">
-        <v>22.3446480354756</v>
+        <v>22.4473739621224</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>24.406336690998</v>
+        <v>25.002094227945</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>23.8310672099737</v>
+        <v>24.248747175244</v>
       </c>
       <c r="E36" s="6" t="n">
         <v>12</v>
       </c>
       <c r="F36" s="6" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37">
@@ -1337,19 +1337,19 @@
         <v>74</v>
       </c>
       <c r="B37" s="5" t="n">
-        <v>22.4735846205752</v>
+        <v>22.455764747705</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>24.5324829812049</v>
+        <v>24.1436779736202</v>
       </c>
       <c r="D37" s="5" t="n">
-        <v>24.1874784453694</v>
+        <v>24.1768148569893</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>11</v>
       </c>
       <c r="F37" s="6" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>8</v>
@@ -1360,22 +1360,22 @@
         <v>75</v>
       </c>
       <c r="B38" s="5" t="n">
-        <v>22.5237506776281</v>
+        <v>22.5053295644088</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>24.9745134837926</v>
+        <v>24.7252889822448</v>
       </c>
       <c r="D38" s="5" t="n">
-        <v>23.9687152403321</v>
+        <v>24.074555831813</v>
       </c>
       <c r="E38" s="6" t="n">
         <v>10</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39">
@@ -1383,22 +1383,22 @@
         <v>76</v>
       </c>
       <c r="B39" s="5" t="n">
-        <v>22.5239899574889</v>
+        <v>22.6342163811825</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>24.2078627922141</v>
+        <v>25.0074895869302</v>
       </c>
       <c r="D39" s="5" t="n">
-        <v>24.2710999263868</v>
+        <v>23.960614477928</v>
       </c>
       <c r="E39" s="6" t="n">
         <v>9</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40">
@@ -1406,13 +1406,13 @@
         <v>77</v>
       </c>
       <c r="B40" s="5" t="n">
-        <v>22.5499402276762</v>
+        <v>22.7448949740145</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>24.9494818113743</v>
+        <v>25.0568226614453</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>23.6337311028712</v>
+        <v>23.6723501444157</v>
       </c>
       <c r="E40" s="6" t="n">
         <v>8</v>
@@ -1429,22 +1429,22 @@
         <v>78</v>
       </c>
       <c r="B41" s="5" t="n">
-        <v>22.620435266753</v>
+        <v>22.9006538217346</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>24.8234485475305</v>
+        <v>24.715059688827</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>24.2768969785891</v>
+        <v>24.4963672093475</v>
       </c>
       <c r="E41" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F41" s="6" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42">
@@ -1452,22 +1452,22 @@
         <v>79</v>
       </c>
       <c r="B42" s="5" t="n">
-        <v>22.8229358206873</v>
+        <v>22.9697559819772</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>24.6637387692263</v>
+        <v>25.2001180528826</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>24.4576436493391</v>
+        <v>24.4165422399709</v>
       </c>
       <c r="E42" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F42" s="6" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43">
@@ -1475,22 +1475,22 @@
         <v>80</v>
       </c>
       <c r="B43" s="5" t="n">
-        <v>22.982120592295</v>
+        <v>22.9932043537995</v>
       </c>
       <c r="C43" s="5" t="n">
-        <v>24.3688169620304</v>
+        <v>24.4395591449749</v>
       </c>
       <c r="D43" s="5" t="n">
-        <v>24.3292182027489</v>
+        <v>24.3963358481319</v>
       </c>
       <c r="E43" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F43" s="6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G43" s="6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44">
@@ -1498,22 +1498,22 @@
         <v>81</v>
       </c>
       <c r="B44" s="5" t="n">
-        <v>23.0504602486393</v>
+        <v>22.9960149425394</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>25.1382211340059</v>
+        <v>25.1772140478224</v>
       </c>
       <c r="D44" s="5" t="n">
-        <v>24.475949142935</v>
+        <v>24.4599549824427</v>
       </c>
       <c r="E44" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45">
@@ -1521,22 +1521,22 @@
         <v>82</v>
       </c>
       <c r="B45" s="5" t="n">
-        <v>23.3263343111833</v>
+        <v>23.3644441113156</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>25.6783230189151</v>
+        <v>24.9114163896252</v>
       </c>
       <c r="D45" s="5" t="n">
-        <v>24.1145785532974</v>
+        <v>24.7621703535855</v>
       </c>
       <c r="E45" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F45" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="G45" s="6" t="n">
         <v>1</v>
-      </c>
-      <c r="G45" s="6" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="46">
@@ -1544,19 +1544,19 @@
         <v>83</v>
       </c>
       <c r="B46" s="5" t="n">
-        <v>23.3891597687791</v>
+        <v>23.5153971452849</v>
       </c>
       <c r="C46" s="5" t="n">
-        <v>24.729390433761</v>
+        <v>24.798767516174</v>
       </c>
       <c r="D46" s="5" t="n">
-        <v>24.6626704032499</v>
+        <v>24.631093618908</v>
       </c>
       <c r="E46" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F46" s="6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>2</v>
@@ -1567,22 +1567,22 @@
         <v>84</v>
       </c>
       <c r="B47" s="5" t="n">
-        <v>23.3913661024424</v>
+        <v>23.5961144859797</v>
       </c>
       <c r="C47" s="5" t="n">
-        <v>24.8721675863348</v>
+        <v>25.6999353540282</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>24.8579635025289</v>
+        <v>24.1107223328748</v>
       </c>
       <c r="E47" s="6" t="n">
         <v>1</v>
       </c>
       <c r="F47" s="6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G47" s="6" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/TabuladosGasolina.xlsx
+++ b/TabuladosGasolina.xlsx
@@ -165,7 +165,7 @@
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima actualización: junio 2023</t>
+    <t xml:space="preserve">Próxima actualización: julio 2023</t>
   </si>
   <si>
     <t xml:space="preserve">FUENTE: CRE; Comisión Reguladora de Energía</t>

--- a/TabuladosGasolina.xlsx
+++ b/TabuladosGasolina.xlsx
@@ -159,7 +159,7 @@
     <t xml:space="preserve">CRE, pesos por litro</t>
   </si>
   <si>
-    <t xml:space="preserve">abril 2023</t>
+    <t xml:space="preserve">mayo 2023</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
@@ -177,58 +177,67 @@
     <t xml:space="preserve">Chihuahua</t>
   </si>
   <si>
+    <t xml:space="preserve">Coahuila</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baja California</t>
+  </si>
+  <si>
     <t xml:space="preserve">Querétaro</t>
   </si>
   <si>
-    <t xml:space="preserve">Baja California</t>
+    <t xml:space="preserve">Hidalgo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puebla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tlaxcala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tabasco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veracruz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aguascalientes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morelos</t>
   </si>
   <si>
     <t xml:space="preserve">Sonora</t>
   </si>
   <si>
-    <t xml:space="preserve">Hidalgo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puebla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tlaxcala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coahuila</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Veracruz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tabasco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aguascalientes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morelos</t>
+    <t xml:space="preserve">Guanajuato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">México</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nacional</t>
   </si>
   <si>
     <t xml:space="preserve">Chiapas</t>
   </si>
   <si>
-    <t xml:space="preserve">Nacional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">México</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guanajuato</t>
+    <t xml:space="preserve">Zacatecas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yucatán</t>
   </si>
   <si>
     <t xml:space="preserve">San Luis Potosí</t>
   </si>
   <si>
-    <t xml:space="preserve">Zacatecas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colima</t>
+    <t xml:space="preserve">Jalisco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nayarit</t>
   </si>
   <si>
     <t xml:space="preserve">Sinaloa</t>
@@ -237,37 +246,28 @@
     <t xml:space="preserve">Durango</t>
   </si>
   <si>
-    <t xml:space="preserve">Yucatán</t>
-  </si>
-  <si>
     <t xml:space="preserve">Michoacán</t>
   </si>
   <si>
-    <t xml:space="preserve">Jalisco</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ciudad de México</t>
   </si>
   <si>
     <t xml:space="preserve">Oaxaca</t>
   </si>
   <si>
-    <t xml:space="preserve">Nayarit</t>
-  </si>
-  <si>
     <t xml:space="preserve">Campeche</t>
   </si>
   <si>
     <t xml:space="preserve">Baja California Sur</t>
   </si>
   <si>
+    <t xml:space="preserve">Nuevo León</t>
+  </si>
+  <si>
     <t xml:space="preserve">Guerrero</t>
   </si>
   <si>
     <t xml:space="preserve">Quintana Roo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nuevo León</t>
   </si>
 </sst>
 </file>
@@ -831,13 +831,13 @@
         <v>52</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>19.2148951163544</v>
+        <v>19.5565634305269</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>21.7410754136638</v>
+        <v>22.0572664844228</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>22.9677938636701</v>
+        <v>22.9787831985553</v>
       </c>
       <c r="E15" s="6" t="n">
         <v>33</v>
@@ -846,7 +846,7 @@
         <v>33</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
@@ -854,13 +854,13 @@
         <v>53</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>19.9393439622855</v>
+        <v>20.5685113500284</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>22.4881064130904</v>
+        <v>22.6755003512376</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>23.0945142792071</v>
+        <v>22.9187252235138</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>32</v>
@@ -869,7 +869,7 @@
         <v>32</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17">
@@ -877,22 +877,22 @@
         <v>54</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>21.2038924438224</v>
+        <v>21.075434963469</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>23.5121489752945</v>
+        <v>24.1339963664502</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>23.11790111494</v>
+        <v>23.7975984360889</v>
       </c>
       <c r="E17" s="6" t="n">
         <v>31</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
@@ -900,19 +900,19 @@
         <v>55</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>21.2865922875683</v>
+        <v>21.1567424610528</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>23.8052409663027</v>
+        <v>23.8218561661471</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>22.8658937219294</v>
+        <v>22.811855524778</v>
       </c>
       <c r="E18" s="6" t="n">
         <v>30</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>33</v>
@@ -923,22 +923,22 @@
         <v>56</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>21.3180374710227</v>
+        <v>21.2530940572488</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>24.3091068591885</v>
+        <v>23.4423650103242</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>23.8490056522756</v>
+        <v>23.1031753281587</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>29</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
@@ -946,19 +946,19 @@
         <v>57</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>21.5394611756415</v>
+        <v>21.5158213942449</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>23.7542317491929</v>
+        <v>23.7561553372598</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>23.2428003287592</v>
+        <v>23.2492392995461</v>
       </c>
       <c r="E20" s="6" t="n">
         <v>28</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>28</v>
@@ -969,19 +969,19 @@
         <v>58</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>21.5690806477129</v>
+        <v>21.5557644535883</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>23.8026226932459</v>
+        <v>23.8340274682115</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>23.2486615065123</v>
+        <v>23.2768255397185</v>
       </c>
       <c r="E21" s="6" t="n">
         <v>27</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>27</v>
@@ -992,13 +992,13 @@
         <v>59</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>21.625790326458</v>
+        <v>21.6155343186414</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>23.914924808466</v>
+        <v>23.9381717595073</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>23.1417086428291</v>
+        <v>23.2162236386283</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>26</v>
@@ -1015,22 +1015,22 @@
         <v>60</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>21.6554090759772</v>
+        <v>21.6489683383275</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>24.3147677536064</v>
+        <v>23.6760886317588</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>23.7957252446992</v>
+        <v>23.5624325963591</v>
       </c>
       <c r="E23" s="6" t="n">
         <v>25</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24">
@@ -1038,13 +1038,13 @@
         <v>61</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>21.7094388226484</v>
+        <v>21.6762317088473</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>23.6262336122398</v>
+        <v>23.6493473703316</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>23.5555660259972</v>
+        <v>23.5169312637771</v>
       </c>
       <c r="E24" s="6" t="n">
         <v>24</v>
@@ -1061,22 +1061,22 @@
         <v>62</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>21.7254740232023</v>
+        <v>21.7675349924656</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>23.7571119214675</v>
+        <v>24.2371519134878</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>23.5409907723265</v>
+        <v>23.6313192138772</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>23</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26">
@@ -1084,22 +1084,22 @@
         <v>63</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>21.7614401136013</v>
+        <v>21.8119195909311</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>24.2094357453795</v>
+        <v>23.8680072373236</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>23.6576445517113</v>
+        <v>23.4530381305853</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>22</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27">
@@ -1107,22 +1107,22 @@
         <v>64</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>21.8022472961235</v>
+        <v>21.8370568961781</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>23.804358194292</v>
+        <v>24.4372753216484</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>23.4296143023557</v>
+        <v>24.0151357462931</v>
       </c>
       <c r="E27" s="6" t="n">
         <v>21</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28">
@@ -1130,22 +1130,22 @@
         <v>65</v>
       </c>
       <c r="B28" s="5" t="n">
-        <v>21.9409641993262</v>
+        <v>21.9159651773448</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>23.9359256827006</v>
+        <v>24.2858890087415</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>23.9222278654911</v>
+        <v>23.7821516036783</v>
       </c>
       <c r="E28" s="6" t="n">
         <v>20</v>
       </c>
       <c r="F28" s="6" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29">
@@ -1153,22 +1153,22 @@
         <v>66</v>
       </c>
       <c r="B29" s="5" t="n">
-        <v>21.963588493703</v>
+        <v>21.9304149031201</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>24.2544517043663</v>
+        <v>24.2516617362907</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>23.6991805733729</v>
+        <v>23.332021794019</v>
       </c>
       <c r="E29" s="6" t="n">
         <v>19</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30">
@@ -1176,22 +1176,22 @@
         <v>67</v>
       </c>
       <c r="B30" s="5" t="n">
-        <v>22.1100961571955</v>
+        <v>21.943020734659</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>24.3317494688842</v>
+        <v>24.2317007551177</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>23.3613760584323</v>
+        <v>23.6926315515526</v>
       </c>
       <c r="E30" s="6" t="n">
         <v>18</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31">
@@ -1199,22 +1199,22 @@
         <v>68</v>
       </c>
       <c r="B31" s="5" t="n">
-        <v>22.1220561274426</v>
+        <v>21.9646125600877</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>24.4747743173918</v>
+        <v>23.9580892499319</v>
       </c>
       <c r="D31" s="5" t="n">
-        <v>23.9318722952125</v>
+        <v>23.8894565928236</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>17</v>
       </c>
       <c r="F31" s="6" t="n">
+        <v>23</v>
+      </c>
+      <c r="G31" s="6" t="n">
         <v>13</v>
-      </c>
-      <c r="G31" s="6" t="n">
-        <v>12</v>
       </c>
     </row>
     <row r="32">
@@ -1222,22 +1222,22 @@
         <v>69</v>
       </c>
       <c r="B32" s="5" t="n">
-        <v>22.1478199485095</v>
+        <v>22.1043851253964</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>24.3782972358799</v>
+        <v>24.3407271622155</v>
       </c>
       <c r="D32" s="5" t="n">
-        <v>23.7260665705423</v>
+        <v>23.7864791533528</v>
       </c>
       <c r="E32" s="6" t="n">
         <v>16</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33">
@@ -1245,22 +1245,22 @@
         <v>70</v>
       </c>
       <c r="B33" s="5" t="n">
-        <v>22.2005977863558</v>
+        <v>22.1389127617214</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>24.3577601158706</v>
+        <v>24.5519126916811</v>
       </c>
       <c r="D33" s="5" t="n">
-        <v>23.8223151065897</v>
+        <v>23.8141830924704</v>
       </c>
       <c r="E33" s="6" t="n">
         <v>15</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34">
@@ -1268,22 +1268,22 @@
         <v>71</v>
       </c>
       <c r="B34" s="5" t="n">
-        <v>22.2353301982131</v>
+        <v>22.2482993398735</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>24.4853824300043</v>
+        <v>24.3348302028204</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>23.8581995192747</v>
+        <v>24.3403706632177</v>
       </c>
       <c r="E34" s="6" t="n">
         <v>14</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35">
@@ -1291,22 +1291,22 @@
         <v>72</v>
       </c>
       <c r="B35" s="5" t="n">
-        <v>22.4232481047332</v>
+        <v>22.2906184980779</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>24.6861504430739</v>
+        <v>24.4866444606217</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>23.831365355797</v>
+        <v>23.8874337025174</v>
       </c>
       <c r="E35" s="6" t="n">
         <v>13</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36">
@@ -1314,13 +1314,13 @@
         <v>73</v>
       </c>
       <c r="B36" s="5" t="n">
-        <v>22.4473739621224</v>
+        <v>22.3988618320032</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>25.002094227945</v>
+        <v>24.9080174170731</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>24.248747175244</v>
+        <v>23.9045879966927</v>
       </c>
       <c r="E36" s="6" t="n">
         <v>12</v>
@@ -1329,7 +1329,7 @@
         <v>6</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37">
@@ -1337,19 +1337,19 @@
         <v>74</v>
       </c>
       <c r="B37" s="5" t="n">
-        <v>22.455764747705</v>
+        <v>22.4123159521399</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>24.1436779736202</v>
+        <v>24.7000716042633</v>
       </c>
       <c r="D37" s="5" t="n">
-        <v>24.1768148569893</v>
+        <v>24.0686795363318</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>11</v>
       </c>
       <c r="F37" s="6" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>8</v>
@@ -1360,22 +1360,22 @@
         <v>75</v>
       </c>
       <c r="B38" s="5" t="n">
-        <v>22.5053295644088</v>
+        <v>22.4260896521473</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>24.7252889822448</v>
+        <v>24.6048085819009</v>
       </c>
       <c r="D38" s="5" t="n">
-        <v>24.074555831813</v>
+        <v>23.4870503102181</v>
       </c>
       <c r="E38" s="6" t="n">
         <v>10</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39">
@@ -1383,22 +1383,22 @@
         <v>76</v>
       </c>
       <c r="B39" s="5" t="n">
-        <v>22.6342163811825</v>
+        <v>22.4550508301371</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>25.0074895869302</v>
+        <v>25.1300222476703</v>
       </c>
       <c r="D39" s="5" t="n">
-        <v>23.960614477928</v>
+        <v>24.0637074142733</v>
       </c>
       <c r="E39" s="6" t="n">
         <v>9</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40">
@@ -1406,22 +1406,22 @@
         <v>77</v>
       </c>
       <c r="B40" s="5" t="n">
-        <v>22.7448949740145</v>
+        <v>22.5247889685592</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>25.0568226614453</v>
+        <v>24.7809586750966</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>23.6723501444157</v>
+        <v>24.2094565267076</v>
       </c>
       <c r="E40" s="6" t="n">
         <v>8</v>
       </c>
       <c r="F40" s="6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41">
@@ -1429,22 +1429,22 @@
         <v>78</v>
       </c>
       <c r="B41" s="5" t="n">
-        <v>22.9006538217346</v>
+        <v>22.5555841124781</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>24.715059688827</v>
+        <v>24.942298815086</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>24.4963672093475</v>
+        <v>23.631554799177</v>
       </c>
       <c r="E41" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F41" s="6" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42">
@@ -1452,22 +1452,22 @@
         <v>79</v>
       </c>
       <c r="B42" s="5" t="n">
-        <v>22.9697559819772</v>
+        <v>22.9436062915215</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>25.2001180528826</v>
+        <v>24.751984133612</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>24.4165422399709</v>
+        <v>24.50808988894</v>
       </c>
       <c r="E42" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F42" s="6" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
@@ -1475,22 +1475,22 @@
         <v>80</v>
       </c>
       <c r="B43" s="5" t="n">
-        <v>22.9932043537995</v>
+        <v>22.9511383588933</v>
       </c>
       <c r="C43" s="5" t="n">
-        <v>24.4395591449749</v>
+        <v>24.3937732077881</v>
       </c>
       <c r="D43" s="5" t="n">
-        <v>24.3963358481319</v>
+        <v>24.3802423114755</v>
       </c>
       <c r="E43" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F43" s="6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G43" s="6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44">
@@ -1498,22 +1498,22 @@
         <v>81</v>
       </c>
       <c r="B44" s="5" t="n">
-        <v>22.9960149425394</v>
+        <v>23.0821277132691</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>25.1772140478224</v>
+        <v>25.1501821609429</v>
       </c>
       <c r="D44" s="5" t="n">
-        <v>24.4599549824427</v>
+        <v>24.6944352087883</v>
       </c>
       <c r="E44" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
@@ -1521,22 +1521,22 @@
         <v>82</v>
       </c>
       <c r="B45" s="5" t="n">
-        <v>23.3644441113156</v>
+        <v>23.3829630617921</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>24.9114163896252</v>
+        <v>25.5132748209786</v>
       </c>
       <c r="D45" s="5" t="n">
-        <v>24.7621703535855</v>
+        <v>23.9669703561282</v>
       </c>
       <c r="E45" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46">
@@ -1544,22 +1544,22 @@
         <v>83</v>
       </c>
       <c r="B46" s="5" t="n">
-        <v>23.5153971452849</v>
+        <v>23.4458039787545</v>
       </c>
       <c r="C46" s="5" t="n">
-        <v>24.798767516174</v>
+        <v>25.0253731220893</v>
       </c>
       <c r="D46" s="5" t="n">
-        <v>24.631093618908</v>
+        <v>24.9077114753255</v>
       </c>
       <c r="E46" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F46" s="6" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G46" s="6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1567,22 +1567,22 @@
         <v>84</v>
       </c>
       <c r="B47" s="5" t="n">
-        <v>23.5961144859797</v>
+        <v>23.4868496547245</v>
       </c>
       <c r="C47" s="5" t="n">
-        <v>25.6999353540282</v>
+        <v>24.7789279882531</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>24.1107223328748</v>
+        <v>24.6384293612254</v>
       </c>
       <c r="E47" s="6" t="n">
         <v>1</v>
       </c>
       <c r="F47" s="6" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G47" s="6" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/TabuladosGasolina.xlsx
+++ b/TabuladosGasolina.xlsx
@@ -159,13 +159,13 @@
     <t xml:space="preserve">CRE, pesos por litro</t>
   </si>
   <si>
-    <t xml:space="preserve">mayo 2023</t>
+    <t xml:space="preserve">junio 2023</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima actualización: julio 2023</t>
+    <t xml:space="preserve">Próxima actualización: agosto 2023</t>
   </si>
   <si>
     <t xml:space="preserve">FUENTE: CRE; Comisión Reguladora de Energía</t>
@@ -201,67 +201,67 @@
     <t xml:space="preserve">Veracruz</t>
   </si>
   <si>
+    <t xml:space="preserve">Guanajuato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morelos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">México</t>
+  </si>
+  <si>
     <t xml:space="preserve">Aguascalientes</t>
   </si>
   <si>
-    <t xml:space="preserve">Morelos</t>
+    <t xml:space="preserve">Nacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiapas</t>
   </si>
   <si>
     <t xml:space="preserve">Sonora</t>
   </si>
   <si>
-    <t xml:space="preserve">Guanajuato</t>
-  </si>
-  <si>
-    <t xml:space="preserve">México</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nacional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chiapas</t>
-  </si>
-  <si>
     <t xml:space="preserve">Zacatecas</t>
   </si>
   <si>
     <t xml:space="preserve">Colima</t>
   </si>
   <si>
+    <t xml:space="preserve">Sinaloa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nayarit</t>
+  </si>
+  <si>
     <t xml:space="preserve">Yucatán</t>
   </si>
   <si>
     <t xml:space="preserve">San Luis Potosí</t>
   </si>
   <si>
+    <t xml:space="preserve">Durango</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jalisco</t>
   </si>
   <si>
-    <t xml:space="preserve">Nayarit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sinaloa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Durango</t>
+    <t xml:space="preserve">Ciudad de México</t>
   </si>
   <si>
     <t xml:space="preserve">Michoacán</t>
   </si>
   <si>
-    <t xml:space="preserve">Ciudad de México</t>
-  </si>
-  <si>
     <t xml:space="preserve">Oaxaca</t>
   </si>
   <si>
     <t xml:space="preserve">Campeche</t>
   </si>
   <si>
+    <t xml:space="preserve">Nuevo León</t>
+  </si>
+  <si>
     <t xml:space="preserve">Baja California Sur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nuevo León</t>
   </si>
   <si>
     <t xml:space="preserve">Guerrero</t>
@@ -831,13 +831,13 @@
         <v>52</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>19.5565634305269</v>
+        <v>19.6719971151672</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>22.0572664844228</v>
+        <v>22.1519070177449</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>22.9787831985553</v>
+        <v>23.1307929681999</v>
       </c>
       <c r="E15" s="6" t="n">
         <v>33</v>
@@ -854,13 +854,13 @@
         <v>53</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>20.5685113500284</v>
+        <v>20.6859632640185</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>22.6755003512376</v>
+        <v>22.7151983048285</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>22.9187252235138</v>
+        <v>22.9335472531411</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>32</v>
@@ -877,22 +877,22 @@
         <v>54</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>21.075434963469</v>
+        <v>21.1498023871176</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>24.1339963664502</v>
+        <v>24.2570951400743</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>23.7975984360889</v>
+        <v>23.8063768293613</v>
       </c>
       <c r="E17" s="6" t="n">
         <v>31</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18">
@@ -900,13 +900,13 @@
         <v>55</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>21.1567424610528</v>
+        <v>21.2615104325339</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>23.8218561661471</v>
+        <v>23.8393966070086</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>22.811855524778</v>
+        <v>22.8239647509666</v>
       </c>
       <c r="E18" s="6" t="n">
         <v>30</v>
@@ -923,13 +923,13 @@
         <v>56</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>21.2530940572488</v>
+        <v>21.3310733596392</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>23.4423650103242</v>
+        <v>23.4977965913473</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>23.1031753281587</v>
+        <v>23.2060025258981</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>29</v>
@@ -946,13 +946,13 @@
         <v>57</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>21.5158213942449</v>
+        <v>21.5474745749094</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>23.7561553372598</v>
+        <v>23.8334505976258</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>23.2492392995461</v>
+        <v>23.3098573809386</v>
       </c>
       <c r="E20" s="6" t="n">
         <v>28</v>
@@ -961,7 +961,7 @@
         <v>28</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21">
@@ -969,13 +969,13 @@
         <v>58</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>21.5557644535883</v>
+        <v>21.6092838419172</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>23.8340274682115</v>
+        <v>23.8838705631076</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>23.2768255397185</v>
+        <v>23.3834721217771</v>
       </c>
       <c r="E21" s="6" t="n">
         <v>27</v>
@@ -984,7 +984,7 @@
         <v>26</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22">
@@ -992,22 +992,22 @@
         <v>59</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>21.6155343186414</v>
+        <v>21.6534158137528</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>23.9381717595073</v>
+        <v>23.9713256509819</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>23.2162236386283</v>
+        <v>23.3254002589223</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>26</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23">
@@ -1015,22 +1015,22 @@
         <v>60</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>21.6489683383275</v>
+        <v>21.7025102955549</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>23.6760886317588</v>
+        <v>23.6353280734307</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>23.5624325963591</v>
+        <v>23.6275594345267</v>
       </c>
       <c r="E23" s="6" t="n">
         <v>25</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24">
@@ -1038,22 +1038,22 @@
         <v>61</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>21.6762317088473</v>
+        <v>21.8345743342481</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>23.6493473703316</v>
+        <v>23.7727653325245</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>23.5169312637771</v>
+        <v>23.6888395222272</v>
       </c>
       <c r="E24" s="6" t="n">
         <v>24</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25">
@@ -1061,22 +1061,22 @@
         <v>62</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>21.7675349924656</v>
+        <v>21.8794208451028</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>24.2371519134878</v>
+        <v>24.3013680815879</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>23.6313192138772</v>
+        <v>23.7837869479412</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>23</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26">
@@ -1084,19 +1084,19 @@
         <v>63</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>21.8119195909311</v>
+        <v>21.9016428751852</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>23.8680072373236</v>
+        <v>23.9450954874001</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>23.4530381305853</v>
+        <v>23.5007488166972</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>22</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>25</v>
@@ -1107,22 +1107,22 @@
         <v>64</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>21.8370568961781</v>
+        <v>21.9319468117224</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>24.4372753216484</v>
+        <v>24.2266853564942</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>24.0151357462931</v>
+        <v>23.3668439209785</v>
       </c>
       <c r="E27" s="6" t="n">
         <v>21</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28">
@@ -1130,22 +1130,22 @@
         <v>65</v>
       </c>
       <c r="B28" s="5" t="n">
-        <v>21.9159651773448</v>
+        <v>21.9762018585499</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>24.2858890087415</v>
+        <v>24.2854411211883</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>23.7821516036783</v>
+        <v>23.6452399475586</v>
       </c>
       <c r="E28" s="6" t="n">
         <v>20</v>
       </c>
       <c r="F28" s="6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29">
@@ -1153,22 +1153,22 @@
         <v>66</v>
       </c>
       <c r="B29" s="5" t="n">
-        <v>21.9304149031201</v>
+        <v>21.9937046845335</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>24.2516617362907</v>
+        <v>24.2699494417669</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>23.332021794019</v>
+        <v>23.7652865335101</v>
       </c>
       <c r="E29" s="6" t="n">
         <v>19</v>
       </c>
       <c r="F29" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="G29" s="6" t="n">
         <v>19</v>
-      </c>
-      <c r="G29" s="6" t="n">
-        <v>26</v>
       </c>
     </row>
     <row r="30">
@@ -1176,22 +1176,22 @@
         <v>67</v>
       </c>
       <c r="B30" s="5" t="n">
-        <v>21.943020734659</v>
+        <v>22.0063502599521</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>24.2317007551177</v>
+        <v>23.9026991374911</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>23.6926315515526</v>
+        <v>23.9182492490779</v>
       </c>
       <c r="E30" s="6" t="n">
         <v>18</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31">
@@ -1199,22 +1199,22 @@
         <v>68</v>
       </c>
       <c r="B31" s="5" t="n">
-        <v>21.9646125600877</v>
+        <v>22.0472096438544</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>23.9580892499319</v>
+        <v>24.7139624451514</v>
       </c>
       <c r="D31" s="5" t="n">
-        <v>23.8894565928236</v>
+        <v>24.1041084298458</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>17</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32">
@@ -1222,22 +1222,22 @@
         <v>69</v>
       </c>
       <c r="B32" s="5" t="n">
-        <v>22.1043851253964</v>
+        <v>22.2006929872004</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>24.3407271622155</v>
+        <v>24.3540866112517</v>
       </c>
       <c r="D32" s="5" t="n">
-        <v>23.7864791533528</v>
+        <v>23.8781619251685</v>
       </c>
       <c r="E32" s="6" t="n">
         <v>16</v>
       </c>
       <c r="F32" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="G32" s="6" t="n">
         <v>16</v>
-      </c>
-      <c r="G32" s="6" t="n">
-        <v>17</v>
       </c>
     </row>
     <row r="33">
@@ -1245,13 +1245,13 @@
         <v>70</v>
       </c>
       <c r="B33" s="5" t="n">
-        <v>22.1389127617214</v>
+        <v>22.2569298415824</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>24.5519126916811</v>
+        <v>24.6817476458772</v>
       </c>
       <c r="D33" s="5" t="n">
-        <v>23.8141830924704</v>
+        <v>23.9357551781842</v>
       </c>
       <c r="E33" s="6" t="n">
         <v>15</v>
@@ -1260,7 +1260,7 @@
         <v>12</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34">
@@ -1268,22 +1268,22 @@
         <v>71</v>
       </c>
       <c r="B34" s="5" t="n">
-        <v>22.2482993398735</v>
+        <v>22.2828736346582</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>24.3348302028204</v>
+        <v>24.642120336435</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>24.3403706632177</v>
+        <v>23.6687713142447</v>
       </c>
       <c r="E34" s="6" t="n">
         <v>14</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35">
@@ -1291,22 +1291,22 @@
         <v>72</v>
       </c>
       <c r="B35" s="5" t="n">
-        <v>22.2906184980779</v>
+        <v>22.3308295782347</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>24.4866444606217</v>
+        <v>24.6826748086601</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>23.8874337025174</v>
+        <v>24.1067223112212</v>
       </c>
       <c r="E35" s="6" t="n">
         <v>13</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36">
@@ -1314,22 +1314,22 @@
         <v>73</v>
       </c>
       <c r="B36" s="5" t="n">
-        <v>22.3988618320032</v>
+        <v>22.3629354415755</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>24.9080174170731</v>
+        <v>24.4591493836515</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>23.9045879966927</v>
+        <v>24.323285273271</v>
       </c>
       <c r="E36" s="6" t="n">
         <v>12</v>
       </c>
       <c r="F36" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="G36" s="6" t="n">
         <v>6</v>
-      </c>
-      <c r="G36" s="6" t="n">
-        <v>12</v>
       </c>
     </row>
     <row r="37">
@@ -1337,22 +1337,22 @@
         <v>74</v>
       </c>
       <c r="B37" s="5" t="n">
-        <v>22.4123159521399</v>
+        <v>22.3671293662943</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>24.7000716042633</v>
+        <v>24.5141640500127</v>
       </c>
       <c r="D37" s="5" t="n">
-        <v>24.0686795363318</v>
+        <v>23.9981176203216</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>11</v>
       </c>
       <c r="F37" s="6" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38">
@@ -1360,22 +1360,22 @@
         <v>75</v>
       </c>
       <c r="B38" s="5" t="n">
-        <v>22.4260896521473</v>
+        <v>22.4026693675683</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>24.6048085819009</v>
+        <v>25.1266252926298</v>
       </c>
       <c r="D38" s="5" t="n">
-        <v>23.4870503102181</v>
+        <v>24.0958054940267</v>
       </c>
       <c r="E38" s="6" t="n">
         <v>10</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39">
@@ -1383,22 +1383,22 @@
         <v>76</v>
       </c>
       <c r="B39" s="5" t="n">
-        <v>22.4550508301371</v>
+        <v>22.450709315965</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>25.1300222476703</v>
+        <v>24.9735621141066</v>
       </c>
       <c r="D39" s="5" t="n">
-        <v>24.0637074142733</v>
+        <v>23.9381075210145</v>
       </c>
       <c r="E39" s="6" t="n">
         <v>9</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40">
@@ -1406,22 +1406,22 @@
         <v>77</v>
       </c>
       <c r="B40" s="5" t="n">
-        <v>22.5247889685592</v>
+        <v>22.5595256833912</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>24.7809586750966</v>
+        <v>24.9232660974222</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>24.2094565267076</v>
+        <v>23.634719290064</v>
       </c>
       <c r="E40" s="6" t="n">
         <v>8</v>
       </c>
       <c r="F40" s="6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41">
@@ -1429,22 +1429,22 @@
         <v>78</v>
       </c>
       <c r="B41" s="5" t="n">
-        <v>22.5555841124781</v>
+        <v>22.5703862463283</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>24.942298815086</v>
+        <v>24.8564309283021</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>23.631554799177</v>
+        <v>24.3064565639792</v>
       </c>
       <c r="E41" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F41" s="6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42">
@@ -1452,13 +1452,13 @@
         <v>79</v>
       </c>
       <c r="B42" s="5" t="n">
-        <v>22.9436062915215</v>
+        <v>22.9341379639071</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>24.751984133612</v>
+        <v>24.7506627983371</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>24.50808988894</v>
+        <v>24.5261956007364</v>
       </c>
       <c r="E42" s="6" t="n">
         <v>6</v>
@@ -1475,19 +1475,19 @@
         <v>80</v>
       </c>
       <c r="B43" s="5" t="n">
-        <v>22.9511383588933</v>
+        <v>22.9609936577523</v>
       </c>
       <c r="C43" s="5" t="n">
-        <v>24.3937732077881</v>
+        <v>24.4324375420995</v>
       </c>
       <c r="D43" s="5" t="n">
-        <v>24.3802423114755</v>
+        <v>24.4243998958223</v>
       </c>
       <c r="E43" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F43" s="6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>5</v>
@@ -1498,22 +1498,22 @@
         <v>81</v>
       </c>
       <c r="B44" s="5" t="n">
-        <v>23.0821277132691</v>
+        <v>23.1921947215218</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>25.1501821609429</v>
+        <v>25.352005101009</v>
       </c>
       <c r="D44" s="5" t="n">
-        <v>24.6944352087883</v>
+        <v>24.0035839407566</v>
       </c>
       <c r="E44" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45">
@@ -1521,22 +1521,22 @@
         <v>82</v>
       </c>
       <c r="B45" s="5" t="n">
-        <v>23.3829630617921</v>
+        <v>23.303332637359</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>25.5132748209786</v>
+        <v>25.3160209799682</v>
       </c>
       <c r="D45" s="5" t="n">
-        <v>23.9669703561282</v>
+        <v>24.6824360162324</v>
       </c>
       <c r="E45" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -1544,13 +1544,13 @@
         <v>83</v>
       </c>
       <c r="B46" s="5" t="n">
-        <v>23.4458039787545</v>
+        <v>23.3819284588242</v>
       </c>
       <c r="C46" s="5" t="n">
-        <v>25.0253731220893</v>
+        <v>24.9981747288687</v>
       </c>
       <c r="D46" s="5" t="n">
-        <v>24.9077114753255</v>
+        <v>24.9099237757104</v>
       </c>
       <c r="E46" s="6" t="n">
         <v>2</v>
@@ -1567,13 +1567,13 @@
         <v>84</v>
       </c>
       <c r="B47" s="5" t="n">
-        <v>23.4868496547245</v>
+        <v>23.573813811662</v>
       </c>
       <c r="C47" s="5" t="n">
-        <v>24.7789279882531</v>
+        <v>24.8272946917308</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>24.6384293612254</v>
+        <v>24.583853138013</v>
       </c>
       <c r="E47" s="6" t="n">
         <v>1</v>

--- a/TabuladosGasolina.xlsx
+++ b/TabuladosGasolina.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
@@ -9,6 +9,11 @@
     <sheet name="Estatal" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -159,13 +164,13 @@
     <t xml:space="preserve">CRE, pesos por litro</t>
   </si>
   <si>
-    <t xml:space="preserve">junio 2023</t>
+    <t xml:space="preserve">julio 2023</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima actualización: agosto 2023</t>
+    <t xml:space="preserve">Próxima actualización: septiembre 2023</t>
   </si>
   <si>
     <t xml:space="preserve">FUENTE: CRE; Comisión Reguladora de Energía</t>
@@ -177,12 +182,12 @@
     <t xml:space="preserve">Chihuahua</t>
   </si>
   <si>
+    <t xml:space="preserve">Baja California</t>
+  </si>
+  <si>
     <t xml:space="preserve">Coahuila</t>
   </si>
   <si>
-    <t xml:space="preserve">Baja California</t>
-  </si>
-  <si>
     <t xml:space="preserve">Querétaro</t>
   </si>
   <si>
@@ -201,70 +206,70 @@
     <t xml:space="preserve">Veracruz</t>
   </si>
   <si>
+    <t xml:space="preserve">Morelos</t>
+  </si>
+  <si>
     <t xml:space="preserve">Guanajuato</t>
   </si>
   <si>
-    <t xml:space="preserve">Morelos</t>
-  </si>
-  <si>
     <t xml:space="preserve">México</t>
   </si>
   <si>
+    <t xml:space="preserve">Chiapas</t>
+  </si>
+  <si>
     <t xml:space="preserve">Aguascalientes</t>
   </si>
   <si>
     <t xml:space="preserve">Nacional</t>
   </si>
   <si>
-    <t xml:space="preserve">Chiapas</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sonora</t>
   </si>
   <si>
     <t xml:space="preserve">Zacatecas</t>
   </si>
   <si>
+    <t xml:space="preserve">San Luis Potosí</t>
+  </si>
+  <si>
     <t xml:space="preserve">Colima</t>
   </si>
   <si>
     <t xml:space="preserve">Sinaloa</t>
   </si>
   <si>
+    <t xml:space="preserve">Yucatán</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durango</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ciudad de México</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jalisco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michoacán</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nayarit</t>
   </si>
   <si>
-    <t xml:space="preserve">Yucatán</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Luis Potosí</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Durango</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jalisco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ciudad de México</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michoacán</t>
+    <t xml:space="preserve">Campeche</t>
   </si>
   <si>
     <t xml:space="preserve">Oaxaca</t>
   </si>
   <si>
-    <t xml:space="preserve">Campeche</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nuevo León</t>
   </si>
   <si>
+    <t xml:space="preserve">Guerrero</t>
+  </si>
+  <si>
     <t xml:space="preserve">Baja California Sur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guerrero</t>
   </si>
   <si>
     <t xml:space="preserve">Quintana Roo</t>
@@ -275,7 +280,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -289,12 +294,14 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <b/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b/>
     </font>
     <font>
       <sz val="11"/>
@@ -307,6 +314,20 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <b/>
     </font>
   </fonts>
   <fills count="4">
@@ -368,17 +389,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -831,13 +863,13 @@
         <v>52</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>19.6719971151672</v>
+        <v>19.3135260896544</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>22.1519070177449</v>
+        <v>21.8274727875209</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>23.1307929681999</v>
+        <v>23.0968268971747</v>
       </c>
       <c r="E15" s="6" t="n">
         <v>33</v>
@@ -854,13 +886,13 @@
         <v>53</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>20.6859632640185</v>
+        <v>20.7045462809887</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>22.7151983048285</v>
+        <v>22.6790580836442</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>22.9335472531411</v>
+        <v>22.9787590755319</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>32</v>
@@ -877,22 +909,22 @@
         <v>54</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>21.1498023871176</v>
+        <v>21.3686986780271</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>24.2570951400743</v>
+        <v>23.8805117396928</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>23.8063768293613</v>
+        <v>22.8623483439542</v>
       </c>
       <c r="E17" s="6" t="n">
         <v>31</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18">
@@ -900,22 +932,22 @@
         <v>55</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>21.2615104325339</v>
+        <v>21.4979761783936</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>23.8393966070086</v>
+        <v>24.470433789487</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>22.8239647509666</v>
+        <v>23.9193709566079</v>
       </c>
       <c r="E18" s="6" t="n">
         <v>30</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19">
@@ -923,13 +955,13 @@
         <v>56</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>21.3310733596392</v>
+        <v>21.5097249721771</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>23.4977965913473</v>
+        <v>23.5551166967415</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>23.2060025258981</v>
+        <v>23.3111421719671</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>29</v>
@@ -946,22 +978,22 @@
         <v>57</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>21.5474745749094</v>
+        <v>21.6975946984349</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>23.8334505976258</v>
+        <v>23.848204397264</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>23.3098573809386</v>
+        <v>23.3973400278661</v>
       </c>
       <c r="E20" s="6" t="n">
         <v>28</v>
       </c>
       <c r="F20" s="6" t="n">
+        <v>29</v>
+      </c>
+      <c r="G20" s="6" t="n">
         <v>28</v>
-      </c>
-      <c r="G20" s="6" t="n">
-        <v>29</v>
       </c>
     </row>
     <row r="21">
@@ -969,13 +1001,13 @@
         <v>58</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>21.6092838419172</v>
+        <v>21.7341024336454</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>23.8838705631076</v>
+        <v>23.9329619137142</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>23.3834721217771</v>
+        <v>23.4319359996548</v>
       </c>
       <c r="E21" s="6" t="n">
         <v>27</v>
@@ -992,13 +1024,13 @@
         <v>59</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>21.6534158137528</v>
+        <v>21.7607498378202</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>23.9713256509819</v>
+        <v>23.9956637649287</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>23.3254002589223</v>
+        <v>23.3493264385132</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>26</v>
@@ -1007,7 +1039,7 @@
         <v>23</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23">
@@ -1015,13 +1047,13 @@
         <v>60</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>21.7025102955549</v>
+        <v>21.8096721249001</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>23.6353280734307</v>
+        <v>23.8118194776583</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>23.6275594345267</v>
+        <v>23.7629064055985</v>
       </c>
       <c r="E23" s="6" t="n">
         <v>25</v>
@@ -1030,7 +1062,7 @@
         <v>30</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24">
@@ -1038,19 +1070,19 @@
         <v>61</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>21.8345743342481</v>
+        <v>21.953979012963</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>23.7727653325245</v>
+        <v>23.8884681237031</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>23.6888395222272</v>
+        <v>23.7819413144668</v>
       </c>
       <c r="E24" s="6" t="n">
         <v>24</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>20</v>
@@ -1061,22 +1093,22 @@
         <v>62</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>21.8794208451028</v>
+        <v>21.9731578034918</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>24.3013680815879</v>
+        <v>23.9381809332312</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>23.7837869479412</v>
+        <v>23.6044975308405</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>23</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26">
@@ -1084,22 +1116,22 @@
         <v>63</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>21.9016428751852</v>
+        <v>21.9800325317262</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>23.9450954874001</v>
+        <v>24.3547339382344</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>23.5007488166972</v>
+        <v>23.8369809734641</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>22</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27">
@@ -1107,13 +1139,13 @@
         <v>64</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>21.9319468117224</v>
+        <v>22.0028098389829</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>24.2266853564942</v>
+        <v>24.2074474788448</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>23.3668439209785</v>
+        <v>23.4235817936343</v>
       </c>
       <c r="E27" s="6" t="n">
         <v>21</v>
@@ -1130,22 +1162,22 @@
         <v>65</v>
       </c>
       <c r="B28" s="5" t="n">
-        <v>21.9762018585499</v>
+        <v>22.0114879517254</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>24.2854411211883</v>
+        <v>23.9513104879478</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>23.6452399475586</v>
+        <v>23.8614125734231</v>
       </c>
       <c r="E28" s="6" t="n">
         <v>20</v>
       </c>
       <c r="F28" s="6" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29">
@@ -1153,22 +1185,22 @@
         <v>66</v>
       </c>
       <c r="B29" s="5" t="n">
-        <v>21.9937046845335</v>
+        <v>22.0503561626761</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>24.2699494417669</v>
+        <v>24.3035339029044</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>23.7652865335101</v>
+        <v>23.6966816908207</v>
       </c>
       <c r="E29" s="6" t="n">
         <v>19</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30">
@@ -1176,22 +1208,22 @@
         <v>67</v>
       </c>
       <c r="B30" s="5" t="n">
-        <v>22.0063502599521</v>
+        <v>22.0854554598486</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>23.9026991374911</v>
+        <v>24.3318139821702</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>23.9182492490779</v>
+        <v>23.821519122816</v>
       </c>
       <c r="E30" s="6" t="n">
         <v>18</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31">
@@ -1199,22 +1231,22 @@
         <v>68</v>
       </c>
       <c r="B31" s="5" t="n">
-        <v>22.0472096438544</v>
+        <v>22.1798507196013</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>24.7139624451514</v>
+        <v>25.2940624309085</v>
       </c>
       <c r="D31" s="5" t="n">
-        <v>24.1041084298458</v>
+        <v>24.1746357694946</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>17</v>
       </c>
       <c r="F31" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G31" s="6" t="n">
         <v>10</v>
-      </c>
-      <c r="G31" s="6" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="32">
@@ -1222,22 +1254,22 @@
         <v>69</v>
       </c>
       <c r="B32" s="5" t="n">
-        <v>22.2006929872004</v>
+        <v>22.3543645657263</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>24.3540866112517</v>
+        <v>24.4015332953363</v>
       </c>
       <c r="D32" s="5" t="n">
-        <v>23.8781619251685</v>
+        <v>24.0025682328992</v>
       </c>
       <c r="E32" s="6" t="n">
         <v>16</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33">
@@ -1245,22 +1277,22 @@
         <v>70</v>
       </c>
       <c r="B33" s="5" t="n">
-        <v>22.2569298415824</v>
+        <v>22.3546332619811</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>24.6817476458772</v>
+        <v>24.5340851481629</v>
       </c>
       <c r="D33" s="5" t="n">
-        <v>23.9357551781842</v>
+        <v>23.9781372312538</v>
       </c>
       <c r="E33" s="6" t="n">
         <v>15</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34">
@@ -1268,13 +1300,13 @@
         <v>71</v>
       </c>
       <c r="B34" s="5" t="n">
-        <v>22.2828736346582</v>
+        <v>22.4088562897506</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>24.642120336435</v>
+        <v>24.6893590707406</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>23.6687713142447</v>
+        <v>23.9873403435754</v>
       </c>
       <c r="E34" s="6" t="n">
         <v>14</v>
@@ -1283,7 +1315,7 @@
         <v>13</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35">
@@ -1291,22 +1323,22 @@
         <v>72</v>
       </c>
       <c r="B35" s="5" t="n">
-        <v>22.3308295782347</v>
+        <v>22.486901968925</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>24.6826748086601</v>
+        <v>24.8113430476804</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>24.1067223112212</v>
+        <v>23.7567401260895</v>
       </c>
       <c r="E35" s="6" t="n">
         <v>13</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36">
@@ -1314,22 +1346,22 @@
         <v>73</v>
       </c>
       <c r="B36" s="5" t="n">
-        <v>22.3629354415755</v>
+        <v>22.5381370948967</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>24.4591493836515</v>
+        <v>24.4727629022213</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>24.323285273271</v>
+        <v>24.3624973551655</v>
       </c>
       <c r="E36" s="6" t="n">
         <v>12</v>
       </c>
       <c r="F36" s="6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37">
@@ -1337,22 +1369,22 @@
         <v>74</v>
       </c>
       <c r="B37" s="5" t="n">
-        <v>22.3671293662943</v>
+        <v>22.5436426897197</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>24.5141640500127</v>
+        <v>25.2801707131972</v>
       </c>
       <c r="D37" s="5" t="n">
-        <v>23.9981176203216</v>
+        <v>24.1846687504258</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>11</v>
       </c>
       <c r="F37" s="6" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38">
@@ -1360,22 +1392,22 @@
         <v>75</v>
       </c>
       <c r="B38" s="5" t="n">
-        <v>22.4026693675683</v>
+        <v>22.5623144506019</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>25.1266252926298</v>
+        <v>24.812993338302</v>
       </c>
       <c r="D38" s="5" t="n">
-        <v>24.0958054940267</v>
+        <v>23.6790996486431</v>
       </c>
       <c r="E38" s="6" t="n">
         <v>10</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39">
@@ -1383,22 +1415,22 @@
         <v>76</v>
       </c>
       <c r="B39" s="5" t="n">
-        <v>22.450709315965</v>
+        <v>22.6446760102667</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>24.9735621141066</v>
+        <v>24.9921329446465</v>
       </c>
       <c r="D39" s="5" t="n">
-        <v>23.9381075210145</v>
+        <v>24.0793629447375</v>
       </c>
       <c r="E39" s="6" t="n">
         <v>9</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40">
@@ -1406,22 +1438,22 @@
         <v>77</v>
       </c>
       <c r="B40" s="5" t="n">
-        <v>22.5595256833912</v>
+        <v>22.7412144912275</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>24.9232660974222</v>
+        <v>24.8418350451635</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>23.634719290064</v>
+        <v>24.3767565761326</v>
       </c>
       <c r="E40" s="6" t="n">
         <v>8</v>
       </c>
       <c r="F40" s="6" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41">
@@ -1429,22 +1461,22 @@
         <v>78</v>
       </c>
       <c r="B41" s="5" t="n">
-        <v>22.5703862463283</v>
+        <v>22.7929319558726</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>24.8564309283021</v>
+        <v>25.1838703854053</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>24.3064565639792</v>
+        <v>24.5035145830985</v>
       </c>
       <c r="E41" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F41" s="6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42">
@@ -1452,22 +1484,22 @@
         <v>79</v>
       </c>
       <c r="B42" s="5" t="n">
-        <v>22.9341379639071</v>
+        <v>22.9621972270998</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>24.7506627983371</v>
+        <v>24.4987158610743</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>24.5261956007364</v>
+        <v>24.4743755344114</v>
       </c>
       <c r="E42" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F42" s="6" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43">
@@ -1475,22 +1507,22 @@
         <v>80</v>
       </c>
       <c r="B43" s="5" t="n">
-        <v>22.9609936577523</v>
+        <v>22.987930394331</v>
       </c>
       <c r="C43" s="5" t="n">
-        <v>24.4324375420995</v>
+        <v>24.8465296471559</v>
       </c>
       <c r="D43" s="5" t="n">
-        <v>24.4243998958223</v>
+        <v>24.6710303540352</v>
       </c>
       <c r="E43" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F43" s="6" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G43" s="6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
@@ -1498,13 +1530,13 @@
         <v>81</v>
       </c>
       <c r="B44" s="5" t="n">
-        <v>23.1921947215218</v>
+        <v>23.3356038525496</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>25.352005101009</v>
+        <v>25.4768296988547</v>
       </c>
       <c r="D44" s="5" t="n">
-        <v>24.0035839407566</v>
+        <v>24.1207511198231</v>
       </c>
       <c r="E44" s="6" t="n">
         <v>4</v>
@@ -1521,22 +1553,22 @@
         <v>82</v>
       </c>
       <c r="B45" s="5" t="n">
-        <v>23.303332637359</v>
+        <v>23.3647421103717</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>25.3160209799682</v>
+        <v>25.0166644023602</v>
       </c>
       <c r="D45" s="5" t="n">
-        <v>24.6824360162324</v>
+        <v>24.8967878435633</v>
       </c>
       <c r="E45" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1544,22 +1576,22 @@
         <v>83</v>
       </c>
       <c r="B46" s="5" t="n">
-        <v>23.3819284588242</v>
+        <v>23.4537650885714</v>
       </c>
       <c r="C46" s="5" t="n">
-        <v>24.9981747288687</v>
+        <v>25.4729060047875</v>
       </c>
       <c r="D46" s="5" t="n">
-        <v>24.9099237757104</v>
+        <v>24.8700094100514</v>
       </c>
       <c r="E46" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F46" s="6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G46" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
@@ -1567,13 +1599,13 @@
         <v>84</v>
       </c>
       <c r="B47" s="5" t="n">
-        <v>23.573813811662</v>
+        <v>23.6010526433327</v>
       </c>
       <c r="C47" s="5" t="n">
-        <v>24.8272946917308</v>
+        <v>24.8825444720927</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>24.583853138013</v>
+        <v>24.6810123655107</v>
       </c>
       <c r="E47" s="6" t="n">
         <v>1</v>

--- a/TabuladosGasolina.xlsx
+++ b/TabuladosGasolina.xlsx
@@ -164,13 +164,13 @@
     <t xml:space="preserve">CRE, pesos por litro</t>
   </si>
   <si>
-    <t xml:space="preserve">julio 2023</t>
+    <t xml:space="preserve">agosto 2023</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima actualización: septiembre 2023</t>
+    <t xml:space="preserve">Próxima actualización: octubre 2023</t>
   </si>
   <si>
     <t xml:space="preserve">FUENTE: CRE; Comisión Reguladora de Energía</t>
@@ -185,91 +185,91 @@
     <t xml:space="preserve">Baja California</t>
   </si>
   <si>
+    <t xml:space="preserve">Querétaro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hidalgo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tabasco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tlaxcala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puebla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veracruz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">México</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morelos</t>
+  </si>
+  <si>
     <t xml:space="preserve">Coahuila</t>
   </si>
   <si>
-    <t xml:space="preserve">Querétaro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hidalgo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puebla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tlaxcala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tabasco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Veracruz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morelos</t>
+    <t xml:space="preserve">Chiapas</t>
   </si>
   <si>
     <t xml:space="preserve">Guanajuato</t>
   </si>
   <si>
-    <t xml:space="preserve">México</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chiapas</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aguascalientes</t>
   </si>
   <si>
     <t xml:space="preserve">Nacional</t>
   </si>
   <si>
+    <t xml:space="preserve">San Luis Potosí</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zacatecas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ciudad de México</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sonora</t>
   </si>
   <si>
-    <t xml:space="preserve">Zacatecas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Luis Potosí</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colima</t>
+    <t xml:space="preserve">Yucatán</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michoacán</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jalisco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durango</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nayarit</t>
   </si>
   <si>
     <t xml:space="preserve">Sinaloa</t>
   </si>
   <si>
-    <t xml:space="preserve">Yucatán</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Durango</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ciudad de México</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jalisco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michoacán</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nayarit</t>
-  </si>
-  <si>
     <t xml:space="preserve">Campeche</t>
   </si>
   <si>
     <t xml:space="preserve">Oaxaca</t>
   </si>
   <si>
+    <t xml:space="preserve">Baja California Sur</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nuevo León</t>
   </si>
   <si>
     <t xml:space="preserve">Guerrero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baja California Sur</t>
   </si>
   <si>
     <t xml:space="preserve">Quintana Roo</t>
@@ -863,13 +863,13 @@
         <v>52</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>19.3135260896544</v>
+        <v>19.7193253987953</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>21.8274727875209</v>
+        <v>22.1550063907492</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>23.0968268971747</v>
+        <v>23.5029433058109</v>
       </c>
       <c r="E15" s="6" t="n">
         <v>33</v>
@@ -878,7 +878,7 @@
         <v>33</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16">
@@ -886,13 +886,13 @@
         <v>53</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>20.7045462809887</v>
+        <v>21.3196832970781</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>22.6790580836442</v>
+        <v>23.2354479793994</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>22.9787590755319</v>
+        <v>23.7469969195346</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>32</v>
@@ -901,7 +901,7 @@
         <v>32</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17">
@@ -909,13 +909,13 @@
         <v>54</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>21.3686986780271</v>
+        <v>21.4317101583245</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>23.8805117396928</v>
+        <v>23.9766745030804</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>22.8623483439542</v>
+        <v>22.925761673906</v>
       </c>
       <c r="E17" s="6" t="n">
         <v>31</v>
@@ -932,22 +932,22 @@
         <v>55</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>21.4979761783936</v>
+        <v>21.7967987205439</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>24.470433789487</v>
+        <v>23.7912920182535</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>23.9193709566079</v>
+        <v>23.6145344649994</v>
       </c>
       <c r="E18" s="6" t="n">
         <v>30</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
@@ -955,22 +955,22 @@
         <v>56</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>21.5097249721771</v>
+        <v>21.8359959573151</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>23.5551166967415</v>
+        <v>23.9848706512382</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>23.3111421719671</v>
+        <v>23.6136845958328</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>29</v>
       </c>
       <c r="F19" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="G19" s="6" t="n">
         <v>31</v>
-      </c>
-      <c r="G19" s="6" t="n">
-        <v>30</v>
       </c>
     </row>
     <row r="20">
@@ -978,13 +978,13 @@
         <v>57</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>21.6975946984349</v>
+        <v>21.9401690543071</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>23.848204397264</v>
+        <v>23.9487380992062</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>23.3973400278661</v>
+        <v>23.8200924686041</v>
       </c>
       <c r="E20" s="6" t="n">
         <v>28</v>
@@ -993,7 +993,7 @@
         <v>29</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21">
@@ -1001,22 +1001,22 @@
         <v>58</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>21.7341024336454</v>
+        <v>21.9656832246514</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>23.9329619137142</v>
+        <v>24.0965160865437</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>23.4319359996548</v>
+        <v>23.619124374198</v>
       </c>
       <c r="E21" s="6" t="n">
         <v>27</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22">
@@ -1024,22 +1024,22 @@
         <v>59</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>21.7607498378202</v>
+        <v>21.9935736233896</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>23.9956637649287</v>
+        <v>24.0388240170317</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>23.3493264385132</v>
+        <v>23.708794947456</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>26</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23">
@@ -1047,13 +1047,13 @@
         <v>60</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>21.8096721249001</v>
+        <v>22.0928238305077</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>23.8118194776583</v>
+        <v>23.9304716145831</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>23.7629064055985</v>
+        <v>23.8987833967171</v>
       </c>
       <c r="E23" s="6" t="n">
         <v>25</v>
@@ -1062,7 +1062,7 @@
         <v>30</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24">
@@ -1070,22 +1070,22 @@
         <v>61</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>21.953979012963</v>
+        <v>22.1146185152978</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>23.8884681237031</v>
+        <v>24.3432282408151</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>23.7819413144668</v>
+        <v>23.7025860978163</v>
       </c>
       <c r="E24" s="6" t="n">
         <v>24</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25">
@@ -1093,22 +1093,22 @@
         <v>62</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>21.9731578034918</v>
+        <v>22.14311225004</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>23.9381809332312</v>
+        <v>24.0152675141295</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>23.6044975308405</v>
+        <v>23.8404775766135</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>23</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26">
@@ -1116,22 +1116,22 @@
         <v>63</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>21.9800325317262</v>
+        <v>22.1438813663166</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>24.3547339382344</v>
+        <v>24.7932247766835</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>23.8369809734641</v>
+        <v>24.2896279027952</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>22</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27">
@@ -1139,22 +1139,22 @@
         <v>64</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>22.0028098389829</v>
+        <v>22.1548470560009</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>24.2074474788448</v>
+        <v>24.1787894673252</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>23.4235817936343</v>
+        <v>23.9649260083549</v>
       </c>
       <c r="E27" s="6" t="n">
         <v>21</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28">
@@ -1162,22 +1162,22 @@
         <v>65</v>
       </c>
       <c r="B28" s="5" t="n">
-        <v>22.0114879517254</v>
+        <v>22.2277980641299</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>23.9513104879478</v>
+        <v>24.4867872597212</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>23.8614125734231</v>
+        <v>24.0615561047058</v>
       </c>
       <c r="E28" s="6" t="n">
         <v>20</v>
       </c>
       <c r="F28" s="6" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29">
@@ -1185,13 +1185,13 @@
         <v>66</v>
       </c>
       <c r="B29" s="5" t="n">
-        <v>22.0503561626761</v>
+        <v>22.241968037485</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>24.3035339029044</v>
+        <v>24.4404544551435</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>23.6966816908207</v>
+        <v>23.932621356173</v>
       </c>
       <c r="E29" s="6" t="n">
         <v>19</v>
@@ -1200,7 +1200,7 @@
         <v>21</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30">
@@ -1208,19 +1208,19 @@
         <v>67</v>
       </c>
       <c r="B30" s="5" t="n">
-        <v>22.0854554598486</v>
+        <v>22.3054569002208</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>24.3318139821702</v>
+        <v>24.4898221926187</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>23.821519122816</v>
+        <v>24.0576087434729</v>
       </c>
       <c r="E30" s="6" t="n">
         <v>18</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>19</v>
@@ -1231,22 +1231,22 @@
         <v>68</v>
       </c>
       <c r="B31" s="5" t="n">
-        <v>22.1798507196013</v>
+        <v>22.4032900430177</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>25.2940624309085</v>
+        <v>24.565100142949</v>
       </c>
       <c r="D31" s="5" t="n">
-        <v>24.1746357694946</v>
+        <v>24.1650618417806</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>17</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32">
@@ -1254,22 +1254,22 @@
         <v>69</v>
       </c>
       <c r="B32" s="5" t="n">
-        <v>22.3543645657263</v>
+        <v>22.5421141552039</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>24.4015332953363</v>
+        <v>24.7276697903019</v>
       </c>
       <c r="D32" s="5" t="n">
-        <v>24.0025682328992</v>
+        <v>24.1193652295138</v>
       </c>
       <c r="E32" s="6" t="n">
         <v>16</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33">
@@ -1277,22 +1277,22 @@
         <v>70</v>
       </c>
       <c r="B33" s="5" t="n">
-        <v>22.3546332619811</v>
+        <v>22.5656367435987</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>24.5340851481629</v>
+        <v>24.5439403958808</v>
       </c>
       <c r="D33" s="5" t="n">
-        <v>23.9781372312538</v>
+        <v>24.2423056792046</v>
       </c>
       <c r="E33" s="6" t="n">
         <v>15</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34">
@@ -1300,22 +1300,22 @@
         <v>71</v>
       </c>
       <c r="B34" s="5" t="n">
-        <v>22.4088562897506</v>
+        <v>22.6006071731387</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>24.6893590707406</v>
+        <v>24.9113587944625</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>23.9873403435754</v>
+        <v>23.933319821379</v>
       </c>
       <c r="E34" s="6" t="n">
         <v>14</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35">
@@ -1323,22 +1323,22 @@
         <v>72</v>
       </c>
       <c r="B35" s="5" t="n">
-        <v>22.486901968925</v>
+        <v>22.6666737373385</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>24.8113430476804</v>
+        <v>25.3382033996162</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>23.7567401260895</v>
+        <v>24.4951851637097</v>
       </c>
       <c r="E35" s="6" t="n">
         <v>13</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36">
@@ -1346,22 +1346,22 @@
         <v>73</v>
       </c>
       <c r="B36" s="5" t="n">
-        <v>22.5381370948967</v>
+        <v>22.792978195037</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>24.4727629022213</v>
+        <v>24.6812548605665</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>24.3624973551655</v>
+        <v>24.672873606168</v>
       </c>
       <c r="E36" s="6" t="n">
         <v>12</v>
       </c>
       <c r="F36" s="6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37">
@@ -1369,22 +1369,22 @@
         <v>74</v>
       </c>
       <c r="B37" s="5" t="n">
-        <v>22.5436426897197</v>
+        <v>22.8186332872542</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>25.2801707131972</v>
+        <v>24.8674629419278</v>
       </c>
       <c r="D37" s="5" t="n">
-        <v>24.1846687504258</v>
+        <v>24.4605833848534</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>11</v>
       </c>
       <c r="F37" s="6" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38">
@@ -1392,22 +1392,22 @@
         <v>75</v>
       </c>
       <c r="B38" s="5" t="n">
-        <v>22.5623144506019</v>
+        <v>22.8915308035746</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>24.812993338302</v>
+        <v>25.1654869472255</v>
       </c>
       <c r="D38" s="5" t="n">
-        <v>23.6790996486431</v>
+        <v>24.2912672864927</v>
       </c>
       <c r="E38" s="6" t="n">
         <v>10</v>
       </c>
       <c r="F38" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="G38" s="6" t="n">
         <v>11</v>
-      </c>
-      <c r="G38" s="6" t="n">
-        <v>24</v>
       </c>
     </row>
     <row r="39">
@@ -1415,22 +1415,22 @@
         <v>76</v>
       </c>
       <c r="B39" s="5" t="n">
-        <v>22.6446760102667</v>
+        <v>22.9217640034134</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>24.9921329446465</v>
+        <v>25.5774510633467</v>
       </c>
       <c r="D39" s="5" t="n">
-        <v>24.0793629447375</v>
+        <v>24.4880219855812</v>
       </c>
       <c r="E39" s="6" t="n">
         <v>9</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40">
@@ -1438,19 +1438,19 @@
         <v>77</v>
       </c>
       <c r="B40" s="5" t="n">
-        <v>22.7412144912275</v>
+        <v>23.005199280679</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>24.8418350451635</v>
+        <v>25.3246041045333</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>24.3767565761326</v>
+        <v>24.5179663451883</v>
       </c>
       <c r="E40" s="6" t="n">
         <v>8</v>
       </c>
       <c r="F40" s="6" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>7</v>
@@ -1461,22 +1461,22 @@
         <v>78</v>
       </c>
       <c r="B41" s="5" t="n">
-        <v>22.7929319558726</v>
+        <v>23.0151853944859</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>25.1838703854053</v>
+        <v>25.0832656321023</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>24.5035145830985</v>
+        <v>24.2362621142676</v>
       </c>
       <c r="E41" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F41" s="6" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42">
@@ -1484,19 +1484,19 @@
         <v>79</v>
       </c>
       <c r="B42" s="5" t="n">
-        <v>22.9621972270998</v>
+        <v>23.1021582836657</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>24.4987158610743</v>
+        <v>24.6409313856334</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>24.4743755344114</v>
+        <v>24.5813619305298</v>
       </c>
       <c r="E42" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F42" s="6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>6</v>
@@ -1507,22 +1507,22 @@
         <v>80</v>
       </c>
       <c r="B43" s="5" t="n">
-        <v>22.987930394331</v>
+        <v>23.1438570227822</v>
       </c>
       <c r="C43" s="5" t="n">
-        <v>24.8465296471559</v>
+        <v>24.9455697814012</v>
       </c>
       <c r="D43" s="5" t="n">
-        <v>24.6710303540352</v>
+        <v>24.879868588824</v>
       </c>
       <c r="E43" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F43" s="6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G43" s="6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44">
@@ -1530,22 +1530,22 @@
         <v>81</v>
       </c>
       <c r="B44" s="5" t="n">
-        <v>23.3356038525496</v>
+        <v>23.4135511553305</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>25.4768296988547</v>
+        <v>25.4684669545588</v>
       </c>
       <c r="D44" s="5" t="n">
-        <v>24.1207511198231</v>
+        <v>24.6673594404169</v>
       </c>
       <c r="E44" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45">
@@ -1553,22 +1553,22 @@
         <v>82</v>
       </c>
       <c r="B45" s="5" t="n">
-        <v>23.3647421103717</v>
+        <v>23.4674247802976</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>25.0166644023602</v>
+        <v>25.6746884999849</v>
       </c>
       <c r="D45" s="5" t="n">
-        <v>24.8967878435633</v>
+        <v>24.1503231858661</v>
       </c>
       <c r="E45" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46">
@@ -1576,22 +1576,22 @@
         <v>83</v>
       </c>
       <c r="B46" s="5" t="n">
-        <v>23.4537650885714</v>
+        <v>23.6115868147166</v>
       </c>
       <c r="C46" s="5" t="n">
-        <v>25.4729060047875</v>
+        <v>25.2571957151002</v>
       </c>
       <c r="D46" s="5" t="n">
-        <v>24.8700094100514</v>
+        <v>25.1844324959383</v>
       </c>
       <c r="E46" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F46" s="6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G46" s="6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1599,22 +1599,22 @@
         <v>84</v>
       </c>
       <c r="B47" s="5" t="n">
-        <v>23.6010526433327</v>
+        <v>23.7071943374028</v>
       </c>
       <c r="C47" s="5" t="n">
-        <v>24.8825444720927</v>
+        <v>25.0494380268216</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>24.6810123655107</v>
+        <v>24.9338275657474</v>
       </c>
       <c r="E47" s="6" t="n">
         <v>1</v>
       </c>
       <c r="F47" s="6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G47" s="6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/TabuladosGasolina.xlsx
+++ b/TabuladosGasolina.xlsx
@@ -164,13 +164,13 @@
     <t xml:space="preserve">CRE, pesos por litro</t>
   </si>
   <si>
-    <t xml:space="preserve">agosto 2023</t>
+    <t xml:space="preserve">septiembre 2023</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima actualización: octubre 2023</t>
+    <t xml:space="preserve">Próxima actualización: noviembre 2023</t>
   </si>
   <si>
     <t xml:space="preserve">FUENTE: CRE; Comisión Reguladora de Energía</t>
@@ -179,12 +179,12 @@
     <t xml:space="preserve">Tamaulipas</t>
   </si>
   <si>
+    <t xml:space="preserve">Baja California</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chihuahua</t>
   </si>
   <si>
-    <t xml:space="preserve">Baja California</t>
-  </si>
-  <si>
     <t xml:space="preserve">Querétaro</t>
   </si>
   <si>
@@ -200,24 +200,24 @@
     <t xml:space="preserve">Puebla</t>
   </si>
   <si>
+    <t xml:space="preserve">Morelos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coahuila</t>
+  </si>
+  <si>
     <t xml:space="preserve">Veracruz</t>
   </si>
   <si>
+    <t xml:space="preserve">Guanajuato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiapas</t>
+  </si>
+  <si>
     <t xml:space="preserve">México</t>
   </si>
   <si>
-    <t xml:space="preserve">Morelos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coahuila</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chiapas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guanajuato</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aguascalientes</t>
   </si>
   <si>
@@ -227,46 +227,46 @@
     <t xml:space="preserve">San Luis Potosí</t>
   </si>
   <si>
+    <t xml:space="preserve">Zacatecas</t>
+  </si>
+  <si>
     <t xml:space="preserve">Colima</t>
   </si>
   <si>
-    <t xml:space="preserve">Zacatecas</t>
+    <t xml:space="preserve">Sonora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yucatán</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michoacán</t>
   </si>
   <si>
     <t xml:space="preserve">Ciudad de México</t>
   </si>
   <si>
-    <t xml:space="preserve">Sonora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yucatán</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michoacán</t>
+    <t xml:space="preserve">Nayarit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durango</t>
   </si>
   <si>
     <t xml:space="preserve">Jalisco</t>
   </si>
   <si>
-    <t xml:space="preserve">Durango</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nayarit</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sinaloa</t>
   </si>
   <si>
+    <t xml:space="preserve">Oaxaca</t>
+  </si>
+  <si>
     <t xml:space="preserve">Campeche</t>
   </si>
   <si>
-    <t xml:space="preserve">Oaxaca</t>
+    <t xml:space="preserve">Nuevo León</t>
   </si>
   <si>
     <t xml:space="preserve">Baja California Sur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nuevo León</t>
   </si>
   <si>
     <t xml:space="preserve">Guerrero</t>
@@ -863,13 +863,13 @@
         <v>52</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>19.7193253987953</v>
+        <v>19.8816720084405</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>22.1550063907492</v>
+        <v>22.3055854062312</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>23.5029433058109</v>
+        <v>23.698639322174</v>
       </c>
       <c r="E15" s="6" t="n">
         <v>33</v>
@@ -878,7 +878,7 @@
         <v>33</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
@@ -886,22 +886,22 @@
         <v>53</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>21.3196832970781</v>
+        <v>21.4264140457213</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>23.2354479793994</v>
+        <v>24.0340018653372</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>23.7469969195346</v>
+        <v>23.0821877228286</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>32</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17">
@@ -909,22 +909,22 @@
         <v>54</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>21.4317101583245</v>
+        <v>21.6741245960998</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>23.9766745030804</v>
+        <v>23.4555295528248</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>22.925761673906</v>
+        <v>23.9657493371657</v>
       </c>
       <c r="E17" s="6" t="n">
         <v>31</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18">
@@ -932,22 +932,22 @@
         <v>55</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>21.7967987205439</v>
+        <v>21.6764156110423</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>23.7912920182535</v>
+        <v>23.8497655588292</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>23.6145344649994</v>
+        <v>23.7342063488911</v>
       </c>
       <c r="E18" s="6" t="n">
         <v>30</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19">
@@ -955,22 +955,22 @@
         <v>56</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>21.8359959573151</v>
+        <v>21.8052415584551</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>23.9848706512382</v>
+        <v>24.0504587433573</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>23.6136845958328</v>
+        <v>23.7059096961334</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>29</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
@@ -978,22 +978,22 @@
         <v>57</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>21.9401690543071</v>
+        <v>21.816161367501</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>23.9487380992062</v>
+        <v>23.829079018989</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>23.8200924686041</v>
+        <v>23.7567465491556</v>
       </c>
       <c r="E20" s="6" t="n">
         <v>28</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21">
@@ -1001,22 +1001,22 @@
         <v>58</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>21.9656832246514</v>
+        <v>21.8886920306326</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>24.0965160865437</v>
+        <v>24.0937101255515</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>23.619124374198</v>
+        <v>23.6417171440814</v>
       </c>
       <c r="E21" s="6" t="n">
         <v>27</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22">
@@ -1024,22 +1024,22 @@
         <v>59</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>21.9935736233896</v>
+        <v>21.9221606914708</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>24.0388240170317</v>
+        <v>24.0873593685522</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>23.708794947456</v>
+        <v>23.8042213218266</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>26</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23">
@@ -1047,22 +1047,22 @@
         <v>60</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>22.0928238305077</v>
+        <v>22.0980467175539</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>23.9304716145831</v>
+        <v>24.0963471363234</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>23.8987833967171</v>
+        <v>23.9550059507649</v>
       </c>
       <c r="E23" s="6" t="n">
         <v>25</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24">
@@ -1070,22 +1070,22 @@
         <v>61</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>22.1146185152978</v>
+        <v>22.1195821276538</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>24.3432282408151</v>
+        <v>24.5929437135449</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>23.7025860978163</v>
+        <v>24.4149023908639</v>
       </c>
       <c r="E24" s="6" t="n">
         <v>24</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25">
@@ -1093,22 +1093,22 @@
         <v>62</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>22.14311225004</v>
+        <v>22.1483709734251</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>24.0152675141295</v>
+        <v>24.0606653178219</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>23.8404775766135</v>
+        <v>24.1061337274667</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>23</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26">
@@ -1116,22 +1116,22 @@
         <v>63</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>22.1438813663166</v>
+        <v>22.2070358633194</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>24.7932247766835</v>
+        <v>24.5506330531462</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>24.2896279027952</v>
+        <v>24.1759449806222</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>22</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27">
@@ -1139,13 +1139,13 @@
         <v>64</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>22.1548470560009</v>
+        <v>22.24027873986</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>24.1787894673252</v>
+        <v>24.2707144291176</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>23.9649260083549</v>
+        <v>24.1923757022868</v>
       </c>
       <c r="E27" s="6" t="n">
         <v>21</v>
@@ -1154,7 +1154,7 @@
         <v>23</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28">
@@ -1162,22 +1162,22 @@
         <v>65</v>
       </c>
       <c r="B28" s="5" t="n">
-        <v>22.2277980641299</v>
+        <v>22.2930899041908</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>24.4867872597212</v>
+        <v>24.6535504169107</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>24.0615561047058</v>
+        <v>23.7966707856621</v>
       </c>
       <c r="E28" s="6" t="n">
         <v>20</v>
       </c>
       <c r="F28" s="6" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29">
@@ -1185,22 +1185,22 @@
         <v>66</v>
       </c>
       <c r="B29" s="5" t="n">
-        <v>22.241968037485</v>
+        <v>22.3222305019491</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>24.4404544551435</v>
+        <v>24.567068901291</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>23.932621356173</v>
+        <v>24.016468111517</v>
       </c>
       <c r="E29" s="6" t="n">
         <v>19</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30">
@@ -1208,22 +1208,22 @@
         <v>67</v>
       </c>
       <c r="B30" s="5" t="n">
-        <v>22.3054569002208</v>
+        <v>22.3333242169136</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>24.4898221926187</v>
+        <v>24.5939851447907</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>24.0576087434729</v>
+        <v>24.1657963993587</v>
       </c>
       <c r="E30" s="6" t="n">
         <v>18</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31">
@@ -1231,22 +1231,22 @@
         <v>68</v>
       </c>
       <c r="B31" s="5" t="n">
-        <v>22.4032900430177</v>
+        <v>22.4765613856966</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>24.565100142949</v>
+        <v>24.6152345974577</v>
       </c>
       <c r="D31" s="5" t="n">
-        <v>24.1650618417806</v>
+        <v>24.260450671926</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>17</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32">
@@ -1254,22 +1254,22 @@
         <v>69</v>
       </c>
       <c r="B32" s="5" t="n">
-        <v>22.5421141552039</v>
+        <v>22.5274724869472</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>24.7276697903019</v>
+        <v>24.5712014495202</v>
       </c>
       <c r="D32" s="5" t="n">
-        <v>24.1193652295138</v>
+        <v>24.2425353550811</v>
       </c>
       <c r="E32" s="6" t="n">
         <v>16</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33">
@@ -1277,22 +1277,22 @@
         <v>70</v>
       </c>
       <c r="B33" s="5" t="n">
-        <v>22.5656367435987</v>
+        <v>22.5662100022338</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>24.5439403958808</v>
+        <v>24.7495387115861</v>
       </c>
       <c r="D33" s="5" t="n">
-        <v>24.2423056792046</v>
+        <v>24.2423744600516</v>
       </c>
       <c r="E33" s="6" t="n">
         <v>15</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34">
@@ -1300,22 +1300,22 @@
         <v>71</v>
       </c>
       <c r="B34" s="5" t="n">
-        <v>22.6006071731387</v>
+        <v>22.6020982469029</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>24.9113587944625</v>
+        <v>25.2768915526575</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>23.933319821379</v>
+        <v>24.468109744905</v>
       </c>
       <c r="E34" s="6" t="n">
         <v>14</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35">
@@ -1323,22 +1323,22 @@
         <v>72</v>
       </c>
       <c r="B35" s="5" t="n">
-        <v>22.6666737373385</v>
+        <v>22.6621246614384</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>25.3382033996162</v>
+        <v>24.4319659145851</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>24.4951851637097</v>
+        <v>24.6956940315637</v>
       </c>
       <c r="E35" s="6" t="n">
         <v>13</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36">
@@ -1346,22 +1346,22 @@
         <v>73</v>
       </c>
       <c r="B36" s="5" t="n">
-        <v>22.792978195037</v>
+        <v>22.7569306440547</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>24.6812548605665</v>
+        <v>24.9218137311497</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>24.672873606168</v>
+        <v>24.5180667413319</v>
       </c>
       <c r="E36" s="6" t="n">
         <v>12</v>
       </c>
       <c r="F36" s="6" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37">
@@ -1369,22 +1369,22 @@
         <v>74</v>
       </c>
       <c r="B37" s="5" t="n">
-        <v>22.8186332872542</v>
+        <v>22.8282084943026</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>24.8674629419278</v>
+        <v>25.2333722593172</v>
       </c>
       <c r="D37" s="5" t="n">
-        <v>24.4605833848534</v>
+        <v>24.0428745857528</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>11</v>
       </c>
       <c r="F37" s="6" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38">
@@ -1392,22 +1392,22 @@
         <v>75</v>
       </c>
       <c r="B38" s="5" t="n">
-        <v>22.8915308035746</v>
+        <v>22.9969944596495</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>25.1654869472255</v>
+        <v>25.3357251644914</v>
       </c>
       <c r="D38" s="5" t="n">
-        <v>24.2912672864927</v>
+        <v>24.5488964679909</v>
       </c>
       <c r="E38" s="6" t="n">
         <v>10</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39">
@@ -1415,22 +1415,22 @@
         <v>76</v>
       </c>
       <c r="B39" s="5" t="n">
-        <v>22.9217640034134</v>
+        <v>23.0127903559865</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>25.5774510633467</v>
+        <v>25.5092020569204</v>
       </c>
       <c r="D39" s="5" t="n">
-        <v>24.4880219855812</v>
+        <v>24.6074212231815</v>
       </c>
       <c r="E39" s="6" t="n">
         <v>9</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40">
@@ -1438,22 +1438,22 @@
         <v>77</v>
       </c>
       <c r="B40" s="5" t="n">
-        <v>23.005199280679</v>
+        <v>23.017957915584</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>25.3246041045333</v>
+        <v>25.4951972043165</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>24.5179663451883</v>
+        <v>24.3718194522203</v>
       </c>
       <c r="E40" s="6" t="n">
         <v>8</v>
       </c>
       <c r="F40" s="6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41">
@@ -1461,22 +1461,22 @@
         <v>78</v>
       </c>
       <c r="B41" s="5" t="n">
-        <v>23.0151853944859</v>
+        <v>23.0959819099784</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>25.0832656321023</v>
+        <v>25.1306210560738</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>24.2362621142676</v>
+        <v>24.4244671524523</v>
       </c>
       <c r="E41" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F41" s="6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42">
@@ -1484,22 +1484,22 @@
         <v>79</v>
       </c>
       <c r="B42" s="5" t="n">
-        <v>23.1021582836657</v>
+        <v>23.2229465009009</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>24.6409313856334</v>
+        <v>25.0667651339247</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>24.5813619305298</v>
+        <v>25.007760312332</v>
       </c>
       <c r="E42" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F42" s="6" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
@@ -1507,22 +1507,22 @@
         <v>80</v>
       </c>
       <c r="B43" s="5" t="n">
-        <v>23.1438570227822</v>
+        <v>23.3093287475899</v>
       </c>
       <c r="C43" s="5" t="n">
-        <v>24.9455697814012</v>
+        <v>24.7542879712841</v>
       </c>
       <c r="D43" s="5" t="n">
-        <v>24.879868588824</v>
+        <v>24.712371582183</v>
       </c>
       <c r="E43" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F43" s="6" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G43" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
@@ -1530,22 +1530,22 @@
         <v>81</v>
       </c>
       <c r="B44" s="5" t="n">
-        <v>23.4135511553305</v>
+        <v>23.3245668870945</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>25.4684669545588</v>
+        <v>25.8377777323222</v>
       </c>
       <c r="D44" s="5" t="n">
-        <v>24.6673594404169</v>
+        <v>24.2100528553697</v>
       </c>
       <c r="E44" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45">
@@ -1553,22 +1553,22 @@
         <v>82</v>
       </c>
       <c r="B45" s="5" t="n">
-        <v>23.4674247802976</v>
+        <v>23.389832373475</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>25.6746884999849</v>
+        <v>25.589479815662</v>
       </c>
       <c r="D45" s="5" t="n">
-        <v>24.1503231858661</v>
+        <v>24.6705340597348</v>
       </c>
       <c r="E45" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46">
@@ -1576,19 +1576,19 @@
         <v>83</v>
       </c>
       <c r="B46" s="5" t="n">
-        <v>23.6115868147166</v>
+        <v>23.5161304789378</v>
       </c>
       <c r="C46" s="5" t="n">
-        <v>25.2571957151002</v>
+        <v>25.0913932119215</v>
       </c>
       <c r="D46" s="5" t="n">
-        <v>25.1844324959383</v>
+        <v>25.1032627231551</v>
       </c>
       <c r="E46" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F46" s="6" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>1</v>
@@ -1599,19 +1599,19 @@
         <v>84</v>
       </c>
       <c r="B47" s="5" t="n">
-        <v>23.7071943374028</v>
+        <v>23.7578456959884</v>
       </c>
       <c r="C47" s="5" t="n">
-        <v>25.0494380268216</v>
+        <v>25.1512881908838</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>24.9338275657474</v>
+        <v>25.0168771479022</v>
       </c>
       <c r="E47" s="6" t="n">
         <v>1</v>
       </c>
       <c r="F47" s="6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>2</v>

--- a/TabuladosGasolina.xlsx
+++ b/TabuladosGasolina.xlsx
@@ -164,13 +164,13 @@
     <t xml:space="preserve">CRE, pesos por litro</t>
   </si>
   <si>
-    <t xml:space="preserve">septiembre 2023</t>
+    <t xml:space="preserve">octubre 2023</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima actualización: noviembre 2023</t>
+    <t xml:space="preserve">Próxima actualización: diciembre 2023</t>
   </si>
   <si>
     <t xml:space="preserve">FUENTE: CRE; Comisión Reguladora de Energía</t>
@@ -179,51 +179,51 @@
     <t xml:space="preserve">Tamaulipas</t>
   </si>
   <si>
+    <t xml:space="preserve">Chihuahua</t>
+  </si>
+  <si>
     <t xml:space="preserve">Baja California</t>
   </si>
   <si>
-    <t xml:space="preserve">Chihuahua</t>
-  </si>
-  <si>
     <t xml:space="preserve">Querétaro</t>
   </si>
   <si>
+    <t xml:space="preserve">Coahuila</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hidalgo</t>
   </si>
   <si>
+    <t xml:space="preserve">Tlaxcala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puebla</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tabasco</t>
   </si>
   <si>
-    <t xml:space="preserve">Tlaxcala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puebla</t>
+    <t xml:space="preserve">Veracruz</t>
   </si>
   <si>
     <t xml:space="preserve">Morelos</t>
   </si>
   <si>
-    <t xml:space="preserve">Coahuila</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Veracruz</t>
-  </si>
-  <si>
     <t xml:space="preserve">Guanajuato</t>
   </si>
   <si>
+    <t xml:space="preserve">México</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nacional</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chiapas</t>
   </si>
   <si>
-    <t xml:space="preserve">México</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aguascalientes</t>
   </si>
   <si>
-    <t xml:space="preserve">Nacional</t>
-  </si>
-  <si>
     <t xml:space="preserve">San Luis Potosí</t>
   </si>
   <si>
@@ -242,19 +242,19 @@
     <t xml:space="preserve">Michoacán</t>
   </si>
   <si>
+    <t xml:space="preserve">Sinaloa</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ciudad de México</t>
   </si>
   <si>
+    <t xml:space="preserve">Jalisco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durango</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nayarit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Durango</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jalisco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sinaloa</t>
   </si>
   <si>
     <t xml:space="preserve">Oaxaca</t>
@@ -863,13 +863,13 @@
         <v>52</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>19.8816720084405</v>
+        <v>20.0217256922911</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>22.3055854062312</v>
+        <v>22.5811388895615</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>23.698639322174</v>
+        <v>23.7063161679075</v>
       </c>
       <c r="E15" s="6" t="n">
         <v>33</v>
@@ -886,22 +886,22 @@
         <v>53</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>21.4264140457213</v>
+        <v>20.9786056295578</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>24.0340018653372</v>
+        <v>23.5431131596526</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>23.0821877228286</v>
+        <v>23.7135203798221</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>32</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17">
@@ -909,22 +909,22 @@
         <v>54</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>21.6741245960998</v>
+        <v>21.4958267267979</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>23.4555295528248</v>
+        <v>23.9830257827497</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>23.9657493371657</v>
+        <v>23.0193354863143</v>
       </c>
       <c r="E17" s="6" t="n">
         <v>31</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18">
@@ -932,13 +932,13 @@
         <v>55</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>21.6764156110423</v>
+        <v>21.6641030596475</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>23.8497655588292</v>
+        <v>23.9396689322619</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>23.7342063488911</v>
+        <v>23.7822913220532</v>
       </c>
       <c r="E18" s="6" t="n">
         <v>30</v>
@@ -947,7 +947,7 @@
         <v>30</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19">
@@ -955,22 +955,22 @@
         <v>56</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>21.8052415584551</v>
+        <v>21.7357123074818</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>24.0504587433573</v>
+        <v>24.247991382756</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>23.7059096961334</v>
+        <v>24.3812735418248</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>29</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20">
@@ -978,22 +978,22 @@
         <v>57</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>21.816161367501</v>
+        <v>21.7502753161337</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>23.829079018989</v>
+        <v>24.0530753577964</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>23.7567465491556</v>
+        <v>23.7698502091386</v>
       </c>
       <c r="E20" s="6" t="n">
         <v>28</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21">
@@ -1001,19 +1001,19 @@
         <v>58</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>21.8886920306326</v>
+        <v>21.7771717938706</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>24.0937101255515</v>
+        <v>24.097391993193</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>23.6417171440814</v>
+        <v>23.6068424267375</v>
       </c>
       <c r="E21" s="6" t="n">
         <v>27</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>32</v>
@@ -1024,19 +1024,19 @@
         <v>59</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>21.9221606914708</v>
+        <v>21.8582081314902</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>24.0873593685522</v>
+        <v>24.0364170529111</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>23.8042213218266</v>
+        <v>23.8299297456632</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>26</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>26</v>
@@ -1047,22 +1047,22 @@
         <v>60</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>22.0980467175539</v>
+        <v>21.8820884077189</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>24.0963471363234</v>
+        <v>23.9002260060723</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>23.9550059507649</v>
+        <v>23.7794605340687</v>
       </c>
       <c r="E23" s="6" t="n">
         <v>25</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24">
@@ -1070,22 +1070,22 @@
         <v>61</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>22.1195821276538</v>
+        <v>21.9666869712249</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>24.5929437135449</v>
+        <v>24.0870816021503</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>24.4149023908639</v>
+        <v>24.1309864318741</v>
       </c>
       <c r="E24" s="6" t="n">
         <v>24</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25">
@@ -1093,22 +1093,22 @@
         <v>62</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>22.1483709734251</v>
+        <v>22.0487708461063</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>24.0606653178219</v>
+        <v>24.0681512337558</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>24.1061337274667</v>
+        <v>23.9942642992478</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>23</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26">
@@ -1116,19 +1116,19 @@
         <v>63</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>22.2070358633194</v>
+        <v>22.2257545902819</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>24.5506330531462</v>
+        <v>24.6159107347776</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>24.1759449806222</v>
+        <v>24.2128847088755</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>22</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>19</v>
@@ -1139,22 +1139,22 @@
         <v>64</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>22.24027873986</v>
+        <v>22.2322316007127</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>24.2707144291176</v>
+        <v>24.6641005863089</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>24.1923757022868</v>
+        <v>23.8412321260449</v>
       </c>
       <c r="E27" s="6" t="n">
         <v>21</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28">
@@ -1162,22 +1162,22 @@
         <v>65</v>
       </c>
       <c r="B28" s="5" t="n">
-        <v>22.2930899041908</v>
+        <v>22.2853167222988</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>24.6535504169107</v>
+        <v>24.5953169783127</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>23.7966707856621</v>
+        <v>24.1993003807472</v>
       </c>
       <c r="E28" s="6" t="n">
         <v>20</v>
       </c>
       <c r="F28" s="6" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29">
@@ -1185,22 +1185,22 @@
         <v>66</v>
       </c>
       <c r="B29" s="5" t="n">
-        <v>22.3222305019491</v>
+        <v>22.3487393921583</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>24.567068901291</v>
+        <v>24.3661238498716</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>24.016468111517</v>
+        <v>24.2707185987804</v>
       </c>
       <c r="E29" s="6" t="n">
         <v>19</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30">
@@ -1208,22 +1208,22 @@
         <v>67</v>
       </c>
       <c r="B30" s="5" t="n">
-        <v>22.3333242169136</v>
+        <v>22.3943595562435</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>24.5939851447907</v>
+        <v>24.696967680291</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>24.1657963993587</v>
+        <v>24.1297575785478</v>
       </c>
       <c r="E30" s="6" t="n">
         <v>18</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31">
@@ -1231,22 +1231,22 @@
         <v>68</v>
       </c>
       <c r="B31" s="5" t="n">
-        <v>22.4765613856966</v>
+        <v>22.4574937205859</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>24.6152345974577</v>
+        <v>24.6396132119433</v>
       </c>
       <c r="D31" s="5" t="n">
-        <v>24.260450671926</v>
+        <v>24.2786187227525</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>17</v>
       </c>
       <c r="F31" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="G31" s="6" t="n">
         <v>16</v>
-      </c>
-      <c r="G31" s="6" t="n">
-        <v>14</v>
       </c>
     </row>
     <row r="32">
@@ -1254,22 +1254,22 @@
         <v>69</v>
       </c>
       <c r="B32" s="5" t="n">
-        <v>22.5274724869472</v>
+        <v>22.5291324492818</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>24.5712014495202</v>
+        <v>24.6209048830963</v>
       </c>
       <c r="D32" s="5" t="n">
-        <v>24.2425353550811</v>
+        <v>24.3332285349035</v>
       </c>
       <c r="E32" s="6" t="n">
         <v>16</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33">
@@ -1277,22 +1277,22 @@
         <v>70</v>
       </c>
       <c r="B33" s="5" t="n">
-        <v>22.5662100022338</v>
+        <v>22.5353217098405</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>24.7495387115861</v>
+        <v>24.8653720427411</v>
       </c>
       <c r="D33" s="5" t="n">
-        <v>24.2423744600516</v>
+        <v>24.2756351664881</v>
       </c>
       <c r="E33" s="6" t="n">
         <v>15</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34">
@@ -1300,22 +1300,22 @@
         <v>71</v>
       </c>
       <c r="B34" s="5" t="n">
-        <v>22.6020982469029</v>
+        <v>22.6008999237194</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>25.2768915526575</v>
+        <v>25.3713827778871</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>24.468109744905</v>
+        <v>24.5998538206712</v>
       </c>
       <c r="E34" s="6" t="n">
         <v>14</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35">
@@ -1323,22 +1323,22 @@
         <v>72</v>
       </c>
       <c r="B35" s="5" t="n">
-        <v>22.6621246614384</v>
+        <v>22.6116177738083</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>24.4319659145851</v>
+        <v>24.6202569493231</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>24.6956940315637</v>
+        <v>24.6314275252799</v>
       </c>
       <c r="E35" s="6" t="n">
         <v>13</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
@@ -1346,22 +1346,22 @@
         <v>73</v>
       </c>
       <c r="B36" s="5" t="n">
-        <v>22.7569306440547</v>
+        <v>22.8173728919867</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>24.9218137311497</v>
+        <v>25.0957352148694</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>24.5180667413319</v>
+        <v>24.7063397214336</v>
       </c>
       <c r="E36" s="6" t="n">
         <v>12</v>
       </c>
       <c r="F36" s="6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37">
@@ -1369,22 +1369,22 @@
         <v>74</v>
       </c>
       <c r="B37" s="5" t="n">
-        <v>22.8282084943026</v>
+        <v>22.832723211154</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>25.2333722593172</v>
+        <v>24.9843557268255</v>
       </c>
       <c r="D37" s="5" t="n">
-        <v>24.0428745857528</v>
+        <v>24.3305271568447</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>11</v>
       </c>
       <c r="F37" s="6" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38">
@@ -1392,22 +1392,22 @@
         <v>75</v>
       </c>
       <c r="B38" s="5" t="n">
-        <v>22.9969944596495</v>
+        <v>22.8370959685912</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>25.3357251644914</v>
+        <v>25.2873267778275</v>
       </c>
       <c r="D38" s="5" t="n">
-        <v>24.5488964679909</v>
+        <v>24.0792399705698</v>
       </c>
       <c r="E38" s="6" t="n">
         <v>10</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39">
@@ -1415,13 +1415,13 @@
         <v>76</v>
       </c>
       <c r="B39" s="5" t="n">
-        <v>23.0127903559865</v>
+        <v>22.9708156726213</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>25.5092020569204</v>
+        <v>25.4542881083293</v>
       </c>
       <c r="D39" s="5" t="n">
-        <v>24.6074212231815</v>
+        <v>24.4335792504372</v>
       </c>
       <c r="E39" s="6" t="n">
         <v>9</v>
@@ -1430,7 +1430,7 @@
         <v>3</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40">
@@ -1438,13 +1438,13 @@
         <v>77</v>
       </c>
       <c r="B40" s="5" t="n">
-        <v>23.017957915584</v>
+        <v>23.0275165420947</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>25.4951972043165</v>
+        <v>25.3994316356244</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>24.3718194522203</v>
+        <v>24.6247899616804</v>
       </c>
       <c r="E40" s="6" t="n">
         <v>8</v>
@@ -1453,7 +1453,7 @@
         <v>4</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41">
@@ -1461,22 +1461,22 @@
         <v>78</v>
       </c>
       <c r="B41" s="5" t="n">
-        <v>23.0959819099784</v>
+        <v>23.0708432621012</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>25.1306210560738</v>
+        <v>25.3068953593686</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>24.4244671524523</v>
+        <v>24.599080214794</v>
       </c>
       <c r="E41" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F41" s="6" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42">
@@ -1484,19 +1484,19 @@
         <v>79</v>
       </c>
       <c r="B42" s="5" t="n">
-        <v>23.2229465009009</v>
+        <v>23.2524269041019</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>25.0667651339247</v>
+        <v>25.0962539563639</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>25.007760312332</v>
+        <v>25.0685636689277</v>
       </c>
       <c r="E42" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F42" s="6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>3</v>
@@ -1507,22 +1507,22 @@
         <v>80</v>
       </c>
       <c r="B43" s="5" t="n">
-        <v>23.3093287475899</v>
+        <v>23.2991601700092</v>
       </c>
       <c r="C43" s="5" t="n">
-        <v>24.7542879712841</v>
+        <v>24.8356902264481</v>
       </c>
       <c r="D43" s="5" t="n">
-        <v>24.712371582183</v>
+        <v>24.7516306273548</v>
       </c>
       <c r="E43" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F43" s="6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G43" s="6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44">
@@ -1530,13 +1530,13 @@
         <v>81</v>
       </c>
       <c r="B44" s="5" t="n">
-        <v>23.3245668870945</v>
+        <v>23.3592698782133</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>25.8377777323222</v>
+        <v>25.7875757406624</v>
       </c>
       <c r="D44" s="5" t="n">
-        <v>24.2100528553697</v>
+        <v>24.364558525299</v>
       </c>
       <c r="E44" s="6" t="n">
         <v>4</v>
@@ -1545,7 +1545,7 @@
         <v>1</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45">
@@ -1553,13 +1553,13 @@
         <v>82</v>
       </c>
       <c r="B45" s="5" t="n">
-        <v>23.389832373475</v>
+        <v>23.4658884435317</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>25.589479815662</v>
+        <v>25.6284334652018</v>
       </c>
       <c r="D45" s="5" t="n">
-        <v>24.6705340597348</v>
+        <v>24.9713390089021</v>
       </c>
       <c r="E45" s="6" t="n">
         <v>3</v>
@@ -1568,7 +1568,7 @@
         <v>2</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
@@ -1576,19 +1576,19 @@
         <v>83</v>
       </c>
       <c r="B46" s="5" t="n">
-        <v>23.5161304789378</v>
+        <v>23.5540567125309</v>
       </c>
       <c r="C46" s="5" t="n">
-        <v>25.0913932119215</v>
+        <v>25.2125059908123</v>
       </c>
       <c r="D46" s="5" t="n">
-        <v>25.1032627231551</v>
+        <v>25.1817780493384</v>
       </c>
       <c r="E46" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F46" s="6" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>1</v>
@@ -1599,19 +1599,19 @@
         <v>84</v>
       </c>
       <c r="B47" s="5" t="n">
-        <v>23.7578456959884</v>
+        <v>23.7805731091358</v>
       </c>
       <c r="C47" s="5" t="n">
-        <v>25.1512881908838</v>
+        <v>25.1723971201321</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>25.0168771479022</v>
+        <v>25.0909826217298</v>
       </c>
       <c r="E47" s="6" t="n">
         <v>1</v>
       </c>
       <c r="F47" s="6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>2</v>

--- a/TabuladosGasolina.xlsx
+++ b/TabuladosGasolina.xlsx
@@ -164,13 +164,13 @@
     <t xml:space="preserve">CRE, pesos por litro</t>
   </si>
   <si>
-    <t xml:space="preserve">octubre 2023</t>
+    <t xml:space="preserve">noviembre 2023</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima actualización: diciembre 2023</t>
+    <t xml:space="preserve">Próxima actualización: enero 2024</t>
   </si>
   <si>
     <t xml:space="preserve">FUENTE: CRE; Comisión Reguladora de Energía</t>
@@ -185,69 +185,69 @@
     <t xml:space="preserve">Baja California</t>
   </si>
   <si>
+    <t xml:space="preserve">Tlaxcala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hidalgo</t>
+  </si>
+  <si>
     <t xml:space="preserve">Querétaro</t>
   </si>
   <si>
+    <t xml:space="preserve">Tabasco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puebla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veracruz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">México</t>
+  </si>
+  <si>
     <t xml:space="preserve">Coahuila</t>
   </si>
   <si>
-    <t xml:space="preserve">Hidalgo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tlaxcala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puebla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tabasco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Veracruz</t>
-  </si>
-  <si>
     <t xml:space="preserve">Morelos</t>
   </si>
   <si>
+    <t xml:space="preserve">Nacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sonora</t>
+  </si>
+  <si>
     <t xml:space="preserve">Guanajuato</t>
   </si>
   <si>
-    <t xml:space="preserve">México</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nacional</t>
-  </si>
-  <si>
     <t xml:space="preserve">Chiapas</t>
   </si>
   <si>
+    <t xml:space="preserve">San Luis Potosí</t>
+  </si>
+  <si>
     <t xml:space="preserve">Aguascalientes</t>
   </si>
   <si>
-    <t xml:space="preserve">San Luis Potosí</t>
+    <t xml:space="preserve">Yucatán</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sinaloa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colima</t>
   </si>
   <si>
     <t xml:space="preserve">Zacatecas</t>
   </si>
   <si>
-    <t xml:space="preserve">Colima</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sonora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yucatán</t>
+    <t xml:space="preserve">Ciudad de México</t>
   </si>
   <si>
     <t xml:space="preserve">Michoacán</t>
   </si>
   <si>
-    <t xml:space="preserve">Sinaloa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ciudad de México</t>
-  </si>
-  <si>
     <t xml:space="preserve">Jalisco</t>
   </si>
   <si>
@@ -257,13 +257,13 @@
     <t xml:space="preserve">Nayarit</t>
   </si>
   <si>
+    <t xml:space="preserve">Campeche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuevo León</t>
+  </si>
+  <si>
     <t xml:space="preserve">Oaxaca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Campeche</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nuevo León</t>
   </si>
   <si>
     <t xml:space="preserve">Baja California Sur</t>
@@ -863,13 +863,13 @@
         <v>52</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>20.0217256922911</v>
+        <v>19.9521675276727</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>22.5811388895615</v>
+        <v>22.5594429336632</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>23.7063161679075</v>
+        <v>23.7107125127686</v>
       </c>
       <c r="E15" s="6" t="n">
         <v>33</v>
@@ -878,7 +878,7 @@
         <v>33</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16">
@@ -886,13 +886,13 @@
         <v>53</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>20.9786056295578</v>
+        <v>20.5202416203287</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>23.5431131596526</v>
+        <v>22.7259646158004</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>23.7135203798221</v>
+        <v>23.448265698699</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>32</v>
@@ -901,7 +901,7 @@
         <v>32</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17">
@@ -909,19 +909,19 @@
         <v>54</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>21.4958267267979</v>
+        <v>21.3661601618782</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>23.9830257827497</v>
+        <v>23.805461035722</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>23.0193354863143</v>
+        <v>22.8909368842047</v>
       </c>
       <c r="E17" s="6" t="n">
         <v>31</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>33</v>
@@ -932,22 +932,22 @@
         <v>55</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>21.6641030596475</v>
+        <v>21.7536334367823</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>23.9396689322619</v>
+        <v>23.7792532951051</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>23.7822913220532</v>
+        <v>23.509893228383</v>
       </c>
       <c r="E18" s="6" t="n">
         <v>30</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19">
@@ -955,22 +955,22 @@
         <v>56</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>21.7357123074818</v>
+        <v>21.7872783301856</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>24.247991382756</v>
+        <v>23.67934714498</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>24.3812735418248</v>
+        <v>23.6773016390137</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>29</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
@@ -978,22 +978,22 @@
         <v>57</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>21.7502753161337</v>
+        <v>21.793358023979</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>24.0530753577964</v>
+        <v>23.741182968922</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>23.7698502091386</v>
+        <v>23.7798763298853</v>
       </c>
       <c r="E20" s="6" t="n">
         <v>28</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21">
@@ -1001,13 +1001,13 @@
         <v>58</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>21.7771717938706</v>
+        <v>21.879635275479</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>24.097391993193</v>
+        <v>23.8484404735761</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>23.6068424267375</v>
+        <v>23.7661098439672</v>
       </c>
       <c r="E21" s="6" t="n">
         <v>27</v>
@@ -1016,7 +1016,7 @@
         <v>24</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22">
@@ -1024,22 +1024,22 @@
         <v>59</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>21.8582081314902</v>
+        <v>21.9140899104509</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>24.0364170529111</v>
+        <v>23.8423916276909</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>23.8299297456632</v>
+        <v>23.735967809046</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>26</v>
       </c>
       <c r="F22" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="G22" s="6" t="n">
         <v>28</v>
-      </c>
-      <c r="G22" s="6" t="n">
-        <v>26</v>
       </c>
     </row>
     <row r="23">
@@ -1047,22 +1047,22 @@
         <v>60</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>21.8820884077189</v>
+        <v>21.9676480585755</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>23.9002260060723</v>
+        <v>23.8344922674247</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>23.7794605340687</v>
+        <v>23.978320199769</v>
       </c>
       <c r="E23" s="6" t="n">
         <v>25</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24">
@@ -1070,22 +1070,22 @@
         <v>61</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>21.9666869712249</v>
+        <v>22.0979943555182</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>24.0870816021503</v>
+        <v>24.3167719940475</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>24.1309864318741</v>
+        <v>23.7484366724388</v>
       </c>
       <c r="E24" s="6" t="n">
         <v>24</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25">
@@ -1093,22 +1093,22 @@
         <v>62</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>22.0487708461063</v>
+        <v>22.1047542243875</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>24.0681512337558</v>
+        <v>24.6847849497456</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>23.9942642992478</v>
+        <v>24.4553566965293</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>23</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -1116,22 +1116,22 @@
         <v>63</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>22.2257545902819</v>
+        <v>22.1153261625557</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>24.6159107347776</v>
+        <v>23.8391476372748</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>24.2128847088755</v>
+        <v>23.9780740136677</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>22</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27">
@@ -1139,22 +1139,22 @@
         <v>64</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>22.2322316007127</v>
+        <v>22.2282084984446</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>24.6641005863089</v>
+        <v>24.4089934522163</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>23.8412321260449</v>
+        <v>24.1196355291854</v>
       </c>
       <c r="E27" s="6" t="n">
         <v>21</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28">
@@ -1162,22 +1162,22 @@
         <v>65</v>
       </c>
       <c r="B28" s="5" t="n">
-        <v>22.2853167222988</v>
+        <v>22.2598868523988</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>24.5953169783127</v>
+        <v>24.7381331528624</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>24.1993003807472</v>
+        <v>24.3687153260103</v>
       </c>
       <c r="E28" s="6" t="n">
         <v>20</v>
       </c>
       <c r="F28" s="6" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29">
@@ -1185,19 +1185,19 @@
         <v>66</v>
       </c>
       <c r="B29" s="5" t="n">
-        <v>22.3487393921583</v>
+        <v>22.3662762945641</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>24.3661238498716</v>
+        <v>24.7530207871378</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>24.2707185987804</v>
+        <v>24.237564591683</v>
       </c>
       <c r="E29" s="6" t="n">
         <v>19</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>18</v>
@@ -1208,22 +1208,22 @@
         <v>67</v>
       </c>
       <c r="B30" s="5" t="n">
-        <v>22.3943595562435</v>
+        <v>22.3670091439459</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>24.696967680291</v>
+        <v>24.3296397708095</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>24.1297575785478</v>
+        <v>24.2449688592803</v>
       </c>
       <c r="E30" s="6" t="n">
         <v>18</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31">
@@ -1231,19 +1231,19 @@
         <v>68</v>
       </c>
       <c r="B31" s="5" t="n">
-        <v>22.4574937205859</v>
+        <v>22.4484524967874</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>24.6396132119433</v>
+        <v>24.3382995907863</v>
       </c>
       <c r="D31" s="5" t="n">
-        <v>24.2786187227525</v>
+        <v>24.2663324030062</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>17</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>16</v>
@@ -1254,22 +1254,22 @@
         <v>69</v>
       </c>
       <c r="B32" s="5" t="n">
-        <v>22.5291324492818</v>
+        <v>22.4630846080933</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>24.6209048830963</v>
+        <v>24.6745450961311</v>
       </c>
       <c r="D32" s="5" t="n">
-        <v>24.3332285349035</v>
+        <v>24.2221599945072</v>
       </c>
       <c r="E32" s="6" t="n">
         <v>16</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33">
@@ -1277,22 +1277,22 @@
         <v>70</v>
       </c>
       <c r="B33" s="5" t="n">
-        <v>22.5353217098405</v>
+        <v>22.5076983232602</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>24.8653720427411</v>
+        <v>24.3421247804564</v>
       </c>
       <c r="D33" s="5" t="n">
-        <v>24.2756351664881</v>
+        <v>24.3900879746385</v>
       </c>
       <c r="E33" s="6" t="n">
         <v>15</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34">
@@ -1300,22 +1300,22 @@
         <v>71</v>
       </c>
       <c r="B34" s="5" t="n">
-        <v>22.6008999237194</v>
+        <v>22.6087981757095</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>25.3713827778871</v>
+        <v>24.7211532945866</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>24.5998538206712</v>
+        <v>24.0915268187156</v>
       </c>
       <c r="E34" s="6" t="n">
         <v>14</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35">
@@ -1323,22 +1323,22 @@
         <v>72</v>
       </c>
       <c r="B35" s="5" t="n">
-        <v>22.6116177738083</v>
+        <v>22.6219480026405</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>24.6202569493231</v>
+        <v>24.7594318725675</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>24.6314275252799</v>
+        <v>24.2690542198202</v>
       </c>
       <c r="E35" s="6" t="n">
         <v>13</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36">
@@ -1346,22 +1346,22 @@
         <v>73</v>
       </c>
       <c r="B36" s="5" t="n">
-        <v>22.8173728919867</v>
+        <v>22.6861175963863</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>25.0957352148694</v>
+        <v>24.5668746383572</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>24.7063397214336</v>
+        <v>24.3350753903764</v>
       </c>
       <c r="E36" s="6" t="n">
         <v>12</v>
       </c>
       <c r="F36" s="6" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37">
@@ -1369,22 +1369,22 @@
         <v>74</v>
       </c>
       <c r="B37" s="5" t="n">
-        <v>22.832723211154</v>
+        <v>22.7196374562572</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>24.9843557268255</v>
+        <v>24.9447140707294</v>
       </c>
       <c r="D37" s="5" t="n">
-        <v>24.3305271568447</v>
+        <v>24.01703207299</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>11</v>
       </c>
       <c r="F37" s="6" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38">
@@ -1392,22 +1392,22 @@
         <v>75</v>
       </c>
       <c r="B38" s="5" t="n">
-        <v>22.8370959685912</v>
+        <v>22.831878082335</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>25.2873267778275</v>
+        <v>24.6434445214289</v>
       </c>
       <c r="D38" s="5" t="n">
-        <v>24.0792399705698</v>
+        <v>24.522797706234</v>
       </c>
       <c r="E38" s="6" t="n">
         <v>10</v>
       </c>
       <c r="F38" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="G38" s="6" t="n">
         <v>7</v>
-      </c>
-      <c r="G38" s="6" t="n">
-        <v>23</v>
       </c>
     </row>
     <row r="39">
@@ -1415,22 +1415,22 @@
         <v>76</v>
       </c>
       <c r="B39" s="5" t="n">
-        <v>22.9708156726213</v>
+        <v>22.8530453336304</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>25.4542881083293</v>
+        <v>25.1729900611615</v>
       </c>
       <c r="D39" s="5" t="n">
-        <v>24.4335792504372</v>
+        <v>24.3516640085629</v>
       </c>
       <c r="E39" s="6" t="n">
         <v>9</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40">
@@ -1438,19 +1438,19 @@
         <v>77</v>
       </c>
       <c r="B40" s="5" t="n">
-        <v>23.0275165420947</v>
+        <v>22.8851586741983</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>25.3994316356244</v>
+        <v>25.2507498188146</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>24.6247899616804</v>
+        <v>24.4839961981741</v>
       </c>
       <c r="E40" s="6" t="n">
         <v>8</v>
       </c>
       <c r="F40" s="6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>8</v>
@@ -1461,22 +1461,22 @@
         <v>78</v>
       </c>
       <c r="B41" s="5" t="n">
-        <v>23.0708432621012</v>
+        <v>23.0717716525701</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>25.3068953593686</v>
+        <v>25.1787093114263</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>24.599080214794</v>
+        <v>24.6763440419751</v>
       </c>
       <c r="E41" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F41" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G41" s="6" t="n">
         <v>6</v>
-      </c>
-      <c r="G41" s="6" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="42">
@@ -1484,13 +1484,13 @@
         <v>79</v>
       </c>
       <c r="B42" s="5" t="n">
-        <v>23.2524269041019</v>
+        <v>23.2745509997429</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>25.0962539563639</v>
+        <v>24.763629388408</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>25.0685636689277</v>
+        <v>24.725309339325</v>
       </c>
       <c r="E42" s="6" t="n">
         <v>6</v>
@@ -1499,7 +1499,7 @@
         <v>10</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43">
@@ -1507,22 +1507,22 @@
         <v>80</v>
       </c>
       <c r="B43" s="5" t="n">
-        <v>23.2991601700092</v>
+        <v>23.3310513668815</v>
       </c>
       <c r="C43" s="5" t="n">
-        <v>24.8356902264481</v>
+        <v>25.7424544689483</v>
       </c>
       <c r="D43" s="5" t="n">
-        <v>24.7516306273548</v>
+        <v>24.3616489150667</v>
       </c>
       <c r="E43" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F43" s="6" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G43" s="6" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44">
@@ -1530,22 +1530,22 @@
         <v>81</v>
       </c>
       <c r="B44" s="5" t="n">
-        <v>23.3592698782133</v>
+        <v>23.3451579602592</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>25.7875757406624</v>
+        <v>25.0748819683308</v>
       </c>
       <c r="D44" s="5" t="n">
-        <v>24.364558525299</v>
+        <v>25.0769472191118</v>
       </c>
       <c r="E44" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
@@ -1553,13 +1553,13 @@
         <v>82</v>
       </c>
       <c r="B45" s="5" t="n">
-        <v>23.4658884435317</v>
+        <v>23.536467555784</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>25.6284334652018</v>
+        <v>25.3804992837006</v>
       </c>
       <c r="D45" s="5" t="n">
-        <v>24.9713390089021</v>
+        <v>24.8439174549947</v>
       </c>
       <c r="E45" s="6" t="n">
         <v>3</v>
@@ -1576,13 +1576,13 @@
         <v>83</v>
       </c>
       <c r="B46" s="5" t="n">
-        <v>23.5540567125309</v>
+        <v>23.6008136146631</v>
       </c>
       <c r="C46" s="5" t="n">
-        <v>25.2125059908123</v>
+        <v>24.9925539481653</v>
       </c>
       <c r="D46" s="5" t="n">
-        <v>25.1817780493384</v>
+        <v>25.1095330326721</v>
       </c>
       <c r="E46" s="6" t="n">
         <v>2</v>
@@ -1599,22 +1599,22 @@
         <v>84</v>
       </c>
       <c r="B47" s="5" t="n">
-        <v>23.7805731091358</v>
+        <v>23.6937039935287</v>
       </c>
       <c r="C47" s="5" t="n">
-        <v>25.1723971201321</v>
+        <v>25.014190860522</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>25.0909826217298</v>
+        <v>25.0120521606041</v>
       </c>
       <c r="E47" s="6" t="n">
         <v>1</v>
       </c>
       <c r="F47" s="6" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G47" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/TabuladosGasolina.xlsx
+++ b/TabuladosGasolina.xlsx
@@ -164,13 +164,13 @@
     <t xml:space="preserve">CRE, pesos por litro</t>
   </si>
   <si>
-    <t xml:space="preserve">agosto 2023</t>
+    <t xml:space="preserve">diciembre 2023</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima actualización: octubre 2023</t>
+    <t xml:space="preserve">Próxima actualización: febrero 2024</t>
   </si>
   <si>
     <t xml:space="preserve">FUENTE: CRE; Comisión Reguladora de Energía</t>
@@ -188,85 +188,85 @@
     <t xml:space="preserve">Querétaro</t>
   </si>
   <si>
+    <t xml:space="preserve">Tlaxcala</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hidalgo</t>
   </si>
   <si>
+    <t xml:space="preserve">Sonora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puebla</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tabasco</t>
   </si>
   <si>
-    <t xml:space="preserve">Tlaxcala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puebla</t>
-  </si>
-  <si>
     <t xml:space="preserve">Veracruz</t>
   </si>
   <si>
+    <t xml:space="preserve">Morelos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michoacán</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coahuila</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiapas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yucatán</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guanajuato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sinaloa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Luis Potosí</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aguascalientes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nayarit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zacatecas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durango</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ciudad de México</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jalisco</t>
+  </si>
+  <si>
     <t xml:space="preserve">México</t>
   </si>
   <si>
-    <t xml:space="preserve">Morelos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coahuila</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chiapas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guanajuato</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aguascalientes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nacional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Luis Potosí</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colima</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zacatecas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ciudad de México</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sonora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yucatán</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michoacán</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jalisco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Durango</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nayarit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sinaloa</t>
-  </si>
-  <si>
     <t xml:space="preserve">Campeche</t>
   </si>
   <si>
+    <t xml:space="preserve">Nuevo León</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baja California Sur</t>
+  </si>
+  <si>
     <t xml:space="preserve">Oaxaca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baja California Sur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nuevo León</t>
   </si>
   <si>
     <t xml:space="preserve">Guerrero</t>
@@ -863,13 +863,13 @@
         <v>52</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>19.7193253987953</v>
+        <v>19.46</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>22.1550063907492</v>
+        <v>22</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>23.5029433058109</v>
+        <v>23.53</v>
       </c>
       <c r="E15" s="6" t="n">
         <v>33</v>
@@ -878,7 +878,7 @@
         <v>33</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
@@ -886,13 +886,13 @@
         <v>53</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>21.3196832970781</v>
+        <v>20.01</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>23.2354479793994</v>
+        <v>22.15</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>23.7469969195346</v>
+        <v>23.33</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>32</v>
@@ -901,7 +901,7 @@
         <v>32</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17">
@@ -909,19 +909,19 @@
         <v>54</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>21.4317101583245</v>
+        <v>21.35</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>23.9766745030804</v>
+        <v>23.66</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>22.925761673906</v>
+        <v>23.02</v>
       </c>
       <c r="E17" s="6" t="n">
         <v>31</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>33</v>
@@ -932,22 +932,22 @@
         <v>55</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>21.7967987205439</v>
+        <v>21.7</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>23.7912920182535</v>
+        <v>23.37</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>23.6145344649994</v>
+        <v>23.77</v>
       </c>
       <c r="E18" s="6" t="n">
         <v>30</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19">
@@ -955,22 +955,22 @@
         <v>56</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>21.8359959573151</v>
+        <v>21.71</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>23.9848706512382</v>
+        <v>23.37</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>23.6136845958328</v>
+        <v>23.57</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>29</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
@@ -978,22 +978,22 @@
         <v>57</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>21.9401690543071</v>
+        <v>21.72</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>23.9487380992062</v>
+        <v>23.26</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>23.8200924686041</v>
+        <v>23.84</v>
       </c>
       <c r="E20" s="6" t="n">
         <v>28</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21">
@@ -1001,22 +1001,22 @@
         <v>58</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>21.9656832246514</v>
+        <v>21.76</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>24.0965160865437</v>
+        <v>24.31</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>23.619124374198</v>
+        <v>24.42</v>
       </c>
       <c r="E21" s="6" t="n">
         <v>27</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -1024,22 +1024,22 @@
         <v>59</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>21.9935736233896</v>
+        <v>21.78</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>24.0388240170317</v>
+        <v>23.48</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>23.708794947456</v>
+        <v>23.77</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>26</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23">
@@ -1047,22 +1047,22 @@
         <v>60</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>22.0928238305077</v>
+        <v>21.8</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>23.9304716145831</v>
+        <v>23.65</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>23.8987833967171</v>
+        <v>23.84</v>
       </c>
       <c r="E23" s="6" t="n">
         <v>25</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24">
@@ -1070,22 +1070,22 @@
         <v>61</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>22.1146185152978</v>
+        <v>21.91</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>24.3432282408151</v>
+        <v>23.62</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>23.7025860978163</v>
+        <v>24.03</v>
       </c>
       <c r="E24" s="6" t="n">
         <v>24</v>
       </c>
       <c r="F24" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="G24" s="6" t="n">
         <v>22</v>
-      </c>
-      <c r="G24" s="6" t="n">
-        <v>28</v>
       </c>
     </row>
     <row r="25">
@@ -1093,22 +1093,22 @@
         <v>62</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>22.14311225004</v>
+        <v>21.93</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>24.0152675141295</v>
+        <v>24.05</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>23.8404775766135</v>
+        <v>23.76</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>23</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26">
@@ -1116,22 +1116,22 @@
         <v>63</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>22.1438813663166</v>
+        <v>22.02</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>24.7932247766835</v>
+        <v>23.59</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>24.2896279027952</v>
+        <v>24.03</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>22</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27">
@@ -1139,22 +1139,22 @@
         <v>64</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>22.1548470560009</v>
+        <v>22.0887096774194</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>24.1787894673252</v>
+        <v>24.1335483870968</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>23.9649260083549</v>
+        <v>24.1293548387097</v>
       </c>
       <c r="E27" s="6" t="n">
         <v>21</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28">
@@ -1162,22 +1162,22 @@
         <v>65</v>
       </c>
       <c r="B28" s="5" t="n">
-        <v>22.2277980641299</v>
+        <v>22.12</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>24.4867872597212</v>
+        <v>24.7</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>24.0615561047058</v>
+        <v>24.26</v>
       </c>
       <c r="E28" s="6" t="n">
         <v>20</v>
       </c>
       <c r="F28" s="6" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29">
@@ -1185,22 +1185,22 @@
         <v>66</v>
       </c>
       <c r="B29" s="5" t="n">
-        <v>22.241968037485</v>
+        <v>22.2</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>24.4404544551435</v>
+        <v>24.09</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>23.932621356173</v>
+        <v>24.21</v>
       </c>
       <c r="E29" s="6" t="n">
         <v>19</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30">
@@ -1208,22 +1208,22 @@
         <v>67</v>
       </c>
       <c r="B30" s="5" t="n">
-        <v>22.3054569002208</v>
+        <v>22.27</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>24.4898221926187</v>
+        <v>23.9</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>24.0576087434729</v>
+        <v>24.28</v>
       </c>
       <c r="E30" s="6" t="n">
         <v>18</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31">
@@ -1231,19 +1231,19 @@
         <v>68</v>
       </c>
       <c r="B31" s="5" t="n">
-        <v>22.4032900430177</v>
+        <v>22.34</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>24.565100142949</v>
+        <v>24.63</v>
       </c>
       <c r="D31" s="5" t="n">
-        <v>24.1650618417806</v>
+        <v>24.29</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>17</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>15</v>
@@ -1254,13 +1254,13 @@
         <v>69</v>
       </c>
       <c r="B32" s="5" t="n">
-        <v>22.5421141552039</v>
+        <v>22.38</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>24.7276697903019</v>
+        <v>24.42</v>
       </c>
       <c r="D32" s="5" t="n">
-        <v>24.1193652295138</v>
+        <v>24.14</v>
       </c>
       <c r="E32" s="6" t="n">
         <v>16</v>
@@ -1269,7 +1269,7 @@
         <v>14</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33">
@@ -1277,22 +1277,22 @@
         <v>70</v>
       </c>
       <c r="B33" s="5" t="n">
-        <v>22.5656367435987</v>
+        <v>22.43</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>24.5439403958808</v>
+        <v>24.07</v>
       </c>
       <c r="D33" s="5" t="n">
-        <v>24.2423056792046</v>
+        <v>24.4</v>
       </c>
       <c r="E33" s="6" t="n">
         <v>15</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34">
@@ -1300,22 +1300,22 @@
         <v>71</v>
       </c>
       <c r="B34" s="5" t="n">
-        <v>22.6006071731387</v>
+        <v>22.44</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>24.9113587944625</v>
+        <v>24.59</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>23.933319821379</v>
+        <v>24.19</v>
       </c>
       <c r="E34" s="6" t="n">
         <v>14</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35">
@@ -1323,22 +1323,22 @@
         <v>72</v>
       </c>
       <c r="B35" s="5" t="n">
-        <v>22.6666737373385</v>
+        <v>22.48</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>25.3382033996162</v>
+        <v>24.46</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>24.4951851637097</v>
+        <v>24.4</v>
       </c>
       <c r="E35" s="6" t="n">
         <v>13</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36">
@@ -1346,22 +1346,22 @@
         <v>73</v>
       </c>
       <c r="B36" s="5" t="n">
-        <v>22.792978195037</v>
+        <v>22.54</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>24.6812548605665</v>
+        <v>24.21</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>24.672873606168</v>
+        <v>24.64</v>
       </c>
       <c r="E36" s="6" t="n">
         <v>12</v>
       </c>
       <c r="F36" s="6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37">
@@ -1369,22 +1369,22 @@
         <v>74</v>
       </c>
       <c r="B37" s="5" t="n">
-        <v>22.8186332872542</v>
+        <v>22.55</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>24.8674629419278</v>
+        <v>24.3</v>
       </c>
       <c r="D37" s="5" t="n">
-        <v>24.4605833848534</v>
+        <v>24.29</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>11</v>
       </c>
       <c r="F37" s="6" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38">
@@ -1392,22 +1392,22 @@
         <v>75</v>
       </c>
       <c r="B38" s="5" t="n">
-        <v>22.8915308035746</v>
+        <v>22.61</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>25.1654869472255</v>
+        <v>24.83</v>
       </c>
       <c r="D38" s="5" t="n">
-        <v>24.2912672864927</v>
+        <v>24.54</v>
       </c>
       <c r="E38" s="6" t="n">
         <v>10</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39">
@@ -1415,22 +1415,22 @@
         <v>76</v>
       </c>
       <c r="B39" s="5" t="n">
-        <v>22.9217640034134</v>
+        <v>22.62</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>25.5774510633467</v>
+        <v>24.75</v>
       </c>
       <c r="D39" s="5" t="n">
-        <v>24.4880219855812</v>
+        <v>24.01</v>
       </c>
       <c r="E39" s="6" t="n">
         <v>9</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40">
@@ -1438,22 +1438,22 @@
         <v>77</v>
       </c>
       <c r="B40" s="5" t="n">
-        <v>23.005199280679</v>
+        <v>22.7</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>25.3246041045333</v>
+        <v>24.78</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>24.5179663451883</v>
+        <v>24.35</v>
       </c>
       <c r="E40" s="6" t="n">
         <v>8</v>
       </c>
       <c r="F40" s="6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41">
@@ -1461,22 +1461,22 @@
         <v>78</v>
       </c>
       <c r="B41" s="5" t="n">
-        <v>23.0151853944859</v>
+        <v>22.75</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>25.0832656321023</v>
+        <v>24.09</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>24.2362621142676</v>
+        <v>24.59</v>
       </c>
       <c r="E41" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F41" s="6" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42">
@@ -1484,22 +1484,22 @@
         <v>79</v>
       </c>
       <c r="B42" s="5" t="n">
-        <v>23.1021582836657</v>
+        <v>23.11</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>24.6409313856334</v>
+        <v>24.59</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>24.5813619305298</v>
+        <v>24.71</v>
       </c>
       <c r="E42" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F42" s="6" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43">
@@ -1507,22 +1507,22 @@
         <v>80</v>
       </c>
       <c r="B43" s="5" t="n">
-        <v>23.1438570227822</v>
+        <v>23.23</v>
       </c>
       <c r="C43" s="5" t="n">
-        <v>24.9455697814012</v>
+        <v>25.5</v>
       </c>
       <c r="D43" s="5" t="n">
-        <v>24.879868588824</v>
+        <v>24.34</v>
       </c>
       <c r="E43" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F43" s="6" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G43" s="6" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44">
@@ -1530,22 +1530,22 @@
         <v>81</v>
       </c>
       <c r="B44" s="5" t="n">
-        <v>23.4135511553305</v>
+        <v>23.3</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>25.4684669545588</v>
+        <v>25.16</v>
       </c>
       <c r="D44" s="5" t="n">
-        <v>24.6673594404169</v>
+        <v>24.83</v>
       </c>
       <c r="E44" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45">
@@ -1553,22 +1553,22 @@
         <v>82</v>
       </c>
       <c r="B45" s="5" t="n">
-        <v>23.4674247802976</v>
+        <v>23.36</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>25.6746884999849</v>
+        <v>24.87</v>
       </c>
       <c r="D45" s="5" t="n">
-        <v>24.1503231858661</v>
+        <v>25.06</v>
       </c>
       <c r="E45" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -1576,19 +1576,19 @@
         <v>83</v>
       </c>
       <c r="B46" s="5" t="n">
-        <v>23.6115868147166</v>
+        <v>23.54</v>
       </c>
       <c r="C46" s="5" t="n">
-        <v>25.2571957151002</v>
+        <v>24.65</v>
       </c>
       <c r="D46" s="5" t="n">
-        <v>25.1844324959383</v>
+        <v>25.21</v>
       </c>
       <c r="E46" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F46" s="6" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>1</v>
@@ -1599,22 +1599,22 @@
         <v>84</v>
       </c>
       <c r="B47" s="5" t="n">
-        <v>23.7071943374028</v>
+        <v>23.61</v>
       </c>
       <c r="C47" s="5" t="n">
-        <v>25.0494380268216</v>
+        <v>24.82</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>24.9338275657474</v>
+        <v>24.87</v>
       </c>
       <c r="E47" s="6" t="n">
         <v>1</v>
       </c>
       <c r="F47" s="6" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G47" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/TabuladosGasolina.xlsx
+++ b/TabuladosGasolina.xlsx
@@ -164,13 +164,13 @@
     <t xml:space="preserve">CRE, pesos por litro</t>
   </si>
   <si>
-    <t xml:space="preserve">noviembre 2023</t>
+    <t xml:space="preserve">diciembre 2023</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima actualización: enero 2024</t>
+    <t xml:space="preserve">Próxima actualización: febrero 2024</t>
   </si>
   <si>
     <t xml:space="preserve">FUENTE: CRE; Comisión Reguladora de Energía</t>
@@ -185,88 +185,88 @@
     <t xml:space="preserve">Baja California</t>
   </si>
   <si>
+    <t xml:space="preserve">Querétaro</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tlaxcala</t>
   </si>
   <si>
     <t xml:space="preserve">Hidalgo</t>
   </si>
   <si>
-    <t xml:space="preserve">Querétaro</t>
+    <t xml:space="preserve">Sonora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puebla</t>
   </si>
   <si>
     <t xml:space="preserve">Tabasco</t>
   </si>
   <si>
-    <t xml:space="preserve">Puebla</t>
-  </si>
-  <si>
     <t xml:space="preserve">Veracruz</t>
   </si>
   <si>
+    <t xml:space="preserve">Morelos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michoacán</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coahuila</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiapas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yucatán</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guanajuato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sinaloa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Luis Potosí</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aguascalientes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nayarit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zacatecas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durango</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ciudad de México</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jalisco</t>
+  </si>
+  <si>
     <t xml:space="preserve">México</t>
   </si>
   <si>
-    <t xml:space="preserve">Coahuila</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morelos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nacional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sonora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guanajuato</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chiapas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Luis Potosí</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aguascalientes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yucatán</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sinaloa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colima</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zacatecas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ciudad de México</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michoacán</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jalisco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Durango</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nayarit</t>
-  </si>
-  <si>
     <t xml:space="preserve">Campeche</t>
   </si>
   <si>
     <t xml:space="preserve">Nuevo León</t>
   </si>
   <si>
+    <t xml:space="preserve">Baja California Sur</t>
+  </si>
+  <si>
     <t xml:space="preserve">Oaxaca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baja California Sur</t>
   </si>
   <si>
     <t xml:space="preserve">Guerrero</t>
@@ -863,13 +863,13 @@
         <v>52</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>19.9521675276727</v>
+        <v>19.46</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>22.5594429336632</v>
+        <v>22</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>23.7107125127686</v>
+        <v>23.53</v>
       </c>
       <c r="E15" s="6" t="n">
         <v>33</v>
@@ -878,7 +878,7 @@
         <v>33</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
@@ -886,13 +886,13 @@
         <v>53</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>20.5202416203287</v>
+        <v>20.01</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>22.7259646158004</v>
+        <v>22.15</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>23.448265698699</v>
+        <v>23.33</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>32</v>
@@ -909,19 +909,19 @@
         <v>54</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>21.3661601618782</v>
+        <v>21.35</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>23.805461035722</v>
+        <v>23.66</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>22.8909368842047</v>
+        <v>23.02</v>
       </c>
       <c r="E17" s="6" t="n">
         <v>31</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>33</v>
@@ -932,22 +932,22 @@
         <v>55</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>21.7536334367823</v>
+        <v>21.7</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>23.7792532951051</v>
+        <v>23.37</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>23.509893228383</v>
+        <v>23.77</v>
       </c>
       <c r="E18" s="6" t="n">
         <v>30</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19">
@@ -955,19 +955,19 @@
         <v>56</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>21.7872783301856</v>
+        <v>21.71</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>23.67934714498</v>
+        <v>23.37</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>23.6773016390137</v>
+        <v>23.57</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>29</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>30</v>
@@ -978,22 +978,22 @@
         <v>57</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>21.793358023979</v>
+        <v>21.72</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>23.741182968922</v>
+        <v>23.26</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>23.7798763298853</v>
+        <v>23.84</v>
       </c>
       <c r="E20" s="6" t="n">
         <v>28</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21">
@@ -1001,22 +1001,22 @@
         <v>58</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>21.879635275479</v>
+        <v>21.76</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>23.8484404735761</v>
+        <v>24.31</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>23.7661098439672</v>
+        <v>24.42</v>
       </c>
       <c r="E21" s="6" t="n">
         <v>27</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -1024,19 +1024,19 @@
         <v>59</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>21.9140899104509</v>
+        <v>21.78</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>23.8423916276909</v>
+        <v>23.48</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>23.735967809046</v>
+        <v>23.77</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>26</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>28</v>
@@ -1047,22 +1047,22 @@
         <v>60</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>21.9676480585755</v>
+        <v>21.8</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>23.8344922674247</v>
+        <v>23.65</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>23.978320199769</v>
+        <v>23.84</v>
       </c>
       <c r="E23" s="6" t="n">
         <v>25</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24">
@@ -1070,22 +1070,22 @@
         <v>61</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>22.0979943555182</v>
+        <v>21.91</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>24.3167719940475</v>
+        <v>23.62</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>23.7484366724388</v>
+        <v>24.03</v>
       </c>
       <c r="E24" s="6" t="n">
         <v>24</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25">
@@ -1093,22 +1093,22 @@
         <v>62</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>22.1047542243875</v>
+        <v>21.93</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>24.6847849497456</v>
+        <v>24.05</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>24.4553566965293</v>
+        <v>23.76</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>23</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26">
@@ -1116,22 +1116,22 @@
         <v>63</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>22.1153261625557</v>
+        <v>22.02</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>23.8391476372748</v>
+        <v>23.59</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>23.9780740136677</v>
+        <v>24.03</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>22</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27">
@@ -1139,22 +1139,22 @@
         <v>64</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>22.2282084984446</v>
+        <v>22.0887096774194</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>24.4089934522163</v>
+        <v>24.1335483870968</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>24.1196355291854</v>
+        <v>24.1293548387097</v>
       </c>
       <c r="E27" s="6" t="n">
         <v>21</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28">
@@ -1162,22 +1162,22 @@
         <v>65</v>
       </c>
       <c r="B28" s="5" t="n">
-        <v>22.2598868523988</v>
+        <v>22.12</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>24.7381331528624</v>
+        <v>24.7</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>24.3687153260103</v>
+        <v>24.26</v>
       </c>
       <c r="E28" s="6" t="n">
         <v>20</v>
       </c>
       <c r="F28" s="6" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29">
@@ -1185,19 +1185,19 @@
         <v>66</v>
       </c>
       <c r="B29" s="5" t="n">
-        <v>22.3662762945641</v>
+        <v>22.2</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>24.7530207871378</v>
+        <v>24.09</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>24.237564591683</v>
+        <v>24.21</v>
       </c>
       <c r="E29" s="6" t="n">
         <v>19</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>18</v>
@@ -1208,22 +1208,22 @@
         <v>67</v>
       </c>
       <c r="B30" s="5" t="n">
-        <v>22.3670091439459</v>
+        <v>22.27</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>24.3296397708095</v>
+        <v>23.9</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>24.2449688592803</v>
+        <v>24.28</v>
       </c>
       <c r="E30" s="6" t="n">
         <v>18</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31">
@@ -1231,22 +1231,22 @@
         <v>68</v>
       </c>
       <c r="B31" s="5" t="n">
-        <v>22.4484524967874</v>
+        <v>22.34</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>24.3382995907863</v>
+        <v>24.63</v>
       </c>
       <c r="D31" s="5" t="n">
-        <v>24.2663324030062</v>
+        <v>24.29</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>17</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32">
@@ -1254,22 +1254,22 @@
         <v>69</v>
       </c>
       <c r="B32" s="5" t="n">
-        <v>22.4630846080933</v>
+        <v>22.38</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>24.6745450961311</v>
+        <v>24.42</v>
       </c>
       <c r="D32" s="5" t="n">
-        <v>24.2221599945072</v>
+        <v>24.14</v>
       </c>
       <c r="E32" s="6" t="n">
         <v>16</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33">
@@ -1277,19 +1277,19 @@
         <v>70</v>
       </c>
       <c r="B33" s="5" t="n">
-        <v>22.5076983232602</v>
+        <v>22.43</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>24.3421247804564</v>
+        <v>24.07</v>
       </c>
       <c r="D33" s="5" t="n">
-        <v>24.3900879746385</v>
+        <v>24.4</v>
       </c>
       <c r="E33" s="6" t="n">
         <v>15</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>10</v>
@@ -1300,22 +1300,22 @@
         <v>71</v>
       </c>
       <c r="B34" s="5" t="n">
-        <v>22.6087981757095</v>
+        <v>22.44</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>24.7211532945866</v>
+        <v>24.59</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>24.0915268187156</v>
+        <v>24.19</v>
       </c>
       <c r="E34" s="6" t="n">
         <v>14</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35">
@@ -1323,22 +1323,22 @@
         <v>72</v>
       </c>
       <c r="B35" s="5" t="n">
-        <v>22.6219480026405</v>
+        <v>22.48</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>24.7594318725675</v>
+        <v>24.46</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>24.2690542198202</v>
+        <v>24.4</v>
       </c>
       <c r="E35" s="6" t="n">
         <v>13</v>
       </c>
       <c r="F35" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="G35" s="6" t="n">
         <v>11</v>
-      </c>
-      <c r="G35" s="6" t="n">
-        <v>15</v>
       </c>
     </row>
     <row r="36">
@@ -1346,22 +1346,22 @@
         <v>73</v>
       </c>
       <c r="B36" s="5" t="n">
-        <v>22.6861175963863</v>
+        <v>22.54</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>24.5668746383572</v>
+        <v>24.21</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>24.3350753903764</v>
+        <v>24.64</v>
       </c>
       <c r="E36" s="6" t="n">
         <v>12</v>
       </c>
       <c r="F36" s="6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37">
@@ -1369,22 +1369,22 @@
         <v>74</v>
       </c>
       <c r="B37" s="5" t="n">
-        <v>22.7196374562572</v>
+        <v>22.55</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>24.9447140707294</v>
+        <v>24.3</v>
       </c>
       <c r="D37" s="5" t="n">
-        <v>24.01703207299</v>
+        <v>24.29</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>11</v>
       </c>
       <c r="F37" s="6" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38">
@@ -1392,22 +1392,22 @@
         <v>75</v>
       </c>
       <c r="B38" s="5" t="n">
-        <v>22.831878082335</v>
+        <v>22.61</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>24.6434445214289</v>
+        <v>24.83</v>
       </c>
       <c r="D38" s="5" t="n">
-        <v>24.522797706234</v>
+        <v>24.54</v>
       </c>
       <c r="E38" s="6" t="n">
         <v>10</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39">
@@ -1415,22 +1415,22 @@
         <v>76</v>
       </c>
       <c r="B39" s="5" t="n">
-        <v>22.8530453336304</v>
+        <v>22.62</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>25.1729900611615</v>
+        <v>24.75</v>
       </c>
       <c r="D39" s="5" t="n">
-        <v>24.3516640085629</v>
+        <v>24.01</v>
       </c>
       <c r="E39" s="6" t="n">
         <v>9</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40">
@@ -1438,22 +1438,22 @@
         <v>77</v>
       </c>
       <c r="B40" s="5" t="n">
-        <v>22.8851586741983</v>
+        <v>22.7</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>25.2507498188146</v>
+        <v>24.78</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>24.4839961981741</v>
+        <v>24.35</v>
       </c>
       <c r="E40" s="6" t="n">
         <v>8</v>
       </c>
       <c r="F40" s="6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41">
@@ -1461,22 +1461,22 @@
         <v>78</v>
       </c>
       <c r="B41" s="5" t="n">
-        <v>23.0717716525701</v>
+        <v>22.75</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>25.1787093114263</v>
+        <v>24.09</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>24.6763440419751</v>
+        <v>24.59</v>
       </c>
       <c r="E41" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F41" s="6" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42">
@@ -1484,19 +1484,19 @@
         <v>79</v>
       </c>
       <c r="B42" s="5" t="n">
-        <v>23.2745509997429</v>
+        <v>23.11</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>24.763629388408</v>
+        <v>24.59</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>24.725309339325</v>
+        <v>24.71</v>
       </c>
       <c r="E42" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F42" s="6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>5</v>
@@ -1507,13 +1507,13 @@
         <v>80</v>
       </c>
       <c r="B43" s="5" t="n">
-        <v>23.3310513668815</v>
+        <v>23.23</v>
       </c>
       <c r="C43" s="5" t="n">
-        <v>25.7424544689483</v>
+        <v>25.5</v>
       </c>
       <c r="D43" s="5" t="n">
-        <v>24.3616489150667</v>
+        <v>24.34</v>
       </c>
       <c r="E43" s="6" t="n">
         <v>5</v>
@@ -1522,7 +1522,7 @@
         <v>1</v>
       </c>
       <c r="G43" s="6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44">
@@ -1530,22 +1530,22 @@
         <v>81</v>
       </c>
       <c r="B44" s="5" t="n">
-        <v>23.3451579602592</v>
+        <v>23.3</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>25.0748819683308</v>
+        <v>25.16</v>
       </c>
       <c r="D44" s="5" t="n">
-        <v>25.0769472191118</v>
+        <v>24.83</v>
       </c>
       <c r="E44" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45">
@@ -1553,22 +1553,22 @@
         <v>82</v>
       </c>
       <c r="B45" s="5" t="n">
-        <v>23.536467555784</v>
+        <v>23.36</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>25.3804992837006</v>
+        <v>24.87</v>
       </c>
       <c r="D45" s="5" t="n">
-        <v>24.8439174549947</v>
+        <v>25.06</v>
       </c>
       <c r="E45" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F45" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G45" s="6" t="n">
         <v>2</v>
-      </c>
-      <c r="G45" s="6" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="46">
@@ -1576,19 +1576,19 @@
         <v>83</v>
       </c>
       <c r="B46" s="5" t="n">
-        <v>23.6008136146631</v>
+        <v>23.54</v>
       </c>
       <c r="C46" s="5" t="n">
-        <v>24.9925539481653</v>
+        <v>24.65</v>
       </c>
       <c r="D46" s="5" t="n">
-        <v>25.1095330326721</v>
+        <v>25.21</v>
       </c>
       <c r="E46" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F46" s="6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>1</v>
@@ -1599,19 +1599,19 @@
         <v>84</v>
       </c>
       <c r="B47" s="5" t="n">
-        <v>23.6937039935287</v>
+        <v>23.61</v>
       </c>
       <c r="C47" s="5" t="n">
-        <v>25.014190860522</v>
+        <v>24.82</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>25.0120521606041</v>
+        <v>24.87</v>
       </c>
       <c r="E47" s="6" t="n">
         <v>1</v>
       </c>
       <c r="F47" s="6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>3</v>

--- a/TabuladosGasolina.xlsx
+++ b/TabuladosGasolina.xlsx
@@ -164,13 +164,13 @@
     <t xml:space="preserve">CRE, pesos por litro</t>
   </si>
   <si>
-    <t xml:space="preserve">diciembre 2023</t>
+    <t xml:space="preserve">enero 2024</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima actualización: febrero 2024</t>
+    <t xml:space="preserve">Próxima actualización: marzo 2024</t>
   </si>
   <si>
     <t xml:space="preserve">FUENTE: CRE; Comisión Reguladora de Energía</t>
@@ -185,94 +185,94 @@
     <t xml:space="preserve">Baja California</t>
   </si>
   <si>
+    <t xml:space="preserve">Sonora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tabasco</t>
+  </si>
+  <si>
     <t xml:space="preserve">Querétaro</t>
   </si>
   <si>
     <t xml:space="preserve">Tlaxcala</t>
   </si>
   <si>
+    <t xml:space="preserve">Puebla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">México</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coahuila</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hidalgo</t>
   </si>
   <si>
-    <t xml:space="preserve">Sonora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puebla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tabasco</t>
-  </si>
-  <si>
     <t xml:space="preserve">Veracruz</t>
   </si>
   <si>
     <t xml:space="preserve">Morelos</t>
   </si>
   <si>
+    <t xml:space="preserve">Nacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiapas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guanajuato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aguascalientes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ciudad de México</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Luis Potosí</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durango</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zacatecas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yucatán</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sinaloa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jalisco</t>
+  </si>
+  <si>
     <t xml:space="preserve">Michoacán</t>
   </si>
   <si>
-    <t xml:space="preserve">Nacional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coahuila</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chiapas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yucatán</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guanajuato</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sinaloa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Luis Potosí</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aguascalientes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colima</t>
+    <t xml:space="preserve">Campeche</t>
   </si>
   <si>
     <t xml:space="preserve">Nayarit</t>
   </si>
   <si>
-    <t xml:space="preserve">Zacatecas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Durango</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ciudad de México</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jalisco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">México</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Campeche</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nuevo León</t>
   </si>
   <si>
+    <t xml:space="preserve">Oaxaca</t>
+  </si>
+  <si>
     <t xml:space="preserve">Baja California Sur</t>
   </si>
   <si>
-    <t xml:space="preserve">Oaxaca</t>
+    <t xml:space="preserve">Quintana Roo</t>
   </si>
   <si>
     <t xml:space="preserve">Guerrero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quintana Roo</t>
   </si>
 </sst>
 </file>
@@ -863,13 +863,13 @@
         <v>52</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>19.46</v>
+        <v>19.82</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>22</v>
+        <v>22.11</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>23.53</v>
+        <v>23.86</v>
       </c>
       <c r="E15" s="6" t="n">
         <v>33</v>
@@ -878,7 +878,7 @@
         <v>33</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16">
@@ -886,13 +886,13 @@
         <v>53</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>20.01</v>
+        <v>20.4</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>22.15</v>
+        <v>22.29</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>23.33</v>
+        <v>23.87</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>32</v>
@@ -901,7 +901,7 @@
         <v>32</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17">
@@ -909,13 +909,13 @@
         <v>54</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>21.35</v>
+        <v>21.57</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>23.66</v>
+        <v>23.78</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>23.02</v>
+        <v>23.32</v>
       </c>
       <c r="E17" s="6" t="n">
         <v>31</v>
@@ -932,22 +932,22 @@
         <v>55</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>21.7</v>
+        <v>21.93</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>23.37</v>
+        <v>23.94</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>23.77</v>
+        <v>24.65</v>
       </c>
       <c r="E18" s="6" t="n">
         <v>30</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19">
@@ -955,22 +955,22 @@
         <v>56</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>21.71</v>
+        <v>21.95</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>23.37</v>
+        <v>23.69</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>23.57</v>
+        <v>24.04</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>29</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20">
@@ -978,22 +978,22 @@
         <v>57</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>21.72</v>
+        <v>21.96</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>23.26</v>
+        <v>23.42</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>23.84</v>
+        <v>24.03</v>
       </c>
       <c r="E20" s="6" t="n">
         <v>28</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21">
@@ -1001,22 +1001,22 @@
         <v>58</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>21.76</v>
+        <v>21.98</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>24.31</v>
+        <v>23.35</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>24.42</v>
+        <v>23.93</v>
       </c>
       <c r="E21" s="6" t="n">
         <v>27</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22">
@@ -1024,22 +1024,22 @@
         <v>59</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>21.78</v>
+        <v>22.04</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>23.48</v>
+        <v>23.41</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>23.77</v>
+        <v>24.09</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>26</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23">
@@ -1047,22 +1047,22 @@
         <v>60</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>21.8</v>
+        <v>22.05</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>23.65</v>
+        <v>23.96</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>23.84</v>
+        <v>23.95</v>
       </c>
       <c r="E23" s="6" t="n">
         <v>25</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24">
@@ -1070,22 +1070,22 @@
         <v>61</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>21.91</v>
+        <v>22.07</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>23.62</v>
+        <v>24.48</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>24.03</v>
+        <v>24.27</v>
       </c>
       <c r="E24" s="6" t="n">
         <v>24</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25">
@@ -1093,22 +1093,22 @@
         <v>62</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>21.93</v>
+        <v>22.08</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>24.05</v>
+        <v>23.34</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>23.76</v>
+        <v>24.13</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>23</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26">
@@ -1116,13 +1116,13 @@
         <v>63</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>22.02</v>
+        <v>22.08</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>23.59</v>
+        <v>23.61</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>24.03</v>
+        <v>24.27</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>22</v>
@@ -1131,7 +1131,7 @@
         <v>27</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27">
@@ -1139,19 +1139,19 @@
         <v>64</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>22.0887096774194</v>
+        <v>22.29</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>24.1335483870968</v>
+        <v>23.64</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>24.1293548387097</v>
+        <v>24.37</v>
       </c>
       <c r="E27" s="6" t="n">
         <v>21</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>21</v>
@@ -1162,22 +1162,22 @@
         <v>65</v>
       </c>
       <c r="B28" s="5" t="n">
-        <v>22.12</v>
+        <v>22.32</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>24.7</v>
+        <v>24.15</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>24.26</v>
+        <v>24.42</v>
       </c>
       <c r="E28" s="6" t="n">
         <v>20</v>
       </c>
       <c r="F28" s="6" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29">
@@ -1185,22 +1185,22 @@
         <v>66</v>
       </c>
       <c r="B29" s="5" t="n">
-        <v>22.2</v>
+        <v>22.34</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>24.09</v>
+        <v>24.02</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>24.21</v>
+        <v>24.41</v>
       </c>
       <c r="E29" s="6" t="n">
         <v>19</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30">
@@ -1208,22 +1208,22 @@
         <v>67</v>
       </c>
       <c r="B30" s="5" t="n">
-        <v>22.27</v>
+        <v>22.54</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>23.9</v>
+        <v>24.68</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>24.28</v>
+        <v>24.51</v>
       </c>
       <c r="E30" s="6" t="n">
         <v>18</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31">
@@ -1231,22 +1231,22 @@
         <v>68</v>
       </c>
       <c r="B31" s="5" t="n">
-        <v>22.34</v>
+        <v>22.58</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>24.63</v>
+        <v>24.68</v>
       </c>
       <c r="D31" s="5" t="n">
-        <v>24.29</v>
+        <v>24.41</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>17</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32">
@@ -1254,22 +1254,22 @@
         <v>69</v>
       </c>
       <c r="B32" s="5" t="n">
-        <v>22.38</v>
+        <v>22.63</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>24.42</v>
+        <v>24.66</v>
       </c>
       <c r="D32" s="5" t="n">
-        <v>24.14</v>
+        <v>24.11</v>
       </c>
       <c r="E32" s="6" t="n">
         <v>16</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33">
@@ -1277,22 +1277,22 @@
         <v>70</v>
       </c>
       <c r="B33" s="5" t="n">
-        <v>22.43</v>
+        <v>22.63</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>24.07</v>
+        <v>24.17</v>
       </c>
       <c r="D33" s="5" t="n">
-        <v>24.4</v>
+        <v>24.65</v>
       </c>
       <c r="E33" s="6" t="n">
         <v>15</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34">
@@ -1300,22 +1300,22 @@
         <v>71</v>
       </c>
       <c r="B34" s="5" t="n">
-        <v>22.44</v>
+        <v>22.65</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>24.59</v>
+        <v>24.73</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>24.19</v>
+        <v>24.82</v>
       </c>
       <c r="E34" s="6" t="n">
         <v>14</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35">
@@ -1323,13 +1323,13 @@
         <v>72</v>
       </c>
       <c r="B35" s="5" t="n">
-        <v>22.48</v>
+        <v>22.68</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>24.46</v>
+        <v>24.57</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>24.4</v>
+        <v>24.65</v>
       </c>
       <c r="E35" s="6" t="n">
         <v>13</v>
@@ -1338,7 +1338,7 @@
         <v>13</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36">
@@ -1346,13 +1346,13 @@
         <v>73</v>
       </c>
       <c r="B36" s="5" t="n">
-        <v>22.54</v>
+        <v>22.7</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>24.21</v>
+        <v>24.32</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>24.64</v>
+        <v>24.55</v>
       </c>
       <c r="E36" s="6" t="n">
         <v>12</v>
@@ -1361,7 +1361,7 @@
         <v>17</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37">
@@ -1369,22 +1369,22 @@
         <v>74</v>
       </c>
       <c r="B37" s="5" t="n">
-        <v>22.55</v>
+        <v>22.89</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>24.3</v>
+        <v>24.54</v>
       </c>
       <c r="D37" s="5" t="n">
-        <v>24.29</v>
+        <v>25.01</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>11</v>
       </c>
       <c r="F37" s="6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38">
@@ -1392,22 +1392,22 @@
         <v>75</v>
       </c>
       <c r="B38" s="5" t="n">
-        <v>22.61</v>
+        <v>22.97</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>24.83</v>
+        <v>24.57</v>
       </c>
       <c r="D38" s="5" t="n">
-        <v>24.54</v>
+        <v>24.43</v>
       </c>
       <c r="E38" s="6" t="n">
         <v>10</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39">
@@ -1415,22 +1415,22 @@
         <v>76</v>
       </c>
       <c r="B39" s="5" t="n">
-        <v>22.62</v>
+        <v>22.98</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>24.75</v>
+        <v>24.87</v>
       </c>
       <c r="D39" s="5" t="n">
-        <v>24.01</v>
+        <v>24.7</v>
       </c>
       <c r="E39" s="6" t="n">
         <v>9</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40">
@@ -1438,22 +1438,22 @@
         <v>77</v>
       </c>
       <c r="B40" s="5" t="n">
-        <v>22.7</v>
+        <v>23.01</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>24.78</v>
+        <v>24.31</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>24.35</v>
+        <v>25.01</v>
       </c>
       <c r="E40" s="6" t="n">
         <v>8</v>
       </c>
       <c r="F40" s="6" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41">
@@ -1461,22 +1461,22 @@
         <v>78</v>
       </c>
       <c r="B41" s="5" t="n">
-        <v>22.75</v>
+        <v>23.15</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>24.09</v>
+        <v>24.57</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>24.59</v>
+        <v>24.77</v>
       </c>
       <c r="E41" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F41" s="6" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42">
@@ -1484,13 +1484,13 @@
         <v>79</v>
       </c>
       <c r="B42" s="5" t="n">
-        <v>23.11</v>
+        <v>23.17</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>24.59</v>
+        <v>24.62</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>24.71</v>
+        <v>25.15</v>
       </c>
       <c r="E42" s="6" t="n">
         <v>6</v>
@@ -1499,7 +1499,7 @@
         <v>11</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
@@ -1507,13 +1507,13 @@
         <v>80</v>
       </c>
       <c r="B43" s="5" t="n">
-        <v>23.23</v>
+        <v>23.25</v>
       </c>
       <c r="C43" s="5" t="n">
-        <v>25.5</v>
+        <v>25.39</v>
       </c>
       <c r="D43" s="5" t="n">
-        <v>24.34</v>
+        <v>24.42</v>
       </c>
       <c r="E43" s="6" t="n">
         <v>5</v>
@@ -1522,7 +1522,7 @@
         <v>1</v>
       </c>
       <c r="G43" s="6" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44">
@@ -1530,22 +1530,22 @@
         <v>81</v>
       </c>
       <c r="B44" s="5" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>25.16</v>
+        <v>24.81</v>
       </c>
       <c r="D44" s="5" t="n">
-        <v>24.83</v>
+        <v>25.25</v>
       </c>
       <c r="E44" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F44" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="G44" s="6" t="n">
         <v>2</v>
-      </c>
-      <c r="G44" s="6" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="45">
@@ -1553,22 +1553,22 @@
         <v>82</v>
       </c>
       <c r="B45" s="5" t="n">
-        <v>23.36</v>
+        <v>23.48</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>24.87</v>
+        <v>25.19</v>
       </c>
       <c r="D45" s="5" t="n">
-        <v>25.06</v>
+        <v>25.1</v>
       </c>
       <c r="E45" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46">
@@ -1576,22 +1576,22 @@
         <v>83</v>
       </c>
       <c r="B46" s="5" t="n">
-        <v>23.54</v>
+        <v>23.76</v>
       </c>
       <c r="C46" s="5" t="n">
-        <v>24.65</v>
+        <v>24.87</v>
       </c>
       <c r="D46" s="5" t="n">
-        <v>25.21</v>
+        <v>25.23</v>
       </c>
       <c r="E46" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F46" s="6" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G46" s="6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47">
@@ -1599,22 +1599,22 @@
         <v>84</v>
       </c>
       <c r="B47" s="5" t="n">
-        <v>23.61</v>
+        <v>23.82</v>
       </c>
       <c r="C47" s="5" t="n">
-        <v>24.82</v>
+        <v>24.79</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>24.87</v>
+        <v>25.47</v>
       </c>
       <c r="E47" s="6" t="n">
         <v>1</v>
       </c>
       <c r="F47" s="6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G47" s="6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/TabuladosGasolina.xlsx
+++ b/TabuladosGasolina.xlsx
@@ -164,13 +164,13 @@
     <t xml:space="preserve">CRE, pesos por litro</t>
   </si>
   <si>
-    <t xml:space="preserve">enero 2024</t>
+    <t xml:space="preserve">febrero 2024</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima actualización: marzo 2024</t>
+    <t xml:space="preserve">Próxima actualización: abril 2024</t>
   </si>
   <si>
     <t xml:space="preserve">FUENTE: CRE; Comisión Reguladora de Energía</t>
@@ -185,94 +185,94 @@
     <t xml:space="preserve">Baja California</t>
   </si>
   <si>
+    <t xml:space="preserve">Querétaro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tabasco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coahuila</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tlaxcala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">México</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puebla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veracruz</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sonora</t>
   </si>
   <si>
-    <t xml:space="preserve">Tabasco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Querétaro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tlaxcala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puebla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">México</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coahuila</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hidalgo</t>
   </si>
   <si>
-    <t xml:space="preserve">Veracruz</t>
+    <t xml:space="preserve">Nacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiapas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guanajuato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aguascalientes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ciudad de México</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zacatecas</t>
   </si>
   <si>
     <t xml:space="preserve">Morelos</t>
   </si>
   <si>
-    <t xml:space="preserve">Nacional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chiapas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guanajuato</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aguascalientes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ciudad de México</t>
+    <t xml:space="preserve">Durango</t>
   </si>
   <si>
     <t xml:space="preserve">San Luis Potosí</t>
   </si>
   <si>
-    <t xml:space="preserve">Durango</t>
-  </si>
-  <si>
     <t xml:space="preserve">Colima</t>
   </si>
   <si>
-    <t xml:space="preserve">Zacatecas</t>
+    <t xml:space="preserve">Campeche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sinaloa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jalisco</t>
   </si>
   <si>
     <t xml:space="preserve">Yucatán</t>
   </si>
   <si>
-    <t xml:space="preserve">Sinaloa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jalisco</t>
+    <t xml:space="preserve">Nuevo León</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nayarit</t>
   </si>
   <si>
     <t xml:space="preserve">Michoacán</t>
   </si>
   <si>
-    <t xml:space="preserve">Campeche</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nayarit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nuevo León</t>
-  </si>
-  <si>
     <t xml:space="preserve">Oaxaca</t>
   </si>
   <si>
     <t xml:space="preserve">Baja California Sur</t>
   </si>
   <si>
+    <t xml:space="preserve">Guerrero</t>
+  </si>
+  <si>
     <t xml:space="preserve">Quintana Roo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guerrero</t>
   </si>
 </sst>
 </file>
@@ -863,13 +863,13 @@
         <v>52</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>19.82</v>
+        <v>20.7506676453344</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>22.11</v>
+        <v>22.7021314925055</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>23.86</v>
+        <v>24.3111908782988</v>
       </c>
       <c r="E15" s="6" t="n">
         <v>33</v>
@@ -886,13 +886,13 @@
         <v>53</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>20.4</v>
+        <v>21.0010010046859</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>22.29</v>
+        <v>23.0179836460864</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>23.87</v>
+        <v>24.3533698311861</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>32</v>
@@ -901,7 +901,7 @@
         <v>32</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17">
@@ -909,13 +909,13 @@
         <v>54</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>21.57</v>
+        <v>22.3171489964739</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>23.78</v>
+        <v>24.1773420422458</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>23.32</v>
+        <v>23.8549791903512</v>
       </c>
       <c r="E17" s="6" t="n">
         <v>31</v>
@@ -932,22 +932,22 @@
         <v>55</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>21.93</v>
+        <v>22.5798038986855</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>23.94</v>
+        <v>23.965923881709</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>24.65</v>
+        <v>24.456080421559</v>
       </c>
       <c r="E18" s="6" t="n">
         <v>30</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19">
@@ -955,22 +955,22 @@
         <v>56</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>21.95</v>
+        <v>22.5931793573051</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>23.69</v>
+        <v>23.8849526169062</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>24.04</v>
+        <v>24.440530296058</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>29</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20">
@@ -978,22 +978,22 @@
         <v>57</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>21.96</v>
+        <v>22.5976352930754</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>23.42</v>
+        <v>24.9288500666357</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>24.03</v>
+        <v>24.4984422693558</v>
       </c>
       <c r="E20" s="6" t="n">
         <v>28</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21">
@@ -1001,22 +1001,22 @@
         <v>58</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>21.98</v>
+        <v>22.6708198498373</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>23.35</v>
+        <v>23.7741312346841</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>23.93</v>
+        <v>24.4464124269346</v>
       </c>
       <c r="E21" s="6" t="n">
         <v>27</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22">
@@ -1024,22 +1024,22 @@
         <v>59</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>22.04</v>
+        <v>22.7620764014574</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>23.41</v>
+        <v>24.3898326220133</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>24.09</v>
+        <v>24.3349452671254</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>26</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23">
@@ -1047,22 +1047,22 @@
         <v>60</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>22.05</v>
+        <v>22.8094922241777</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>23.96</v>
+        <v>23.8452798562822</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>23.95</v>
+        <v>24.6764070314006</v>
       </c>
       <c r="E23" s="6" t="n">
         <v>25</v>
       </c>
       <c r="F23" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="G23" s="6" t="n">
         <v>22</v>
-      </c>
-      <c r="G23" s="6" t="n">
-        <v>29</v>
       </c>
     </row>
     <row r="24">
@@ -1070,22 +1070,22 @@
         <v>61</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>22.07</v>
+        <v>22.8294071417398</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>24.48</v>
+        <v>24.0170872797944</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>24.27</v>
+        <v>24.8692421267586</v>
       </c>
       <c r="E24" s="6" t="n">
         <v>24</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25">
@@ -1093,22 +1093,22 @@
         <v>62</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>22.08</v>
+        <v>22.8516912045888</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>23.34</v>
+        <v>24.7262160783878</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>24.13</v>
+        <v>25.2551049309291</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>23</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -1116,22 +1116,22 @@
         <v>63</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>22.08</v>
+        <v>22.9412284688578</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>23.61</v>
+        <v>23.8544621772428</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>24.27</v>
+        <v>24.5620763426147</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>22</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27">
@@ -1139,22 +1139,22 @@
         <v>64</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>22.29</v>
+        <v>22.9956150278462</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>23.64</v>
+        <v>24.5845548489001</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>24.37</v>
+        <v>24.8833641423928</v>
       </c>
       <c r="E27" s="6" t="n">
         <v>21</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28">
@@ -1162,22 +1162,22 @@
         <v>65</v>
       </c>
       <c r="B28" s="5" t="n">
-        <v>22.32</v>
+        <v>22.9977331637544</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>24.15</v>
+        <v>24.2259892489028</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>24.42</v>
+        <v>24.998628573415</v>
       </c>
       <c r="E28" s="6" t="n">
         <v>20</v>
       </c>
       <c r="F28" s="6" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29">
@@ -1185,19 +1185,19 @@
         <v>66</v>
       </c>
       <c r="B29" s="5" t="n">
-        <v>22.34</v>
+        <v>23.0692551601602</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>24.02</v>
+        <v>24.9792998349801</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>24.41</v>
+        <v>24.8739247946216</v>
       </c>
       <c r="E29" s="6" t="n">
         <v>19</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>19</v>
@@ -1208,22 +1208,22 @@
         <v>67</v>
       </c>
       <c r="B30" s="5" t="n">
-        <v>22.54</v>
+        <v>23.0769750695084</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>24.68</v>
+        <v>24.8967668652641</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>24.51</v>
+        <v>24.7403663047387</v>
       </c>
       <c r="E30" s="6" t="n">
         <v>18</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31">
@@ -1231,22 +1231,22 @@
         <v>68</v>
       </c>
       <c r="B31" s="5" t="n">
-        <v>22.58</v>
+        <v>23.0974880172559</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>24.68</v>
+        <v>25.0153125737747</v>
       </c>
       <c r="D31" s="5" t="n">
-        <v>24.41</v>
+        <v>24.3555035079342</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>17</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32">
@@ -1254,22 +1254,22 @@
         <v>69</v>
       </c>
       <c r="B32" s="5" t="n">
-        <v>22.63</v>
+        <v>23.1413510033504</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>24.66</v>
+        <v>24.6413621141874</v>
       </c>
       <c r="D32" s="5" t="n">
-        <v>24.11</v>
+        <v>24.8934862932091</v>
       </c>
       <c r="E32" s="6" t="n">
         <v>16</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33">
@@ -1277,19 +1277,19 @@
         <v>70</v>
       </c>
       <c r="B33" s="5" t="n">
-        <v>22.63</v>
+        <v>23.1802685779366</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>24.17</v>
+        <v>24.0935372368253</v>
       </c>
       <c r="D33" s="5" t="n">
-        <v>24.65</v>
+        <v>25.0219228135904</v>
       </c>
       <c r="E33" s="6" t="n">
         <v>15</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>12</v>
@@ -1300,22 +1300,22 @@
         <v>71</v>
       </c>
       <c r="B34" s="5" t="n">
-        <v>22.65</v>
+        <v>23.21572135485</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>24.73</v>
+        <v>25.0917193394061</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>24.82</v>
+        <v>24.9109496110107</v>
       </c>
       <c r="E34" s="6" t="n">
         <v>14</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35">
@@ -1323,22 +1323,22 @@
         <v>72</v>
       </c>
       <c r="B35" s="5" t="n">
-        <v>22.68</v>
+        <v>23.3178223676408</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>24.57</v>
+        <v>24.5825096635857</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>24.65</v>
+        <v>25.0942867445018</v>
       </c>
       <c r="E35" s="6" t="n">
         <v>13</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36">
@@ -1346,22 +1346,22 @@
         <v>73</v>
       </c>
       <c r="B36" s="5" t="n">
-        <v>22.7</v>
+        <v>23.3229663105125</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>24.32</v>
+        <v>24.7753370118838</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>24.55</v>
+        <v>25.108555182679</v>
       </c>
       <c r="E36" s="6" t="n">
         <v>12</v>
       </c>
       <c r="F36" s="6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37">
@@ -1369,22 +1369,22 @@
         <v>74</v>
       </c>
       <c r="B37" s="5" t="n">
-        <v>22.89</v>
+        <v>23.421179938933</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>24.54</v>
+        <v>24.6947675693198</v>
       </c>
       <c r="D37" s="5" t="n">
-        <v>25.01</v>
+        <v>25.0187561740067</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>11</v>
       </c>
       <c r="F37" s="6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38">
@@ -1392,22 +1392,22 @@
         <v>75</v>
       </c>
       <c r="B38" s="5" t="n">
-        <v>22.97</v>
+        <v>23.5410486197696</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>24.57</v>
+        <v>25.0995028190733</v>
       </c>
       <c r="D38" s="5" t="n">
-        <v>24.43</v>
+        <v>24.951498683686</v>
       </c>
       <c r="E38" s="6" t="n">
         <v>10</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39">
@@ -1415,13 +1415,13 @@
         <v>76</v>
       </c>
       <c r="B39" s="5" t="n">
-        <v>22.98</v>
+        <v>23.6996236117548</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>24.87</v>
+        <v>25.3152294300865</v>
       </c>
       <c r="D39" s="5" t="n">
-        <v>24.7</v>
+        <v>25.1805784267156</v>
       </c>
       <c r="E39" s="6" t="n">
         <v>9</v>
@@ -1430,7 +1430,7 @@
         <v>4</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40">
@@ -1438,22 +1438,22 @@
         <v>77</v>
       </c>
       <c r="B40" s="5" t="n">
-        <v>23.01</v>
+        <v>23.7200726136067</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>24.31</v>
+        <v>24.5808813952755</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>25.01</v>
+        <v>25.7020163278647</v>
       </c>
       <c r="E40" s="6" t="n">
         <v>8</v>
       </c>
       <c r="F40" s="6" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
@@ -1461,22 +1461,22 @@
         <v>78</v>
       </c>
       <c r="B41" s="5" t="n">
-        <v>23.15</v>
+        <v>23.8108661464904</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>24.57</v>
+        <v>26.0469891855407</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>24.77</v>
+        <v>24.5987680969938</v>
       </c>
       <c r="E41" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F41" s="6" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42">
@@ -1484,22 +1484,22 @@
         <v>79</v>
       </c>
       <c r="B42" s="5" t="n">
-        <v>23.17</v>
+        <v>23.8359330452862</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>24.62</v>
+        <v>25.2914602185623</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>25.15</v>
+        <v>25.5700994203819</v>
       </c>
       <c r="E42" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F42" s="6" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43">
@@ -1507,22 +1507,22 @@
         <v>80</v>
       </c>
       <c r="B43" s="5" t="n">
-        <v>23.25</v>
+        <v>23.8697690344247</v>
       </c>
       <c r="C43" s="5" t="n">
-        <v>25.39</v>
+        <v>24.8788377604684</v>
       </c>
       <c r="D43" s="5" t="n">
-        <v>24.42</v>
+        <v>25.549222571411</v>
       </c>
       <c r="E43" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F43" s="6" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G43" s="6" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44">
@@ -1530,22 +1530,22 @@
         <v>81</v>
       </c>
       <c r="B44" s="5" t="n">
-        <v>23.4</v>
+        <v>23.8822725169426</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>24.81</v>
+        <v>25.1202856034349</v>
       </c>
       <c r="D44" s="5" t="n">
-        <v>25.25</v>
+        <v>25.7304492667707</v>
       </c>
       <c r="E44" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45">
@@ -1553,13 +1553,13 @@
         <v>82</v>
       </c>
       <c r="B45" s="5" t="n">
-        <v>23.48</v>
+        <v>24.0588419652527</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>25.19</v>
+        <v>25.4915393882704</v>
       </c>
       <c r="D45" s="5" t="n">
-        <v>25.1</v>
+        <v>25.6663799947634</v>
       </c>
       <c r="E45" s="6" t="n">
         <v>3</v>
@@ -1576,22 +1576,22 @@
         <v>83</v>
       </c>
       <c r="B46" s="5" t="n">
-        <v>23.76</v>
+        <v>24.2451894588109</v>
       </c>
       <c r="C46" s="5" t="n">
-        <v>24.87</v>
+        <v>25.2852902240071</v>
       </c>
       <c r="D46" s="5" t="n">
-        <v>25.23</v>
+        <v>25.7822357488414</v>
       </c>
       <c r="E46" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F46" s="6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G46" s="6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
@@ -1599,19 +1599,19 @@
         <v>84</v>
       </c>
       <c r="B47" s="5" t="n">
-        <v>23.82</v>
+        <v>24.4547507216226</v>
       </c>
       <c r="C47" s="5" t="n">
-        <v>24.79</v>
+        <v>25.374645429434</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>25.47</v>
+        <v>26.0590891037069</v>
       </c>
       <c r="E47" s="6" t="n">
         <v>1</v>
       </c>
       <c r="F47" s="6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>1</v>

--- a/TabuladosGasolina.xlsx
+++ b/TabuladosGasolina.xlsx
@@ -164,13 +164,13 @@
     <t xml:space="preserve">CRE, pesos por litro</t>
   </si>
   <si>
-    <t xml:space="preserve">febrero 2024</t>
+    <t xml:space="preserve">marzo 2024</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima actualización: abril 2024</t>
+    <t xml:space="preserve">Próxima actualización: mayo 2024</t>
   </si>
   <si>
     <t xml:space="preserve">FUENTE: CRE; Comisión Reguladora de Energía</t>
@@ -182,94 +182,94 @@
     <t xml:space="preserve">Chihuahua</t>
   </si>
   <si>
+    <t xml:space="preserve">Coahuila</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tabasco</t>
+  </si>
+  <si>
     <t xml:space="preserve">Baja California</t>
   </si>
   <si>
+    <t xml:space="preserve">Tlaxcala</t>
+  </si>
+  <si>
     <t xml:space="preserve">Querétaro</t>
   </si>
   <si>
-    <t xml:space="preserve">Tabasco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coahuila</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tlaxcala</t>
+    <t xml:space="preserve">Morelos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puebla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hidalgo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veracruz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durango</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiapas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ciudad de México</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guanajuato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zacatecas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aguascalientes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sonora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michoacán</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Luis Potosí</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yucatán</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campeche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sinaloa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jalisco</t>
   </si>
   <si>
     <t xml:space="preserve">México</t>
   </si>
   <si>
-    <t xml:space="preserve">Puebla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Veracruz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sonora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hidalgo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nacional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chiapas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guanajuato</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aguascalientes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ciudad de México</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zacatecas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morelos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Durango</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Luis Potosí</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colima</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Campeche</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sinaloa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jalisco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yucatán</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nuevo León</t>
   </si>
   <si>
+    <t xml:space="preserve">Oaxaca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guerrero</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nayarit</t>
   </si>
   <si>
-    <t xml:space="preserve">Michoacán</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oaxaca</t>
-  </si>
-  <si>
     <t xml:space="preserve">Baja California Sur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guerrero</t>
   </si>
   <si>
     <t xml:space="preserve">Quintana Roo</t>
@@ -863,22 +863,22 @@
         <v>52</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>20.7506676453344</v>
+        <v>20.8</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>22.7021314925055</v>
+        <v>22.9</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>24.3111908782988</v>
+        <v>24.35</v>
       </c>
       <c r="E15" s="6" t="n">
         <v>33</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16">
@@ -886,22 +886,22 @@
         <v>53</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>21.0010010046859</v>
+        <v>21.15</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>23.0179836460864</v>
+        <v>22.46</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>24.3533698311861</v>
+        <v>24.32</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>32</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17">
@@ -909,22 +909,22 @@
         <v>54</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>22.3171489964739</v>
+        <v>22.68</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>24.1773420422458</v>
+        <v>25.32</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>23.8549791903512</v>
+        <v>24.54</v>
       </c>
       <c r="E17" s="6" t="n">
         <v>31</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18">
@@ -932,22 +932,22 @@
         <v>55</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>22.5798038986855</v>
+        <v>22.72</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>23.965923881709</v>
+        <v>24.07</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>24.456080421559</v>
+        <v>24.51</v>
       </c>
       <c r="E18" s="6" t="n">
         <v>30</v>
       </c>
       <c r="F18" s="6" t="n">
+        <v>31</v>
+      </c>
+      <c r="G18" s="6" t="n">
         <v>27</v>
-      </c>
-      <c r="G18" s="6" t="n">
-        <v>26</v>
       </c>
     </row>
     <row r="19">
@@ -955,22 +955,22 @@
         <v>56</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>22.5931793573051</v>
+        <v>22.74</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>23.8849526169062</v>
+        <v>24.54</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>24.440530296058</v>
+        <v>24</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>29</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20">
@@ -978,22 +978,22 @@
         <v>57</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>22.5976352930754</v>
+        <v>22.74</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>24.9288500666357</v>
+        <v>24.15</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>24.4984422693558</v>
+        <v>24.38</v>
       </c>
       <c r="E20" s="6" t="n">
         <v>28</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21">
@@ -1001,22 +1001,22 @@
         <v>58</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>22.6708198498373</v>
+        <v>22.75</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>23.7741312346841</v>
+        <v>24.31</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>24.4464124269346</v>
+        <v>24.53</v>
       </c>
       <c r="E21" s="6" t="n">
         <v>27</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22">
@@ -1024,22 +1024,22 @@
         <v>59</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>22.7620764014574</v>
+        <v>22.92</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>24.3898326220133</v>
+        <v>24.75</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>24.3349452671254</v>
+        <v>24.39</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>26</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23">
@@ -1047,22 +1047,22 @@
         <v>60</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>22.8094922241777</v>
+        <v>22.94</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>23.8452798562822</v>
+        <v>24.25</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>24.6764070314006</v>
+        <v>24.68</v>
       </c>
       <c r="E23" s="6" t="n">
         <v>25</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24">
@@ -1070,22 +1070,22 @@
         <v>61</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>22.8294071417398</v>
+        <v>23.06</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>24.0170872797944</v>
+        <v>24.26</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>24.8692421267586</v>
+        <v>24.64</v>
       </c>
       <c r="E24" s="6" t="n">
         <v>24</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25">
@@ -1093,22 +1093,22 @@
         <v>62</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>22.8516912045888</v>
+        <v>23.1</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>24.7262160783878</v>
+        <v>24.3</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>25.2551049309291</v>
+        <v>25.1</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>23</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26">
@@ -1116,22 +1116,22 @@
         <v>63</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>22.9412284688578</v>
+        <v>23.19</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>23.8544621772428</v>
+        <v>24.92</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>24.5620763426147</v>
+        <v>24.95</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>22</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27">
@@ -1139,22 +1139,22 @@
         <v>64</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>22.9956150278462</v>
+        <v>23.19</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>24.5845548489001</v>
+        <v>25.55</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>24.8833641423928</v>
+        <v>25.19</v>
       </c>
       <c r="E27" s="6" t="n">
         <v>21</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28">
@@ -1162,22 +1162,22 @@
         <v>65</v>
       </c>
       <c r="B28" s="5" t="n">
-        <v>22.9977331637544</v>
+        <v>23.2</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>24.2259892489028</v>
+        <v>24.49</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>24.998628573415</v>
+        <v>25.16</v>
       </c>
       <c r="E28" s="6" t="n">
         <v>20</v>
       </c>
       <c r="F28" s="6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29">
@@ -1185,22 +1185,22 @@
         <v>66</v>
       </c>
       <c r="B29" s="5" t="n">
-        <v>23.0692551601602</v>
+        <v>23.22</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>24.9792998349801</v>
+        <v>25.36</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>24.8739247946216</v>
+        <v>24.31</v>
       </c>
       <c r="E29" s="6" t="n">
         <v>19</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30">
@@ -1208,22 +1208,22 @@
         <v>67</v>
       </c>
       <c r="B30" s="5" t="n">
-        <v>23.0769750695084</v>
+        <v>23.22</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>24.8967668652641</v>
+        <v>25.17</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>24.7403663047387</v>
+        <v>24.98</v>
       </c>
       <c r="E30" s="6" t="n">
         <v>18</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31">
@@ -1231,22 +1231,22 @@
         <v>68</v>
       </c>
       <c r="B31" s="5" t="n">
-        <v>23.0974880172559</v>
+        <v>23.27</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>25.0153125737747</v>
+        <v>24.81</v>
       </c>
       <c r="D31" s="5" t="n">
-        <v>24.3555035079342</v>
+        <v>24.95</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>17</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32">
@@ -1254,22 +1254,22 @@
         <v>69</v>
       </c>
       <c r="B32" s="5" t="n">
-        <v>23.1413510033504</v>
+        <v>23.3</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>24.6413621141874</v>
+        <v>25.05</v>
       </c>
       <c r="D32" s="5" t="n">
-        <v>24.8934862932091</v>
+        <v>24.8</v>
       </c>
       <c r="E32" s="6" t="n">
         <v>16</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33">
@@ -1277,22 +1277,22 @@
         <v>70</v>
       </c>
       <c r="B33" s="5" t="n">
-        <v>23.1802685779366</v>
+        <v>23.32</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>24.0935372368253</v>
+        <v>25.3</v>
       </c>
       <c r="D33" s="5" t="n">
-        <v>25.0219228135904</v>
+        <v>25.4</v>
       </c>
       <c r="E33" s="6" t="n">
         <v>15</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34">
@@ -1300,22 +1300,22 @@
         <v>71</v>
       </c>
       <c r="B34" s="5" t="n">
-        <v>23.21572135485</v>
+        <v>23.34</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>25.0917193394061</v>
+        <v>24.41</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>24.9109496110107</v>
+        <v>25.12</v>
       </c>
       <c r="E34" s="6" t="n">
         <v>14</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35">
@@ -1323,22 +1323,22 @@
         <v>72</v>
       </c>
       <c r="B35" s="5" t="n">
-        <v>23.3178223676408</v>
+        <v>23.5</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>24.5825096635857</v>
+        <v>24.84</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>25.0942867445018</v>
+        <v>25.09</v>
       </c>
       <c r="E35" s="6" t="n">
         <v>13</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36">
@@ -1346,22 +1346,22 @@
         <v>73</v>
       </c>
       <c r="B36" s="5" t="n">
-        <v>23.3229663105125</v>
+        <v>23.55</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>24.7753370118838</v>
+        <v>24.63</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>25.108555182679</v>
+        <v>25.54</v>
       </c>
       <c r="E36" s="6" t="n">
         <v>12</v>
       </c>
       <c r="F36" s="6" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37">
@@ -1369,13 +1369,13 @@
         <v>74</v>
       </c>
       <c r="B37" s="5" t="n">
-        <v>23.421179938933</v>
+        <v>23.68</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>24.6947675693198</v>
+        <v>25.02</v>
       </c>
       <c r="D37" s="5" t="n">
-        <v>25.0187561740067</v>
+        <v>25.28</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>11</v>
@@ -1384,7 +1384,7 @@
         <v>17</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38">
@@ -1392,13 +1392,13 @@
         <v>75</v>
       </c>
       <c r="B38" s="5" t="n">
-        <v>23.5410486197696</v>
+        <v>23.74</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>25.0995028190733</v>
+        <v>25.48</v>
       </c>
       <c r="D38" s="5" t="n">
-        <v>24.951498683686</v>
+        <v>24.96</v>
       </c>
       <c r="E38" s="6" t="n">
         <v>10</v>
@@ -1407,7 +1407,7 @@
         <v>8</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39">
@@ -1415,22 +1415,22 @@
         <v>76</v>
       </c>
       <c r="B39" s="5" t="n">
-        <v>23.6996236117548</v>
+        <v>23.75</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>25.3152294300865</v>
+        <v>25.27</v>
       </c>
       <c r="D39" s="5" t="n">
-        <v>25.1805784267156</v>
+        <v>25.19</v>
       </c>
       <c r="E39" s="6" t="n">
         <v>9</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40">
@@ -1438,22 +1438,22 @@
         <v>77</v>
       </c>
       <c r="B40" s="5" t="n">
-        <v>23.7200726136067</v>
+        <v>23.95</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>24.5808813952755</v>
+        <v>25.69</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>25.7020163278647</v>
+        <v>25.25</v>
       </c>
       <c r="E40" s="6" t="n">
         <v>8</v>
       </c>
       <c r="F40" s="6" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41">
@@ -1461,22 +1461,22 @@
         <v>78</v>
       </c>
       <c r="B41" s="5" t="n">
-        <v>23.8108661464904</v>
+        <v>24.05</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>26.0469891855407</v>
+        <v>25.24</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>24.5987680969938</v>
+        <v>25.56</v>
       </c>
       <c r="E41" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F41" s="6" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42">
@@ -1484,22 +1484,22 @@
         <v>79</v>
       </c>
       <c r="B42" s="5" t="n">
-        <v>23.8359330452862</v>
+        <v>24.08</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>25.2914602185623</v>
+        <v>26.52</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>25.5700994203819</v>
+        <v>24.72</v>
       </c>
       <c r="E42" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F42" s="6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43">
@@ -1507,22 +1507,22 @@
         <v>80</v>
       </c>
       <c r="B43" s="5" t="n">
-        <v>23.8697690344247</v>
+        <v>24.1</v>
       </c>
       <c r="C43" s="5" t="n">
-        <v>24.8788377604684</v>
+        <v>25.41</v>
       </c>
       <c r="D43" s="5" t="n">
-        <v>25.549222571411</v>
+        <v>25.89</v>
       </c>
       <c r="E43" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F43" s="6" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G43" s="6" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
@@ -1530,22 +1530,22 @@
         <v>81</v>
       </c>
       <c r="B44" s="5" t="n">
-        <v>23.8822725169426</v>
+        <v>24.34</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>25.1202856034349</v>
+        <v>25.64</v>
       </c>
       <c r="D44" s="5" t="n">
-        <v>25.7304492667707</v>
+        <v>25.73</v>
       </c>
       <c r="E44" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45">
@@ -1553,22 +1553,22 @@
         <v>82</v>
       </c>
       <c r="B45" s="5" t="n">
-        <v>24.0588419652527</v>
+        <v>24.41</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>25.4915393882704</v>
+        <v>25.8</v>
       </c>
       <c r="D45" s="5" t="n">
-        <v>25.6663799947634</v>
+        <v>25.78</v>
       </c>
       <c r="E45" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
@@ -1576,22 +1576,22 @@
         <v>83</v>
       </c>
       <c r="B46" s="5" t="n">
-        <v>24.2451894588109</v>
+        <v>24.51</v>
       </c>
       <c r="C46" s="5" t="n">
-        <v>25.2852902240071</v>
+        <v>25.87</v>
       </c>
       <c r="D46" s="5" t="n">
-        <v>25.7822357488414</v>
+        <v>25.84</v>
       </c>
       <c r="E46" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F46" s="6" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G46" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47">
@@ -1599,19 +1599,19 @@
         <v>84</v>
       </c>
       <c r="B47" s="5" t="n">
-        <v>24.4547507216226</v>
+        <v>24.6</v>
       </c>
       <c r="C47" s="5" t="n">
-        <v>25.374645429434</v>
+        <v>25.6</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>26.0590891037069</v>
+        <v>26.27</v>
       </c>
       <c r="E47" s="6" t="n">
         <v>1</v>
       </c>
       <c r="F47" s="6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>1</v>

--- a/TabuladosGasolina.xlsx
+++ b/TabuladosGasolina.xlsx
@@ -164,13 +164,13 @@
     <t xml:space="preserve">CRE, pesos por litro</t>
   </si>
   <si>
-    <t xml:space="preserve">marzo 2024</t>
+    <t xml:space="preserve">abril 2024</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima actualización: mayo 2024</t>
+    <t xml:space="preserve">Próxima actualización: junio 2024</t>
   </si>
   <si>
     <t xml:space="preserve">FUENTE: CRE; Comisión Reguladora de Energía</t>
@@ -182,85 +182,85 @@
     <t xml:space="preserve">Chihuahua</t>
   </si>
   <si>
+    <t xml:space="preserve">Tlaxcala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tabasco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Querétaro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baja California</t>
+  </si>
+  <si>
     <t xml:space="preserve">Coahuila</t>
   </si>
   <si>
-    <t xml:space="preserve">Tabasco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baja California</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tlaxcala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Querétaro</t>
+    <t xml:space="preserve">Puebla</t>
   </si>
   <si>
     <t xml:space="preserve">Morelos</t>
   </si>
   <si>
-    <t xml:space="preserve">Puebla</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hidalgo</t>
   </si>
   <si>
     <t xml:space="preserve">Veracruz</t>
   </si>
   <si>
+    <t xml:space="preserve">Chiapas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guanajuato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aguascalientes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michoacán</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nacional</t>
   </si>
   <si>
+    <t xml:space="preserve">Sonora</t>
+  </si>
+  <si>
     <t xml:space="preserve">Durango</t>
   </si>
   <si>
-    <t xml:space="preserve">Chiapas</t>
+    <t xml:space="preserve">Zacatecas</t>
   </si>
   <si>
     <t xml:space="preserve">Ciudad de México</t>
   </si>
   <si>
-    <t xml:space="preserve">Guanajuato</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zacatecas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aguascalientes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sonora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michoacán</t>
-  </si>
-  <si>
     <t xml:space="preserve">San Luis Potosí</t>
   </si>
   <si>
+    <t xml:space="preserve">Campeche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">México</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jalisco</t>
+  </si>
+  <si>
     <t xml:space="preserve">Yucatán</t>
   </si>
   <si>
-    <t xml:space="preserve">Campeche</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sinaloa</t>
   </si>
   <si>
-    <t xml:space="preserve">Colima</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jalisco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">México</t>
+    <t xml:space="preserve">Oaxaca</t>
   </si>
   <si>
     <t xml:space="preserve">Nuevo León</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oaxaca</t>
   </si>
   <si>
     <t xml:space="preserve">Guerrero</t>
@@ -863,13 +863,13 @@
         <v>52</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>20.8</v>
+        <v>21.08</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>22.9</v>
+        <v>23.23</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>24.35</v>
+        <v>24.46</v>
       </c>
       <c r="E15" s="6" t="n">
         <v>33</v>
@@ -878,7 +878,7 @@
         <v>32</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
@@ -886,13 +886,13 @@
         <v>53</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>21.15</v>
+        <v>21.51</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>22.46</v>
+        <v>22.82</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>24.32</v>
+        <v>24.44</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>32</v>
@@ -901,7 +901,7 @@
         <v>33</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17">
@@ -909,22 +909,22 @@
         <v>54</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>22.68</v>
+        <v>22.83</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>25.32</v>
+        <v>24.46</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>24.54</v>
+        <v>24.49</v>
       </c>
       <c r="E17" s="6" t="n">
         <v>31</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
@@ -932,13 +932,13 @@
         <v>55</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>22.72</v>
+        <v>22.84</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>24.07</v>
+        <v>24.29</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>24.51</v>
+        <v>24.64</v>
       </c>
       <c r="E18" s="6" t="n">
         <v>30</v>
@@ -955,22 +955,22 @@
         <v>56</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>22.74</v>
+        <v>22.89</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>24.54</v>
+        <v>24.57</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>24</v>
+        <v>24.68</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>29</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20">
@@ -978,22 +978,22 @@
         <v>57</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>22.74</v>
+        <v>22.9</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>24.15</v>
+        <v>25.06</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>24.38</v>
+        <v>24.19</v>
       </c>
       <c r="E20" s="6" t="n">
         <v>28</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21">
@@ -1001,22 +1001,22 @@
         <v>58</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>22.75</v>
+        <v>22.91</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>24.31</v>
+        <v>25.46</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>24.53</v>
+        <v>24.77</v>
       </c>
       <c r="E21" s="6" t="n">
         <v>27</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22">
@@ -1024,22 +1024,22 @@
         <v>59</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>22.92</v>
+        <v>23.05</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>24.75</v>
+        <v>24.61</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>24.39</v>
+        <v>24.8</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>26</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23">
@@ -1047,22 +1047,22 @@
         <v>60</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>22.94</v>
+        <v>23.14</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>24.25</v>
+        <v>25.05</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>24.68</v>
+        <v>24.5</v>
       </c>
       <c r="E23" s="6" t="n">
         <v>25</v>
       </c>
       <c r="F23" s="6" t="n">
+        <v>23</v>
+      </c>
+      <c r="G23" s="6" t="n">
         <v>29</v>
-      </c>
-      <c r="G23" s="6" t="n">
-        <v>23</v>
       </c>
     </row>
     <row r="24">
@@ -1070,19 +1070,19 @@
         <v>61</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>23.06</v>
+        <v>23.19</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>24.26</v>
+        <v>24.65</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>24.64</v>
+        <v>24.8</v>
       </c>
       <c r="E24" s="6" t="n">
         <v>24</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>24</v>
@@ -1093,19 +1093,19 @@
         <v>62</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>23.1</v>
+        <v>23.19</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>24.3</v>
+        <v>24.47</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>25.1</v>
+        <v>25.18</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>23</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>15</v>
@@ -1116,22 +1116,22 @@
         <v>63</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>23.19</v>
+        <v>23.24</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>24.92</v>
+        <v>24.7</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>24.95</v>
+        <v>25.17</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>22</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27">
@@ -1139,22 +1139,22 @@
         <v>64</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>23.19</v>
+        <v>23.38</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>25.55</v>
+        <v>25.51</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>25.19</v>
+        <v>25.16</v>
       </c>
       <c r="E27" s="6" t="n">
         <v>21</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28">
@@ -1162,22 +1162,22 @@
         <v>65</v>
       </c>
       <c r="B28" s="5" t="n">
-        <v>23.2</v>
+        <v>23.39</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>24.49</v>
+        <v>25.23</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>25.16</v>
+        <v>24.92</v>
       </c>
       <c r="E28" s="6" t="n">
         <v>20</v>
       </c>
       <c r="F28" s="6" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29">
@@ -1185,22 +1185,22 @@
         <v>66</v>
       </c>
       <c r="B29" s="5" t="n">
-        <v>23.22</v>
+        <v>23.4</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>25.36</v>
+        <v>24.72</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>24.31</v>
+        <v>25.14</v>
       </c>
       <c r="E29" s="6" t="n">
         <v>19</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30">
@@ -1208,22 +1208,22 @@
         <v>67</v>
       </c>
       <c r="B30" s="5" t="n">
-        <v>23.22</v>
+        <v>23.43</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>25.17</v>
+        <v>25.25</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>24.98</v>
+        <v>25.14</v>
       </c>
       <c r="E30" s="6" t="n">
         <v>18</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31">
@@ -1231,22 +1231,22 @@
         <v>68</v>
       </c>
       <c r="B31" s="5" t="n">
-        <v>23.27</v>
+        <v>23.45</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>24.81</v>
+        <v>25.63</v>
       </c>
       <c r="D31" s="5" t="n">
-        <v>24.95</v>
+        <v>25.46</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>17</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
@@ -1254,22 +1254,22 @@
         <v>69</v>
       </c>
       <c r="B32" s="5" t="n">
-        <v>23.3</v>
+        <v>23.47</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>25.05</v>
+        <v>25.98</v>
       </c>
       <c r="D32" s="5" t="n">
-        <v>24.8</v>
+        <v>25.32</v>
       </c>
       <c r="E32" s="6" t="n">
         <v>16</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33">
@@ -1277,22 +1277,22 @@
         <v>70</v>
       </c>
       <c r="B33" s="5" t="n">
-        <v>23.32</v>
+        <v>23.49</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>25.3</v>
+        <v>25.16</v>
       </c>
       <c r="D33" s="5" t="n">
-        <v>25.4</v>
+        <v>25.12</v>
       </c>
       <c r="E33" s="6" t="n">
         <v>15</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34">
@@ -1300,22 +1300,22 @@
         <v>71</v>
       </c>
       <c r="B34" s="5" t="n">
-        <v>23.34</v>
+        <v>23.52</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>24.41</v>
+        <v>25.59</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>25.12</v>
+        <v>24.53</v>
       </c>
       <c r="E34" s="6" t="n">
         <v>14</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35">
@@ -1323,22 +1323,22 @@
         <v>72</v>
       </c>
       <c r="B35" s="5" t="n">
-        <v>23.5</v>
+        <v>23.68</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>24.84</v>
+        <v>25.14</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>25.09</v>
+        <v>25.21</v>
       </c>
       <c r="E35" s="6" t="n">
         <v>13</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36">
@@ -1346,22 +1346,22 @@
         <v>73</v>
       </c>
       <c r="B36" s="5" t="n">
-        <v>23.55</v>
+        <v>24.01</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>24.63</v>
+        <v>25.4</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>25.54</v>
+        <v>25.72</v>
       </c>
       <c r="E36" s="6" t="n">
         <v>12</v>
       </c>
       <c r="F36" s="6" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37">
@@ -1369,22 +1369,22 @@
         <v>74</v>
       </c>
       <c r="B37" s="5" t="n">
-        <v>23.68</v>
+        <v>24.04</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>25.02</v>
+        <v>25.62</v>
       </c>
       <c r="D37" s="5" t="n">
-        <v>25.28</v>
+        <v>25.38</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>11</v>
       </c>
       <c r="F37" s="6" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38">
@@ -1392,22 +1392,22 @@
         <v>75</v>
       </c>
       <c r="B38" s="5" t="n">
-        <v>23.74</v>
+        <v>24.15</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>25.48</v>
+        <v>25.61</v>
       </c>
       <c r="D38" s="5" t="n">
-        <v>24.96</v>
+        <v>25.72</v>
       </c>
       <c r="E38" s="6" t="n">
         <v>10</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39">
@@ -1415,22 +1415,22 @@
         <v>76</v>
       </c>
       <c r="B39" s="5" t="n">
-        <v>23.75</v>
+        <v>24.16</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>25.27</v>
+        <v>25.98</v>
       </c>
       <c r="D39" s="5" t="n">
-        <v>25.19</v>
+        <v>25.49</v>
       </c>
       <c r="E39" s="6" t="n">
         <v>9</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40">
@@ -1438,22 +1438,22 @@
         <v>77</v>
       </c>
       <c r="B40" s="5" t="n">
-        <v>23.95</v>
+        <v>24.17</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>25.69</v>
+        <v>25.24</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>25.25</v>
+        <v>26.2</v>
       </c>
       <c r="E40" s="6" t="n">
         <v>8</v>
       </c>
       <c r="F40" s="6" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -1461,22 +1461,22 @@
         <v>78</v>
       </c>
       <c r="B41" s="5" t="n">
-        <v>24.05</v>
+        <v>24.19</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>25.24</v>
+        <v>25.89</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>25.56</v>
+        <v>25.38</v>
       </c>
       <c r="E41" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F41" s="6" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42">
@@ -1484,22 +1484,22 @@
         <v>79</v>
       </c>
       <c r="B42" s="5" t="n">
-        <v>24.08</v>
+        <v>24.27</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>26.52</v>
+        <v>25.7</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>24.72</v>
+        <v>26.04</v>
       </c>
       <c r="E42" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F42" s="6" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
@@ -1507,22 +1507,22 @@
         <v>80</v>
       </c>
       <c r="B43" s="5" t="n">
-        <v>24.1</v>
+        <v>24.36</v>
       </c>
       <c r="C43" s="5" t="n">
-        <v>25.41</v>
+        <v>26.98</v>
       </c>
       <c r="D43" s="5" t="n">
-        <v>25.89</v>
+        <v>25.06</v>
       </c>
       <c r="E43" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F43" s="6" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G43" s="6" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44">
@@ -1530,19 +1530,19 @@
         <v>81</v>
       </c>
       <c r="B44" s="5" t="n">
-        <v>24.34</v>
+        <v>24.57</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>25.64</v>
+        <v>25.86</v>
       </c>
       <c r="D44" s="5" t="n">
-        <v>25.73</v>
+        <v>25.95</v>
       </c>
       <c r="E44" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>5</v>
@@ -1553,13 +1553,13 @@
         <v>82</v>
       </c>
       <c r="B45" s="5" t="n">
-        <v>24.41</v>
+        <v>24.62</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>25.8</v>
+        <v>26.19</v>
       </c>
       <c r="D45" s="5" t="n">
-        <v>25.78</v>
+        <v>25.93</v>
       </c>
       <c r="E45" s="6" t="n">
         <v>3</v>
@@ -1568,7 +1568,7 @@
         <v>3</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46">
@@ -1576,13 +1576,13 @@
         <v>83</v>
       </c>
       <c r="B46" s="5" t="n">
-        <v>24.51</v>
+        <v>24.79</v>
       </c>
       <c r="C46" s="5" t="n">
-        <v>25.87</v>
+        <v>26.37</v>
       </c>
       <c r="D46" s="5" t="n">
-        <v>25.84</v>
+        <v>26.02</v>
       </c>
       <c r="E46" s="6" t="n">
         <v>2</v>
@@ -1591,7 +1591,7 @@
         <v>2</v>
       </c>
       <c r="G46" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47">
@@ -1599,19 +1599,19 @@
         <v>84</v>
       </c>
       <c r="B47" s="5" t="n">
-        <v>24.6</v>
+        <v>25.01</v>
       </c>
       <c r="C47" s="5" t="n">
-        <v>25.6</v>
+        <v>26.06</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>26.27</v>
+        <v>26.69</v>
       </c>
       <c r="E47" s="6" t="n">
         <v>1</v>
       </c>
       <c r="F47" s="6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>1</v>

--- a/TabuladosGasolina.xlsx
+++ b/TabuladosGasolina.xlsx
@@ -164,109 +164,109 @@
     <t xml:space="preserve">CRE, pesos por litro</t>
   </si>
   <si>
-    <t xml:space="preserve">abril 2024</t>
+    <t xml:space="preserve">mayo 2024</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima actualización: junio 2024</t>
+    <t xml:space="preserve">Próxima actualización: julio 2024</t>
   </si>
   <si>
     <t xml:space="preserve">FUENTE: CRE; Comisión Reguladora de Energía</t>
   </si>
   <si>
+    <t xml:space="preserve">Chihuahua</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tamaulipas</t>
   </si>
   <si>
-    <t xml:space="preserve">Chihuahua</t>
+    <t xml:space="preserve">Tabasco</t>
   </si>
   <si>
     <t xml:space="preserve">Tlaxcala</t>
   </si>
   <si>
-    <t xml:space="preserve">Tabasco</t>
-  </si>
-  <si>
     <t xml:space="preserve">Querétaro</t>
   </si>
   <si>
     <t xml:space="preserve">Baja California</t>
   </si>
   <si>
+    <t xml:space="preserve">Puebla</t>
+  </si>
+  <si>
     <t xml:space="preserve">Coahuila</t>
   </si>
   <si>
-    <t xml:space="preserve">Puebla</t>
+    <t xml:space="preserve">Hidalgo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veracruz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sonora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiapas</t>
   </si>
   <si>
     <t xml:space="preserve">Morelos</t>
   </si>
   <si>
-    <t xml:space="preserve">Hidalgo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Veracruz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chiapas</t>
-  </si>
-  <si>
     <t xml:space="preserve">Guanajuato</t>
   </si>
   <si>
+    <t xml:space="preserve">Michoacán</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nacional</t>
+  </si>
+  <si>
     <t xml:space="preserve">Aguascalientes</t>
   </si>
   <si>
-    <t xml:space="preserve">Michoacán</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nacional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sonora</t>
-  </si>
-  <si>
     <t xml:space="preserve">Durango</t>
   </si>
   <si>
     <t xml:space="preserve">Zacatecas</t>
   </si>
   <si>
+    <t xml:space="preserve">San Luis Potosí</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ciudad de México</t>
   </si>
   <si>
-    <t xml:space="preserve">San Luis Potosí</t>
+    <t xml:space="preserve">Yucatán</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colima</t>
   </si>
   <si>
     <t xml:space="preserve">Campeche</t>
   </si>
   <si>
-    <t xml:space="preserve">Colima</t>
-  </si>
-  <si>
     <t xml:space="preserve">México</t>
   </si>
   <si>
     <t xml:space="preserve">Jalisco</t>
   </si>
   <si>
-    <t xml:space="preserve">Yucatán</t>
+    <t xml:space="preserve">Oaxaca</t>
   </si>
   <si>
     <t xml:space="preserve">Sinaloa</t>
   </si>
   <si>
-    <t xml:space="preserve">Oaxaca</t>
+    <t xml:space="preserve">Nayarit</t>
   </si>
   <si>
     <t xml:space="preserve">Nuevo León</t>
   </si>
   <si>
     <t xml:space="preserve">Guerrero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nayarit</t>
   </si>
   <si>
     <t xml:space="preserve">Baja California Sur</t>
@@ -863,22 +863,22 @@
         <v>52</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>21.08</v>
+        <v>21.07</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>23.23</v>
+        <v>22.77</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>24.46</v>
+        <v>24.2</v>
       </c>
       <c r="E15" s="6" t="n">
         <v>33</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16">
@@ -886,22 +886,22 @@
         <v>53</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>21.51</v>
+        <v>21.16</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>22.82</v>
+        <v>23.33</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>24.44</v>
+        <v>24.49</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>32</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17">
@@ -909,22 +909,22 @@
         <v>54</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>22.83</v>
+        <v>22.93</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>24.46</v>
+        <v>24.36</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>24.49</v>
+        <v>24.67</v>
       </c>
       <c r="E17" s="6" t="n">
         <v>31</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18">
@@ -932,22 +932,22 @@
         <v>55</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>22.84</v>
+        <v>22.95</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>24.29</v>
+        <v>24.48</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>24.64</v>
+        <v>24.36</v>
       </c>
       <c r="E18" s="6" t="n">
         <v>30</v>
       </c>
       <c r="F18" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="G18" s="6" t="n">
         <v>31</v>
-      </c>
-      <c r="G18" s="6" t="n">
-        <v>27</v>
       </c>
     </row>
     <row r="19">
@@ -955,19 +955,19 @@
         <v>56</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>22.89</v>
+        <v>22.98</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>24.57</v>
+        <v>24.6</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>24.68</v>
+        <v>24.63</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>29</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>26</v>
@@ -978,13 +978,13 @@
         <v>57</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>22.9</v>
+        <v>23.01</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>25.06</v>
+        <v>25.12</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>24.19</v>
+        <v>24.29</v>
       </c>
       <c r="E20" s="6" t="n">
         <v>28</v>
@@ -993,7 +993,7 @@
         <v>22</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21">
@@ -1001,22 +1001,22 @@
         <v>58</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>22.91</v>
+        <v>23.13</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>25.46</v>
+        <v>24.59</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>24.77</v>
+        <v>24.71</v>
       </c>
       <c r="E21" s="6" t="n">
         <v>27</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22">
@@ -1024,19 +1024,19 @@
         <v>59</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>23.05</v>
+        <v>23.22</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>24.61</v>
+        <v>25.19</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>24.8</v>
+        <v>24.93</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>26</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>23</v>
@@ -1047,22 +1047,22 @@
         <v>60</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>23.14</v>
+        <v>23.25</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>25.05</v>
+        <v>24.61</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>24.5</v>
+        <v>24.63</v>
       </c>
       <c r="E23" s="6" t="n">
         <v>25</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24">
@@ -1070,22 +1070,22 @@
         <v>61</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>23.19</v>
+        <v>23.25</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>24.65</v>
+        <v>24.5</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>24.8</v>
+        <v>25.15</v>
       </c>
       <c r="E24" s="6" t="n">
         <v>24</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25">
@@ -1093,22 +1093,22 @@
         <v>62</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>23.19</v>
+        <v>23.27</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>24.47</v>
+        <v>25.37</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>25.18</v>
+        <v>25.48</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>23</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -1116,22 +1116,22 @@
         <v>63</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>23.24</v>
+        <v>23.33</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>24.7</v>
+        <v>24.76</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>25.17</v>
+        <v>25.14</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>22</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27">
@@ -1139,22 +1139,22 @@
         <v>64</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>23.38</v>
+        <v>23.39</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>25.51</v>
+        <v>25.11</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>25.16</v>
+        <v>24.53</v>
       </c>
       <c r="E27" s="6" t="n">
         <v>21</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28">
@@ -1162,22 +1162,22 @@
         <v>65</v>
       </c>
       <c r="B28" s="5" t="n">
-        <v>23.39</v>
+        <v>23.47</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>25.23</v>
+        <v>25.59</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>24.92</v>
+        <v>25.17</v>
       </c>
       <c r="E28" s="6" t="n">
         <v>20</v>
       </c>
       <c r="F28" s="6" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29">
@@ -1185,22 +1185,22 @@
         <v>66</v>
       </c>
       <c r="B29" s="5" t="n">
-        <v>23.4</v>
+        <v>23.48</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>24.72</v>
+        <v>24.74</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>25.14</v>
+        <v>25</v>
       </c>
       <c r="E29" s="6" t="n">
         <v>19</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30">
@@ -1208,22 +1208,22 @@
         <v>67</v>
       </c>
       <c r="B30" s="5" t="n">
-        <v>23.43</v>
+        <v>23.49</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>25.25</v>
+        <v>25.28</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>25.14</v>
+        <v>25.08</v>
       </c>
       <c r="E30" s="6" t="n">
         <v>18</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31">
@@ -1231,22 +1231,22 @@
         <v>68</v>
       </c>
       <c r="B31" s="5" t="n">
-        <v>23.45</v>
+        <v>23.53</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>25.63</v>
+        <v>25.31</v>
       </c>
       <c r="D31" s="5" t="n">
-        <v>25.46</v>
+        <v>24.95</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>17</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32">
@@ -1254,22 +1254,22 @@
         <v>69</v>
       </c>
       <c r="B32" s="5" t="n">
-        <v>23.47</v>
+        <v>23.64</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>25.98</v>
+        <v>25.93</v>
       </c>
       <c r="D32" s="5" t="n">
-        <v>25.32</v>
+        <v>25.11</v>
       </c>
       <c r="E32" s="6" t="n">
         <v>16</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33">
@@ -1277,22 +1277,22 @@
         <v>70</v>
       </c>
       <c r="B33" s="5" t="n">
-        <v>23.49</v>
+        <v>23.67</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>25.16</v>
+        <v>25.29</v>
       </c>
       <c r="D33" s="5" t="n">
-        <v>25.12</v>
+        <v>25.2</v>
       </c>
       <c r="E33" s="6" t="n">
         <v>15</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34">
@@ -1300,22 +1300,22 @@
         <v>71</v>
       </c>
       <c r="B34" s="5" t="n">
-        <v>23.52</v>
+        <v>23.75</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>25.59</v>
+        <v>25.19</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>24.53</v>
+        <v>25.23</v>
       </c>
       <c r="E34" s="6" t="n">
         <v>14</v>
       </c>
       <c r="F34" s="6" t="n">
+        <v>19</v>
+      </c>
+      <c r="G34" s="6" t="n">
         <v>13</v>
-      </c>
-      <c r="G34" s="6" t="n">
-        <v>28</v>
       </c>
     </row>
     <row r="35">
@@ -1323,22 +1323,22 @@
         <v>72</v>
       </c>
       <c r="B35" s="5" t="n">
-        <v>23.68</v>
+        <v>23.84</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>25.14</v>
+        <v>25.66</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>25.21</v>
+        <v>24.63</v>
       </c>
       <c r="E35" s="6" t="n">
         <v>13</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36">
@@ -1346,22 +1346,22 @@
         <v>73</v>
       </c>
       <c r="B36" s="5" t="n">
-        <v>24.01</v>
+        <v>24.09</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>25.4</v>
+        <v>25.14</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>25.72</v>
+        <v>25.87</v>
       </c>
       <c r="E36" s="6" t="n">
         <v>12</v>
       </c>
       <c r="F36" s="6" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37">
@@ -1369,22 +1369,22 @@
         <v>74</v>
       </c>
       <c r="B37" s="5" t="n">
-        <v>24.04</v>
+        <v>24.12</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>25.62</v>
+        <v>25.69</v>
       </c>
       <c r="D37" s="5" t="n">
-        <v>25.38</v>
+        <v>25.45</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>11</v>
       </c>
       <c r="F37" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="G37" s="6" t="n">
         <v>11</v>
-      </c>
-      <c r="G37" s="6" t="n">
-        <v>12</v>
       </c>
     </row>
     <row r="38">
@@ -1395,19 +1395,19 @@
         <v>24.15</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>25.61</v>
+        <v>25.56</v>
       </c>
       <c r="D38" s="5" t="n">
-        <v>25.72</v>
+        <v>25.89</v>
       </c>
       <c r="E38" s="6" t="n">
         <v>10</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39">
@@ -1418,19 +1418,19 @@
         <v>24.16</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>25.98</v>
+        <v>25.54</v>
       </c>
       <c r="D39" s="5" t="n">
-        <v>25.49</v>
+        <v>25.6</v>
       </c>
       <c r="E39" s="6" t="n">
         <v>9</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40">
@@ -1438,22 +1438,22 @@
         <v>77</v>
       </c>
       <c r="B40" s="5" t="n">
-        <v>24.17</v>
+        <v>24.23</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>25.24</v>
+        <v>25.95</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>26.2</v>
+        <v>25.46</v>
       </c>
       <c r="E40" s="6" t="n">
         <v>8</v>
       </c>
       <c r="F40" s="6" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41">
@@ -1461,22 +1461,22 @@
         <v>78</v>
       </c>
       <c r="B41" s="5" t="n">
-        <v>24.19</v>
+        <v>24.33</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>25.89</v>
+        <v>25.74</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>25.38</v>
+        <v>26.03</v>
       </c>
       <c r="E41" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F41" s="6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42">
@@ -1484,22 +1484,22 @@
         <v>79</v>
       </c>
       <c r="B42" s="5" t="n">
-        <v>24.27</v>
+        <v>24.36</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>25.7</v>
+        <v>26.01</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>26.04</v>
+        <v>25.36</v>
       </c>
       <c r="E42" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F42" s="6" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43">
@@ -1507,22 +1507,22 @@
         <v>80</v>
       </c>
       <c r="B43" s="5" t="n">
-        <v>24.36</v>
+        <v>24.5</v>
       </c>
       <c r="C43" s="5" t="n">
-        <v>26.98</v>
+        <v>26.04</v>
       </c>
       <c r="D43" s="5" t="n">
-        <v>25.06</v>
+        <v>25.73</v>
       </c>
       <c r="E43" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F43" s="6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G43" s="6" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44">
@@ -1530,22 +1530,22 @@
         <v>81</v>
       </c>
       <c r="B44" s="5" t="n">
-        <v>24.57</v>
+        <v>24.54</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>25.86</v>
+        <v>27.05</v>
       </c>
       <c r="D44" s="5" t="n">
-        <v>25.95</v>
+        <v>25.16</v>
       </c>
       <c r="E44" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45">
@@ -1553,10 +1553,10 @@
         <v>82</v>
       </c>
       <c r="B45" s="5" t="n">
-        <v>24.62</v>
+        <v>24.57</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>26.19</v>
+        <v>25.72</v>
       </c>
       <c r="D45" s="5" t="n">
         <v>25.93</v>
@@ -1565,10 +1565,10 @@
         <v>3</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
@@ -1576,13 +1576,13 @@
         <v>83</v>
       </c>
       <c r="B46" s="5" t="n">
-        <v>24.79</v>
+        <v>24.86</v>
       </c>
       <c r="C46" s="5" t="n">
-        <v>26.37</v>
+        <v>26.44</v>
       </c>
       <c r="D46" s="5" t="n">
-        <v>26.02</v>
+        <v>26.04</v>
       </c>
       <c r="E46" s="6" t="n">
         <v>2</v>
@@ -1591,7 +1591,7 @@
         <v>2</v>
       </c>
       <c r="G46" s="6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
@@ -1599,19 +1599,19 @@
         <v>84</v>
       </c>
       <c r="B47" s="5" t="n">
-        <v>25.01</v>
+        <v>25.12</v>
       </c>
       <c r="C47" s="5" t="n">
-        <v>26.06</v>
+        <v>26.18</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>26.69</v>
+        <v>26.78</v>
       </c>
       <c r="E47" s="6" t="n">
         <v>1</v>
       </c>
       <c r="F47" s="6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>1</v>

--- a/TabuladosGasolina.xlsx
+++ b/TabuladosGasolina.xlsx
@@ -164,72 +164,75 @@
     <t xml:space="preserve">CRE, pesos por litro</t>
   </si>
   <si>
-    <t xml:space="preserve">mayo 2024</t>
+    <t xml:space="preserve">junio 2024</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima actualización: julio 2024</t>
+    <t xml:space="preserve">Próxima actualización: agosto 2024</t>
   </si>
   <si>
     <t xml:space="preserve">FUENTE: CRE; Comisión Reguladora de Energía</t>
   </si>
   <si>
+    <t xml:space="preserve">Tamaulipas</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chihuahua</t>
   </si>
   <si>
-    <t xml:space="preserve">Tamaulipas</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tabasco</t>
   </si>
   <si>
     <t xml:space="preserve">Tlaxcala</t>
   </si>
   <si>
+    <t xml:space="preserve">Baja California</t>
+  </si>
+  <si>
     <t xml:space="preserve">Querétaro</t>
   </si>
   <si>
-    <t xml:space="preserve">Baja California</t>
-  </si>
-  <si>
     <t xml:space="preserve">Puebla</t>
   </si>
   <si>
+    <t xml:space="preserve">Veracruz</t>
+  </si>
+  <si>
     <t xml:space="preserve">Coahuila</t>
   </si>
   <si>
     <t xml:space="preserve">Hidalgo</t>
   </si>
   <si>
-    <t xml:space="preserve">Veracruz</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sonora</t>
   </si>
   <si>
+    <t xml:space="preserve">Morelos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michoacán</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guanajuato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yucatán</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aguascalientes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durango</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chiapas</t>
   </si>
   <si>
-    <t xml:space="preserve">Morelos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guanajuato</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michoacán</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nacional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aguascalientes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Durango</t>
-  </si>
-  <si>
     <t xml:space="preserve">Zacatecas</t>
   </si>
   <si>
@@ -239,34 +242,31 @@
     <t xml:space="preserve">Ciudad de México</t>
   </si>
   <si>
-    <t xml:space="preserve">Yucatán</t>
+    <t xml:space="preserve">Campeche</t>
   </si>
   <si>
     <t xml:space="preserve">Colima</t>
   </si>
   <si>
-    <t xml:space="preserve">Campeche</t>
-  </si>
-  <si>
     <t xml:space="preserve">México</t>
   </si>
   <si>
+    <t xml:space="preserve">Sinaloa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oaxaca</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jalisco</t>
   </si>
   <si>
-    <t xml:space="preserve">Oaxaca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sinaloa</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nayarit</t>
   </si>
   <si>
+    <t xml:space="preserve">Guerrero</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nuevo León</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guerrero</t>
   </si>
   <si>
     <t xml:space="preserve">Baja California Sur</t>
@@ -866,19 +866,19 @@
         <v>21.07</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>22.77</v>
+        <v>23.15</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>24.2</v>
+        <v>24.59</v>
       </c>
       <c r="E15" s="6" t="n">
         <v>33</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16">
@@ -886,22 +886,22 @@
         <v>53</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>21.16</v>
+        <v>21.17</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>23.33</v>
+        <v>23.08</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>24.49</v>
+        <v>24.44</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>32</v>
       </c>
       <c r="F16" s="6" t="n">
+        <v>33</v>
+      </c>
+      <c r="G16" s="6" t="n">
         <v>32</v>
-      </c>
-      <c r="G16" s="6" t="n">
-        <v>30</v>
       </c>
     </row>
     <row r="17">
@@ -909,19 +909,19 @@
         <v>54</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>22.93</v>
+        <v>23.07</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>24.36</v>
+        <v>24.5</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>24.67</v>
+        <v>24.76</v>
       </c>
       <c r="E17" s="6" t="n">
         <v>31</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>25</v>
@@ -932,19 +932,19 @@
         <v>55</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>22.95</v>
+        <v>23.1</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>24.48</v>
+        <v>24.3</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>24.36</v>
+        <v>24.53</v>
       </c>
       <c r="E18" s="6" t="n">
         <v>30</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>31</v>
@@ -955,22 +955,22 @@
         <v>56</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>22.98</v>
+        <v>23.19</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>24.6</v>
+        <v>25.07</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>24.63</v>
+        <v>24.4</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>29</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20">
@@ -978,22 +978,22 @@
         <v>57</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>23.01</v>
+        <v>23.2</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>25.12</v>
+        <v>24.53</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>24.29</v>
+        <v>24.73</v>
       </c>
       <c r="E20" s="6" t="n">
         <v>28</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21">
@@ -1001,22 +1001,22 @@
         <v>58</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>23.13</v>
+        <v>23.22</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>24.59</v>
+        <v>24.41</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>24.71</v>
+        <v>24.73</v>
       </c>
       <c r="E21" s="6" t="n">
         <v>27</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22">
@@ -1024,22 +1024,22 @@
         <v>59</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>23.22</v>
+        <v>23.25</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>25.19</v>
+        <v>24.39</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>24.93</v>
+        <v>25.15</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>26</v>
       </c>
       <c r="F22" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="G22" s="6" t="n">
         <v>20</v>
-      </c>
-      <c r="G22" s="6" t="n">
-        <v>23</v>
       </c>
     </row>
     <row r="23">
@@ -1047,22 +1047,22 @@
         <v>60</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>23.25</v>
+        <v>23.28</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>24.61</v>
+        <v>25.57</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>24.63</v>
+        <v>25.02</v>
       </c>
       <c r="E23" s="6" t="n">
         <v>25</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24">
@@ -1070,22 +1070,22 @@
         <v>61</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>23.25</v>
+        <v>23.41</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>24.5</v>
+        <v>24.45</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>25.15</v>
+        <v>24.81</v>
       </c>
       <c r="E24" s="6" t="n">
         <v>24</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25">
@@ -1093,19 +1093,19 @@
         <v>62</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>23.27</v>
+        <v>23.43</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>25.37</v>
+        <v>25.22</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>25.48</v>
+        <v>25.69</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>23</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>9</v>
@@ -1116,22 +1116,22 @@
         <v>63</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>23.33</v>
+        <v>23.44</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>24.76</v>
+        <v>24.94</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>25.14</v>
+        <v>24.63</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>22</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27">
@@ -1139,22 +1139,22 @@
         <v>64</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>23.39</v>
+        <v>23.56</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>25.11</v>
+        <v>25.18</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>24.53</v>
+        <v>25.19</v>
       </c>
       <c r="E27" s="6" t="n">
         <v>21</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28">
@@ -1162,22 +1162,22 @@
         <v>65</v>
       </c>
       <c r="B28" s="5" t="n">
-        <v>23.47</v>
+        <v>23.56</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>25.59</v>
+        <v>24.57</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>25.17</v>
+        <v>25.06</v>
       </c>
       <c r="E28" s="6" t="n">
         <v>20</v>
       </c>
       <c r="F28" s="6" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29">
@@ -1185,22 +1185,22 @@
         <v>66</v>
       </c>
       <c r="B29" s="5" t="n">
-        <v>23.48</v>
+        <v>23.59</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>24.74</v>
+        <v>25.48</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>25</v>
+        <v>25.31</v>
       </c>
       <c r="E29" s="6" t="n">
         <v>19</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30">
@@ -1208,22 +1208,22 @@
         <v>67</v>
       </c>
       <c r="B30" s="5" t="n">
-        <v>23.49</v>
+        <v>23.62</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>25.28</v>
+        <v>24.6</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>25.08</v>
+        <v>25.19</v>
       </c>
       <c r="E30" s="6" t="n">
         <v>18</v>
       </c>
       <c r="F30" s="6" t="n">
+        <v>24</v>
+      </c>
+      <c r="G30" s="6" t="n">
         <v>18</v>
-      </c>
-      <c r="G30" s="6" t="n">
-        <v>20</v>
       </c>
     </row>
     <row r="31">
@@ -1231,13 +1231,13 @@
         <v>68</v>
       </c>
       <c r="B31" s="5" t="n">
-        <v>23.53</v>
+        <v>23.63</v>
       </c>
       <c r="C31" s="5" t="n">
         <v>25.31</v>
       </c>
       <c r="D31" s="5" t="n">
-        <v>24.95</v>
+        <v>25.05</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>17</v>
@@ -1254,13 +1254,13 @@
         <v>69</v>
       </c>
       <c r="B32" s="5" t="n">
-        <v>23.64</v>
+        <v>23.71</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>25.93</v>
+        <v>25.76</v>
       </c>
       <c r="D32" s="5" t="n">
-        <v>25.11</v>
+        <v>25.36</v>
       </c>
       <c r="E32" s="6" t="n">
         <v>16</v>
@@ -1269,7 +1269,7 @@
         <v>7</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33">
@@ -1277,22 +1277,22 @@
         <v>70</v>
       </c>
       <c r="B33" s="5" t="n">
-        <v>23.67</v>
+        <v>23.82</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>25.29</v>
+        <v>24.96</v>
       </c>
       <c r="D33" s="5" t="n">
-        <v>25.2</v>
+        <v>25.42</v>
       </c>
       <c r="E33" s="6" t="n">
         <v>15</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34">
@@ -1300,22 +1300,22 @@
         <v>71</v>
       </c>
       <c r="B34" s="5" t="n">
-        <v>23.75</v>
+        <v>23.85</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>25.19</v>
+        <v>25.25</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>25.23</v>
+        <v>25.36</v>
       </c>
       <c r="E34" s="6" t="n">
         <v>14</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35">
@@ -1323,22 +1323,22 @@
         <v>72</v>
       </c>
       <c r="B35" s="5" t="n">
-        <v>23.84</v>
+        <v>23.86</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>25.66</v>
+        <v>25.13</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>24.63</v>
+        <v>25.34</v>
       </c>
       <c r="E35" s="6" t="n">
         <v>13</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36">
@@ -1346,22 +1346,22 @@
         <v>73</v>
       </c>
       <c r="B36" s="5" t="n">
-        <v>24.09</v>
+        <v>23.89</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>25.14</v>
+        <v>25.56</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>25.87</v>
+        <v>24.69</v>
       </c>
       <c r="E36" s="6" t="n">
         <v>12</v>
       </c>
       <c r="F36" s="6" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37">
@@ -1369,22 +1369,22 @@
         <v>74</v>
       </c>
       <c r="B37" s="5" t="n">
-        <v>24.12</v>
+        <v>24.13</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>25.69</v>
+        <v>25.57</v>
       </c>
       <c r="D37" s="5" t="n">
-        <v>25.45</v>
+        <v>25.86</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>11</v>
       </c>
       <c r="F37" s="6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38">
@@ -1395,10 +1395,10 @@
         <v>24.15</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>25.56</v>
+        <v>25.53</v>
       </c>
       <c r="D38" s="5" t="n">
-        <v>25.89</v>
+        <v>25.72</v>
       </c>
       <c r="E38" s="6" t="n">
         <v>10</v>
@@ -1407,7 +1407,7 @@
         <v>13</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39">
@@ -1415,22 +1415,22 @@
         <v>76</v>
       </c>
       <c r="B39" s="5" t="n">
-        <v>24.16</v>
+        <v>24.33</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>25.54</v>
+        <v>25.4</v>
       </c>
       <c r="D39" s="5" t="n">
-        <v>25.6</v>
+        <v>25.74</v>
       </c>
       <c r="E39" s="6" t="n">
         <v>9</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40">
@@ -1438,13 +1438,13 @@
         <v>77</v>
       </c>
       <c r="B40" s="5" t="n">
-        <v>24.23</v>
+        <v>24.38</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>25.95</v>
+        <v>25.84</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>25.46</v>
+        <v>25.57</v>
       </c>
       <c r="E40" s="6" t="n">
         <v>8</v>
@@ -1453,7 +1453,7 @@
         <v>6</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41">
@@ -1461,13 +1461,13 @@
         <v>78</v>
       </c>
       <c r="B41" s="5" t="n">
-        <v>24.33</v>
+        <v>24.42</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>25.74</v>
+        <v>25.72</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>26.03</v>
+        <v>26.12</v>
       </c>
       <c r="E41" s="6" t="n">
         <v>7</v>
@@ -1484,13 +1484,13 @@
         <v>79</v>
       </c>
       <c r="B42" s="5" t="n">
-        <v>24.36</v>
+        <v>24.43</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>26.01</v>
+        <v>25.95</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>25.36</v>
+        <v>25.67</v>
       </c>
       <c r="E42" s="6" t="n">
         <v>6</v>
@@ -1499,7 +1499,7 @@
         <v>5</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43">
@@ -1507,13 +1507,13 @@
         <v>80</v>
       </c>
       <c r="B43" s="5" t="n">
-        <v>24.5</v>
+        <v>24.61</v>
       </c>
       <c r="C43" s="5" t="n">
-        <v>26.04</v>
+        <v>25.98</v>
       </c>
       <c r="D43" s="5" t="n">
-        <v>25.73</v>
+        <v>26.09</v>
       </c>
       <c r="E43" s="6" t="n">
         <v>5</v>
@@ -1522,7 +1522,7 @@
         <v>4</v>
       </c>
       <c r="G43" s="6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
@@ -1530,22 +1530,22 @@
         <v>81</v>
       </c>
       <c r="B44" s="5" t="n">
-        <v>24.54</v>
+        <v>24.68</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>27.05</v>
+        <v>25.61</v>
       </c>
       <c r="D44" s="5" t="n">
-        <v>25.16</v>
+        <v>26</v>
       </c>
       <c r="E44" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45">
@@ -1553,22 +1553,22 @@
         <v>82</v>
       </c>
       <c r="B45" s="5" t="n">
-        <v>24.57</v>
+        <v>24.73</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>25.72</v>
+        <v>26.9</v>
       </c>
       <c r="D45" s="5" t="n">
-        <v>25.93</v>
+        <v>25.4</v>
       </c>
       <c r="E45" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46">
@@ -1576,13 +1576,13 @@
         <v>83</v>
       </c>
       <c r="B46" s="5" t="n">
-        <v>24.86</v>
+        <v>25.01</v>
       </c>
       <c r="C46" s="5" t="n">
-        <v>26.44</v>
+        <v>26.39</v>
       </c>
       <c r="D46" s="5" t="n">
-        <v>26.04</v>
+        <v>26.21</v>
       </c>
       <c r="E46" s="6" t="n">
         <v>2</v>
@@ -1599,13 +1599,13 @@
         <v>84</v>
       </c>
       <c r="B47" s="5" t="n">
-        <v>25.12</v>
+        <v>25.02</v>
       </c>
       <c r="C47" s="5" t="n">
-        <v>26.18</v>
+        <v>26.09</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>26.78</v>
+        <v>26.71</v>
       </c>
       <c r="E47" s="6" t="n">
         <v>1</v>

--- a/TabuladosGasolina.xlsx
+++ b/TabuladosGasolina.xlsx
@@ -164,13 +164,13 @@
     <t xml:space="preserve">CRE, pesos por litro</t>
   </si>
   <si>
-    <t xml:space="preserve">junio 2024</t>
+    <t xml:space="preserve">julio 2024</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima actualización: agosto 2024</t>
+    <t xml:space="preserve">Próxima actualización: septiembre 2024</t>
   </si>
   <si>
     <t xml:space="preserve">FUENTE: CRE; Comisión Reguladora de Energía</t>
@@ -185,63 +185,63 @@
     <t xml:space="preserve">Tabasco</t>
   </si>
   <si>
+    <t xml:space="preserve">Baja California</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tlaxcala</t>
   </si>
   <si>
-    <t xml:space="preserve">Baja California</t>
-  </si>
-  <si>
     <t xml:space="preserve">Querétaro</t>
   </si>
   <si>
     <t xml:space="preserve">Puebla</t>
   </si>
   <si>
+    <t xml:space="preserve">Hidalgo</t>
+  </si>
+  <si>
     <t xml:space="preserve">Veracruz</t>
   </si>
   <si>
     <t xml:space="preserve">Coahuila</t>
   </si>
   <si>
-    <t xml:space="preserve">Hidalgo</t>
+    <t xml:space="preserve">Morelos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michoacán</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yucatán</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiapas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aguascalientes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guanajuato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Luis Potosí</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ciudad de México</t>
   </si>
   <si>
     <t xml:space="preserve">Sonora</t>
   </si>
   <si>
-    <t xml:space="preserve">Morelos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nacional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michoacán</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guanajuato</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yucatán</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aguascalientes</t>
-  </si>
-  <si>
     <t xml:space="preserve">Durango</t>
   </si>
   <si>
-    <t xml:space="preserve">Chiapas</t>
-  </si>
-  <si>
     <t xml:space="preserve">Zacatecas</t>
   </si>
   <si>
-    <t xml:space="preserve">San Luis Potosí</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ciudad de México</t>
-  </si>
-  <si>
     <t xml:space="preserve">Campeche</t>
   </si>
   <si>
@@ -251,28 +251,28 @@
     <t xml:space="preserve">México</t>
   </si>
   <si>
+    <t xml:space="preserve">Oaxaca</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sinaloa</t>
   </si>
   <si>
-    <t xml:space="preserve">Oaxaca</t>
-  </si>
-  <si>
     <t xml:space="preserve">Jalisco</t>
   </si>
   <si>
+    <t xml:space="preserve">Guerrero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuevo León</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nayarit</t>
   </si>
   <si>
-    <t xml:space="preserve">Guerrero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nuevo León</t>
+    <t xml:space="preserve">Quintana Roo</t>
   </si>
   <si>
     <t xml:space="preserve">Baja California Sur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quintana Roo</t>
   </si>
 </sst>
 </file>
@@ -863,22 +863,22 @@
         <v>52</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>21.07</v>
+        <v>21.27</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>23.15</v>
+        <v>23.56</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>24.59</v>
+        <v>24.87</v>
       </c>
       <c r="E15" s="6" t="n">
         <v>33</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
@@ -886,19 +886,19 @@
         <v>53</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>21.17</v>
+        <v>21.72</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>23.08</v>
+        <v>23.74</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>24.44</v>
+        <v>24.82</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>32</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>32</v>
@@ -909,22 +909,22 @@
         <v>54</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>23.07</v>
+        <v>23.33</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>24.5</v>
+        <v>24.68</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>24.76</v>
+        <v>24.96</v>
       </c>
       <c r="E17" s="6" t="n">
         <v>31</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18">
@@ -932,22 +932,22 @@
         <v>55</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>23.1</v>
+        <v>23.38</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>24.3</v>
+        <v>25.07</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>24.53</v>
+        <v>24.79</v>
       </c>
       <c r="E18" s="6" t="n">
         <v>30</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
@@ -955,22 +955,22 @@
         <v>56</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>23.19</v>
+        <v>23.44</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>25.07</v>
+        <v>24.7</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>24.4</v>
+        <v>24.9</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>29</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
@@ -978,22 +978,22 @@
         <v>57</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>23.2</v>
+        <v>23.58</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>24.53</v>
+        <v>24.92</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>24.73</v>
+        <v>25.23</v>
       </c>
       <c r="E20" s="6" t="n">
         <v>28</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21">
@@ -1001,22 +1001,22 @@
         <v>58</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>23.22</v>
+        <v>23.6</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>24.41</v>
+        <v>24.82</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>24.73</v>
+        <v>25.16</v>
       </c>
       <c r="E21" s="6" t="n">
         <v>27</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22">
@@ -1024,22 +1024,22 @@
         <v>59</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>23.25</v>
+        <v>23.64</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>24.39</v>
+        <v>24.75</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>25.15</v>
+        <v>25.18</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>26</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23">
@@ -1047,22 +1047,22 @@
         <v>60</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>23.28</v>
+        <v>23.67</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>25.57</v>
+        <v>24.75</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>25.02</v>
+        <v>25.47</v>
       </c>
       <c r="E23" s="6" t="n">
         <v>25</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24">
@@ -1070,22 +1070,22 @@
         <v>61</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>23.41</v>
+        <v>23.69</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>24.45</v>
+        <v>25.81</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>24.81</v>
+        <v>25.55</v>
       </c>
       <c r="E24" s="6" t="n">
         <v>24</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25">
@@ -1093,22 +1093,22 @@
         <v>62</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>23.43</v>
+        <v>23.7</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>25.22</v>
+        <v>25.2</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>25.69</v>
+        <v>24.96</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>23</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26">
@@ -1116,22 +1116,22 @@
         <v>63</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>23.44</v>
+        <v>23.84</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>24.94</v>
+        <v>24.87</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>24.63</v>
+        <v>25.42</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>22</v>
       </c>
       <c r="F26" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="G26" s="6" t="n">
         <v>23</v>
-      </c>
-      <c r="G26" s="6" t="n">
-        <v>29</v>
       </c>
     </row>
     <row r="27">
@@ -1139,13 +1139,13 @@
         <v>64</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>23.56</v>
+        <v>23.91</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>25.18</v>
+        <v>25.48</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>25.19</v>
+        <v>25.58</v>
       </c>
       <c r="E27" s="6" t="n">
         <v>21</v>
@@ -1162,22 +1162,22 @@
         <v>65</v>
       </c>
       <c r="B28" s="5" t="n">
-        <v>23.56</v>
+        <v>23.94</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>24.57</v>
+        <v>25.12</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>25.06</v>
+        <v>25.77</v>
       </c>
       <c r="E28" s="6" t="n">
         <v>20</v>
       </c>
       <c r="F28" s="6" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29">
@@ -1185,22 +1185,22 @@
         <v>66</v>
       </c>
       <c r="B29" s="5" t="n">
-        <v>23.59</v>
+        <v>23.96</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>25.48</v>
+        <v>25.09</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>25.31</v>
+        <v>25.58</v>
       </c>
       <c r="E29" s="6" t="n">
         <v>19</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30">
@@ -1208,22 +1208,22 @@
         <v>67</v>
       </c>
       <c r="B30" s="5" t="n">
-        <v>23.62</v>
+        <v>23.98</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>24.6</v>
+        <v>25.6</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>25.19</v>
+        <v>25.44</v>
       </c>
       <c r="E30" s="6" t="n">
         <v>18</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31">
@@ -1231,22 +1231,22 @@
         <v>68</v>
       </c>
       <c r="B31" s="5" t="n">
-        <v>23.63</v>
+        <v>24.03</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>25.31</v>
+        <v>25.81</v>
       </c>
       <c r="D31" s="5" t="n">
-        <v>25.05</v>
+        <v>25.77</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>17</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32">
@@ -1254,22 +1254,22 @@
         <v>69</v>
       </c>
       <c r="B32" s="5" t="n">
-        <v>23.71</v>
+        <v>24.09</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>25.76</v>
+        <v>25.37</v>
       </c>
       <c r="D32" s="5" t="n">
-        <v>25.36</v>
+        <v>25.64</v>
       </c>
       <c r="E32" s="6" t="n">
         <v>16</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33">
@@ -1277,22 +1277,22 @@
         <v>70</v>
       </c>
       <c r="B33" s="5" t="n">
-        <v>23.82</v>
+        <v>24.1</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>24.96</v>
+        <v>25.91</v>
       </c>
       <c r="D33" s="5" t="n">
-        <v>25.42</v>
+        <v>24.99</v>
       </c>
       <c r="E33" s="6" t="n">
         <v>15</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34">
@@ -1300,22 +1300,22 @@
         <v>71</v>
       </c>
       <c r="B34" s="5" t="n">
-        <v>23.85</v>
+        <v>24.11</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>25.25</v>
+        <v>25.86</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>25.36</v>
+        <v>26.22</v>
       </c>
       <c r="E34" s="6" t="n">
         <v>14</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35">
@@ -1323,22 +1323,22 @@
         <v>72</v>
       </c>
       <c r="B35" s="5" t="n">
-        <v>23.86</v>
+        <v>24.17</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>25.13</v>
+        <v>26.15</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>25.34</v>
+        <v>25.8</v>
       </c>
       <c r="E35" s="6" t="n">
         <v>13</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36">
@@ -1346,22 +1346,22 @@
         <v>73</v>
       </c>
       <c r="B36" s="5" t="n">
-        <v>23.89</v>
+        <v>24.19</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>25.56</v>
+        <v>25.54</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>24.69</v>
+        <v>25.71</v>
       </c>
       <c r="E36" s="6" t="n">
         <v>12</v>
       </c>
       <c r="F36" s="6" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37">
@@ -1369,22 +1369,22 @@
         <v>74</v>
       </c>
       <c r="B37" s="5" t="n">
-        <v>24.13</v>
+        <v>24.34</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>25.57</v>
+        <v>25.66</v>
       </c>
       <c r="D37" s="5" t="n">
-        <v>25.86</v>
+        <v>26.01</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>11</v>
       </c>
       <c r="F37" s="6" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38">
@@ -1392,22 +1392,22 @@
         <v>75</v>
       </c>
       <c r="B38" s="5" t="n">
-        <v>24.15</v>
+        <v>24.42</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>25.53</v>
+        <v>25.84</v>
       </c>
       <c r="D38" s="5" t="n">
-        <v>25.72</v>
+        <v>25.98</v>
       </c>
       <c r="E38" s="6" t="n">
         <v>10</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39">
@@ -1415,13 +1415,13 @@
         <v>76</v>
       </c>
       <c r="B39" s="5" t="n">
-        <v>24.33</v>
+        <v>24.59</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>25.4</v>
+        <v>25.76</v>
       </c>
       <c r="D39" s="5" t="n">
-        <v>25.74</v>
+        <v>26.13</v>
       </c>
       <c r="E39" s="6" t="n">
         <v>9</v>
@@ -1438,22 +1438,22 @@
         <v>77</v>
       </c>
       <c r="B40" s="5" t="n">
-        <v>24.38</v>
+        <v>24.6</v>
       </c>
       <c r="C40" s="5" t="n">
         <v>25.84</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>25.57</v>
+        <v>26.34</v>
       </c>
       <c r="E40" s="6" t="n">
         <v>8</v>
       </c>
       <c r="F40" s="6" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
@@ -1461,22 +1461,22 @@
         <v>78</v>
       </c>
       <c r="B41" s="5" t="n">
-        <v>24.42</v>
+        <v>24.71</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>25.72</v>
+        <v>26.19</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>26.12</v>
+        <v>26.03</v>
       </c>
       <c r="E41" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F41" s="6" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42">
@@ -1484,13 +1484,13 @@
         <v>79</v>
       </c>
       <c r="B42" s="5" t="n">
-        <v>24.43</v>
+        <v>24.77</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>25.95</v>
+        <v>26.19</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>25.67</v>
+        <v>26.05</v>
       </c>
       <c r="E42" s="6" t="n">
         <v>6</v>
@@ -1499,7 +1499,7 @@
         <v>5</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43">
@@ -1507,22 +1507,22 @@
         <v>80</v>
       </c>
       <c r="B43" s="5" t="n">
-        <v>24.61</v>
+        <v>24.89</v>
       </c>
       <c r="C43" s="5" t="n">
         <v>25.98</v>
       </c>
       <c r="D43" s="5" t="n">
-        <v>26.09</v>
+        <v>26.33</v>
       </c>
       <c r="E43" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F43" s="6" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G43" s="6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44">
@@ -1530,22 +1530,22 @@
         <v>81</v>
       </c>
       <c r="B44" s="5" t="n">
-        <v>24.68</v>
+        <v>24.98</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>25.61</v>
+        <v>27.28</v>
       </c>
       <c r="D44" s="5" t="n">
-        <v>26</v>
+        <v>25.73</v>
       </c>
       <c r="E44" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45">
@@ -1553,22 +1553,22 @@
         <v>82</v>
       </c>
       <c r="B45" s="5" t="n">
-        <v>24.73</v>
+        <v>25.03</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>26.9</v>
+        <v>26.44</v>
       </c>
       <c r="D45" s="5" t="n">
-        <v>25.4</v>
+        <v>26.43</v>
       </c>
       <c r="E45" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -1576,22 +1576,22 @@
         <v>83</v>
       </c>
       <c r="B46" s="5" t="n">
-        <v>25.01</v>
+        <v>25.1</v>
       </c>
       <c r="C46" s="5" t="n">
-        <v>26.39</v>
+        <v>26.14</v>
       </c>
       <c r="D46" s="5" t="n">
-        <v>26.21</v>
+        <v>26.75</v>
       </c>
       <c r="E46" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F46" s="6" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G46" s="6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1599,22 +1599,22 @@
         <v>84</v>
       </c>
       <c r="B47" s="5" t="n">
-        <v>25.02</v>
+        <v>25.22</v>
       </c>
       <c r="C47" s="5" t="n">
-        <v>26.09</v>
+        <v>26.66</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>26.71</v>
+        <v>26.55</v>
       </c>
       <c r="E47" s="6" t="n">
         <v>1</v>
       </c>
       <c r="F47" s="6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G47" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/TabuladosGasolina.xlsx
+++ b/TabuladosGasolina.xlsx
@@ -164,13 +164,13 @@
     <t xml:space="preserve">CRE, pesos por litro</t>
   </si>
   <si>
-    <t xml:space="preserve">julio 2024</t>
+    <t xml:space="preserve">agosto 2024</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima actualización: septiembre 2024</t>
+    <t xml:space="preserve">Próxima actualización: octubre 2024</t>
   </si>
   <si>
     <t xml:space="preserve">FUENTE: CRE; Comisión Reguladora de Energía</t>
@@ -197,28 +197,37 @@
     <t xml:space="preserve">Puebla</t>
   </si>
   <si>
+    <t xml:space="preserve">Veracruz</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hidalgo</t>
   </si>
   <si>
-    <t xml:space="preserve">Veracruz</t>
+    <t xml:space="preserve">Morelos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yucatán</t>
   </si>
   <si>
     <t xml:space="preserve">Coahuila</t>
   </si>
   <si>
-    <t xml:space="preserve">Morelos</t>
-  </si>
-  <si>
     <t xml:space="preserve">Michoacán</t>
   </si>
   <si>
+    <t xml:space="preserve">Chiapas</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nacional</t>
   </si>
   <si>
-    <t xml:space="preserve">Yucatán</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chiapas</t>
+    <t xml:space="preserve">Sonora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ciudad de México</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Luis Potosí</t>
   </si>
   <si>
     <t xml:space="preserve">Aguascalientes</t>
@@ -227,21 +236,12 @@
     <t xml:space="preserve">Guanajuato</t>
   </si>
   <si>
-    <t xml:space="preserve">San Luis Potosí</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ciudad de México</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sonora</t>
+    <t xml:space="preserve">Zacatecas</t>
   </si>
   <si>
     <t xml:space="preserve">Durango</t>
   </si>
   <si>
-    <t xml:space="preserve">Zacatecas</t>
-  </si>
-  <si>
     <t xml:space="preserve">Campeche</t>
   </si>
   <si>
@@ -251,22 +251,22 @@
     <t xml:space="preserve">México</t>
   </si>
   <si>
+    <t xml:space="preserve">Jalisco</t>
+  </si>
+  <si>
     <t xml:space="preserve">Oaxaca</t>
   </si>
   <si>
     <t xml:space="preserve">Sinaloa</t>
   </si>
   <si>
-    <t xml:space="preserve">Jalisco</t>
-  </si>
-  <si>
     <t xml:space="preserve">Guerrero</t>
   </si>
   <si>
+    <t xml:space="preserve">Nayarit</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nuevo León</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nayarit</t>
   </si>
   <si>
     <t xml:space="preserve">Quintana Roo</t>
@@ -863,13 +863,13 @@
         <v>52</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>21.27</v>
+        <v>21.52</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>23.56</v>
+        <v>23.63</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>24.87</v>
+        <v>24.9</v>
       </c>
       <c r="E15" s="6" t="n">
         <v>33</v>
@@ -878,7 +878,7 @@
         <v>33</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16">
@@ -886,13 +886,13 @@
         <v>53</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>21.72</v>
+        <v>21.81</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>23.74</v>
+        <v>23.71</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>24.82</v>
+        <v>24.72</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>32</v>
@@ -901,7 +901,7 @@
         <v>32</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17">
@@ -909,13 +909,13 @@
         <v>54</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>23.33</v>
+        <v>23.44</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>24.68</v>
+        <v>24.78</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>24.96</v>
+        <v>24.94</v>
       </c>
       <c r="E17" s="6" t="n">
         <v>31</v>
@@ -932,22 +932,22 @@
         <v>55</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>23.38</v>
+        <v>23.53</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>25.07</v>
+        <v>25.26</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>24.79</v>
+        <v>24.86</v>
       </c>
       <c r="E18" s="6" t="n">
         <v>30</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
@@ -955,22 +955,22 @@
         <v>56</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>23.44</v>
+        <v>23.64</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>24.7</v>
+        <v>24.86</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>24.9</v>
+        <v>24.88</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>29</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
@@ -978,13 +978,13 @@
         <v>57</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>23.58</v>
+        <v>23.79</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>24.92</v>
+        <v>24.98</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>25.23</v>
+        <v>25.25</v>
       </c>
       <c r="E20" s="6" t="n">
         <v>28</v>
@@ -1001,22 +1001,22 @@
         <v>58</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>23.6</v>
+        <v>23.8</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>24.82</v>
+        <v>24.91</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>25.16</v>
+        <v>25.11</v>
       </c>
       <c r="E21" s="6" t="n">
         <v>27</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22">
@@ -1024,22 +1024,22 @@
         <v>59</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>23.64</v>
+        <v>23.81</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>24.75</v>
+        <v>24.86</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>25.18</v>
+        <v>25.53</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>26</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23">
@@ -1047,22 +1047,22 @@
         <v>60</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>23.67</v>
+        <v>23.83</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>24.75</v>
+        <v>24.85</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>25.47</v>
+        <v>25.11</v>
       </c>
       <c r="E23" s="6" t="n">
         <v>25</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24">
@@ -1070,22 +1070,22 @@
         <v>61</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>23.69</v>
+        <v>23.85</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>25.81</v>
+        <v>25.27</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>25.55</v>
+        <v>24.92</v>
       </c>
       <c r="E24" s="6" t="n">
         <v>24</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25">
@@ -1093,22 +1093,22 @@
         <v>62</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>23.7</v>
+        <v>23.86</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>25.2</v>
+        <v>24.82</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>24.96</v>
+        <v>25.37</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>23</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26">
@@ -1116,22 +1116,22 @@
         <v>63</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>23.84</v>
+        <v>23.91</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>24.87</v>
+        <v>26.11</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>25.42</v>
+        <v>25.6</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>22</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27">
@@ -1139,22 +1139,22 @@
         <v>64</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>23.91</v>
+        <v>23.98</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>25.48</v>
+        <v>25</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>25.58</v>
+        <v>25.38</v>
       </c>
       <c r="E27" s="6" t="n">
         <v>21</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28">
@@ -1162,22 +1162,22 @@
         <v>65</v>
       </c>
       <c r="B28" s="5" t="n">
-        <v>23.94</v>
+        <v>23.99</v>
       </c>
       <c r="C28" s="5" t="n">
         <v>25.12</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>25.77</v>
+        <v>25.63</v>
       </c>
       <c r="E28" s="6" t="n">
         <v>20</v>
       </c>
       <c r="F28" s="6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29">
@@ -1185,10 +1185,10 @@
         <v>66</v>
       </c>
       <c r="B29" s="5" t="n">
-        <v>23.96</v>
+        <v>24.05</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>25.09</v>
+        <v>25.59</v>
       </c>
       <c r="D29" s="5" t="n">
         <v>25.58</v>
@@ -1197,10 +1197,10 @@
         <v>19</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30">
@@ -1208,22 +1208,22 @@
         <v>67</v>
       </c>
       <c r="B30" s="5" t="n">
-        <v>23.98</v>
+        <v>24.07</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>25.6</v>
+        <v>25.84</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>25.44</v>
+        <v>26.02</v>
       </c>
       <c r="E30" s="6" t="n">
         <v>18</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31">
@@ -1231,13 +1231,13 @@
         <v>68</v>
       </c>
       <c r="B31" s="5" t="n">
-        <v>24.03</v>
+        <v>24.19</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>25.81</v>
+        <v>25.93</v>
       </c>
       <c r="D31" s="5" t="n">
-        <v>25.77</v>
+        <v>24.98</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>17</v>
@@ -1246,7 +1246,7 @@
         <v>13</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32">
@@ -1254,13 +1254,13 @@
         <v>69</v>
       </c>
       <c r="B32" s="5" t="n">
-        <v>24.09</v>
+        <v>24.25</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>25.37</v>
+        <v>25.46</v>
       </c>
       <c r="D32" s="5" t="n">
-        <v>25.64</v>
+        <v>25.68</v>
       </c>
       <c r="E32" s="6" t="n">
         <v>16</v>
@@ -1269,7 +1269,7 @@
         <v>20</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33">
@@ -1277,22 +1277,22 @@
         <v>70</v>
       </c>
       <c r="B33" s="5" t="n">
-        <v>24.1</v>
+        <v>24.28</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>25.91</v>
+        <v>25.79</v>
       </c>
       <c r="D33" s="5" t="n">
-        <v>24.99</v>
+        <v>25.57</v>
       </c>
       <c r="E33" s="6" t="n">
         <v>15</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34">
@@ -1300,22 +1300,22 @@
         <v>71</v>
       </c>
       <c r="B34" s="5" t="n">
-        <v>24.11</v>
+        <v>24.32</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>25.86</v>
+        <v>25.96</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>26.22</v>
+        <v>25.88</v>
       </c>
       <c r="E34" s="6" t="n">
         <v>14</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35">
@@ -1323,22 +1323,22 @@
         <v>72</v>
       </c>
       <c r="B35" s="5" t="n">
-        <v>24.17</v>
+        <v>24.39</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>26.15</v>
+        <v>25.62</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>25.8</v>
+        <v>25.73</v>
       </c>
       <c r="E35" s="6" t="n">
         <v>13</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36">
@@ -1346,22 +1346,22 @@
         <v>73</v>
       </c>
       <c r="B36" s="5" t="n">
-        <v>24.19</v>
+        <v>24.41</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>25.54</v>
+        <v>26.37</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>25.71</v>
+        <v>25.87</v>
       </c>
       <c r="E36" s="6" t="n">
         <v>12</v>
       </c>
       <c r="F36" s="6" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37">
@@ -1369,22 +1369,22 @@
         <v>74</v>
       </c>
       <c r="B37" s="5" t="n">
-        <v>24.34</v>
+        <v>24.5</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>25.66</v>
+        <v>25.75</v>
       </c>
       <c r="D37" s="5" t="n">
-        <v>26.01</v>
+        <v>26.09</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>11</v>
       </c>
       <c r="F37" s="6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38">
@@ -1392,13 +1392,13 @@
         <v>75</v>
       </c>
       <c r="B38" s="5" t="n">
-        <v>24.42</v>
+        <v>24.61</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>25.84</v>
+        <v>25.95</v>
       </c>
       <c r="D38" s="5" t="n">
-        <v>25.98</v>
+        <v>26.09</v>
       </c>
       <c r="E38" s="6" t="n">
         <v>10</v>
@@ -1407,7 +1407,7 @@
         <v>12</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39">
@@ -1415,22 +1415,22 @@
         <v>76</v>
       </c>
       <c r="B39" s="5" t="n">
-        <v>24.59</v>
+        <v>24.79</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>25.76</v>
+        <v>25.9</v>
       </c>
       <c r="D39" s="5" t="n">
-        <v>26.13</v>
+        <v>26.09</v>
       </c>
       <c r="E39" s="6" t="n">
         <v>9</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40">
@@ -1438,22 +1438,22 @@
         <v>77</v>
       </c>
       <c r="B40" s="5" t="n">
-        <v>24.6</v>
+        <v>24.8</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>25.84</v>
+        <v>26.24</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>26.34</v>
+        <v>25.98</v>
       </c>
       <c r="E40" s="6" t="n">
         <v>8</v>
       </c>
       <c r="F40" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="G40" s="6" t="n">
         <v>11</v>
-      </c>
-      <c r="G40" s="6" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="41">
@@ -1461,22 +1461,22 @@
         <v>78</v>
       </c>
       <c r="B41" s="5" t="n">
-        <v>24.71</v>
+        <v>24.8</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>26.19</v>
+        <v>26.05</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>26.03</v>
+        <v>26.48</v>
       </c>
       <c r="E41" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F41" s="6" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42">
@@ -1484,22 +1484,22 @@
         <v>79</v>
       </c>
       <c r="B42" s="5" t="n">
-        <v>24.77</v>
+        <v>24.84</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>26.19</v>
+        <v>26.23</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>26.05</v>
+        <v>25.93</v>
       </c>
       <c r="E42" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F42" s="6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43">
@@ -1507,19 +1507,19 @@
         <v>80</v>
       </c>
       <c r="B43" s="5" t="n">
-        <v>24.89</v>
+        <v>25</v>
       </c>
       <c r="C43" s="5" t="n">
-        <v>25.98</v>
+        <v>25.99</v>
       </c>
       <c r="D43" s="5" t="n">
-        <v>26.33</v>
+        <v>26.2</v>
       </c>
       <c r="E43" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F43" s="6" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>5</v>
@@ -1530,22 +1530,22 @@
         <v>81</v>
       </c>
       <c r="B44" s="5" t="n">
-        <v>24.98</v>
+        <v>25.03</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>27.28</v>
+        <v>26.35</v>
       </c>
       <c r="D44" s="5" t="n">
-        <v>25.73</v>
+        <v>26.27</v>
       </c>
       <c r="E44" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45">
@@ -1553,22 +1553,22 @@
         <v>82</v>
       </c>
       <c r="B45" s="5" t="n">
-        <v>25.03</v>
+        <v>25.16</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>26.44</v>
+        <v>27.53</v>
       </c>
       <c r="D45" s="5" t="n">
-        <v>26.43</v>
+        <v>25.98</v>
       </c>
       <c r="E45" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46">
@@ -1576,19 +1576,19 @@
         <v>83</v>
       </c>
       <c r="B46" s="5" t="n">
-        <v>25.1</v>
+        <v>25.31</v>
       </c>
       <c r="C46" s="5" t="n">
-        <v>26.14</v>
+        <v>26.25</v>
       </c>
       <c r="D46" s="5" t="n">
-        <v>26.75</v>
+        <v>26.88</v>
       </c>
       <c r="E46" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F46" s="6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>1</v>
@@ -1599,13 +1599,13 @@
         <v>84</v>
       </c>
       <c r="B47" s="5" t="n">
-        <v>25.22</v>
+        <v>25.49</v>
       </c>
       <c r="C47" s="5" t="n">
-        <v>26.66</v>
+        <v>26.84</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>26.55</v>
+        <v>26.68</v>
       </c>
       <c r="E47" s="6" t="n">
         <v>1</v>

--- a/TabuladosGasolina.xlsx
+++ b/TabuladosGasolina.xlsx
@@ -164,13 +164,13 @@
     <t xml:space="preserve">CRE, pesos por litro</t>
   </si>
   <si>
-    <t xml:space="preserve">agosto 2024</t>
+    <t xml:space="preserve">septiembre 2024</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima actualización: octubre 2024</t>
+    <t xml:space="preserve">Próxima actualización: noviembre 2024</t>
   </si>
   <si>
     <t xml:space="preserve">FUENTE: CRE; Comisión Reguladora de Energía</t>
@@ -185,88 +185,88 @@
     <t xml:space="preserve">Tabasco</t>
   </si>
   <si>
+    <t xml:space="preserve">Tlaxcala</t>
+  </si>
+  <si>
     <t xml:space="preserve">Baja California</t>
   </si>
   <si>
-    <t xml:space="preserve">Tlaxcala</t>
-  </si>
-  <si>
     <t xml:space="preserve">Querétaro</t>
   </si>
   <si>
     <t xml:space="preserve">Puebla</t>
   </si>
   <si>
+    <t xml:space="preserve">Hidalgo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morelos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coahuila</t>
+  </si>
+  <si>
     <t xml:space="preserve">Veracruz</t>
   </si>
   <si>
-    <t xml:space="preserve">Hidalgo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morelos</t>
+    <t xml:space="preserve">Michoacán</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sonora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiapas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ciudad de México</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Luis Potosí</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guanajuato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aguascalientes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durango</t>
   </si>
   <si>
     <t xml:space="preserve">Yucatán</t>
   </si>
   <si>
-    <t xml:space="preserve">Coahuila</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michoacán</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chiapas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nacional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sonora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ciudad de México</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Luis Potosí</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aguascalientes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guanajuato</t>
-  </si>
-  <si>
     <t xml:space="preserve">Zacatecas</t>
   </si>
   <si>
-    <t xml:space="preserve">Durango</t>
+    <t xml:space="preserve">Colima</t>
   </si>
   <si>
     <t xml:space="preserve">Campeche</t>
   </si>
   <si>
-    <t xml:space="preserve">Colima</t>
-  </si>
-  <si>
     <t xml:space="preserve">México</t>
   </si>
   <si>
     <t xml:space="preserve">Jalisco</t>
   </si>
   <si>
+    <t xml:space="preserve">Nayarit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guerrero</t>
+  </si>
+  <si>
     <t xml:space="preserve">Oaxaca</t>
   </si>
   <si>
+    <t xml:space="preserve">Nuevo León</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sinaloa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guerrero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nayarit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nuevo León</t>
   </si>
   <si>
     <t xml:space="preserve">Quintana Roo</t>
@@ -863,22 +863,22 @@
         <v>52</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>21.52</v>
+        <v>21.1</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>23.63</v>
+        <v>23.34</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>24.9</v>
+        <v>24.78</v>
       </c>
       <c r="E15" s="6" t="n">
         <v>33</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
@@ -886,19 +886,19 @@
         <v>53</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>21.81</v>
+        <v>21.45</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>23.71</v>
+        <v>23.31</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>24.72</v>
+        <v>24.57</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>32</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>33</v>
@@ -912,7 +912,7 @@
         <v>23.44</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>24.78</v>
+        <v>24.66</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>24.94</v>
@@ -921,10 +921,10 @@
         <v>31</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18">
@@ -932,19 +932,19 @@
         <v>55</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>23.53</v>
+        <v>23.52</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>25.26</v>
+        <v>24.59</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>24.86</v>
+        <v>24.75</v>
       </c>
       <c r="E18" s="6" t="n">
         <v>30</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>32</v>
@@ -955,22 +955,22 @@
         <v>56</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>23.64</v>
+        <v>23.53</v>
       </c>
       <c r="C19" s="5" t="n">
+        <v>25.42</v>
+      </c>
+      <c r="D19" s="5" t="n">
         <v>24.86</v>
-      </c>
-      <c r="D19" s="5" t="n">
-        <v>24.88</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>29</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20">
@@ -978,19 +978,19 @@
         <v>57</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>23.79</v>
+        <v>23.57</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>24.98</v>
+        <v>24.64</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>25.25</v>
+        <v>25.15</v>
       </c>
       <c r="E20" s="6" t="n">
         <v>28</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>24</v>
@@ -1001,22 +1001,22 @@
         <v>58</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>23.8</v>
+        <v>23.61</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>24.91</v>
+        <v>24.58</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>25.11</v>
+        <v>24.96</v>
       </c>
       <c r="E21" s="6" t="n">
         <v>27</v>
       </c>
       <c r="F21" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="G21" s="6" t="n">
         <v>26</v>
-      </c>
-      <c r="G21" s="6" t="n">
-        <v>25</v>
       </c>
     </row>
     <row r="22">
@@ -1024,22 +1024,22 @@
         <v>59</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>23.81</v>
+        <v>23.64</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>24.86</v>
+        <v>24.56</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>25.53</v>
+        <v>25.02</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>26</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23">
@@ -1047,22 +1047,22 @@
         <v>60</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>23.83</v>
+        <v>23.65</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>24.85</v>
+        <v>25.09</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>25.11</v>
+        <v>24.83</v>
       </c>
       <c r="E23" s="6" t="n">
         <v>25</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24">
@@ -1070,22 +1070,22 @@
         <v>61</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>23.85</v>
+        <v>23.75</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>25.27</v>
+        <v>25.77</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>24.92</v>
+        <v>25.41</v>
       </c>
       <c r="E24" s="6" t="n">
         <v>24</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25">
@@ -1093,22 +1093,22 @@
         <v>62</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>23.86</v>
+        <v>23.8</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>24.82</v>
+        <v>24.78</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>25.37</v>
+        <v>25.54</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>23</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26">
@@ -1116,22 +1116,22 @@
         <v>63</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>23.91</v>
+        <v>23.82</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>26.11</v>
+        <v>24.76</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>25.6</v>
+        <v>25.24</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>22</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27">
@@ -1139,22 +1139,22 @@
         <v>64</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>23.98</v>
+        <v>23.89</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>25</v>
+        <v>25.95</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>25.38</v>
+        <v>26.01</v>
       </c>
       <c r="E27" s="6" t="n">
         <v>21</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
@@ -1162,22 +1162,22 @@
         <v>65</v>
       </c>
       <c r="B28" s="5" t="n">
-        <v>23.99</v>
+        <v>23.9</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>25.12</v>
+        <v>24.97</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>25.63</v>
+        <v>25.5</v>
       </c>
       <c r="E28" s="6" t="n">
         <v>20</v>
       </c>
       <c r="F28" s="6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29">
@@ -1185,22 +1185,22 @@
         <v>66</v>
       </c>
       <c r="B29" s="5" t="n">
-        <v>24.05</v>
+        <v>23.92</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>25.59</v>
+        <v>25.39</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>25.58</v>
+        <v>25.52</v>
       </c>
       <c r="E29" s="6" t="n">
         <v>19</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30">
@@ -1208,22 +1208,22 @@
         <v>67</v>
       </c>
       <c r="B30" s="5" t="n">
-        <v>24.07</v>
+        <v>23.95</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>25.84</v>
+        <v>25.65</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>26.02</v>
+        <v>24.86</v>
       </c>
       <c r="E30" s="6" t="n">
         <v>18</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31">
@@ -1231,22 +1231,22 @@
         <v>68</v>
       </c>
       <c r="B31" s="5" t="n">
-        <v>24.19</v>
+        <v>24.26</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>25.93</v>
+        <v>25.38</v>
       </c>
       <c r="D31" s="5" t="n">
-        <v>24.98</v>
+        <v>25.72</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>17</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32">
@@ -1254,22 +1254,22 @@
         <v>69</v>
       </c>
       <c r="B32" s="5" t="n">
-        <v>24.25</v>
+        <v>24.27</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>25.46</v>
+        <v>25.91</v>
       </c>
       <c r="D32" s="5" t="n">
-        <v>25.68</v>
+        <v>25.87</v>
       </c>
       <c r="E32" s="6" t="n">
         <v>16</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33">
@@ -1277,22 +1277,22 @@
         <v>70</v>
       </c>
       <c r="B33" s="5" t="n">
-        <v>24.28</v>
+        <v>24.36</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>25.79</v>
+        <v>25.68</v>
       </c>
       <c r="D33" s="5" t="n">
-        <v>25.57</v>
+        <v>25.63</v>
       </c>
       <c r="E33" s="6" t="n">
         <v>15</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34">
@@ -1300,22 +1300,22 @@
         <v>71</v>
       </c>
       <c r="B34" s="5" t="n">
-        <v>24.32</v>
+        <v>24.38</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>25.96</v>
+        <v>25.97</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>25.88</v>
+        <v>25.69</v>
       </c>
       <c r="E34" s="6" t="n">
         <v>14</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35">
@@ -1323,22 +1323,22 @@
         <v>72</v>
       </c>
       <c r="B35" s="5" t="n">
-        <v>24.39</v>
+        <v>24.4</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>25.62</v>
+        <v>25.37</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>25.73</v>
+        <v>26.33</v>
       </c>
       <c r="E35" s="6" t="n">
         <v>13</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
@@ -1346,22 +1346,22 @@
         <v>73</v>
       </c>
       <c r="B36" s="5" t="n">
-        <v>24.41</v>
+        <v>24.49</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>26.37</v>
+        <v>25.59</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>25.87</v>
+        <v>25.78</v>
       </c>
       <c r="E36" s="6" t="n">
         <v>12</v>
       </c>
       <c r="F36" s="6" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37">
@@ -1369,22 +1369,22 @@
         <v>74</v>
       </c>
       <c r="B37" s="5" t="n">
-        <v>24.5</v>
+        <v>24.55</v>
       </c>
       <c r="C37" s="5" t="n">
         <v>25.75</v>
       </c>
       <c r="D37" s="5" t="n">
-        <v>26.09</v>
+        <v>26.06</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>11</v>
       </c>
       <c r="F37" s="6" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38">
@@ -1392,22 +1392,22 @@
         <v>75</v>
       </c>
       <c r="B38" s="5" t="n">
-        <v>24.61</v>
+        <v>24.59</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>25.95</v>
+        <v>25.72</v>
       </c>
       <c r="D38" s="5" t="n">
-        <v>26.09</v>
+        <v>26.13</v>
       </c>
       <c r="E38" s="6" t="n">
         <v>10</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39">
@@ -1415,22 +1415,22 @@
         <v>76</v>
       </c>
       <c r="B39" s="5" t="n">
-        <v>24.79</v>
+        <v>24.64</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>25.9</v>
+        <v>25.65</v>
       </c>
       <c r="D39" s="5" t="n">
-        <v>26.09</v>
+        <v>25.95</v>
       </c>
       <c r="E39" s="6" t="n">
         <v>9</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40">
@@ -1438,13 +1438,13 @@
         <v>77</v>
       </c>
       <c r="B40" s="5" t="n">
-        <v>24.8</v>
+        <v>24.65</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>26.24</v>
+        <v>26.03</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>25.98</v>
+        <v>25.87</v>
       </c>
       <c r="E40" s="6" t="n">
         <v>8</v>
@@ -1453,7 +1453,7 @@
         <v>6</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41">
@@ -1461,22 +1461,22 @@
         <v>78</v>
       </c>
       <c r="B41" s="5" t="n">
-        <v>24.8</v>
+        <v>24.67</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>26.05</v>
+        <v>26.13</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>26.48</v>
+        <v>26</v>
       </c>
       <c r="E41" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F41" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G41" s="6" t="n">
         <v>9</v>
-      </c>
-      <c r="G41" s="6" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="42">
@@ -1484,22 +1484,22 @@
         <v>79</v>
       </c>
       <c r="B42" s="5" t="n">
-        <v>24.84</v>
+        <v>24.76</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>26.23</v>
+        <v>25.6</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>25.93</v>
+        <v>26.04</v>
       </c>
       <c r="E42" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F42" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="G42" s="6" t="n">
         <v>7</v>
-      </c>
-      <c r="G42" s="6" t="n">
-        <v>12</v>
       </c>
     </row>
     <row r="43">
@@ -1507,22 +1507,22 @@
         <v>80</v>
       </c>
       <c r="B43" s="5" t="n">
-        <v>25</v>
+        <v>24.78</v>
       </c>
       <c r="C43" s="5" t="n">
-        <v>25.99</v>
+        <v>25.94</v>
       </c>
       <c r="D43" s="5" t="n">
-        <v>26.2</v>
+        <v>26.39</v>
       </c>
       <c r="E43" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F43" s="6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G43" s="6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44">
@@ -1530,22 +1530,22 @@
         <v>81</v>
       </c>
       <c r="B44" s="5" t="n">
-        <v>25.03</v>
+        <v>24.88</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>26.35</v>
+        <v>27.17</v>
       </c>
       <c r="D44" s="5" t="n">
-        <v>26.27</v>
+        <v>25.93</v>
       </c>
       <c r="E44" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45">
@@ -1553,22 +1553,22 @@
         <v>82</v>
       </c>
       <c r="B45" s="5" t="n">
-        <v>25.16</v>
+        <v>24.96</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>27.53</v>
+        <v>26.07</v>
       </c>
       <c r="D45" s="5" t="n">
-        <v>25.98</v>
+        <v>25.8</v>
       </c>
       <c r="E45" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46">
@@ -1576,19 +1576,19 @@
         <v>83</v>
       </c>
       <c r="B46" s="5" t="n">
-        <v>25.31</v>
+        <v>25.24</v>
       </c>
       <c r="C46" s="5" t="n">
-        <v>26.25</v>
+        <v>26.21</v>
       </c>
       <c r="D46" s="5" t="n">
-        <v>26.88</v>
+        <v>26.85</v>
       </c>
       <c r="E46" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F46" s="6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>1</v>
@@ -1599,13 +1599,13 @@
         <v>84</v>
       </c>
       <c r="B47" s="5" t="n">
-        <v>25.49</v>
+        <v>25.64</v>
       </c>
       <c r="C47" s="5" t="n">
-        <v>26.84</v>
+        <v>26.9</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>26.68</v>
+        <v>26.69</v>
       </c>
       <c r="E47" s="6" t="n">
         <v>1</v>

--- a/TabuladosGasolina.xlsx
+++ b/TabuladosGasolina.xlsx
@@ -164,13 +164,13 @@
     <t xml:space="preserve">CRE, pesos por litro</t>
   </si>
   <si>
-    <t xml:space="preserve">septiembre 2024</t>
+    <t xml:space="preserve">octubre 2024</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima actualización: noviembre 2024</t>
+    <t xml:space="preserve">Próxima actualización: diciembre 2024</t>
   </si>
   <si>
     <t xml:space="preserve">FUENTE: CRE; Comisión Reguladora de Energía</t>
@@ -185,88 +185,88 @@
     <t xml:space="preserve">Tabasco</t>
   </si>
   <si>
+    <t xml:space="preserve">Sonora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baja California</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tlaxcala</t>
   </si>
   <si>
-    <t xml:space="preserve">Baja California</t>
-  </si>
-  <si>
     <t xml:space="preserve">Querétaro</t>
   </si>
   <si>
+    <t xml:space="preserve">Morelos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coahuila</t>
+  </si>
+  <si>
     <t xml:space="preserve">Puebla</t>
   </si>
   <si>
+    <t xml:space="preserve">Veracruz</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hidalgo</t>
   </si>
   <si>
-    <t xml:space="preserve">Morelos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coahuila</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Veracruz</t>
+    <t xml:space="preserve">Nacional</t>
   </si>
   <si>
     <t xml:space="preserve">Michoacán</t>
   </si>
   <si>
-    <t xml:space="preserve">Sonora</t>
+    <t xml:space="preserve">Ciudad de México</t>
   </si>
   <si>
     <t xml:space="preserve">Chiapas</t>
   </si>
   <si>
-    <t xml:space="preserve">Nacional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ciudad de México</t>
+    <t xml:space="preserve">Guanajuato</t>
   </si>
   <si>
     <t xml:space="preserve">San Luis Potosí</t>
   </si>
   <si>
-    <t xml:space="preserve">Guanajuato</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aguascalientes</t>
   </si>
   <si>
+    <t xml:space="preserve">Yucatán</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sinaloa</t>
+  </si>
+  <si>
     <t xml:space="preserve">Durango</t>
   </si>
   <si>
-    <t xml:space="preserve">Yucatán</t>
+    <t xml:space="preserve">Jalisco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campeche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuevo León</t>
   </si>
   <si>
     <t xml:space="preserve">Zacatecas</t>
   </si>
   <si>
-    <t xml:space="preserve">Colima</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Campeche</t>
-  </si>
-  <si>
     <t xml:space="preserve">México</t>
   </si>
   <si>
-    <t xml:space="preserve">Jalisco</t>
+    <t xml:space="preserve">Oaxaca</t>
   </si>
   <si>
     <t xml:space="preserve">Nayarit</t>
   </si>
   <si>
     <t xml:space="preserve">Guerrero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oaxaca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nuevo León</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sinaloa</t>
   </si>
   <si>
     <t xml:space="preserve">Quintana Roo</t>
@@ -863,13 +863,13 @@
         <v>52</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>21.1</v>
+        <v>21.11</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>23.34</v>
+        <v>23.28</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>24.78</v>
+        <v>24.84</v>
       </c>
       <c r="E15" s="6" t="n">
         <v>33</v>
@@ -878,7 +878,7 @@
         <v>32</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16">
@@ -886,13 +886,13 @@
         <v>53</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>21.45</v>
+        <v>21.37</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>23.31</v>
+        <v>23.16</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>24.57</v>
+        <v>24.4</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>32</v>
@@ -909,10 +909,10 @@
         <v>54</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>23.44</v>
+        <v>23.33</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>24.66</v>
+        <v>24.52</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>24.94</v>
@@ -921,10 +921,10 @@
         <v>31</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18">
@@ -932,22 +932,22 @@
         <v>55</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>23.52</v>
+        <v>23.37</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>24.59</v>
+        <v>25.49</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>24.75</v>
+        <v>25.83</v>
       </c>
       <c r="E18" s="6" t="n">
         <v>30</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19">
@@ -955,22 +955,22 @@
         <v>56</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>23.53</v>
+        <v>23.41</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>25.42</v>
+        <v>25.27</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>24.86</v>
+        <v>24.88</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>29</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20">
@@ -978,22 +978,22 @@
         <v>57</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>23.57</v>
+        <v>23.53</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>24.64</v>
+        <v>24.43</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>25.15</v>
+        <v>24.68</v>
       </c>
       <c r="E20" s="6" t="n">
         <v>28</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21">
@@ -1001,22 +1001,22 @@
         <v>58</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>23.61</v>
+        <v>23.57</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>24.58</v>
+        <v>24.61</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>24.96</v>
+        <v>25.11</v>
       </c>
       <c r="E21" s="6" t="n">
         <v>27</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22">
@@ -1024,22 +1024,22 @@
         <v>59</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>23.64</v>
+        <v>23.6</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>24.56</v>
+        <v>24.94</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>25.02</v>
+        <v>24.79</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>26</v>
       </c>
       <c r="F22" s="6" t="n">
+        <v>23</v>
+      </c>
+      <c r="G22" s="6" t="n">
         <v>31</v>
-      </c>
-      <c r="G22" s="6" t="n">
-        <v>25</v>
       </c>
     </row>
     <row r="23">
@@ -1047,22 +1047,22 @@
         <v>60</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>23.65</v>
+        <v>23.61</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>25.09</v>
+        <v>25.46</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>24.83</v>
+        <v>25.25</v>
       </c>
       <c r="E23" s="6" t="n">
         <v>25</v>
       </c>
       <c r="F23" s="6" t="n">
+        <v>18</v>
+      </c>
+      <c r="G23" s="6" t="n">
         <v>23</v>
-      </c>
-      <c r="G23" s="6" t="n">
-        <v>30</v>
       </c>
     </row>
     <row r="24">
@@ -1070,22 +1070,22 @@
         <v>61</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>23.75</v>
+        <v>23.62</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>25.77</v>
+        <v>24.47</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>25.41</v>
+        <v>24.91</v>
       </c>
       <c r="E24" s="6" t="n">
         <v>24</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25">
@@ -1093,22 +1093,22 @@
         <v>62</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>23.8</v>
+        <v>23.68</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>24.78</v>
+        <v>24.57</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>25.54</v>
+        <v>25.32</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>23</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26">
@@ -1116,22 +1116,22 @@
         <v>63</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>23.82</v>
+        <v>23.73</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>24.76</v>
+        <v>24.49</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>25.24</v>
+        <v>25.05</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>22</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27">
@@ -1139,22 +1139,22 @@
         <v>64</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>23.89</v>
+        <v>23.85</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>25.95</v>
+        <v>25.24</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>26.01</v>
+        <v>25.44</v>
       </c>
       <c r="E27" s="6" t="n">
         <v>21</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28">
@@ -1162,22 +1162,22 @@
         <v>65</v>
       </c>
       <c r="B28" s="5" t="n">
-        <v>23.9</v>
+        <v>23.89</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>24.97</v>
+        <v>24.73</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>25.5</v>
+        <v>25.27</v>
       </c>
       <c r="E28" s="6" t="n">
         <v>20</v>
       </c>
       <c r="F28" s="6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29">
@@ -1185,22 +1185,22 @@
         <v>66</v>
       </c>
       <c r="B29" s="5" t="n">
-        <v>23.92</v>
+        <v>23.94</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>25.39</v>
+        <v>25.61</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>25.52</v>
+        <v>24.87</v>
       </c>
       <c r="E29" s="6" t="n">
         <v>19</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30">
@@ -1208,22 +1208,22 @@
         <v>67</v>
       </c>
       <c r="B30" s="5" t="n">
-        <v>23.95</v>
+        <v>23.99</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>25.65</v>
+        <v>24.92</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>24.86</v>
+        <v>25.56</v>
       </c>
       <c r="E30" s="6" t="n">
         <v>18</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31">
@@ -1231,22 +1231,22 @@
         <v>68</v>
       </c>
       <c r="B31" s="5" t="n">
-        <v>24.26</v>
+        <v>24.22</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>25.38</v>
+        <v>25.73</v>
       </c>
       <c r="D31" s="5" t="n">
-        <v>25.72</v>
+        <v>25.8</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>17</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32">
@@ -1254,22 +1254,22 @@
         <v>69</v>
       </c>
       <c r="B32" s="5" t="n">
-        <v>24.27</v>
+        <v>24.34</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>25.91</v>
+        <v>25.34</v>
       </c>
       <c r="D32" s="5" t="n">
-        <v>25.87</v>
+        <v>25.73</v>
       </c>
       <c r="E32" s="6" t="n">
         <v>16</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33">
@@ -1277,22 +1277,22 @@
         <v>70</v>
       </c>
       <c r="B33" s="5" t="n">
-        <v>24.36</v>
+        <v>24.37</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>25.68</v>
+        <v>25.65</v>
       </c>
       <c r="D33" s="5" t="n">
-        <v>25.63</v>
+        <v>25.65</v>
       </c>
       <c r="E33" s="6" t="n">
         <v>15</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34">
@@ -1303,19 +1303,19 @@
         <v>24.38</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>25.97</v>
+        <v>25.31</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>25.69</v>
+        <v>26.29</v>
       </c>
       <c r="E34" s="6" t="n">
         <v>14</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35">
@@ -1326,19 +1326,19 @@
         <v>24.4</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>25.37</v>
+        <v>25.54</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>26.33</v>
+        <v>25.46</v>
       </c>
       <c r="E35" s="6" t="n">
         <v>13</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36">
@@ -1346,10 +1346,10 @@
         <v>73</v>
       </c>
       <c r="B36" s="5" t="n">
-        <v>24.49</v>
+        <v>24.46</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>25.59</v>
+        <v>25.79</v>
       </c>
       <c r="D36" s="5" t="n">
         <v>25.78</v>
@@ -1358,10 +1358,10 @@
         <v>12</v>
       </c>
       <c r="F36" s="6" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37">
@@ -1369,22 +1369,22 @@
         <v>74</v>
       </c>
       <c r="B37" s="5" t="n">
-        <v>24.55</v>
+        <v>24.49</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>25.75</v>
+        <v>25.87</v>
       </c>
       <c r="D37" s="5" t="n">
-        <v>26.06</v>
+        <v>25.64</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>11</v>
       </c>
       <c r="F37" s="6" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38">
@@ -1392,22 +1392,22 @@
         <v>75</v>
       </c>
       <c r="B38" s="5" t="n">
-        <v>24.59</v>
+        <v>24.52</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>25.72</v>
+        <v>25.55</v>
       </c>
       <c r="D38" s="5" t="n">
-        <v>26.13</v>
+        <v>26.07</v>
       </c>
       <c r="E38" s="6" t="n">
         <v>10</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39">
@@ -1415,22 +1415,22 @@
         <v>76</v>
       </c>
       <c r="B39" s="5" t="n">
-        <v>24.64</v>
+        <v>24.56</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>25.65</v>
+        <v>25.7</v>
       </c>
       <c r="D39" s="5" t="n">
-        <v>25.95</v>
+        <v>26.11</v>
       </c>
       <c r="E39" s="6" t="n">
         <v>9</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40">
@@ -1438,22 +1438,22 @@
         <v>77</v>
       </c>
       <c r="B40" s="5" t="n">
-        <v>24.65</v>
+        <v>24.59</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>26.03</v>
+        <v>26.78</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>25.87</v>
+        <v>25.68</v>
       </c>
       <c r="E40" s="6" t="n">
         <v>8</v>
       </c>
       <c r="F40" s="6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41">
@@ -1461,22 +1461,22 @@
         <v>78</v>
       </c>
       <c r="B41" s="5" t="n">
-        <v>24.67</v>
+        <v>24.6</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>26.13</v>
+        <v>25.58</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>26</v>
+        <v>25.84</v>
       </c>
       <c r="E41" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F41" s="6" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42">
@@ -1484,22 +1484,22 @@
         <v>79</v>
       </c>
       <c r="B42" s="5" t="n">
-        <v>24.76</v>
+        <v>24.73</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>25.6</v>
+        <v>25.63</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>26.04</v>
+        <v>26.02</v>
       </c>
       <c r="E42" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F42" s="6" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43">
@@ -1507,19 +1507,19 @@
         <v>80</v>
       </c>
       <c r="B43" s="5" t="n">
-        <v>24.78</v>
+        <v>24.79</v>
       </c>
       <c r="C43" s="5" t="n">
-        <v>25.94</v>
+        <v>25.84</v>
       </c>
       <c r="D43" s="5" t="n">
-        <v>26.39</v>
+        <v>26.38</v>
       </c>
       <c r="E43" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F43" s="6" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>3</v>
@@ -1530,22 +1530,22 @@
         <v>81</v>
       </c>
       <c r="B44" s="5" t="n">
-        <v>24.88</v>
+        <v>24.81</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>27.17</v>
+        <v>26.06</v>
       </c>
       <c r="D44" s="5" t="n">
-        <v>25.93</v>
+        <v>26.31</v>
       </c>
       <c r="E44" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45">
@@ -1553,22 +1553,22 @@
         <v>82</v>
       </c>
       <c r="B45" s="5" t="n">
-        <v>24.96</v>
+        <v>24.93</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>26.07</v>
+        <v>25.72</v>
       </c>
       <c r="D45" s="5" t="n">
-        <v>25.8</v>
+        <v>26.22</v>
       </c>
       <c r="E45" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46">
@@ -1576,13 +1576,13 @@
         <v>83</v>
       </c>
       <c r="B46" s="5" t="n">
-        <v>25.24</v>
+        <v>25.15</v>
       </c>
       <c r="C46" s="5" t="n">
-        <v>26.21</v>
+        <v>26.14</v>
       </c>
       <c r="D46" s="5" t="n">
-        <v>26.85</v>
+        <v>26.82</v>
       </c>
       <c r="E46" s="6" t="n">
         <v>2</v>
@@ -1599,13 +1599,13 @@
         <v>84</v>
       </c>
       <c r="B47" s="5" t="n">
-        <v>25.64</v>
+        <v>25.48</v>
       </c>
       <c r="C47" s="5" t="n">
-        <v>26.9</v>
+        <v>26.72</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>26.69</v>
+        <v>26.65</v>
       </c>
       <c r="E47" s="6" t="n">
         <v>1</v>

--- a/TabuladosGasolina.xlsx
+++ b/TabuladosGasolina.xlsx
@@ -164,109 +164,109 @@
     <t xml:space="preserve">CRE, pesos por litro</t>
   </si>
   <si>
-    <t xml:space="preserve">octubre 2024</t>
+    <t xml:space="preserve">noviembre 2024</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima actualización: diciembre 2024</t>
+    <t xml:space="preserve">Próxima actualización: enero 2025</t>
   </si>
   <si>
     <t xml:space="preserve">FUENTE: CRE; Comisión Reguladora de Energía</t>
   </si>
   <si>
+    <t xml:space="preserve">Chihuahua</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tamaulipas</t>
   </si>
   <si>
-    <t xml:space="preserve">Chihuahua</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tabasco</t>
   </si>
   <si>
+    <t xml:space="preserve">Baja California</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sonora</t>
   </si>
   <si>
-    <t xml:space="preserve">Baja California</t>
+    <t xml:space="preserve">Morelos</t>
   </si>
   <si>
     <t xml:space="preserve">Tlaxcala</t>
   </si>
   <si>
+    <t xml:space="preserve">Veracruz</t>
+  </si>
+  <si>
     <t xml:space="preserve">Querétaro</t>
   </si>
   <si>
-    <t xml:space="preserve">Morelos</t>
+    <t xml:space="preserve">Puebla</t>
   </si>
   <si>
     <t xml:space="preserve">Coahuila</t>
   </si>
   <si>
-    <t xml:space="preserve">Puebla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Veracruz</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hidalgo</t>
   </si>
   <si>
     <t xml:space="preserve">Nacional</t>
   </si>
   <si>
+    <t xml:space="preserve">Ciudad de México</t>
+  </si>
+  <si>
     <t xml:space="preserve">Michoacán</t>
   </si>
   <si>
-    <t xml:space="preserve">Ciudad de México</t>
-  </si>
-  <si>
     <t xml:space="preserve">Chiapas</t>
   </si>
   <si>
+    <t xml:space="preserve">Yucatán</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jalisco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aguascalientes</t>
+  </si>
+  <si>
     <t xml:space="preserve">Guanajuato</t>
   </si>
   <si>
     <t xml:space="preserve">San Luis Potosí</t>
   </si>
   <si>
-    <t xml:space="preserve">Aguascalientes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yucatán</t>
+    <t xml:space="preserve">Campeche</t>
   </si>
   <si>
     <t xml:space="preserve">Sinaloa</t>
   </si>
   <si>
+    <t xml:space="preserve">Nuevo León</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zacatecas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">México</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oaxaca</t>
+  </si>
+  <si>
     <t xml:space="preserve">Durango</t>
   </si>
   <si>
-    <t xml:space="preserve">Jalisco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colima</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Campeche</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nuevo León</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zacatecas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">México</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oaxaca</t>
+    <t xml:space="preserve">Guerrero</t>
   </si>
   <si>
     <t xml:space="preserve">Nayarit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guerrero</t>
   </si>
   <si>
     <t xml:space="preserve">Quintana Roo</t>
@@ -863,13 +863,13 @@
         <v>52</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>21.11</v>
+        <v>21.4</v>
       </c>
       <c r="C15" s="5" t="n">
         <v>23.28</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>24.84</v>
+        <v>24.66</v>
       </c>
       <c r="E15" s="6" t="n">
         <v>33</v>
@@ -878,7 +878,7 @@
         <v>32</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16">
@@ -886,13 +886,13 @@
         <v>53</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>21.37</v>
+        <v>21.45</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>23.16</v>
+        <v>23.27</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>24.4</v>
+        <v>25.11</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>32</v>
@@ -901,7 +901,7 @@
         <v>33</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17">
@@ -909,22 +909,22 @@
         <v>54</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>23.33</v>
+        <v>23.36</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>24.52</v>
+        <v>24.53</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>24.94</v>
+        <v>24.98</v>
       </c>
       <c r="E17" s="6" t="n">
         <v>31</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
@@ -932,22 +932,22 @@
         <v>55</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>23.37</v>
+        <v>23.5</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>25.49</v>
+        <v>25.48</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>25.83</v>
+        <v>25.02</v>
       </c>
       <c r="E18" s="6" t="n">
         <v>30</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19">
@@ -955,22 +955,22 @@
         <v>56</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>23.41</v>
+        <v>23.54</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>25.27</v>
+        <v>25.55</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>24.88</v>
+        <v>26</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>29</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20">
@@ -978,22 +978,22 @@
         <v>57</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>23.53</v>
+        <v>23.56</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>24.43</v>
+        <v>24.89</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>24.68</v>
+        <v>24.86</v>
       </c>
       <c r="E20" s="6" t="n">
         <v>28</v>
       </c>
       <c r="F20" s="6" t="n">
+        <v>24</v>
+      </c>
+      <c r="G20" s="6" t="n">
         <v>31</v>
-      </c>
-      <c r="G20" s="6" t="n">
-        <v>32</v>
       </c>
     </row>
     <row r="21">
@@ -1001,22 +1001,22 @@
         <v>58</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>23.57</v>
+        <v>23.6</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>24.61</v>
+        <v>24.44</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>25.11</v>
+        <v>24.82</v>
       </c>
       <c r="E21" s="6" t="n">
         <v>27</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22">
@@ -1024,22 +1024,22 @@
         <v>59</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>23.6</v>
+        <v>23.63</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>24.94</v>
+        <v>24.44</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>24.79</v>
+        <v>25.34</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>26</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23">
@@ -1047,22 +1047,22 @@
         <v>60</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>23.61</v>
+        <v>23.71</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>25.46</v>
+        <v>24.78</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>25.25</v>
+        <v>25.13</v>
       </c>
       <c r="E23" s="6" t="n">
         <v>25</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24">
@@ -1070,19 +1070,19 @@
         <v>61</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>23.62</v>
+        <v>23.72</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>24.47</v>
+        <v>24.45</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>24.91</v>
+        <v>25.05</v>
       </c>
       <c r="E24" s="6" t="n">
         <v>24</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>27</v>
@@ -1093,22 +1093,22 @@
         <v>62</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>23.68</v>
+        <v>23.78</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>24.57</v>
+        <v>25.61</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>25.32</v>
+        <v>25.57</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>23</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26">
@@ -1116,22 +1116,22 @@
         <v>63</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>23.73</v>
+        <v>23.78</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>24.49</v>
+        <v>24.47</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>25.05</v>
+        <v>25.2</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>22</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27">
@@ -1139,22 +1139,22 @@
         <v>64</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>23.85</v>
+        <v>23.89</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>25.24</v>
+        <v>25.3</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>25.44</v>
+        <v>25.57</v>
       </c>
       <c r="E27" s="6" t="n">
         <v>21</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28">
@@ -1162,22 +1162,22 @@
         <v>65</v>
       </c>
       <c r="B28" s="5" t="n">
-        <v>23.89</v>
+        <v>23.91</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>24.73</v>
+        <v>25.45</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>25.27</v>
+        <v>25</v>
       </c>
       <c r="E28" s="6" t="n">
         <v>20</v>
       </c>
       <c r="F28" s="6" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29">
@@ -1185,22 +1185,22 @@
         <v>66</v>
       </c>
       <c r="B29" s="5" t="n">
-        <v>23.94</v>
+        <v>23.95</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>25.61</v>
+        <v>24.72</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>24.87</v>
+        <v>25.33</v>
       </c>
       <c r="E29" s="6" t="n">
         <v>19</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30">
@@ -1208,22 +1208,22 @@
         <v>67</v>
       </c>
       <c r="B30" s="5" t="n">
-        <v>23.99</v>
+        <v>24.05</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>24.92</v>
+        <v>24.93</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>25.56</v>
+        <v>25.66</v>
       </c>
       <c r="E30" s="6" t="n">
         <v>18</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31">
@@ -1231,22 +1231,22 @@
         <v>68</v>
       </c>
       <c r="B31" s="5" t="n">
-        <v>24.22</v>
+        <v>24.23</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>25.73</v>
+        <v>25.17</v>
       </c>
       <c r="D31" s="5" t="n">
-        <v>25.8</v>
+        <v>26.16</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>17</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32">
@@ -1254,22 +1254,22 @@
         <v>69</v>
       </c>
       <c r="B32" s="5" t="n">
-        <v>24.34</v>
+        <v>24.24</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>25.34</v>
+        <v>25.75</v>
       </c>
       <c r="D32" s="5" t="n">
-        <v>25.73</v>
+        <v>25.58</v>
       </c>
       <c r="E32" s="6" t="n">
         <v>16</v>
       </c>
       <c r="F32" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="G32" s="6" t="n">
         <v>19</v>
-      </c>
-      <c r="G32" s="6" t="n">
-        <v>14</v>
       </c>
     </row>
     <row r="33">
@@ -1277,22 +1277,22 @@
         <v>70</v>
       </c>
       <c r="B33" s="5" t="n">
-        <v>24.37</v>
+        <v>24.36</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>25.65</v>
+        <v>25.76</v>
       </c>
       <c r="D33" s="5" t="n">
-        <v>25.65</v>
+        <v>25.85</v>
       </c>
       <c r="E33" s="6" t="n">
         <v>15</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34">
@@ -1300,22 +1300,22 @@
         <v>71</v>
       </c>
       <c r="B34" s="5" t="n">
-        <v>24.38</v>
+        <v>24.36</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>25.31</v>
+        <v>25.91</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>26.29</v>
+        <v>26.01</v>
       </c>
       <c r="E34" s="6" t="n">
         <v>14</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35">
@@ -1323,22 +1323,22 @@
         <v>72</v>
       </c>
       <c r="B35" s="5" t="n">
-        <v>24.4</v>
+        <v>24.41</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>25.54</v>
+        <v>25.38</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>25.46</v>
+        <v>25.88</v>
       </c>
       <c r="E35" s="6" t="n">
         <v>13</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36">
@@ -1346,22 +1346,22 @@
         <v>73</v>
       </c>
       <c r="B36" s="5" t="n">
-        <v>24.46</v>
+        <v>24.48</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>25.79</v>
+        <v>25.71</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>25.78</v>
+        <v>26.19</v>
       </c>
       <c r="E36" s="6" t="n">
         <v>12</v>
       </c>
       <c r="F36" s="6" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37">
@@ -1369,22 +1369,22 @@
         <v>74</v>
       </c>
       <c r="B37" s="5" t="n">
-        <v>24.49</v>
+        <v>24.55</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>25.87</v>
+        <v>25.76</v>
       </c>
       <c r="D37" s="5" t="n">
-        <v>25.64</v>
+        <v>25.61</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>11</v>
       </c>
       <c r="F37" s="6" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38">
@@ -1392,22 +1392,22 @@
         <v>75</v>
       </c>
       <c r="B38" s="5" t="n">
-        <v>24.52</v>
+        <v>24.57</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>25.55</v>
+        <v>26.96</v>
       </c>
       <c r="D38" s="5" t="n">
-        <v>26.07</v>
+        <v>25.83</v>
       </c>
       <c r="E38" s="6" t="n">
         <v>10</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39">
@@ -1415,22 +1415,22 @@
         <v>76</v>
       </c>
       <c r="B39" s="5" t="n">
-        <v>24.56</v>
+        <v>24.6</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>25.7</v>
+        <v>25.61</v>
       </c>
       <c r="D39" s="5" t="n">
-        <v>26.11</v>
+        <v>26.16</v>
       </c>
       <c r="E39" s="6" t="n">
         <v>9</v>
       </c>
       <c r="F39" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="G39" s="6" t="n">
         <v>10</v>
-      </c>
-      <c r="G39" s="6" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="40">
@@ -1438,22 +1438,22 @@
         <v>77</v>
       </c>
       <c r="B40" s="5" t="n">
-        <v>24.59</v>
+        <v>24.68</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>26.78</v>
+        <v>25.67</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>25.68</v>
+        <v>26.03</v>
       </c>
       <c r="E40" s="6" t="n">
         <v>8</v>
       </c>
       <c r="F40" s="6" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41">
@@ -1461,22 +1461,22 @@
         <v>78</v>
       </c>
       <c r="B41" s="5" t="n">
-        <v>24.6</v>
+        <v>24.82</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>25.58</v>
+        <v>25.72</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>25.84</v>
+        <v>26.24</v>
       </c>
       <c r="E41" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F41" s="6" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42">
@@ -1484,22 +1484,22 @@
         <v>79</v>
       </c>
       <c r="B42" s="5" t="n">
-        <v>24.73</v>
+        <v>24.84</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>25.63</v>
+        <v>25.88</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>26.02</v>
+        <v>26.44</v>
       </c>
       <c r="E42" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F42" s="6" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
@@ -1507,22 +1507,22 @@
         <v>80</v>
       </c>
       <c r="B43" s="5" t="n">
-        <v>24.79</v>
+        <v>24.88</v>
       </c>
       <c r="C43" s="5" t="n">
-        <v>25.84</v>
+        <v>25.98</v>
       </c>
       <c r="D43" s="5" t="n">
-        <v>26.38</v>
+        <v>26.37</v>
       </c>
       <c r="E43" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F43" s="6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G43" s="6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44">
@@ -1530,22 +1530,22 @@
         <v>81</v>
       </c>
       <c r="B44" s="5" t="n">
-        <v>24.81</v>
+        <v>24.96</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>26.06</v>
+        <v>25.7</v>
       </c>
       <c r="D44" s="5" t="n">
-        <v>26.31</v>
+        <v>26.34</v>
       </c>
       <c r="E44" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45">
@@ -1553,22 +1553,22 @@
         <v>82</v>
       </c>
       <c r="B45" s="5" t="n">
-        <v>24.93</v>
+        <v>25.09</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>25.72</v>
+        <v>26.3</v>
       </c>
       <c r="D45" s="5" t="n">
-        <v>26.22</v>
+        <v>26.5</v>
       </c>
       <c r="E45" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -1576,19 +1576,19 @@
         <v>83</v>
       </c>
       <c r="B46" s="5" t="n">
-        <v>25.15</v>
+        <v>25.13</v>
       </c>
       <c r="C46" s="5" t="n">
-        <v>26.14</v>
+        <v>26.12</v>
       </c>
       <c r="D46" s="5" t="n">
-        <v>26.82</v>
+        <v>26.83</v>
       </c>
       <c r="E46" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F46" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>1</v>
@@ -1599,13 +1599,13 @@
         <v>84</v>
       </c>
       <c r="B47" s="5" t="n">
-        <v>25.48</v>
+        <v>25.46</v>
       </c>
       <c r="C47" s="5" t="n">
-        <v>26.72</v>
+        <v>26.74</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>26.65</v>
+        <v>26.77</v>
       </c>
       <c r="E47" s="6" t="n">
         <v>1</v>

--- a/TabuladosGasolina.xlsx
+++ b/TabuladosGasolina.xlsx
@@ -164,112 +164,112 @@
     <t xml:space="preserve">CRE, pesos por litro</t>
   </si>
   <si>
-    <t xml:space="preserve">noviembre 2024</t>
+    <t xml:space="preserve">diciembre 2024</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima actualización: enero 2025</t>
+    <t xml:space="preserve">Próxima actualización: febrero 2025</t>
   </si>
   <si>
     <t xml:space="preserve">FUENTE: CRE; Comisión Reguladora de Energía</t>
   </si>
   <si>
+    <t xml:space="preserve">Tamaulipas</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chihuahua</t>
   </si>
   <si>
-    <t xml:space="preserve">Tamaulipas</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tabasco</t>
   </si>
   <si>
+    <t xml:space="preserve">Tlaxcala</t>
+  </si>
+  <si>
     <t xml:space="preserve">Baja California</t>
   </si>
   <si>
+    <t xml:space="preserve">México</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veracruz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Querétaro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puebla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yucatán</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hidalgo</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sonora</t>
   </si>
   <si>
+    <t xml:space="preserve">Nacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ciudad de México</t>
+  </si>
+  <si>
     <t xml:space="preserve">Morelos</t>
   </si>
   <si>
-    <t xml:space="preserve">Tlaxcala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Veracruz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Querétaro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puebla</t>
-  </si>
-  <si>
     <t xml:space="preserve">Coahuila</t>
   </si>
   <si>
-    <t xml:space="preserve">Hidalgo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nacional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ciudad de México</t>
+    <t xml:space="preserve">Chiapas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jalisco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Luis Potosí</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aguascalientes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guanajuato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campeche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuevo León</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zacatecas</t>
   </si>
   <si>
     <t xml:space="preserve">Michoacán</t>
   </si>
   <si>
-    <t xml:space="preserve">Chiapas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yucatán</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jalisco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aguascalientes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guanajuato</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Luis Potosí</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Campeche</t>
+    <t xml:space="preserve">Guerrero</t>
   </si>
   <si>
     <t xml:space="preserve">Sinaloa</t>
   </si>
   <si>
-    <t xml:space="preserve">Nuevo León</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colima</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zacatecas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">México</t>
-  </si>
-  <si>
     <t xml:space="preserve">Oaxaca</t>
   </si>
   <si>
     <t xml:space="preserve">Durango</t>
   </si>
   <si>
-    <t xml:space="preserve">Guerrero</t>
+    <t xml:space="preserve">Quintana Roo</t>
   </si>
   <si>
     <t xml:space="preserve">Nayarit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quintana Roo</t>
   </si>
   <si>
     <t xml:space="preserve">Baja California Sur</t>
@@ -863,22 +863,22 @@
         <v>52</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>21.4</v>
+        <v>21.43</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>23.28</v>
+        <v>23.13</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>24.66</v>
+        <v>25.04</v>
       </c>
       <c r="E15" s="6" t="n">
         <v>33</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16">
@@ -886,22 +886,22 @@
         <v>53</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>21.45</v>
+        <v>21.97</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>23.27</v>
+        <v>24.08</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>25.11</v>
+        <v>24.81</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>32</v>
       </c>
       <c r="F16" s="6" t="n">
+        <v>32</v>
+      </c>
+      <c r="G16" s="6" t="n">
         <v>33</v>
-      </c>
-      <c r="G16" s="6" t="n">
-        <v>26</v>
       </c>
     </row>
     <row r="17">
@@ -909,13 +909,13 @@
         <v>54</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>23.36</v>
+        <v>23.42</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>24.53</v>
+        <v>24.6</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>24.98</v>
+        <v>25.05</v>
       </c>
       <c r="E17" s="6" t="n">
         <v>31</v>
@@ -924,7 +924,7 @@
         <v>27</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18">
@@ -932,22 +932,22 @@
         <v>55</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>23.5</v>
+        <v>23.57</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>25.48</v>
+        <v>24.38</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>25.02</v>
+        <v>24.96</v>
       </c>
       <c r="E18" s="6" t="n">
         <v>30</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
@@ -955,22 +955,22 @@
         <v>56</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>23.54</v>
+        <v>23.59</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>25.55</v>
+        <v>25.47</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>26</v>
+        <v>25.22</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>29</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20">
@@ -978,19 +978,19 @@
         <v>57</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>23.56</v>
+        <v>23.63</v>
       </c>
       <c r="C20" s="5" t="n">
         <v>24.89</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>24.86</v>
+        <v>25.04</v>
       </c>
       <c r="E20" s="6" t="n">
         <v>28</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>31</v>
@@ -1001,22 +1001,22 @@
         <v>58</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>23.6</v>
+        <v>23.64</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>24.44</v>
+        <v>24.47</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>24.82</v>
+        <v>25.39</v>
       </c>
       <c r="E21" s="6" t="n">
         <v>27</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22">
@@ -1024,22 +1024,22 @@
         <v>59</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>23.63</v>
+        <v>23.66</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>24.44</v>
+        <v>24.65</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>25.34</v>
+        <v>25.24</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>26</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23">
@@ -1047,10 +1047,10 @@
         <v>60</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>23.71</v>
+        <v>23.69</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>24.78</v>
+        <v>24.44</v>
       </c>
       <c r="D23" s="5" t="n">
         <v>25.13</v>
@@ -1059,10 +1059,10 @@
         <v>25</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24">
@@ -1070,22 +1070,22 @@
         <v>61</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>23.72</v>
+        <v>23.75</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>24.45</v>
+        <v>24.6</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>25.05</v>
+        <v>25.53</v>
       </c>
       <c r="E24" s="6" t="n">
         <v>24</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25">
@@ -1096,19 +1096,19 @@
         <v>23.78</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>25.61</v>
+        <v>24.53</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>25.57</v>
+        <v>25.35</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>23</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26">
@@ -1116,22 +1116,22 @@
         <v>63</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>23.78</v>
+        <v>23.9</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>24.47</v>
+        <v>25.7</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>25.2</v>
+        <v>26.13</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>22</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27">
@@ -1139,22 +1139,22 @@
         <v>64</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>23.89</v>
+        <v>23.97</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>25.57</v>
+        <v>25.69</v>
       </c>
       <c r="E27" s="6" t="n">
         <v>21</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28">
@@ -1162,13 +1162,13 @@
         <v>65</v>
       </c>
       <c r="B28" s="5" t="n">
-        <v>23.91</v>
+        <v>23.97</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>25.45</v>
+        <v>25.44</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>25</v>
+        <v>25.22</v>
       </c>
       <c r="E28" s="6" t="n">
         <v>20</v>
@@ -1177,7 +1177,7 @@
         <v>19</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29">
@@ -1185,22 +1185,22 @@
         <v>66</v>
       </c>
       <c r="B29" s="5" t="n">
-        <v>23.95</v>
+        <v>23.99</v>
       </c>
       <c r="C29" s="5" t="n">
         <v>24.72</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>25.33</v>
+        <v>25.5</v>
       </c>
       <c r="E29" s="6" t="n">
         <v>19</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30">
@@ -1208,22 +1208,22 @@
         <v>67</v>
       </c>
       <c r="B30" s="5" t="n">
-        <v>24.05</v>
+        <v>24.03</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>24.93</v>
+        <v>25.98</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>25.66</v>
+        <v>25.88</v>
       </c>
       <c r="E30" s="6" t="n">
         <v>18</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31">
@@ -1231,13 +1231,13 @@
         <v>68</v>
       </c>
       <c r="B31" s="5" t="n">
-        <v>24.23</v>
+        <v>24.1</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>25.17</v>
+        <v>24.99</v>
       </c>
       <c r="D31" s="5" t="n">
-        <v>26.16</v>
+        <v>25.8</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>17</v>
@@ -1246,7 +1246,7 @@
         <v>22</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32">
@@ -1254,22 +1254,22 @@
         <v>69</v>
       </c>
       <c r="B32" s="5" t="n">
-        <v>24.24</v>
+        <v>24.17</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>25.75</v>
+        <v>25.77</v>
       </c>
       <c r="D32" s="5" t="n">
-        <v>25.58</v>
+        <v>25.66</v>
       </c>
       <c r="E32" s="6" t="n">
         <v>16</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33">
@@ -1277,22 +1277,22 @@
         <v>70</v>
       </c>
       <c r="B33" s="5" t="n">
-        <v>24.36</v>
+        <v>24.37</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>25.76</v>
+        <v>25.39</v>
       </c>
       <c r="D33" s="5" t="n">
-        <v>25.85</v>
+        <v>25.86</v>
       </c>
       <c r="E33" s="6" t="n">
         <v>15</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34">
@@ -1300,22 +1300,22 @@
         <v>71</v>
       </c>
       <c r="B34" s="5" t="n">
-        <v>24.36</v>
+        <v>24.38</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>25.91</v>
+        <v>25.8</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>26.01</v>
+        <v>25.93</v>
       </c>
       <c r="E34" s="6" t="n">
         <v>14</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35">
@@ -1323,22 +1323,22 @@
         <v>72</v>
       </c>
       <c r="B35" s="5" t="n">
-        <v>24.41</v>
+        <v>24.39</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>25.38</v>
+        <v>25.95</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>25.88</v>
+        <v>26.14</v>
       </c>
       <c r="E35" s="6" t="n">
         <v>13</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36">
@@ -1346,13 +1346,13 @@
         <v>73</v>
       </c>
       <c r="B36" s="5" t="n">
-        <v>24.48</v>
+        <v>24.54</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>25.71</v>
+        <v>25.78</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>26.19</v>
+        <v>26.27</v>
       </c>
       <c r="E36" s="6" t="n">
         <v>12</v>
@@ -1369,22 +1369,22 @@
         <v>74</v>
       </c>
       <c r="B37" s="5" t="n">
-        <v>24.55</v>
+        <v>24.56</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>25.76</v>
+        <v>25.72</v>
       </c>
       <c r="D37" s="5" t="n">
-        <v>25.61</v>
+        <v>26.22</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>11</v>
       </c>
       <c r="F37" s="6" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38">
@@ -1392,13 +1392,13 @@
         <v>75</v>
       </c>
       <c r="B38" s="5" t="n">
-        <v>24.57</v>
+        <v>24.62</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>26.96</v>
+        <v>27.16</v>
       </c>
       <c r="D38" s="5" t="n">
-        <v>25.83</v>
+        <v>25.95</v>
       </c>
       <c r="E38" s="6" t="n">
         <v>10</v>
@@ -1407,7 +1407,7 @@
         <v>1</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39">
@@ -1415,10 +1415,10 @@
         <v>76</v>
       </c>
       <c r="B39" s="5" t="n">
-        <v>24.6</v>
+        <v>24.78</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>25.61</v>
+        <v>25.79</v>
       </c>
       <c r="D39" s="5" t="n">
         <v>26.16</v>
@@ -1427,7 +1427,7 @@
         <v>9</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>10</v>
@@ -1438,13 +1438,13 @@
         <v>77</v>
       </c>
       <c r="B40" s="5" t="n">
-        <v>24.68</v>
+        <v>24.85</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>25.67</v>
+        <v>25.73</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>26.03</v>
+        <v>26.38</v>
       </c>
       <c r="E40" s="6" t="n">
         <v>8</v>
@@ -1453,7 +1453,7 @@
         <v>14</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41">
@@ -1461,22 +1461,22 @@
         <v>78</v>
       </c>
       <c r="B41" s="5" t="n">
-        <v>24.82</v>
+        <v>24.94</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>25.72</v>
+        <v>25.6</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>26.24</v>
+        <v>26.43</v>
       </c>
       <c r="E41" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F41" s="6" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42">
@@ -1484,22 +1484,22 @@
         <v>79</v>
       </c>
       <c r="B42" s="5" t="n">
-        <v>24.84</v>
+        <v>24.94</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>25.88</v>
+        <v>25.79</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>26.44</v>
+        <v>25.72</v>
       </c>
       <c r="E42" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F42" s="6" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43">
@@ -1507,19 +1507,19 @@
         <v>80</v>
       </c>
       <c r="B43" s="5" t="n">
-        <v>24.88</v>
+        <v>24.95</v>
       </c>
       <c r="C43" s="5" t="n">
-        <v>25.98</v>
+        <v>25.9</v>
       </c>
       <c r="D43" s="5" t="n">
-        <v>26.37</v>
+        <v>26.57</v>
       </c>
       <c r="E43" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F43" s="6" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>5</v>
@@ -1530,22 +1530,22 @@
         <v>81</v>
       </c>
       <c r="B44" s="5" t="n">
-        <v>24.96</v>
+        <v>25.06</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>25.7</v>
+        <v>26.17</v>
       </c>
       <c r="D44" s="5" t="n">
-        <v>26.34</v>
+        <v>26.6</v>
       </c>
       <c r="E44" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45">
@@ -1553,22 +1553,22 @@
         <v>82</v>
       </c>
       <c r="B45" s="5" t="n">
-        <v>25.09</v>
+        <v>25.08</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>26.3</v>
+        <v>26.12</v>
       </c>
       <c r="D45" s="5" t="n">
-        <v>26.5</v>
+        <v>26.81</v>
       </c>
       <c r="E45" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -1576,22 +1576,22 @@
         <v>83</v>
       </c>
       <c r="B46" s="5" t="n">
-        <v>25.13</v>
+        <v>25.17</v>
       </c>
       <c r="C46" s="5" t="n">
-        <v>26.12</v>
+        <v>26.36</v>
       </c>
       <c r="D46" s="5" t="n">
-        <v>26.83</v>
+        <v>26.61</v>
       </c>
       <c r="E46" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F46" s="6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G46" s="6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47">
@@ -1599,13 +1599,13 @@
         <v>84</v>
       </c>
       <c r="B47" s="5" t="n">
-        <v>25.46</v>
+        <v>25.4</v>
       </c>
       <c r="C47" s="5" t="n">
-        <v>26.74</v>
+        <v>26.78</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>26.77</v>
+        <v>26.91</v>
       </c>
       <c r="E47" s="6" t="n">
         <v>1</v>
@@ -1614,7 +1614,7 @@
         <v>2</v>
       </c>
       <c r="G47" s="6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/TabuladosGasolina.xlsx
+++ b/TabuladosGasolina.xlsx
@@ -164,13 +164,13 @@
     <t xml:space="preserve">CRE, pesos por litro</t>
   </si>
   <si>
-    <t xml:space="preserve">diciembre 2024</t>
+    <t xml:space="preserve">enero 2025</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima actualización: febrero 2025</t>
+    <t xml:space="preserve">Próxima actualización: marzo 2025</t>
   </si>
   <si>
     <t xml:space="preserve">FUENTE: CRE; Comisión Reguladora de Energía</t>
@@ -185,10 +185,19 @@
     <t xml:space="preserve">Tabasco</t>
   </si>
   <si>
+    <t xml:space="preserve">Baja California</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tlaxcala</t>
   </si>
   <si>
-    <t xml:space="preserve">Baja California</t>
+    <t xml:space="preserve">Sonora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Querétaro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puebla</t>
   </si>
   <si>
     <t xml:space="preserve">México</t>
@@ -197,82 +206,73 @@
     <t xml:space="preserve">Veracruz</t>
   </si>
   <si>
-    <t xml:space="preserve">Querétaro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puebla</t>
+    <t xml:space="preserve">Hidalgo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiapas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morelos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ciudad de México</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coahuila</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guanajuato</t>
   </si>
   <si>
     <t xml:space="preserve">Yucatán</t>
   </si>
   <si>
-    <t xml:space="preserve">Hidalgo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sonora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nacional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ciudad de México</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morelos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coahuila</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chiapas</t>
+    <t xml:space="preserve">Aguascalientes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campeche</t>
   </si>
   <si>
     <t xml:space="preserve">Jalisco</t>
   </si>
   <si>
+    <t xml:space="preserve">Nuevo León</t>
+  </si>
+  <si>
     <t xml:space="preserve">San Luis Potosí</t>
   </si>
   <si>
-    <t xml:space="preserve">Aguascalientes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guanajuato</t>
-  </si>
-  <si>
     <t xml:space="preserve">Colima</t>
   </si>
   <si>
-    <t xml:space="preserve">Campeche</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nuevo León</t>
-  </si>
-  <si>
     <t xml:space="preserve">Zacatecas</t>
   </si>
   <si>
+    <t xml:space="preserve">Sinaloa</t>
+  </si>
+  <si>
     <t xml:space="preserve">Michoacán</t>
   </si>
   <si>
+    <t xml:space="preserve">Oaxaca</t>
+  </si>
+  <si>
     <t xml:space="preserve">Guerrero</t>
   </si>
   <si>
-    <t xml:space="preserve">Sinaloa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oaxaca</t>
-  </si>
-  <si>
     <t xml:space="preserve">Durango</t>
   </si>
   <si>
+    <t xml:space="preserve">Baja California Sur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nayarit</t>
+  </si>
+  <si>
     <t xml:space="preserve">Quintana Roo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nayarit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baja California Sur</t>
   </si>
 </sst>
 </file>
@@ -863,13 +863,13 @@
         <v>52</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>21.43</v>
+        <v>21.96</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>23.13</v>
+        <v>23.72</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>25.04</v>
+        <v>25.45</v>
       </c>
       <c r="E15" s="6" t="n">
         <v>33</v>
@@ -886,13 +886,13 @@
         <v>53</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>21.97</v>
+        <v>22.42</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>24.08</v>
+        <v>24.33</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>24.81</v>
+        <v>25.73</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>32</v>
@@ -901,7 +901,7 @@
         <v>32</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
@@ -909,22 +909,22 @@
         <v>54</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>23.42</v>
+        <v>23.72</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>24.6</v>
+        <v>24.81</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>25.05</v>
+        <v>25.37</v>
       </c>
       <c r="E17" s="6" t="n">
         <v>31</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18">
@@ -932,22 +932,22 @@
         <v>55</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>23.57</v>
+        <v>23.85</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>24.38</v>
+        <v>25.48</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>24.96</v>
+        <v>27.11</v>
       </c>
       <c r="E18" s="6" t="n">
         <v>30</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -955,22 +955,22 @@
         <v>56</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>23.59</v>
+        <v>23.88</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>25.47</v>
+        <v>24.86</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>25.22</v>
+        <v>25.9</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>29</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20">
@@ -978,19 +978,19 @@
         <v>57</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>23.63</v>
+        <v>23.89</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>24.89</v>
+        <v>25.78</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>25.04</v>
+        <v>25.4</v>
       </c>
       <c r="E20" s="6" t="n">
         <v>28</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>31</v>
@@ -1001,22 +1001,22 @@
         <v>58</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>23.64</v>
+        <v>23.96</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>24.47</v>
+        <v>25.12</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>25.39</v>
+        <v>27.29</v>
       </c>
       <c r="E21" s="6" t="n">
         <v>27</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1024,22 +1024,22 @@
         <v>59</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>23.66</v>
+        <v>24</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>24.65</v>
+        <v>24.92</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>25.24</v>
+        <v>25.66</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>26</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23">
@@ -1047,22 +1047,22 @@
         <v>60</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>23.69</v>
+        <v>24.09</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>24.44</v>
+        <v>25.34</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>25.13</v>
+        <v>26.92</v>
       </c>
       <c r="E23" s="6" t="n">
         <v>25</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -1070,22 +1070,22 @@
         <v>61</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>23.75</v>
+        <v>24.1</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>24.6</v>
+        <v>24.96</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>25.53</v>
+        <v>26.68</v>
       </c>
       <c r="E24" s="6" t="n">
         <v>24</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -1093,22 +1093,22 @@
         <v>62</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>23.78</v>
+        <v>24.16</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>24.53</v>
+        <v>24.97</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>25.35</v>
+        <v>26.15</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>23</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26">
@@ -1116,22 +1116,22 @@
         <v>63</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>23.9</v>
+        <v>24.28</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>25.7</v>
+        <v>25.64</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>26.13</v>
+        <v>26.29</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>22</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27">
@@ -1139,22 +1139,22 @@
         <v>64</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>23.97</v>
+        <v>24.28</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>25.4</v>
+        <v>25.16</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>25.69</v>
+        <v>25.52</v>
       </c>
       <c r="E27" s="6" t="n">
         <v>21</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28">
@@ -1162,22 +1162,22 @@
         <v>65</v>
       </c>
       <c r="B28" s="5" t="n">
-        <v>23.97</v>
+        <v>24.31</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>25.44</v>
+        <v>25.12</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>25.22</v>
+        <v>25.55</v>
       </c>
       <c r="E28" s="6" t="n">
         <v>20</v>
       </c>
       <c r="F28" s="6" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29">
@@ -1185,22 +1185,22 @@
         <v>66</v>
       </c>
       <c r="B29" s="5" t="n">
-        <v>23.99</v>
+        <v>24.37</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>24.72</v>
+        <v>25.96</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>25.5</v>
+        <v>26.17</v>
       </c>
       <c r="E29" s="6" t="n">
         <v>19</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30">
@@ -1208,22 +1208,22 @@
         <v>67</v>
       </c>
       <c r="B30" s="5" t="n">
-        <v>24.03</v>
+        <v>24.4</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>25.98</v>
+        <v>26.26</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>25.88</v>
+        <v>26.5</v>
       </c>
       <c r="E30" s="6" t="n">
         <v>18</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31">
@@ -1231,22 +1231,22 @@
         <v>68</v>
       </c>
       <c r="B31" s="5" t="n">
-        <v>24.1</v>
+        <v>24.64</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>24.99</v>
+        <v>26.07</v>
       </c>
       <c r="D31" s="5" t="n">
-        <v>25.8</v>
+        <v>26.75</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>17</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
@@ -1254,22 +1254,22 @@
         <v>69</v>
       </c>
       <c r="B32" s="5" t="n">
-        <v>24.17</v>
+        <v>24.64</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>25.77</v>
+        <v>25.53</v>
       </c>
       <c r="D32" s="5" t="n">
-        <v>25.66</v>
+        <v>26.48</v>
       </c>
       <c r="E32" s="6" t="n">
         <v>16</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33">
@@ -1277,22 +1277,22 @@
         <v>70</v>
       </c>
       <c r="B33" s="5" t="n">
-        <v>24.37</v>
+        <v>24.67</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>25.39</v>
+        <v>26</v>
       </c>
       <c r="D33" s="5" t="n">
-        <v>25.86</v>
+        <v>25.4</v>
       </c>
       <c r="E33" s="6" t="n">
         <v>15</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34">
@@ -1300,22 +1300,22 @@
         <v>71</v>
       </c>
       <c r="B34" s="5" t="n">
-        <v>24.38</v>
+        <v>24.67</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>25.8</v>
+        <v>25.77</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>25.93</v>
+        <v>26.05</v>
       </c>
       <c r="E34" s="6" t="n">
         <v>14</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35">
@@ -1323,22 +1323,22 @@
         <v>72</v>
       </c>
       <c r="B35" s="5" t="n">
-        <v>24.39</v>
+        <v>24.69</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>25.95</v>
+        <v>26.29</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>26.14</v>
+        <v>26.75</v>
       </c>
       <c r="E35" s="6" t="n">
         <v>13</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36">
@@ -1346,22 +1346,22 @@
         <v>73</v>
       </c>
       <c r="B36" s="5" t="n">
-        <v>24.54</v>
+        <v>24.71</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>25.78</v>
+        <v>27.22</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>26.27</v>
+        <v>26.8</v>
       </c>
       <c r="E36" s="6" t="n">
         <v>12</v>
       </c>
       <c r="F36" s="6" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37">
@@ -1369,22 +1369,22 @@
         <v>74</v>
       </c>
       <c r="B37" s="5" t="n">
-        <v>24.56</v>
+        <v>24.72</v>
       </c>
       <c r="C37" s="5" t="n">
         <v>25.72</v>
       </c>
       <c r="D37" s="5" t="n">
-        <v>26.22</v>
+        <v>26.25</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>11</v>
       </c>
       <c r="F37" s="6" t="n">
+        <v>19</v>
+      </c>
+      <c r="G37" s="6" t="n">
         <v>15</v>
-      </c>
-      <c r="G37" s="6" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="38">
@@ -1392,22 +1392,22 @@
         <v>75</v>
       </c>
       <c r="B38" s="5" t="n">
-        <v>24.62</v>
+        <v>24.8</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>27.16</v>
+        <v>25.95</v>
       </c>
       <c r="D38" s="5" t="n">
-        <v>25.95</v>
+        <v>26.95</v>
       </c>
       <c r="E38" s="6" t="n">
         <v>10</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
@@ -1415,22 +1415,22 @@
         <v>76</v>
       </c>
       <c r="B39" s="5" t="n">
-        <v>24.78</v>
+        <v>25.04</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>25.79</v>
+        <v>25.98</v>
       </c>
       <c r="D39" s="5" t="n">
-        <v>26.16</v>
+        <v>26.07</v>
       </c>
       <c r="E39" s="6" t="n">
         <v>9</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40">
@@ -1438,22 +1438,22 @@
         <v>77</v>
       </c>
       <c r="B40" s="5" t="n">
-        <v>24.85</v>
+        <v>25.07</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>25.73</v>
+        <v>26.07</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>26.38</v>
+        <v>26.31</v>
       </c>
       <c r="E40" s="6" t="n">
         <v>8</v>
       </c>
       <c r="F40" s="6" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41">
@@ -1461,22 +1461,22 @@
         <v>78</v>
       </c>
       <c r="B41" s="5" t="n">
-        <v>24.94</v>
+        <v>25.11</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>25.6</v>
+        <v>25.98</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>26.43</v>
+        <v>25.83</v>
       </c>
       <c r="E41" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F41" s="6" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42">
@@ -1484,22 +1484,22 @@
         <v>79</v>
       </c>
       <c r="B42" s="5" t="n">
-        <v>24.94</v>
+        <v>25.12</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>25.79</v>
+        <v>26.1</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>25.72</v>
+        <v>25.61</v>
       </c>
       <c r="E42" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F42" s="6" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43">
@@ -1507,22 +1507,22 @@
         <v>80</v>
       </c>
       <c r="B43" s="5" t="n">
-        <v>24.95</v>
+        <v>25.22</v>
       </c>
       <c r="C43" s="5" t="n">
-        <v>25.9</v>
+        <v>26.06</v>
       </c>
       <c r="D43" s="5" t="n">
-        <v>26.57</v>
+        <v>25.79</v>
       </c>
       <c r="E43" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F43" s="6" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G43" s="6" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44">
@@ -1530,22 +1530,22 @@
         <v>81</v>
       </c>
       <c r="B44" s="5" t="n">
-        <v>25.06</v>
+        <v>25.34</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>26.17</v>
+        <v>26.48</v>
       </c>
       <c r="D44" s="5" t="n">
-        <v>26.6</v>
+        <v>26.39</v>
       </c>
       <c r="E44" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45">
@@ -1553,22 +1553,22 @@
         <v>82</v>
       </c>
       <c r="B45" s="5" t="n">
-        <v>25.08</v>
+        <v>25.43</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>26.12</v>
+        <v>26.78</v>
       </c>
       <c r="D45" s="5" t="n">
-        <v>26.81</v>
+        <v>26.39</v>
       </c>
       <c r="E45" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46">
@@ -1576,13 +1576,13 @@
         <v>83</v>
       </c>
       <c r="B46" s="5" t="n">
-        <v>25.17</v>
+        <v>25.54</v>
       </c>
       <c r="C46" s="5" t="n">
-        <v>26.36</v>
+        <v>26.71</v>
       </c>
       <c r="D46" s="5" t="n">
-        <v>26.61</v>
+        <v>26.14</v>
       </c>
       <c r="E46" s="6" t="n">
         <v>2</v>
@@ -1591,7 +1591,7 @@
         <v>3</v>
       </c>
       <c r="G46" s="6" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47">
@@ -1599,22 +1599,22 @@
         <v>84</v>
       </c>
       <c r="B47" s="5" t="n">
-        <v>25.4</v>
+        <v>25.55</v>
       </c>
       <c r="C47" s="5" t="n">
-        <v>26.78</v>
+        <v>26.56</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>26.91</v>
+        <v>26.2</v>
       </c>
       <c r="E47" s="6" t="n">
         <v>1</v>
       </c>
       <c r="F47" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G47" s="6" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/TabuladosGasolina.xlsx
+++ b/TabuladosGasolina.xlsx
@@ -164,7 +164,7 @@
     <t xml:space="preserve">CRE, pesos por litro</t>
   </si>
   <si>
-    <t xml:space="preserve">enero 2025</t>
+    <t xml:space="preserve">febrero 2025</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
@@ -182,37 +182,40 @@
     <t xml:space="preserve">Chihuahua</t>
   </si>
   <si>
+    <t xml:space="preserve">Tlaxcala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baja California</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tabasco</t>
   </si>
   <si>
-    <t xml:space="preserve">Baja California</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tlaxcala</t>
+    <t xml:space="preserve">Puebla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Querétaro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">México</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hidalgo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veracruz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiapas</t>
   </si>
   <si>
     <t xml:space="preserve">Sonora</t>
   </si>
   <si>
-    <t xml:space="preserve">Querétaro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puebla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">México</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Veracruz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hidalgo</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nacional</t>
   </si>
   <si>
-    <t xml:space="preserve">Chiapas</t>
+    <t xml:space="preserve">Coahuila</t>
   </si>
   <si>
     <t xml:space="preserve">Morelos</t>
@@ -221,49 +224,46 @@
     <t xml:space="preserve">Ciudad de México</t>
   </si>
   <si>
-    <t xml:space="preserve">Coahuila</t>
+    <t xml:space="preserve">Yucatán</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jalisco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Luis Potosí</t>
   </si>
   <si>
     <t xml:space="preserve">Guanajuato</t>
   </si>
   <si>
-    <t xml:space="preserve">Yucatán</t>
+    <t xml:space="preserve">Campeche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuevo León</t>
   </si>
   <si>
     <t xml:space="preserve">Aguascalientes</t>
   </si>
   <si>
-    <t xml:space="preserve">Campeche</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jalisco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nuevo León</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Luis Potosí</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colima</t>
+    <t xml:space="preserve">Sinaloa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michoacán</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durango</t>
   </si>
   <si>
     <t xml:space="preserve">Zacatecas</t>
   </si>
   <si>
-    <t xml:space="preserve">Sinaloa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michoacán</t>
-  </si>
-  <si>
     <t xml:space="preserve">Oaxaca</t>
   </si>
   <si>
     <t xml:space="preserve">Guerrero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Durango</t>
   </si>
   <si>
     <t xml:space="preserve">Baja California Sur</t>
@@ -866,10 +866,10 @@
         <v>21.96</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>23.72</v>
+        <v>23.82</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>25.45</v>
+        <v>25.49</v>
       </c>
       <c r="E15" s="6" t="n">
         <v>33</v>
@@ -878,7 +878,7 @@
         <v>33</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16">
@@ -886,13 +886,13 @@
         <v>53</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>22.42</v>
+        <v>22.39</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>24.33</v>
+        <v>24.01</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>25.73</v>
+        <v>25.6</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>32</v>
@@ -901,7 +901,7 @@
         <v>32</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
@@ -909,13 +909,13 @@
         <v>54</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>23.72</v>
+        <v>23.67</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>24.81</v>
+        <v>24.89</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>25.37</v>
+        <v>25.44</v>
       </c>
       <c r="E17" s="6" t="n">
         <v>31</v>
@@ -932,22 +932,22 @@
         <v>55</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>23.85</v>
+        <v>23.72</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>25.48</v>
+        <v>25.58</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>27.11</v>
+        <v>25.56</v>
       </c>
       <c r="E18" s="6" t="n">
         <v>30</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19">
@@ -955,13 +955,13 @@
         <v>56</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>23.88</v>
+        <v>23.75</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>24.86</v>
+        <v>24.91</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>25.9</v>
+        <v>25.56</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>29</v>
@@ -970,7 +970,7 @@
         <v>30</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
@@ -978,22 +978,22 @@
         <v>57</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>23.89</v>
+        <v>23.86</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>25.78</v>
+        <v>25.02</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>25.4</v>
+        <v>25.6</v>
       </c>
       <c r="E20" s="6" t="n">
         <v>28</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21">
@@ -1001,22 +1001,22 @@
         <v>58</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>23.96</v>
+        <v>23.92</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>25.12</v>
+        <v>25.33</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>27.29</v>
+        <v>25.76</v>
       </c>
       <c r="E21" s="6" t="n">
         <v>27</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22">
@@ -1024,22 +1024,22 @@
         <v>59</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>24</v>
+        <v>24.01</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>24.92</v>
+        <v>25.47</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>25.66</v>
+        <v>25.68</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>26</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23">
@@ -1047,22 +1047,22 @@
         <v>60</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>24.09</v>
+        <v>24.03</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>25.34</v>
+        <v>25.06</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>26.92</v>
+        <v>25.87</v>
       </c>
       <c r="E23" s="6" t="n">
         <v>25</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24">
@@ -1070,22 +1070,22 @@
         <v>61</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>24.1</v>
+        <v>24.05</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>24.96</v>
+        <v>24.99</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>26.68</v>
+        <v>25.95</v>
       </c>
       <c r="E24" s="6" t="n">
         <v>24</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25">
@@ -1093,22 +1093,22 @@
         <v>62</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>24.16</v>
+        <v>24.1</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>24.97</v>
+        <v>25.13</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>26.15</v>
+        <v>26.1</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>23</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26">
@@ -1116,22 +1116,22 @@
         <v>63</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>24.28</v>
+        <v>24.18</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>25.64</v>
+        <v>26.08</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>26.29</v>
+        <v>26.43</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>22</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27">
@@ -1139,22 +1139,22 @@
         <v>64</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>24.28</v>
+        <v>24.2</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>25.16</v>
+        <v>25.69</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>25.52</v>
+        <v>26.11</v>
       </c>
       <c r="E27" s="6" t="n">
         <v>21</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28">
@@ -1162,22 +1162,22 @@
         <v>65</v>
       </c>
       <c r="B28" s="5" t="n">
-        <v>24.31</v>
+        <v>24.22</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>25.12</v>
+        <v>26.28</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>25.55</v>
+        <v>26.41</v>
       </c>
       <c r="E28" s="6" t="n">
         <v>20</v>
       </c>
       <c r="F28" s="6" t="n">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29">
@@ -1185,22 +1185,22 @@
         <v>66</v>
       </c>
       <c r="B29" s="5" t="n">
-        <v>24.37</v>
+        <v>24.24</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>25.96</v>
+        <v>25.2</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>26.17</v>
+        <v>25.97</v>
       </c>
       <c r="E29" s="6" t="n">
         <v>19</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30">
@@ -1208,22 +1208,22 @@
         <v>67</v>
       </c>
       <c r="B30" s="5" t="n">
-        <v>24.4</v>
+        <v>24.25</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>26.26</v>
+        <v>25.99</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>26.5</v>
+        <v>25.82</v>
       </c>
       <c r="E30" s="6" t="n">
         <v>18</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31">
@@ -1231,22 +1231,22 @@
         <v>68</v>
       </c>
       <c r="B31" s="5" t="n">
-        <v>24.64</v>
+        <v>24.45</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>26.07</v>
+        <v>25.38</v>
       </c>
       <c r="D31" s="5" t="n">
-        <v>26.75</v>
+        <v>26.41</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>17</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32">
@@ -1254,22 +1254,22 @@
         <v>69</v>
       </c>
       <c r="B32" s="5" t="n">
-        <v>24.64</v>
+        <v>24.53</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>25.53</v>
+        <v>26.35</v>
       </c>
       <c r="D32" s="5" t="n">
-        <v>26.48</v>
+        <v>26.1</v>
       </c>
       <c r="E32" s="6" t="n">
         <v>16</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33">
@@ -1277,22 +1277,22 @@
         <v>70</v>
       </c>
       <c r="B33" s="5" t="n">
-        <v>24.67</v>
+        <v>24.6</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>26</v>
+        <v>25.69</v>
       </c>
       <c r="D33" s="5" t="n">
-        <v>25.4</v>
+        <v>26.14</v>
       </c>
       <c r="E33" s="6" t="n">
         <v>15</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34">
@@ -1300,22 +1300,22 @@
         <v>71</v>
       </c>
       <c r="B34" s="5" t="n">
-        <v>24.67</v>
+        <v>24.64</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>25.77</v>
+        <v>26.25</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>26.05</v>
+        <v>26.51</v>
       </c>
       <c r="E34" s="6" t="n">
         <v>14</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35">
@@ -1323,22 +1323,22 @@
         <v>72</v>
       </c>
       <c r="B35" s="5" t="n">
-        <v>24.69</v>
+        <v>24.65</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>26.29</v>
+        <v>25.79</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>26.75</v>
+        <v>26.36</v>
       </c>
       <c r="E35" s="6" t="n">
         <v>13</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36">
@@ -1346,22 +1346,22 @@
         <v>73</v>
       </c>
       <c r="B36" s="5" t="n">
-        <v>24.71</v>
+        <v>24.65</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>27.22</v>
+        <v>26.03</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>26.8</v>
+        <v>26.54</v>
       </c>
       <c r="E36" s="6" t="n">
         <v>12</v>
       </c>
       <c r="F36" s="6" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37">
@@ -1369,22 +1369,22 @@
         <v>74</v>
       </c>
       <c r="B37" s="5" t="n">
-        <v>24.72</v>
+        <v>24.65</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>25.72</v>
+        <v>27.26</v>
       </c>
       <c r="D37" s="5" t="n">
-        <v>26.25</v>
+        <v>26.09</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>11</v>
       </c>
       <c r="F37" s="6" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38">
@@ -1392,22 +1392,22 @@
         <v>75</v>
       </c>
       <c r="B38" s="5" t="n">
-        <v>24.8</v>
+        <v>24.68</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>25.95</v>
+        <v>26.12</v>
       </c>
       <c r="D38" s="5" t="n">
-        <v>26.95</v>
+        <v>26.42</v>
       </c>
       <c r="E38" s="6" t="n">
         <v>10</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39">
@@ -1415,22 +1415,22 @@
         <v>76</v>
       </c>
       <c r="B39" s="5" t="n">
-        <v>25.04</v>
+        <v>24.76</v>
       </c>
       <c r="C39" s="5" t="n">
+        <v>25.89</v>
+      </c>
+      <c r="D39" s="5" t="n">
         <v>25.98</v>
-      </c>
-      <c r="D39" s="5" t="n">
-        <v>26.07</v>
       </c>
       <c r="E39" s="6" t="n">
         <v>9</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40">
@@ -1438,22 +1438,22 @@
         <v>77</v>
       </c>
       <c r="B40" s="5" t="n">
-        <v>25.07</v>
+        <v>25.01</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>26.07</v>
+        <v>26.01</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>26.31</v>
+        <v>26.87</v>
       </c>
       <c r="E40" s="6" t="n">
         <v>8</v>
       </c>
       <c r="F40" s="6" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41">
@@ -1461,22 +1461,22 @@
         <v>78</v>
       </c>
       <c r="B41" s="5" t="n">
-        <v>25.11</v>
+        <v>25.03</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>25.98</v>
+        <v>26.51</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>25.83</v>
+        <v>26.95</v>
       </c>
       <c r="E41" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F41" s="6" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42">
@@ -1484,22 +1484,22 @@
         <v>79</v>
       </c>
       <c r="B42" s="5" t="n">
-        <v>25.12</v>
+        <v>25.05</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>26.1</v>
+        <v>26.01</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>25.61</v>
+        <v>26.65</v>
       </c>
       <c r="E42" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F42" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="G42" s="6" t="n">
         <v>8</v>
-      </c>
-      <c r="G42" s="6" t="n">
-        <v>27</v>
       </c>
     </row>
     <row r="43">
@@ -1507,22 +1507,22 @@
         <v>80</v>
       </c>
       <c r="B43" s="5" t="n">
-        <v>25.22</v>
+        <v>25.07</v>
       </c>
       <c r="C43" s="5" t="n">
-        <v>26.06</v>
+        <v>26.09</v>
       </c>
       <c r="D43" s="5" t="n">
-        <v>25.79</v>
+        <v>26.86</v>
       </c>
       <c r="E43" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F43" s="6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G43" s="6" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44">
@@ -1530,22 +1530,22 @@
         <v>81</v>
       </c>
       <c r="B44" s="5" t="n">
-        <v>25.34</v>
+        <v>25.16</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>26.48</v>
+        <v>26.07</v>
       </c>
       <c r="D44" s="5" t="n">
-        <v>26.39</v>
+        <v>26.81</v>
       </c>
       <c r="E44" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45">
@@ -1553,22 +1553,22 @@
         <v>82</v>
       </c>
       <c r="B45" s="5" t="n">
-        <v>25.43</v>
+        <v>25.31</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>26.78</v>
+        <v>26.68</v>
       </c>
       <c r="D45" s="5" t="n">
-        <v>26.39</v>
+        <v>27.05</v>
       </c>
       <c r="E45" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F45" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G45" s="6" t="n">
         <v>2</v>
-      </c>
-      <c r="G45" s="6" t="n">
-        <v>12</v>
       </c>
     </row>
     <row r="46">
@@ -1576,22 +1576,22 @@
         <v>83</v>
       </c>
       <c r="B46" s="5" t="n">
-        <v>25.54</v>
+        <v>25.37</v>
       </c>
       <c r="C46" s="5" t="n">
         <v>26.71</v>
       </c>
       <c r="D46" s="5" t="n">
-        <v>26.14</v>
+        <v>26.91</v>
       </c>
       <c r="E46" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F46" s="6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G46" s="6" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47">
@@ -1599,13 +1599,13 @@
         <v>84</v>
       </c>
       <c r="B47" s="5" t="n">
-        <v>25.55</v>
+        <v>25.58</v>
       </c>
       <c r="C47" s="5" t="n">
-        <v>26.56</v>
+        <v>26.62</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>26.2</v>
+        <v>27.42</v>
       </c>
       <c r="E47" s="6" t="n">
         <v>1</v>
@@ -1614,7 +1614,7 @@
         <v>4</v>
       </c>
       <c r="G47" s="6" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/TabuladosGasolina.xlsx
+++ b/TabuladosGasolina.xlsx
@@ -164,13 +164,13 @@
     <t xml:space="preserve">CRE, pesos por litro</t>
   </si>
   <si>
-    <t xml:space="preserve">febrero 2025</t>
+    <t xml:space="preserve">abril 2025</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima actualización: marzo 2025</t>
+    <t xml:space="preserve">Próxima actualización: junio 2025</t>
   </si>
   <si>
     <t xml:space="preserve">FUENTE: CRE; Comisión Reguladora de Energía</t>
@@ -182,79 +182,85 @@
     <t xml:space="preserve">Chihuahua</t>
   </si>
   <si>
+    <t xml:space="preserve">Sonora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baja California</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tlaxcala</t>
   </si>
   <si>
-    <t xml:space="preserve">Baja California</t>
+    <t xml:space="preserve">Coahuila</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Querétaro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puebla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hidalgo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">México</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiapas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veracruz</t>
   </si>
   <si>
     <t xml:space="preserve">Tabasco</t>
   </si>
   <si>
-    <t xml:space="preserve">Puebla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Querétaro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">México</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hidalgo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Veracruz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chiapas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sonora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nacional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coahuila</t>
+    <t xml:space="preserve">Ciudad de México</t>
   </si>
   <si>
     <t xml:space="preserve">Morelos</t>
   </si>
   <si>
-    <t xml:space="preserve">Ciudad de México</t>
+    <t xml:space="preserve">Guanajuato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sinaloa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuevo León</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guerrero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aguascalientes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jalisco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michoacán</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durango</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campeche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Luis Potosí</t>
   </si>
   <si>
     <t xml:space="preserve">Yucatán</t>
   </si>
   <si>
-    <t xml:space="preserve">Jalisco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Luis Potosí</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guanajuato</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Campeche</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colima</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nuevo León</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aguascalientes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sinaloa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michoacán</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Durango</t>
+    <t xml:space="preserve">Nayarit</t>
   </si>
   <si>
     <t xml:space="preserve">Zacatecas</t>
@@ -263,13 +269,7 @@
     <t xml:space="preserve">Oaxaca</t>
   </si>
   <si>
-    <t xml:space="preserve">Guerrero</t>
-  </si>
-  <si>
     <t xml:space="preserve">Baja California Sur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nayarit</t>
   </si>
   <si>
     <t xml:space="preserve">Quintana Roo</t>
@@ -863,13 +863,13 @@
         <v>52</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>21.96</v>
+        <v>21.83</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>23.82</v>
+        <v>23.78</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>25.49</v>
+        <v>25.26</v>
       </c>
       <c r="E15" s="6" t="n">
         <v>33</v>
@@ -878,7 +878,7 @@
         <v>33</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16">
@@ -886,13 +886,13 @@
         <v>53</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>22.39</v>
+        <v>22.42</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>24.01</v>
+        <v>24.17</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>25.6</v>
+        <v>25.52</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>32</v>
@@ -909,22 +909,22 @@
         <v>54</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>23.67</v>
+        <v>23.18</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>24.89</v>
+        <v>25.97</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>25.44</v>
+        <v>26.41</v>
       </c>
       <c r="E17" s="6" t="n">
         <v>31</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18">
@@ -932,19 +932,19 @@
         <v>55</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>23.72</v>
+        <v>23.22</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>25.58</v>
+        <v>25.49</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>25.56</v>
+        <v>25.43</v>
       </c>
       <c r="E18" s="6" t="n">
         <v>30</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>31</v>
@@ -955,22 +955,22 @@
         <v>56</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>23.75</v>
+        <v>23.52</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>24.91</v>
+        <v>24.88</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>25.56</v>
+        <v>25.39</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>29</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20">
@@ -978,22 +978,22 @@
         <v>57</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>23.86</v>
+        <v>23.61</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>25.02</v>
+        <v>26.29</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>25.6</v>
+        <v>26.51</v>
       </c>
       <c r="E20" s="6" t="n">
         <v>28</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -1001,13 +1001,13 @@
         <v>58</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>23.92</v>
+        <v>23.61</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>25.33</v>
+        <v>25.35</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>25.76</v>
+        <v>25.77</v>
       </c>
       <c r="E21" s="6" t="n">
         <v>27</v>
@@ -1016,7 +1016,7 @@
         <v>24</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22">
@@ -1024,22 +1024,22 @@
         <v>59</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>24.01</v>
+        <v>23.65</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>25.47</v>
+        <v>24.95</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>25.68</v>
+        <v>25.51</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>26</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23">
@@ -1047,22 +1047,22 @@
         <v>60</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>24.03</v>
+        <v>23.68</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>25.06</v>
+        <v>25.03</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>25.87</v>
+        <v>25.76</v>
       </c>
       <c r="E23" s="6" t="n">
         <v>25</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24">
@@ -1070,22 +1070,22 @@
         <v>61</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>24.05</v>
+        <v>23.71</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>24.99</v>
+        <v>25.51</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>25.95</v>
+        <v>25.71</v>
       </c>
       <c r="E24" s="6" t="n">
         <v>24</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25">
@@ -1093,19 +1093,19 @@
         <v>62</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>24.1</v>
+        <v>23.72</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>25.13</v>
+        <v>25.79</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>26.1</v>
+        <v>26.11</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>23</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>19</v>
@@ -1116,22 +1116,22 @@
         <v>63</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>24.18</v>
+        <v>23.76</v>
       </c>
       <c r="C26" s="5" t="n">
+        <v>25.19</v>
+      </c>
+      <c r="D26" s="5" t="n">
         <v>26.08</v>
-      </c>
-      <c r="D26" s="5" t="n">
-        <v>26.43</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>22</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27">
@@ -1139,22 +1139,22 @@
         <v>64</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>24.2</v>
+        <v>23.79</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>25.69</v>
+        <v>25.09</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>26.11</v>
+        <v>25.91</v>
       </c>
       <c r="E27" s="6" t="n">
         <v>21</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28">
@@ -1162,22 +1162,22 @@
         <v>65</v>
       </c>
       <c r="B28" s="5" t="n">
-        <v>24.22</v>
+        <v>23.8</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>26.28</v>
+        <v>24.98</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>26.41</v>
+        <v>25.71</v>
       </c>
       <c r="E28" s="6" t="n">
         <v>20</v>
       </c>
       <c r="F28" s="6" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29">
@@ -1185,22 +1185,22 @@
         <v>66</v>
       </c>
       <c r="B29" s="5" t="n">
-        <v>24.24</v>
+        <v>23.83</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>25.2</v>
+        <v>26.06</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>25.97</v>
+        <v>25.88</v>
       </c>
       <c r="E29" s="6" t="n">
         <v>19</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30">
@@ -1208,22 +1208,22 @@
         <v>67</v>
       </c>
       <c r="B30" s="5" t="n">
-        <v>24.25</v>
+        <v>23.83</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>25.99</v>
+        <v>25.2</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>25.82</v>
+        <v>25.95</v>
       </c>
       <c r="E30" s="6" t="n">
         <v>18</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31">
@@ -1231,19 +1231,19 @@
         <v>68</v>
       </c>
       <c r="B31" s="5" t="n">
-        <v>24.45</v>
+        <v>23.86</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>25.38</v>
+        <v>26.11</v>
       </c>
       <c r="D31" s="5" t="n">
-        <v>26.41</v>
+        <v>26.36</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>17</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>13</v>
@@ -1254,22 +1254,22 @@
         <v>69</v>
       </c>
       <c r="B32" s="5" t="n">
-        <v>24.53</v>
+        <v>23.87</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>26.35</v>
+        <v>26.15</v>
       </c>
       <c r="D32" s="5" t="n">
-        <v>26.1</v>
+        <v>26.26</v>
       </c>
       <c r="E32" s="6" t="n">
         <v>16</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33">
@@ -1277,22 +1277,22 @@
         <v>70</v>
       </c>
       <c r="B33" s="5" t="n">
-        <v>24.6</v>
+        <v>23.9</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>25.69</v>
+        <v>25.86</v>
       </c>
       <c r="D33" s="5" t="n">
-        <v>26.14</v>
+        <v>26.43</v>
       </c>
       <c r="E33" s="6" t="n">
         <v>15</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34">
@@ -1300,22 +1300,22 @@
         <v>71</v>
       </c>
       <c r="B34" s="5" t="n">
-        <v>24.64</v>
+        <v>23.91</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>26.25</v>
+        <v>27.32</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>26.51</v>
+        <v>26.17</v>
       </c>
       <c r="E34" s="6" t="n">
         <v>14</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35">
@@ -1323,22 +1323,22 @@
         <v>72</v>
       </c>
       <c r="B35" s="5" t="n">
-        <v>24.65</v>
+        <v>23.92</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>25.79</v>
+        <v>25.8</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>26.36</v>
+        <v>26.57</v>
       </c>
       <c r="E35" s="6" t="n">
         <v>13</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36">
@@ -1346,22 +1346,22 @@
         <v>73</v>
       </c>
       <c r="B36" s="5" t="n">
-        <v>24.65</v>
+        <v>23.93</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>26.03</v>
+        <v>26.06</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>26.54</v>
+        <v>26.3</v>
       </c>
       <c r="E36" s="6" t="n">
         <v>12</v>
       </c>
       <c r="F36" s="6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37">
@@ -1369,22 +1369,22 @@
         <v>74</v>
       </c>
       <c r="B37" s="5" t="n">
-        <v>24.65</v>
+        <v>23.93</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>27.26</v>
+        <v>26.25</v>
       </c>
       <c r="D37" s="5" t="n">
-        <v>26.09</v>
+        <v>26.04</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>11</v>
       </c>
       <c r="F37" s="6" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38">
@@ -1392,22 +1392,22 @@
         <v>75</v>
       </c>
       <c r="B38" s="5" t="n">
-        <v>24.68</v>
+        <v>23.93</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>26.12</v>
+        <v>25.88</v>
       </c>
       <c r="D38" s="5" t="n">
-        <v>26.42</v>
+        <v>26.66</v>
       </c>
       <c r="E38" s="6" t="n">
         <v>10</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39">
@@ -1415,22 +1415,22 @@
         <v>76</v>
       </c>
       <c r="B39" s="5" t="n">
-        <v>24.76</v>
+        <v>23.95</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>25.89</v>
+        <v>26.41</v>
       </c>
       <c r="D39" s="5" t="n">
-        <v>25.98</v>
+        <v>26.9</v>
       </c>
       <c r="E39" s="6" t="n">
         <v>9</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -1438,22 +1438,22 @@
         <v>77</v>
       </c>
       <c r="B40" s="5" t="n">
-        <v>25.01</v>
+        <v>23.98</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>26.01</v>
+        <v>25.76</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>26.87</v>
+        <v>26.33</v>
       </c>
       <c r="E40" s="6" t="n">
         <v>8</v>
       </c>
       <c r="F40" s="6" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41">
@@ -1461,22 +1461,22 @@
         <v>78</v>
       </c>
       <c r="B41" s="5" t="n">
-        <v>25.03</v>
+        <v>23.98</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>26.51</v>
+        <v>25.7</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>26.95</v>
+        <v>26.13</v>
       </c>
       <c r="E41" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F41" s="6" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42">
@@ -1484,22 +1484,22 @@
         <v>79</v>
       </c>
       <c r="B42" s="5" t="n">
-        <v>25.05</v>
+        <v>23.98</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>26.01</v>
+        <v>25.52</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>26.65</v>
+        <v>26.69</v>
       </c>
       <c r="E42" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F42" s="6" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43">
@@ -1507,22 +1507,22 @@
         <v>80</v>
       </c>
       <c r="B43" s="5" t="n">
-        <v>25.07</v>
+        <v>24.02</v>
       </c>
       <c r="C43" s="5" t="n">
-        <v>26.09</v>
+        <v>26.43</v>
       </c>
       <c r="D43" s="5" t="n">
-        <v>26.86</v>
+        <v>26.72</v>
       </c>
       <c r="E43" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F43" s="6" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G43" s="6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44">
@@ -1530,22 +1530,22 @@
         <v>81</v>
       </c>
       <c r="B44" s="5" t="n">
-        <v>25.16</v>
+        <v>24.02</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>26.07</v>
+        <v>26</v>
       </c>
       <c r="D44" s="5" t="n">
-        <v>26.81</v>
+        <v>26.38</v>
       </c>
       <c r="E44" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F44" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="G44" s="6" t="n">
         <v>12</v>
-      </c>
-      <c r="G44" s="6" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="45">
@@ -1553,22 +1553,22 @@
         <v>82</v>
       </c>
       <c r="B45" s="5" t="n">
-        <v>25.31</v>
+        <v>24.06</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>26.68</v>
+        <v>26.06</v>
       </c>
       <c r="D45" s="5" t="n">
-        <v>27.05</v>
+        <v>26.88</v>
       </c>
       <c r="E45" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
@@ -1576,13 +1576,13 @@
         <v>83</v>
       </c>
       <c r="B46" s="5" t="n">
-        <v>25.37</v>
+        <v>24.29</v>
       </c>
       <c r="C46" s="5" t="n">
-        <v>26.71</v>
+        <v>26.77</v>
       </c>
       <c r="D46" s="5" t="n">
-        <v>26.91</v>
+        <v>27.01</v>
       </c>
       <c r="E46" s="6" t="n">
         <v>2</v>
@@ -1591,7 +1591,7 @@
         <v>2</v>
       </c>
       <c r="G46" s="6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
@@ -1599,19 +1599,19 @@
         <v>84</v>
       </c>
       <c r="B47" s="5" t="n">
-        <v>25.58</v>
+        <v>24.57</v>
       </c>
       <c r="C47" s="5" t="n">
-        <v>26.62</v>
+        <v>26.64</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>27.42</v>
+        <v>27.51</v>
       </c>
       <c r="E47" s="6" t="n">
         <v>1</v>
       </c>
       <c r="F47" s="6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>1</v>
